--- a/Faculty Time Table-CSE,IT.xlsx
+++ b/Faculty Time Table-CSE,IT.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="234">
   <si>
     <t xml:space="preserve">Aurora's Technological &amp; Research Institute</t>
   </si>
@@ -171,9 +171,6 @@
     <t xml:space="preserve">ECSE-1E</t>
   </si>
   <si>
-    <t xml:space="preserve">C++ LAB-IT-2(B1)</t>
-  </si>
-  <si>
     <t xml:space="preserve">PPS LAB-1D (B2)</t>
   </si>
   <si>
@@ -255,9 +252,6 @@
     <t xml:space="preserve">Mr. Mahesh </t>
   </si>
   <si>
-    <t xml:space="preserve">DS LAB-IT-2  (B1)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Dr. Masood Ahmed</t>
   </si>
   <si>
@@ -408,7 +402,7 @@
     <t xml:space="preserve">Ms. Vineela</t>
   </si>
   <si>
-    <t xml:space="preserve">C++ LAB - IT-2 (B1)</t>
+    <t xml:space="preserve">C++ LAB-IT-2 (B1)</t>
   </si>
   <si>
     <t xml:space="preserve">OOPC-IT-2</t>
@@ -1215,8 +1209,8 @@
   </sheetPr>
   <dimension ref="A1:U1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A98" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H156" activeCellId="2" sqref="B95 G90 H156"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A63" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A160" activeCellId="0" sqref="A160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2484,9 +2478,7 @@
       <c r="A64" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B64" s="17" t="s">
-        <v>48</v>
-      </c>
+      <c r="B64" s="17"/>
       <c r="C64" s="17"/>
       <c r="D64" s="17"/>
       <c r="F64" s="19"/>
@@ -2513,14 +2505,14 @@
         <v>20</v>
       </c>
       <c r="B65" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C65" s="17"/>
       <c r="D65" s="17"/>
       <c r="E65" s="18"/>
       <c r="F65" s="19"/>
       <c r="G65" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H65" s="17"/>
       <c r="I65" s="18"/>
@@ -2551,7 +2543,7 @@
       <c r="F66" s="19"/>
       <c r="G66" s="21"/>
       <c r="H66" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I66" s="17"/>
       <c r="J66" s="18"/>
@@ -2573,7 +2565,7 @@
       </c>
       <c r="B67" s="17"/>
       <c r="C67" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D67" s="17"/>
       <c r="E67" s="17"/>
@@ -2648,7 +2640,7 @@
     </row>
     <row r="70" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B70" s="13"/>
       <c r="C70" s="13"/>
@@ -2720,7 +2712,7 @@
       </c>
       <c r="B72" s="17"/>
       <c r="C72" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E72" s="18"/>
       <c r="F72" s="19" t="s">
@@ -2728,7 +2720,7 @@
       </c>
       <c r="G72" s="17"/>
       <c r="H72" s="29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I72" s="29"/>
       <c r="J72" s="29"/>
@@ -2749,14 +2741,14 @@
         <v>19</v>
       </c>
       <c r="B73" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C73" s="22"/>
       <c r="D73" s="17"/>
       <c r="E73" s="17"/>
       <c r="F73" s="19"/>
       <c r="H73" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I73" s="17"/>
       <c r="J73" s="17"/>
@@ -2778,7 +2770,7 @@
       </c>
       <c r="C74" s="22"/>
       <c r="E74" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F74" s="19"/>
       <c r="G74" s="21"/>
@@ -2802,7 +2794,7 @@
         <v>21</v>
       </c>
       <c r="B75" s="17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C75" s="17"/>
       <c r="D75" s="17"/>
@@ -2829,12 +2821,12 @@
         <v>22</v>
       </c>
       <c r="B76" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C76" s="17"/>
       <c r="D76" s="18"/>
       <c r="E76" s="29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F76" s="19"/>
       <c r="H76" s="17"/>
@@ -2892,7 +2884,7 @@
     </row>
     <row r="79" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B79" s="13"/>
       <c r="C79" s="13"/>
@@ -2950,11 +2942,11 @@
         <v>17</v>
       </c>
       <c r="G81" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H81" s="17"/>
       <c r="I81" s="17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J81" s="17"/>
       <c r="K81" s="10"/>
@@ -2964,14 +2956,14 @@
         <v>19</v>
       </c>
       <c r="B82" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C82" s="17"/>
       <c r="D82" s="17"/>
       <c r="F82" s="19"/>
       <c r="G82" s="22"/>
       <c r="H82" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I82" s="17"/>
       <c r="J82" s="17"/>
@@ -2982,13 +2974,13 @@
         <v>20</v>
       </c>
       <c r="B83" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C83" s="17"/>
       <c r="E83" s="17"/>
       <c r="F83" s="19"/>
       <c r="G83" s="29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H83" s="29"/>
       <c r="I83" s="17"/>
@@ -3007,7 +2999,7 @@
       <c r="G84" s="17"/>
       <c r="H84" s="18"/>
       <c r="I84" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J84" s="17"/>
       <c r="K84" s="10"/>
@@ -3017,7 +3009,7 @@
         <v>22</v>
       </c>
       <c r="B85" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C85" s="17" t="s">
         <v>18</v>
@@ -3026,7 +3018,7 @@
       <c r="E85" s="17"/>
       <c r="F85" s="19"/>
       <c r="G85" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H85" s="17"/>
       <c r="J85" s="18"/>
@@ -3062,7 +3054,7 @@
     </row>
     <row r="88" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B88" s="13"/>
       <c r="C88" s="13"/>
@@ -3133,7 +3125,7 @@
         <v>15</v>
       </c>
       <c r="B90" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C90" s="17"/>
       <c r="D90" s="17"/>
@@ -3142,7 +3134,7 @@
         <v>17</v>
       </c>
       <c r="G90" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H90" s="17"/>
       <c r="I90" s="17"/>
@@ -3165,17 +3157,17 @@
       </c>
       <c r="B91" s="17"/>
       <c r="C91" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D91" s="17"/>
       <c r="E91" s="17"/>
       <c r="F91" s="19"/>
       <c r="G91" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H91" s="17"/>
       <c r="I91" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J91" s="17"/>
       <c r="K91" s="10"/>
@@ -3195,7 +3187,7 @@
         <v>20</v>
       </c>
       <c r="B92" s="17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C92" s="17"/>
       <c r="D92" s="17"/>
@@ -3203,7 +3195,7 @@
       <c r="F92" s="19"/>
       <c r="G92" s="17"/>
       <c r="H92" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I92" s="17"/>
       <c r="J92" s="17"/>
@@ -3224,14 +3216,14 @@
         <v>21</v>
       </c>
       <c r="B93" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C93" s="17"/>
       <c r="D93" s="17"/>
       <c r="E93" s="17"/>
       <c r="F93" s="19"/>
       <c r="G93" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H93" s="17"/>
       <c r="I93" s="17"/>
@@ -3254,16 +3246,16 @@
       </c>
       <c r="B94" s="17"/>
       <c r="C94" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D94" s="17"/>
       <c r="E94" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F94" s="19"/>
       <c r="G94" s="17"/>
       <c r="H94" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I94" s="17"/>
       <c r="J94" s="17"/>
@@ -3284,7 +3276,7 @@
         <v>23</v>
       </c>
       <c r="B95" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C95" s="17"/>
       <c r="D95" s="17"/>
@@ -3331,7 +3323,7 @@
     </row>
     <row r="97" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B97" s="13"/>
       <c r="C97" s="13"/>
@@ -3401,9 +3393,7 @@
         <v>15</v>
       </c>
       <c r="B99" s="17"/>
-      <c r="C99" s="17" t="s">
-        <v>76</v>
-      </c>
+      <c r="C99" s="17"/>
       <c r="D99" s="17"/>
       <c r="E99" s="17"/>
       <c r="F99" s="19" t="s">
@@ -3568,7 +3558,7 @@
     </row>
     <row r="106" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B106" s="13"/>
       <c r="C106" s="13"/>
@@ -3637,7 +3627,7 @@
         <v>15</v>
       </c>
       <c r="B108" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C108" s="32"/>
       <c r="D108" s="32"/>
@@ -3665,7 +3655,7 @@
         <v>19</v>
       </c>
       <c r="B109" s="32" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C109" s="32"/>
       <c r="D109" s="32"/>
@@ -3796,7 +3786,7 @@
     </row>
     <row r="115" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B115" s="13"/>
       <c r="C115" s="13"/>
@@ -3845,7 +3835,7 @@
         <v>15</v>
       </c>
       <c r="B117" s="17" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C117" s="17"/>
       <c r="D117" s="17"/>
@@ -3855,7 +3845,7 @@
       </c>
       <c r="G117" s="17"/>
       <c r="H117" s="17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I117" s="17"/>
       <c r="J117" s="17"/>
@@ -3866,17 +3856,17 @@
       </c>
       <c r="B118" s="17"/>
       <c r="C118" s="17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D118" s="17"/>
       <c r="E118" s="17"/>
       <c r="F118" s="19"/>
       <c r="G118" s="17" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H118" s="17"/>
       <c r="I118" s="17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J118" s="17"/>
     </row>
@@ -3885,17 +3875,17 @@
         <v>20</v>
       </c>
       <c r="B119" s="17" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C119" s="17"/>
       <c r="D119" s="17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E119" s="17"/>
       <c r="F119" s="19"/>
       <c r="G119" s="17"/>
       <c r="H119" s="17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I119" s="17"/>
       <c r="J119" s="17"/>
@@ -3905,13 +3895,13 @@
         <v>21</v>
       </c>
       <c r="B120" s="17" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C120" s="17"/>
       <c r="D120" s="17"/>
       <c r="F120" s="19"/>
       <c r="G120" s="17" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H120" s="17"/>
       <c r="I120" s="17"/>
@@ -3922,17 +3912,17 @@
         <v>22</v>
       </c>
       <c r="B121" s="17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C121" s="17"/>
       <c r="D121" s="17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E121" s="17"/>
       <c r="F121" s="19"/>
       <c r="G121" s="17"/>
       <c r="H121" s="17" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I121" s="17"/>
       <c r="J121" s="17"/>
@@ -3942,7 +3932,7 @@
         <v>23</v>
       </c>
       <c r="B122" s="17" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C122" s="17"/>
       <c r="D122" s="17"/>
@@ -3967,7 +3957,7 @@
     </row>
     <row r="124" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B124" s="13"/>
       <c r="C124" s="13"/>
@@ -4016,18 +4006,18 @@
         <v>15</v>
       </c>
       <c r="B126" s="17" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C126" s="17"/>
       <c r="D126" s="17" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E126" s="17"/>
       <c r="F126" s="19" t="s">
         <v>17</v>
       </c>
       <c r="G126" s="17" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H126" s="17"/>
       <c r="I126" s="17"/>
@@ -4038,7 +4028,7 @@
         <v>19</v>
       </c>
       <c r="B127" s="17" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C127" s="17"/>
       <c r="D127" s="17"/>
@@ -4046,7 +4036,7 @@
       <c r="F127" s="19"/>
       <c r="G127" s="17"/>
       <c r="H127" s="17" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I127" s="17"/>
       <c r="J127" s="17"/>
@@ -4057,7 +4047,7 @@
       </c>
       <c r="B128" s="17"/>
       <c r="C128" s="17" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D128" s="17"/>
       <c r="E128" s="17"/>
@@ -4073,13 +4063,13 @@
       </c>
       <c r="B129" s="17"/>
       <c r="C129" s="17" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D129" s="17"/>
       <c r="E129" s="17"/>
       <c r="F129" s="19"/>
       <c r="G129" s="17" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H129" s="17"/>
       <c r="I129" s="17"/>
@@ -4090,7 +4080,7 @@
         <v>22</v>
       </c>
       <c r="B130" s="17" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C130" s="17"/>
       <c r="D130" s="17"/>
@@ -4108,7 +4098,7 @@
       <c r="B131" s="17"/>
       <c r="C131" s="17"/>
       <c r="D131" s="17" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E131" s="17"/>
       <c r="F131" s="19"/>
@@ -4131,7 +4121,7 @@
     </row>
     <row r="133" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A133" s="12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B133" s="13"/>
       <c r="C133" s="13"/>
@@ -4201,7 +4191,7 @@
       </c>
       <c r="B135" s="17"/>
       <c r="D135" s="34" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F135" s="19" t="s">
         <v>17</v>
@@ -4230,7 +4220,7 @@
       <c r="E136" s="24"/>
       <c r="F136" s="19"/>
       <c r="G136" s="29" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H136" s="17"/>
       <c r="I136" s="17"/>
@@ -4251,14 +4241,14 @@
         <v>20</v>
       </c>
       <c r="B137" s="17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C137" s="17"/>
       <c r="D137" s="17"/>
       <c r="E137" s="17"/>
       <c r="F137" s="19"/>
       <c r="G137" s="24" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H137" s="22"/>
       <c r="I137" s="17"/>
@@ -4279,7 +4269,7 @@
         <v>21</v>
       </c>
       <c r="B138" s="24" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C138" s="17"/>
       <c r="D138" s="17"/>
@@ -4287,11 +4277,11 @@
       <c r="F138" s="19"/>
       <c r="G138" s="17"/>
       <c r="H138" s="29" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I138" s="24"/>
       <c r="J138" s="24" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="L138" s="0"/>
       <c r="M138" s="0"/>
@@ -4315,7 +4305,7 @@
       <c r="F139" s="19"/>
       <c r="G139" s="17"/>
       <c r="H139" s="17" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I139" s="17"/>
       <c r="J139" s="22"/>
@@ -4378,7 +4368,7 @@
     </row>
     <row r="142" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B142" s="13"/>
       <c r="C142" s="13"/>
@@ -4454,7 +4444,7 @@
         <v>17</v>
       </c>
       <c r="G144" s="17" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H144" s="17"/>
       <c r="I144" s="17"/>
@@ -4604,7 +4594,7 @@
     </row>
     <row r="151" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A151" s="12" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B151" s="13"/>
       <c r="C151" s="13"/>
@@ -4655,7 +4645,7 @@
       </c>
       <c r="B153" s="17"/>
       <c r="C153" s="32" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D153" s="32"/>
       <c r="E153" s="32"/>
@@ -4701,7 +4691,7 @@
         <v>21</v>
       </c>
       <c r="B156" s="32" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C156" s="32"/>
       <c r="D156" s="32"/>
@@ -4745,7 +4735,7 @@
     <row r="159" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="160" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A160" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B160" s="13"/>
       <c r="C160" s="13"/>
@@ -4812,7 +4802,7 @@
         <v>19</v>
       </c>
       <c r="B163" s="21" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C163" s="21"/>
       <c r="D163" s="21"/>
@@ -4841,7 +4831,7 @@
         <v>21</v>
       </c>
       <c r="B165" s="35" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C165" s="35"/>
       <c r="D165" s="35"/>
@@ -4884,7 +4874,7 @@
     <row r="168" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="169" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A169" s="12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B169" s="13"/>
       <c r="C169" s="13"/>
@@ -4935,7 +4925,7 @@
         <v>15</v>
       </c>
       <c r="B171" s="17" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C171" s="17"/>
       <c r="D171" s="17"/>
@@ -4967,7 +4957,7 @@
         <v>20</v>
       </c>
       <c r="B173" s="35" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C173" s="35"/>
       <c r="D173" s="35"/>
@@ -4976,7 +4966,7 @@
       <c r="G173" s="17"/>
       <c r="H173" s="17"/>
       <c r="I173" s="17" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J173" s="17"/>
       <c r="L173" s="1"/>
@@ -5038,7 +5028,7 @@
     </row>
     <row r="178" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A178" s="12" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B178" s="13"/>
       <c r="C178" s="13"/>
@@ -5089,7 +5079,7 @@
         <v>15</v>
       </c>
       <c r="B180" s="17" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C180" s="17"/>
       <c r="D180" s="17"/>
@@ -5098,11 +5088,11 @@
         <v>17</v>
       </c>
       <c r="G180" s="17" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H180" s="17"/>
       <c r="J180" s="17" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="181" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5110,17 +5100,17 @@
         <v>19</v>
       </c>
       <c r="B181" s="17" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C181" s="17"/>
       <c r="D181" s="17" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E181" s="17"/>
       <c r="F181" s="19"/>
       <c r="G181" s="18"/>
       <c r="H181" s="36" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I181" s="36"/>
       <c r="J181" s="22"/>
@@ -5131,13 +5121,13 @@
       </c>
       <c r="B182" s="17"/>
       <c r="C182" s="17" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D182" s="17"/>
       <c r="E182" s="22"/>
       <c r="F182" s="19"/>
       <c r="G182" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I182" s="17"/>
       <c r="J182" s="17"/>
@@ -5148,17 +5138,17 @@
       </c>
       <c r="B183" s="17"/>
       <c r="C183" s="17" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D183" s="17"/>
       <c r="E183" s="22"/>
       <c r="F183" s="19"/>
       <c r="G183" s="17" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H183" s="22"/>
       <c r="I183" s="18" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J183" s="17"/>
     </row>
@@ -5167,17 +5157,17 @@
         <v>22</v>
       </c>
       <c r="B184" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C184" s="17"/>
       <c r="D184" s="17" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E184" s="17"/>
       <c r="F184" s="19"/>
       <c r="G184" s="22"/>
       <c r="H184" s="17" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I184" s="17"/>
       <c r="J184" s="22"/>
@@ -5210,7 +5200,7 @@
     </row>
     <row r="187" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A187" s="12" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B187" s="13"/>
       <c r="C187" s="13"/>
@@ -5319,7 +5309,7 @@
         <v>22</v>
       </c>
       <c r="B193" s="17" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C193" s="17"/>
       <c r="D193" s="17"/>
@@ -5358,7 +5348,7 @@
     </row>
     <row r="196" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A196" s="12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B196" s="13"/>
       <c r="C196" s="13"/>
@@ -5425,7 +5415,7 @@
         <v>19</v>
       </c>
       <c r="B199" s="29" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C199" s="29"/>
       <c r="D199" s="29"/>
@@ -5447,7 +5437,7 @@
       <c r="F200" s="19"/>
       <c r="G200" s="17"/>
       <c r="H200" s="29" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I200" s="18"/>
       <c r="J200" s="22"/>
@@ -5463,7 +5453,7 @@
       <c r="E201" s="22"/>
       <c r="F201" s="19"/>
       <c r="G201" s="17" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H201" s="17"/>
       <c r="I201" s="17"/>
@@ -5480,7 +5470,7 @@
       <c r="E202" s="17"/>
       <c r="F202" s="19"/>
       <c r="G202" s="29" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H202" s="29"/>
       <c r="I202" s="17"/>
@@ -5493,7 +5483,7 @@
       <c r="B203" s="17"/>
       <c r="C203" s="17"/>
       <c r="D203" s="29" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E203" s="29"/>
       <c r="F203" s="19"/>
@@ -5516,7 +5506,7 @@
     </row>
     <row r="205" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A205" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B205" s="13"/>
       <c r="C205" s="13"/>
@@ -5568,18 +5558,18 @@
       </c>
       <c r="B207" s="17"/>
       <c r="C207" s="17" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D207" s="17"/>
       <c r="E207" s="17" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F207" s="19" t="s">
         <v>17</v>
       </c>
       <c r="G207" s="17"/>
       <c r="H207" s="17" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I207" s="17"/>
       <c r="J207" s="17"/>
@@ -5590,14 +5580,14 @@
       </c>
       <c r="B208" s="17"/>
       <c r="C208" s="17" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D208" s="17"/>
       <c r="E208" s="17"/>
       <c r="F208" s="19"/>
       <c r="G208" s="17"/>
       <c r="H208" s="17" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I208" s="17"/>
       <c r="J208" s="17"/>
@@ -5607,7 +5597,7 @@
         <v>20</v>
       </c>
       <c r="B209" s="17" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C209" s="17"/>
       <c r="D209" s="17"/>
@@ -5616,7 +5606,7 @@
       <c r="G209" s="17"/>
       <c r="H209" s="17"/>
       <c r="I209" s="17" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J209" s="17"/>
       <c r="L209" s="1"/>
@@ -5627,13 +5617,13 @@
       </c>
       <c r="B210" s="17"/>
       <c r="C210" s="17" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D210" s="17"/>
       <c r="E210" s="17"/>
       <c r="F210" s="19"/>
       <c r="G210" s="17" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H210" s="17"/>
       <c r="I210" s="17"/>
@@ -5647,13 +5637,13 @@
       <c r="B211" s="17"/>
       <c r="C211" s="17"/>
       <c r="D211" s="17" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E211" s="22"/>
       <c r="F211" s="19"/>
       <c r="G211" s="17"/>
       <c r="H211" s="17" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I211" s="17"/>
       <c r="J211" s="17"/>
@@ -6009,7 +5999,7 @@
   <dimension ref="B1:Z91"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G12" activeCellId="2" sqref="B95 G90 G12"/>
+      <selection pane="topLeft" activeCell="G12" activeCellId="1" sqref="A160 G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6067,7 +6057,7 @@
     </row>
     <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
@@ -6097,7 +6087,7 @@
     </row>
     <row r="6" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="12" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
@@ -6161,7 +6151,7 @@
       </c>
       <c r="C8" s="15"/>
       <c r="D8" s="17" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E8" s="17"/>
       <c r="F8" s="17"/>
@@ -6170,7 +6160,7 @@
         <v>17</v>
       </c>
       <c r="I8" s="17" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J8" s="17"/>
       <c r="K8" s="17"/>
@@ -6194,14 +6184,14 @@
       </c>
       <c r="C9" s="15"/>
       <c r="D9" s="17" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E9" s="17"/>
       <c r="F9" s="17"/>
       <c r="G9" s="17"/>
       <c r="H9" s="19"/>
       <c r="I9" s="17" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J9" s="17"/>
       <c r="K9" s="17"/>
@@ -6225,14 +6215,14 @@
       </c>
       <c r="C10" s="15"/>
       <c r="D10" s="17" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E10" s="17"/>
       <c r="F10" s="17"/>
       <c r="G10" s="17"/>
       <c r="H10" s="19"/>
       <c r="I10" s="17" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="J10" s="17"/>
       <c r="K10" s="17"/>
@@ -6258,14 +6248,14 @@
       </c>
       <c r="C11" s="15"/>
       <c r="D11" s="17" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E11" s="17"/>
       <c r="F11" s="17"/>
       <c r="G11" s="17"/>
       <c r="H11" s="19"/>
       <c r="I11" s="17" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J11" s="17"/>
       <c r="K11" s="17"/>
@@ -6289,14 +6279,14 @@
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="17" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E12" s="17"/>
       <c r="F12" s="17"/>
       <c r="G12" s="17"/>
       <c r="H12" s="19"/>
       <c r="I12" s="17" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J12" s="17"/>
       <c r="K12" s="17"/>
@@ -6343,7 +6333,7 @@
     </row>
     <row r="14" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="12" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
@@ -6408,7 +6398,7 @@
       <c r="C16" s="15"/>
       <c r="D16" s="41"/>
       <c r="E16" s="41" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F16" s="41"/>
       <c r="G16" s="41"/>
@@ -6417,7 +6407,7 @@
       </c>
       <c r="I16" s="18"/>
       <c r="J16" s="17" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K16" s="17"/>
       <c r="L16" s="17"/>
@@ -6429,14 +6419,14 @@
       <c r="C17" s="15"/>
       <c r="D17" s="41"/>
       <c r="E17" s="41" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F17" s="41"/>
       <c r="G17" s="41"/>
       <c r="H17" s="19"/>
       <c r="I17" s="17"/>
       <c r="J17" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K17" s="17"/>
       <c r="L17" s="17"/>
@@ -6448,14 +6438,14 @@
       <c r="C18" s="15"/>
       <c r="D18" s="41"/>
       <c r="E18" s="17" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F18" s="17"/>
       <c r="G18" s="17"/>
       <c r="H18" s="19"/>
       <c r="I18" s="17"/>
       <c r="J18" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K18" s="17"/>
       <c r="L18" s="17"/>
@@ -6467,14 +6457,14 @@
       <c r="C19" s="15"/>
       <c r="D19" s="41"/>
       <c r="E19" s="17" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F19" s="17"/>
       <c r="G19" s="17"/>
       <c r="H19" s="19"/>
       <c r="I19" s="17"/>
       <c r="J19" s="17" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K19" s="17"/>
       <c r="L19" s="17"/>
@@ -6486,14 +6476,14 @@
       <c r="C20" s="15"/>
       <c r="D20" s="41"/>
       <c r="E20" s="17" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F20" s="17"/>
       <c r="G20" s="17"/>
       <c r="H20" s="19"/>
       <c r="I20" s="17"/>
       <c r="J20" s="17" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K20" s="17"/>
       <c r="L20" s="17"/>
@@ -6515,7 +6505,7 @@
     </row>
     <row r="22" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="12" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
@@ -6568,7 +6558,7 @@
       <c r="C24" s="15"/>
       <c r="D24" s="17"/>
       <c r="E24" s="17" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F24" s="17"/>
       <c r="G24" s="17"/>
@@ -6577,7 +6567,7 @@
       </c>
       <c r="I24" s="17"/>
       <c r="J24" s="17" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K24" s="17"/>
       <c r="L24" s="17"/>
@@ -6589,14 +6579,14 @@
       <c r="C25" s="15"/>
       <c r="D25" s="17"/>
       <c r="E25" s="17" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F25" s="17"/>
       <c r="G25" s="17"/>
       <c r="H25" s="19"/>
       <c r="I25" s="17"/>
       <c r="J25" s="17" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K25" s="17"/>
       <c r="L25" s="17"/>
@@ -6608,14 +6598,14 @@
       <c r="C26" s="15"/>
       <c r="D26" s="17"/>
       <c r="E26" s="17" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F26" s="17"/>
       <c r="G26" s="17"/>
       <c r="H26" s="19"/>
       <c r="I26" s="17"/>
       <c r="J26" s="17" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K26" s="17"/>
       <c r="L26" s="17"/>
@@ -6627,14 +6617,14 @@
       <c r="C27" s="15"/>
       <c r="D27" s="17"/>
       <c r="E27" s="17" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F27" s="17"/>
       <c r="G27" s="17"/>
       <c r="H27" s="19"/>
       <c r="I27" s="17"/>
       <c r="J27" s="17" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K27" s="17"/>
       <c r="L27" s="17"/>
@@ -6646,14 +6636,14 @@
       <c r="C28" s="15"/>
       <c r="D28" s="17"/>
       <c r="E28" s="17" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F28" s="17"/>
       <c r="G28" s="17"/>
       <c r="H28" s="19"/>
       <c r="I28" s="17"/>
       <c r="J28" s="17" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K28" s="17"/>
       <c r="L28" s="17"/>
@@ -6701,7 +6691,7 @@
     </row>
     <row r="32" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="12" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
@@ -6753,7 +6743,7 @@
       </c>
       <c r="C34" s="15"/>
       <c r="E34" s="17" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F34" s="17"/>
       <c r="G34" s="17"/>
@@ -6762,7 +6752,7 @@
       </c>
       <c r="I34" s="17"/>
       <c r="J34" s="17" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K34" s="17"/>
       <c r="L34" s="17"/>
@@ -6779,7 +6769,7 @@
       <c r="H35" s="19"/>
       <c r="I35" s="17"/>
       <c r="J35" s="17" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K35" s="17"/>
       <c r="L35" s="17"/>
@@ -6791,13 +6781,13 @@
       <c r="C36" s="15"/>
       <c r="D36" s="17"/>
       <c r="E36" s="17" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F36" s="17"/>
       <c r="G36" s="17"/>
       <c r="H36" s="19"/>
       <c r="I36" s="17" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="J36" s="17"/>
       <c r="K36" s="17"/>
@@ -6810,14 +6800,14 @@
       <c r="C37" s="15"/>
       <c r="D37" s="17"/>
       <c r="E37" s="17" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F37" s="17"/>
       <c r="G37" s="17"/>
       <c r="H37" s="19"/>
       <c r="I37" s="17"/>
       <c r="J37" s="17" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K37" s="17"/>
       <c r="L37" s="17"/>
@@ -6828,14 +6818,14 @@
       </c>
       <c r="C38" s="15"/>
       <c r="D38" s="17" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E38" s="17"/>
       <c r="F38" s="17"/>
       <c r="G38" s="17"/>
       <c r="H38" s="19"/>
       <c r="I38" s="17" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="J38" s="17"/>
       <c r="K38" s="17"/>
@@ -6858,7 +6848,7 @@
     </row>
     <row r="40" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="12" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
@@ -6911,7 +6901,7 @@
       <c r="C42" s="15"/>
       <c r="D42" s="17"/>
       <c r="E42" s="17" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F42" s="17"/>
       <c r="G42" s="17"/>
@@ -6920,7 +6910,7 @@
       </c>
       <c r="I42" s="17"/>
       <c r="J42" s="17" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K42" s="17"/>
       <c r="L42" s="17"/>
@@ -6932,14 +6922,14 @@
       <c r="C43" s="15"/>
       <c r="D43" s="17"/>
       <c r="E43" s="17" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F43" s="17"/>
       <c r="G43" s="17"/>
       <c r="H43" s="19"/>
       <c r="I43" s="17"/>
       <c r="J43" s="17" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K43" s="17"/>
       <c r="L43" s="17"/>
@@ -6951,14 +6941,14 @@
       <c r="C44" s="15"/>
       <c r="D44" s="17"/>
       <c r="E44" s="17" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F44" s="17"/>
       <c r="G44" s="17"/>
       <c r="H44" s="19"/>
       <c r="I44" s="17"/>
       <c r="J44" s="17" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K44" s="17"/>
       <c r="L44" s="17"/>
@@ -6970,14 +6960,14 @@
       <c r="C45" s="15"/>
       <c r="D45" s="17"/>
       <c r="E45" s="17" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F45" s="17"/>
       <c r="G45" s="17"/>
       <c r="H45" s="19"/>
       <c r="I45" s="17"/>
       <c r="J45" s="17" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K45" s="17"/>
       <c r="L45" s="17"/>
@@ -6989,14 +6979,14 @@
       <c r="C46" s="15"/>
       <c r="D46" s="17"/>
       <c r="E46" s="17" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F46" s="17"/>
       <c r="G46" s="17"/>
       <c r="H46" s="19"/>
       <c r="I46" s="17"/>
       <c r="J46" s="17" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K46" s="17"/>
       <c r="L46" s="17"/>
@@ -7018,7 +7008,7 @@
     </row>
     <row r="48" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="12" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
@@ -7070,7 +7060,7 @@
       </c>
       <c r="C50" s="15"/>
       <c r="D50" s="17" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E50" s="17"/>
       <c r="F50" s="17"/>
@@ -7089,14 +7079,14 @@
       </c>
       <c r="C51" s="15"/>
       <c r="D51" s="17" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E51" s="17"/>
       <c r="F51" s="17"/>
       <c r="G51" s="17"/>
       <c r="H51" s="19"/>
       <c r="I51" s="17" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="J51" s="17"/>
       <c r="K51" s="18"/>
@@ -7138,7 +7128,7 @@
       </c>
       <c r="C54" s="15"/>
       <c r="D54" s="17" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E54" s="17"/>
       <c r="F54" s="17"/>
@@ -7157,7 +7147,7 @@
       <c r="D55" s="17"/>
       <c r="E55" s="17"/>
       <c r="F55" s="17" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G55" s="17"/>
       <c r="H55" s="19"/>
@@ -7168,7 +7158,7 @@
     </row>
     <row r="57" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="12" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
@@ -7220,7 +7210,7 @@
       </c>
       <c r="C59" s="15"/>
       <c r="E59" s="17" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F59" s="17"/>
       <c r="G59" s="17"/>
@@ -7229,7 +7219,7 @@
       </c>
       <c r="I59" s="43"/>
       <c r="J59" s="17" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K59" s="17"/>
       <c r="L59" s="17"/>
@@ -7241,14 +7231,14 @@
       <c r="C60" s="15"/>
       <c r="D60" s="17"/>
       <c r="E60" s="17" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F60" s="17"/>
       <c r="G60" s="17"/>
       <c r="H60" s="19"/>
       <c r="I60" s="43"/>
       <c r="J60" s="17" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K60" s="17"/>
       <c r="L60" s="17"/>
@@ -7260,14 +7250,14 @@
       <c r="C61" s="15"/>
       <c r="D61" s="17"/>
       <c r="E61" s="17" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F61" s="17"/>
       <c r="G61" s="17"/>
       <c r="H61" s="19"/>
       <c r="I61" s="43"/>
       <c r="J61" s="17" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K61" s="17"/>
       <c r="L61" s="17"/>
@@ -7279,14 +7269,14 @@
       <c r="C62" s="15"/>
       <c r="D62" s="17"/>
       <c r="E62" s="17" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F62" s="17"/>
       <c r="G62" s="17"/>
       <c r="H62" s="19"/>
       <c r="I62" s="43"/>
       <c r="J62" s="17" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K62" s="17"/>
       <c r="L62" s="17"/>
@@ -7298,14 +7288,14 @@
       <c r="C63" s="15"/>
       <c r="D63" s="17"/>
       <c r="E63" s="17" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F63" s="17"/>
       <c r="G63" s="17"/>
       <c r="H63" s="19"/>
       <c r="I63" s="43"/>
       <c r="J63" s="17" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K63" s="17"/>
       <c r="L63" s="17"/>
@@ -7327,7 +7317,7 @@
     </row>
     <row r="66" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="12" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C66" s="6"/>
       <c r="D66" s="6"/>
@@ -7379,7 +7369,7 @@
       </c>
       <c r="C68" s="15"/>
       <c r="E68" s="17" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F68" s="17"/>
       <c r="G68" s="17"/>
@@ -7388,7 +7378,7 @@
       </c>
       <c r="I68" s="43"/>
       <c r="J68" s="17" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K68" s="17"/>
       <c r="L68" s="17"/>
@@ -7400,14 +7390,14 @@
       <c r="C69" s="15"/>
       <c r="D69" s="17"/>
       <c r="E69" s="17" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F69" s="17"/>
       <c r="G69" s="17"/>
       <c r="H69" s="19"/>
       <c r="I69" s="43"/>
       <c r="J69" s="17" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K69" s="17"/>
       <c r="L69" s="17"/>
@@ -7419,14 +7409,14 @@
       <c r="C70" s="15"/>
       <c r="D70" s="17"/>
       <c r="E70" s="17" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F70" s="17"/>
       <c r="G70" s="17"/>
       <c r="H70" s="19"/>
       <c r="I70" s="43"/>
       <c r="J70" s="17" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K70" s="17"/>
       <c r="L70" s="17"/>
@@ -7438,14 +7428,14 @@
       <c r="C71" s="15"/>
       <c r="D71" s="17"/>
       <c r="E71" s="17" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F71" s="17"/>
       <c r="G71" s="17"/>
       <c r="H71" s="19"/>
       <c r="I71" s="43"/>
       <c r="J71" s="17" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K71" s="17"/>
       <c r="L71" s="17"/>
@@ -7457,14 +7447,14 @@
       <c r="C72" s="15"/>
       <c r="D72" s="17"/>
       <c r="E72" s="17" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F72" s="17"/>
       <c r="G72" s="17"/>
       <c r="H72" s="19"/>
       <c r="I72" s="43"/>
       <c r="J72" s="17" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K72" s="17"/>
       <c r="L72" s="17"/>
@@ -7486,7 +7476,7 @@
     </row>
     <row r="75" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B75" s="12" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C75" s="6"/>
       <c r="D75" s="6"/>
@@ -7538,7 +7528,7 @@
       </c>
       <c r="C77" s="15"/>
       <c r="E77" s="17" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F77" s="17"/>
       <c r="G77" s="17"/>
@@ -7547,7 +7537,7 @@
       </c>
       <c r="I77" s="17"/>
       <c r="J77" s="17" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K77" s="17"/>
       <c r="L77" s="17"/>
@@ -7559,14 +7549,14 @@
       <c r="C78" s="15"/>
       <c r="D78" s="17"/>
       <c r="E78" s="17" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F78" s="17"/>
       <c r="G78" s="17"/>
       <c r="H78" s="19"/>
       <c r="I78" s="17"/>
       <c r="J78" s="17" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K78" s="17"/>
       <c r="L78" s="17"/>
@@ -7578,14 +7568,14 @@
       <c r="C79" s="15"/>
       <c r="D79" s="17"/>
       <c r="E79" s="17" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F79" s="17"/>
       <c r="G79" s="17"/>
       <c r="H79" s="19"/>
       <c r="I79" s="17"/>
       <c r="J79" s="17" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K79" s="17"/>
       <c r="L79" s="17"/>
@@ -7597,14 +7587,14 @@
       <c r="C80" s="15"/>
       <c r="D80" s="17"/>
       <c r="E80" s="17" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F80" s="17"/>
       <c r="G80" s="17"/>
       <c r="H80" s="19"/>
       <c r="I80" s="17"/>
       <c r="J80" s="17" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K80" s="17"/>
       <c r="L80" s="17"/>
@@ -7616,14 +7606,14 @@
       <c r="C81" s="15"/>
       <c r="D81" s="17"/>
       <c r="E81" s="17" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F81" s="17"/>
       <c r="G81" s="17"/>
       <c r="H81" s="19"/>
       <c r="I81" s="17"/>
       <c r="J81" s="17" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K81" s="17"/>
       <c r="L81" s="17"/>
@@ -7645,7 +7635,7 @@
     </row>
     <row r="84" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="12" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C84" s="6"/>
       <c r="D84" s="6"/>
@@ -7704,7 +7694,7 @@
         <v>17</v>
       </c>
       <c r="I86" s="17" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="J86" s="17"/>
       <c r="K86" s="17"/>
@@ -7717,13 +7707,13 @@
       <c r="C87" s="15"/>
       <c r="D87" s="17"/>
       <c r="E87" s="17" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F87" s="17"/>
       <c r="G87" s="17"/>
       <c r="H87" s="19"/>
       <c r="I87" s="17" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="J87" s="17"/>
       <c r="K87" s="17"/>
@@ -7740,7 +7730,7 @@
       <c r="G88" s="17"/>
       <c r="H88" s="19"/>
       <c r="I88" s="17" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J88" s="17"/>
       <c r="K88" s="17"/>
@@ -7753,14 +7743,14 @@
       <c r="C89" s="15"/>
       <c r="D89" s="17"/>
       <c r="E89" s="17" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F89" s="17"/>
       <c r="G89" s="17"/>
       <c r="H89" s="19"/>
       <c r="I89" s="17"/>
       <c r="J89" s="17" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K89" s="17"/>
       <c r="L89" s="17"/>
@@ -7772,14 +7762,14 @@
       <c r="C90" s="15"/>
       <c r="D90" s="17"/>
       <c r="E90" s="17" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F90" s="17"/>
       <c r="G90" s="17"/>
       <c r="H90" s="19"/>
       <c r="I90" s="17"/>
       <c r="J90" s="17" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K90" s="17"/>
       <c r="L90" s="17"/>

--- a/Faculty Time Table-CSE,IT.xlsx
+++ b/Faculty Time Table-CSE,IT.xlsx
@@ -135,7 +135,7 @@
     <t xml:space="preserve">PPS LAB CSM-1A (B1)</t>
   </si>
   <si>
-    <t xml:space="preserve">Dr. B.T.D. Naresh Reddy</t>
+    <t xml:space="preserve">Dr. B.T.R. Naresh Reddy</t>
   </si>
   <si>
     <t xml:space="preserve">OOPC-2B</t>
@@ -1209,8 +1209,8 @@
   </sheetPr>
   <dimension ref="A1:U1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A63" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A160" activeCellId="0" sqref="A160"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A38" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A52" activeCellId="0" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5999,7 +5999,7 @@
   <dimension ref="B1:Z91"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G12" activeCellId="1" sqref="A160 G12"/>
+      <selection pane="topLeft" activeCell="G12" activeCellId="0" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/Faculty Time Table-CSE,IT.xlsx
+++ b/Faculty Time Table-CSE,IT.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Faculty TT" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="192">
   <si>
     <t xml:space="preserve">Aurora's Technological &amp; Research Institute</t>
   </si>
@@ -426,40 +426,13 @@
     <t xml:space="preserve">LAB TIME TABLE - 2022-2023 (I Semester)  </t>
   </si>
   <si>
-    <t xml:space="preserve">A001 (CNS/IS LAB)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IS 4IT LAB (B1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CNS 4A LAB (B1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CNS 4D LAB (B1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CNS 4B LAB (B1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CNS 4B LAB (B2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CNS 4C LAB (B1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CNS 4A LAB (B2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IS 4IT LAB (B2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CNS 4C LAB (B2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CNS 4D LAB (B2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A110A (ITWS, SE LAB)</t>
+    <t xml:space="preserve">A001 (DS LAB)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DS LAB- CSE-2D-(B1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A110A (ITWS LAB)</t>
   </si>
   <si>
     <t xml:space="preserve">ITWS LAB – CSE-2D(B2)</t>
@@ -471,58 +444,7 @@
     <t xml:space="preserve">ITWS LAB - IT-2(B2) </t>
   </si>
   <si>
-    <t xml:space="preserve">SE LAB-CSE-3B(B2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SE LAB-CSE-3B(B1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SE LAB-CSE-3A(B2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SE LAB-CSE-3C(B1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SE LAB-CSE-3IT(B1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SE LAB-CSE-3A(B1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SE LAB-CSE-3C(B2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A110B (CN/DCCN LAB)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CN LAB-CSE-3B(B1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CN LAB-CSE-3C(B1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CN LAB-CSE-3A(B1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CN LAB-CSE-3D(B1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CN LAB-CSE-3B(B2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DCCN LAB-CSE-3IT(B1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CN LAB-CSE-3C(B2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CN LAB-CSM-3(B1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CN LAB-CSE-3A(B2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CN LAB-CSM-3(B2)</t>
+    <t xml:space="preserve">A110B </t>
   </si>
   <si>
     <t xml:space="preserve">A214A/1 (PPS,DS)</t>
@@ -555,7 +477,7 @@
     <t xml:space="preserve">PPS LAB-CSE-1E(B1)</t>
   </si>
   <si>
-    <t xml:space="preserve">A201B ( ITWS, PYTHON, WP, ML,SE )</t>
+    <t xml:space="preserve">A201B ( ITWS, PYTHON )</t>
   </si>
   <si>
     <t xml:space="preserve">PYTHON LAB - CSM-2(B2)</t>
@@ -567,40 +489,13 @@
     <t xml:space="preserve">PYTHON LAB – CSM-2(B1)</t>
   </si>
   <si>
-    <t xml:space="preserve">WP LAB -IT-3</t>
-  </si>
-  <si>
     <t xml:space="preserve">ITWS LAB - CSE-2D(B1)</t>
   </si>
   <si>
-    <t xml:space="preserve">SE-CSE-3D(B1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ML LAB - CSM-3(B2)</t>
-  </si>
-  <si>
     <t xml:space="preserve">ITWS LAB – CSE-2B(B2)</t>
   </si>
   <si>
-    <t xml:space="preserve">ML LAB - CSM-3-(B1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A214D ( ACS LAB-3A,3B,3C,3D, IT-3, CSM-3 )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACS LAB-CSE-3C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACS LAB-CSE-3D/IT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACS LAB-CSM-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACS LAB-CSE-3B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACS LAB-CSE-3A</t>
+    <t xml:space="preserve">A214D</t>
   </si>
   <si>
     <t xml:space="preserve">A203 ( DS )</t>
@@ -618,7 +513,7 @@
     <t xml:space="preserve">DS LAB- CSE-2A-(B1)</t>
   </si>
   <si>
-    <t xml:space="preserve">DS LAB- CSE-2D-(B1)</t>
+    <t xml:space="preserve">DS LAB- CSE-2D-(B2)</t>
   </si>
   <si>
     <t xml:space="preserve">DS LAB- CSE-2C-(B1)</t>
@@ -669,37 +564,16 @@
     <t xml:space="preserve">C++ LAB- CSE-2C-(B1)</t>
   </si>
   <si>
-    <t xml:space="preserve">A201A ( ITWS,WT )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WT-CSE-3B(B2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WT-CSE-3C(B2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WT-CSE-3A(B2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WT-CSE-3B(B1)</t>
+    <t xml:space="preserve">A201A ( ITWS )</t>
   </si>
   <si>
     <t xml:space="preserve">ITWS-CSE-2A(B2)</t>
   </si>
   <si>
-    <t xml:space="preserve">WT-CSE-3A(B1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WT- IT-2(B1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WT-CSE-3D</t>
+    <t xml:space="preserve">ITWS- IT-2(B1)</t>
   </si>
   <si>
     <t xml:space="preserve">ITWS-CSE-2A(B1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WT-CSE-3C(B1)</t>
   </si>
   <si>
     <t xml:space="preserve">A214A/2 (PPS)</t>
@@ -860,7 +734,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -887,14 +761,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF6D"/>
-        <bgColor rgb="FFFFFFCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFAA95"/>
-        <bgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFD4EA6B"/>
+        <bgColor rgb="FFCCFFCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -953,7 +821,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="42">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1070,10 +938,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1082,19 +946,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1116,6 +972,10 @@
     </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="255" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1176,9 +1036,9 @@
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF6D"/>
+      <rgbColor rgb="FFD4EA6B"/>
       <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFFAA95"/>
+      <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
@@ -1209,8 +1069,8 @@
   </sheetPr>
   <dimension ref="A1:U1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A38" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A52" activeCellId="0" sqref="A52"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I228" activeCellId="0" sqref="I228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2719,11 +2579,11 @@
         <v>17</v>
       </c>
       <c r="G72" s="17"/>
-      <c r="H72" s="29" t="s">
+      <c r="H72" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="I72" s="29"/>
-      <c r="J72" s="29"/>
+      <c r="I72" s="17"/>
+      <c r="J72" s="17"/>
       <c r="K72" s="10"/>
       <c r="L72" s="0"/>
       <c r="M72" s="0"/>
@@ -2825,7 +2685,7 @@
       </c>
       <c r="C76" s="17"/>
       <c r="D76" s="18"/>
-      <c r="E76" s="29" t="s">
+      <c r="E76" s="17" t="s">
         <v>56</v>
       </c>
       <c r="F76" s="19"/>
@@ -2979,10 +2839,10 @@
       <c r="C83" s="17"/>
       <c r="E83" s="17"/>
       <c r="F83" s="19"/>
-      <c r="G83" s="29" t="s">
+      <c r="G83" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="H83" s="29"/>
+      <c r="H83" s="17"/>
       <c r="I83" s="17"/>
       <c r="J83" s="17"/>
       <c r="K83" s="10"/>
@@ -3419,7 +3279,7 @@
         <v>19</v>
       </c>
       <c r="B100" s="17"/>
-      <c r="C100" s="30"/>
+      <c r="C100" s="29"/>
       <c r="D100" s="22"/>
       <c r="E100" s="21"/>
       <c r="F100" s="19"/>
@@ -3444,7 +3304,7 @@
       </c>
       <c r="B101" s="21"/>
       <c r="C101" s="22"/>
-      <c r="D101" s="31"/>
+      <c r="D101" s="30"/>
       <c r="E101" s="17"/>
       <c r="F101" s="19"/>
       <c r="G101" s="17"/>
@@ -3626,11 +3486,11 @@
       <c r="A108" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B108" s="32" t="s">
+      <c r="B108" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="C108" s="32"/>
-      <c r="D108" s="32"/>
+      <c r="C108" s="17"/>
+      <c r="D108" s="17"/>
       <c r="E108" s="17"/>
       <c r="F108" s="19" t="s">
         <v>17</v>
@@ -3654,11 +3514,11 @@
       <c r="A109" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B109" s="32" t="s">
+      <c r="B109" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="C109" s="32"/>
-      <c r="D109" s="32"/>
+      <c r="C109" s="17"/>
+      <c r="D109" s="17"/>
       <c r="E109" s="17"/>
       <c r="F109" s="19"/>
       <c r="G109" s="17"/>
@@ -4159,7 +4019,7 @@
       <c r="E134" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F134" s="33" t="s">
+      <c r="F134" s="31" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="16" t="s">
@@ -4190,7 +4050,7 @@
         <v>15</v>
       </c>
       <c r="B135" s="17"/>
-      <c r="D135" s="34" t="s">
+      <c r="D135" s="32" t="s">
         <v>94</v>
       </c>
       <c r="F135" s="19" t="s">
@@ -4219,7 +4079,7 @@
       <c r="D136" s="17"/>
       <c r="E136" s="24"/>
       <c r="F136" s="19"/>
-      <c r="G136" s="29" t="s">
+      <c r="G136" s="17" t="s">
         <v>95</v>
       </c>
       <c r="H136" s="17"/>
@@ -4276,7 +4136,7 @@
       <c r="E138" s="17"/>
       <c r="F138" s="19"/>
       <c r="G138" s="17"/>
-      <c r="H138" s="29" t="s">
+      <c r="H138" s="17" t="s">
         <v>95</v>
       </c>
       <c r="I138" s="24"/>
@@ -4644,11 +4504,11 @@
         <v>15</v>
       </c>
       <c r="B153" s="17"/>
-      <c r="C153" s="32" t="s">
+      <c r="C153" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="D153" s="32"/>
-      <c r="E153" s="32"/>
+      <c r="D153" s="17"/>
+      <c r="E153" s="17"/>
       <c r="F153" s="19" t="s">
         <v>17</v>
       </c>
@@ -4690,11 +4550,11 @@
       <c r="A156" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B156" s="32" t="s">
+      <c r="B156" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="C156" s="32"/>
-      <c r="D156" s="32"/>
+      <c r="C156" s="17"/>
+      <c r="D156" s="17"/>
       <c r="E156" s="17"/>
       <c r="F156" s="19"/>
       <c r="G156" s="17"/>
@@ -4830,11 +4690,11 @@
       <c r="A165" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B165" s="35" t="s">
+      <c r="B165" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="C165" s="35"/>
-      <c r="D165" s="35"/>
+      <c r="C165" s="21"/>
+      <c r="D165" s="21"/>
       <c r="E165" s="17"/>
       <c r="F165" s="19"/>
       <c r="G165" s="21"/>
@@ -4956,11 +4816,11 @@
       <c r="A173" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B173" s="35" t="s">
+      <c r="B173" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="C173" s="35"/>
-      <c r="D173" s="35"/>
+      <c r="C173" s="21"/>
+      <c r="D173" s="21"/>
       <c r="E173" s="17"/>
       <c r="F173" s="19"/>
       <c r="G173" s="17"/>
@@ -5109,10 +4969,10 @@
       <c r="E181" s="17"/>
       <c r="F181" s="19"/>
       <c r="G181" s="18"/>
-      <c r="H181" s="36" t="s">
+      <c r="H181" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="I181" s="36"/>
+      <c r="I181" s="33"/>
       <c r="J181" s="22"/>
     </row>
     <row r="182" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5414,11 +5274,11 @@
       <c r="A199" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B199" s="29" t="s">
+      <c r="B199" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="C199" s="29"/>
-      <c r="D199" s="29"/>
+      <c r="C199" s="17"/>
+      <c r="D199" s="17"/>
       <c r="E199" s="17"/>
       <c r="F199" s="19"/>
       <c r="G199" s="17"/>
@@ -5436,7 +5296,7 @@
       <c r="E200" s="18"/>
       <c r="F200" s="19"/>
       <c r="G200" s="17"/>
-      <c r="H200" s="29" t="s">
+      <c r="H200" s="17" t="s">
         <v>126</v>
       </c>
       <c r="I200" s="18"/>
@@ -5469,10 +5329,10 @@
       <c r="D202" s="17"/>
       <c r="E202" s="17"/>
       <c r="F202" s="19"/>
-      <c r="G202" s="29" t="s">
+      <c r="G202" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="H202" s="29"/>
+      <c r="H202" s="17"/>
       <c r="I202" s="17"/>
       <c r="J202" s="17"/>
     </row>
@@ -5482,10 +5342,10 @@
       </c>
       <c r="B203" s="17"/>
       <c r="C203" s="17"/>
-      <c r="D203" s="29" t="s">
+      <c r="D203" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="E203" s="29"/>
+      <c r="E203" s="17"/>
       <c r="F203" s="19"/>
       <c r="G203" s="17"/>
       <c r="H203" s="17"/>
@@ -5998,8 +5858,8 @@
   </sheetPr>
   <dimension ref="B1:Z91"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G12" activeCellId="0" sqref="G12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A60" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B75" activeCellId="0" sqref="B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6097,7 +5957,7 @@
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
-      <c r="K6" s="37"/>
+      <c r="K6" s="34"/>
       <c r="L6" s="6"/>
     </row>
     <row r="7" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6145,164 +6005,146 @@
       <c r="Y7" s="14"/>
       <c r="Z7" s="13"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="15" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="15"/>
-      <c r="D8" s="17" t="s">
-        <v>134</v>
-      </c>
+      <c r="D8" s="17"/>
       <c r="E8" s="17"/>
       <c r="F8" s="17"/>
       <c r="G8" s="17"/>
       <c r="H8" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="I8" s="17" t="s">
-        <v>135</v>
-      </c>
+      <c r="I8" s="17"/>
       <c r="J8" s="17"/>
       <c r="K8" s="17"/>
       <c r="L8" s="24"/>
-      <c r="O8" s="38"/>
-      <c r="P8" s="38"/>
-      <c r="Q8" s="39"/>
-      <c r="R8" s="39"/>
-      <c r="S8" s="39"/>
-      <c r="T8" s="39"/>
-      <c r="U8" s="39"/>
-      <c r="V8" s="39"/>
-      <c r="W8" s="39"/>
-      <c r="X8" s="39"/>
-      <c r="Y8" s="39"/>
-      <c r="Z8" s="39"/>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O8" s="35"/>
+      <c r="P8" s="35"/>
+      <c r="Q8" s="36"/>
+      <c r="R8" s="36"/>
+      <c r="S8" s="36"/>
+      <c r="T8" s="36"/>
+      <c r="U8" s="36"/>
+      <c r="V8" s="36"/>
+      <c r="W8" s="36"/>
+      <c r="X8" s="36"/>
+      <c r="Y8" s="36"/>
+      <c r="Z8" s="36"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="15" t="s">
         <v>19</v>
       </c>
       <c r="C9" s="15"/>
-      <c r="D9" s="17" t="s">
-        <v>136</v>
-      </c>
+      <c r="D9" s="17"/>
       <c r="E9" s="17"/>
       <c r="F9" s="17"/>
       <c r="G9" s="17"/>
       <c r="H9" s="19"/>
-      <c r="I9" s="17" t="s">
-        <v>137</v>
-      </c>
+      <c r="I9" s="17"/>
       <c r="J9" s="17"/>
       <c r="K9" s="17"/>
       <c r="L9" s="24"/>
-      <c r="O9" s="38"/>
-      <c r="P9" s="38"/>
+      <c r="O9" s="35"/>
+      <c r="P9" s="35"/>
       <c r="Q9" s="26"/>
       <c r="R9" s="26"/>
       <c r="S9" s="26"/>
       <c r="T9" s="26"/>
       <c r="U9" s="26"/>
-      <c r="V9" s="40"/>
+      <c r="V9" s="37"/>
       <c r="W9" s="2"/>
       <c r="X9" s="26"/>
       <c r="Y9" s="26"/>
       <c r="Z9" s="26"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="15" t="s">
         <v>20</v>
       </c>
       <c r="C10" s="15"/>
-      <c r="D10" s="17" t="s">
-        <v>138</v>
-      </c>
+      <c r="D10" s="17"/>
       <c r="E10" s="17"/>
       <c r="F10" s="17"/>
       <c r="G10" s="17"/>
       <c r="H10" s="19"/>
-      <c r="I10" s="17" t="s">
-        <v>139</v>
-      </c>
+      <c r="I10" s="17"/>
       <c r="J10" s="17"/>
       <c r="K10" s="17"/>
       <c r="L10" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="O10" s="38"/>
-      <c r="P10" s="38"/>
+      <c r="O10" s="35"/>
+      <c r="P10" s="35"/>
       <c r="Q10" s="26"/>
       <c r="R10" s="26"/>
       <c r="S10" s="26"/>
       <c r="T10" s="26"/>
       <c r="U10" s="26"/>
-      <c r="V10" s="40"/>
+      <c r="V10" s="37"/>
       <c r="W10" s="26"/>
       <c r="X10" s="26"/>
       <c r="Y10" s="26"/>
       <c r="Z10" s="26"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="15" t="s">
         <v>21</v>
       </c>
       <c r="C11" s="15"/>
-      <c r="D11" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
+      <c r="D11" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
       <c r="G11" s="17"/>
       <c r="H11" s="19"/>
-      <c r="I11" s="17" t="s">
-        <v>141</v>
-      </c>
+      <c r="I11" s="17"/>
       <c r="J11" s="17"/>
       <c r="K11" s="17"/>
-      <c r="L11" s="41"/>
-      <c r="O11" s="38"/>
-      <c r="P11" s="38"/>
+      <c r="L11" s="39"/>
+      <c r="O11" s="35"/>
+      <c r="P11" s="35"/>
       <c r="Q11" s="26"/>
       <c r="R11" s="26"/>
       <c r="S11" s="26"/>
       <c r="T11" s="26"/>
       <c r="U11" s="26"/>
-      <c r="V11" s="40"/>
+      <c r="V11" s="37"/>
       <c r="W11" s="26"/>
-      <c r="X11" s="42"/>
+      <c r="X11" s="40"/>
       <c r="Y11" s="26"/>
-      <c r="Z11" s="42"/>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z11" s="40"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="15" t="s">
         <v>22</v>
       </c>
       <c r="C12" s="15"/>
-      <c r="D12" s="17" t="s">
-        <v>142</v>
-      </c>
+      <c r="D12" s="17"/>
       <c r="E12" s="17"/>
       <c r="F12" s="17"/>
       <c r="G12" s="17"/>
       <c r="H12" s="19"/>
-      <c r="I12" s="17" t="s">
-        <v>143</v>
-      </c>
+      <c r="I12" s="17"/>
       <c r="J12" s="17"/>
       <c r="K12" s="17"/>
-      <c r="L12" s="41"/>
-      <c r="O12" s="38"/>
-      <c r="P12" s="38"/>
+      <c r="L12" s="39"/>
+      <c r="O12" s="35"/>
+      <c r="P12" s="35"/>
       <c r="Q12" s="26"/>
       <c r="R12" s="26"/>
-      <c r="S12" s="42"/>
+      <c r="S12" s="40"/>
       <c r="T12" s="26"/>
       <c r="U12" s="26"/>
-      <c r="V12" s="40"/>
+      <c r="V12" s="37"/>
       <c r="W12" s="26"/>
       <c r="X12" s="26"/>
       <c r="Y12" s="26"/>
-      <c r="Z12" s="42"/>
+      <c r="Z12" s="40"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="15" t="s">
@@ -6317,15 +6159,15 @@
       <c r="I13" s="17"/>
       <c r="J13" s="17"/>
       <c r="K13" s="17"/>
-      <c r="L13" s="41"/>
-      <c r="O13" s="38"/>
-      <c r="P13" s="38"/>
+      <c r="L13" s="39"/>
+      <c r="O13" s="35"/>
+      <c r="P13" s="35"/>
       <c r="Q13" s="26"/>
       <c r="R13" s="26"/>
       <c r="S13" s="26"/>
       <c r="T13" s="26"/>
       <c r="U13" s="26"/>
-      <c r="V13" s="40"/>
+      <c r="V13" s="37"/>
       <c r="W13" s="2"/>
       <c r="X13" s="26"/>
       <c r="Y13" s="26"/>
@@ -6333,7 +6175,7 @@
     </row>
     <row r="14" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="12" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
@@ -6343,16 +6185,16 @@
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
-      <c r="K14" s="37"/>
+      <c r="K14" s="34"/>
       <c r="L14" s="6"/>
-      <c r="O14" s="38"/>
-      <c r="P14" s="38"/>
+      <c r="O14" s="35"/>
+      <c r="P14" s="35"/>
       <c r="Q14" s="26"/>
       <c r="R14" s="26"/>
-      <c r="S14" s="42"/>
-      <c r="T14" s="42"/>
+      <c r="S14" s="40"/>
+      <c r="T14" s="40"/>
       <c r="U14" s="26"/>
-      <c r="V14" s="40"/>
+      <c r="V14" s="37"/>
       <c r="W14" s="26"/>
       <c r="X14" s="26"/>
       <c r="Y14" s="26"/>
@@ -6391,43 +6233,38 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="15" t="s">
         <v>15</v>
       </c>
       <c r="C16" s="15"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
+      <c r="D16" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
       <c r="H16" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="I16" s="18"/>
-      <c r="J16" s="17" t="s">
-        <v>146</v>
-      </c>
+      <c r="I16" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="J16" s="17"/>
       <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="15" t="s">
         <v>19</v>
       </c>
       <c r="C17" s="15"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41" t="s">
-        <v>147</v>
-      </c>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
+      <c r="D17" s="39" t="s">
+        <v>138</v>
+      </c>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
       <c r="H17" s="19"/>
       <c r="I17" s="17"/>
-      <c r="J17" s="17" t="s">
-        <v>148</v>
-      </c>
+      <c r="J17" s="17"/>
       <c r="K17" s="17"/>
       <c r="L17" s="17"/>
     </row>
@@ -6436,17 +6273,13 @@
         <v>20</v>
       </c>
       <c r="C18" s="15"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="17" t="s">
-        <v>149</v>
-      </c>
+      <c r="D18" s="39"/>
+      <c r="E18" s="17"/>
       <c r="F18" s="17"/>
       <c r="G18" s="17"/>
       <c r="H18" s="19"/>
       <c r="I18" s="17"/>
-      <c r="J18" s="17" t="s">
-        <v>150</v>
-      </c>
+      <c r="J18" s="17"/>
       <c r="K18" s="17"/>
       <c r="L18" s="17"/>
     </row>
@@ -6455,17 +6288,13 @@
         <v>21</v>
       </c>
       <c r="C19" s="15"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="17" t="s">
-        <v>151</v>
-      </c>
+      <c r="D19" s="39"/>
+      <c r="E19" s="17"/>
       <c r="F19" s="17"/>
       <c r="G19" s="17"/>
       <c r="H19" s="19"/>
       <c r="I19" s="17"/>
-      <c r="J19" s="17" t="s">
-        <v>152</v>
-      </c>
+      <c r="J19" s="17"/>
       <c r="K19" s="17"/>
       <c r="L19" s="17"/>
     </row>
@@ -6474,17 +6303,13 @@
         <v>22</v>
       </c>
       <c r="C20" s="15"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="17" t="s">
-        <v>153</v>
-      </c>
+      <c r="D20" s="39"/>
+      <c r="E20" s="17"/>
       <c r="F20" s="17"/>
       <c r="G20" s="17"/>
       <c r="H20" s="19"/>
       <c r="I20" s="17"/>
-      <c r="J20" s="17" t="s">
-        <v>154</v>
-      </c>
+      <c r="J20" s="17"/>
       <c r="K20" s="17"/>
       <c r="L20" s="17"/>
     </row>
@@ -6493,8 +6318,8 @@
         <v>23</v>
       </c>
       <c r="C21" s="15"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
       <c r="F21" s="17"/>
       <c r="G21" s="17"/>
       <c r="H21" s="19"/>
@@ -6505,7 +6330,7 @@
     </row>
     <row r="22" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="12" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
@@ -6515,7 +6340,7 @@
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
-      <c r="K22" s="37"/>
+      <c r="K22" s="34"/>
       <c r="L22" s="6"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6557,94 +6382,74 @@
       </c>
       <c r="C24" s="15"/>
       <c r="D24" s="17"/>
-      <c r="E24" s="17" t="s">
-        <v>156</v>
-      </c>
+      <c r="E24" s="17"/>
       <c r="F24" s="17"/>
       <c r="G24" s="17"/>
       <c r="H24" s="19" t="s">
         <v>17</v>
       </c>
       <c r="I24" s="17"/>
-      <c r="J24" s="17" t="s">
-        <v>157</v>
-      </c>
+      <c r="J24" s="17"/>
       <c r="K24" s="17"/>
       <c r="L24" s="17"/>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="15" t="s">
         <v>19</v>
       </c>
       <c r="C25" s="15"/>
       <c r="D25" s="17"/>
-      <c r="E25" s="17" t="s">
-        <v>158</v>
-      </c>
+      <c r="E25" s="17"/>
       <c r="F25" s="17"/>
       <c r="G25" s="17"/>
       <c r="H25" s="19"/>
       <c r="I25" s="17"/>
-      <c r="J25" s="17" t="s">
-        <v>159</v>
-      </c>
+      <c r="J25" s="17"/>
       <c r="K25" s="17"/>
       <c r="L25" s="17"/>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="15" t="s">
         <v>20</v>
       </c>
       <c r="C26" s="15"/>
       <c r="D26" s="17"/>
-      <c r="E26" s="17" t="s">
-        <v>160</v>
-      </c>
+      <c r="E26" s="17"/>
       <c r="F26" s="17"/>
       <c r="G26" s="17"/>
       <c r="H26" s="19"/>
       <c r="I26" s="17"/>
-      <c r="J26" s="17" t="s">
-        <v>161</v>
-      </c>
+      <c r="J26" s="17"/>
       <c r="K26" s="17"/>
       <c r="L26" s="17"/>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="15" t="s">
         <v>21</v>
       </c>
       <c r="C27" s="15"/>
       <c r="D27" s="17"/>
-      <c r="E27" s="17" t="s">
-        <v>162</v>
-      </c>
+      <c r="E27" s="17"/>
       <c r="F27" s="17"/>
       <c r="G27" s="17"/>
       <c r="H27" s="19"/>
       <c r="I27" s="17"/>
-      <c r="J27" s="17" t="s">
-        <v>163</v>
-      </c>
+      <c r="J27" s="17"/>
       <c r="K27" s="17"/>
       <c r="L27" s="17"/>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="15" t="s">
         <v>22</v>
       </c>
       <c r="C28" s="15"/>
       <c r="D28" s="17"/>
-      <c r="E28" s="17" t="s">
-        <v>164</v>
-      </c>
+      <c r="E28" s="17"/>
       <c r="F28" s="17"/>
       <c r="G28" s="17"/>
       <c r="H28" s="19"/>
       <c r="I28" s="17"/>
-      <c r="J28" s="17" t="s">
-        <v>165</v>
-      </c>
+      <c r="J28" s="17"/>
       <c r="K28" s="17"/>
       <c r="L28" s="17"/>
     </row>
@@ -6691,7 +6496,7 @@
     </row>
     <row r="32" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="12" t="s">
-        <v>166</v>
+        <v>140</v>
       </c>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
@@ -6701,7 +6506,7 @@
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
       <c r="J32" s="6"/>
-      <c r="K32" s="37"/>
+      <c r="K32" s="34"/>
       <c r="L32" s="6"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6743,7 +6548,7 @@
       </c>
       <c r="C34" s="15"/>
       <c r="E34" s="17" t="s">
-        <v>167</v>
+        <v>141</v>
       </c>
       <c r="F34" s="17"/>
       <c r="G34" s="17"/>
@@ -6751,10 +6556,10 @@
         <v>17</v>
       </c>
       <c r="I34" s="17"/>
-      <c r="J34" s="17" t="s">
-        <v>168</v>
-      </c>
-      <c r="K34" s="17"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="17" t="s">
+        <v>142</v>
+      </c>
       <c r="L34" s="17"/>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6769,25 +6574,24 @@
       <c r="H35" s="19"/>
       <c r="I35" s="17"/>
       <c r="J35" s="17" t="s">
-        <v>169</v>
+        <v>143</v>
       </c>
       <c r="K35" s="17"/>
       <c r="L35" s="17"/>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="15" t="s">
         <v>20</v>
       </c>
       <c r="C36" s="15"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17" t="s">
-        <v>170</v>
-      </c>
-      <c r="F36" s="17"/>
+      <c r="D36" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="E36" s="17"/>
       <c r="G36" s="17"/>
       <c r="H36" s="19"/>
       <c r="I36" s="17" t="s">
-        <v>171</v>
+        <v>145</v>
       </c>
       <c r="J36" s="17"/>
       <c r="K36" s="17"/>
@@ -6800,14 +6604,14 @@
       <c r="C37" s="15"/>
       <c r="D37" s="17"/>
       <c r="E37" s="17" t="s">
-        <v>172</v>
+        <v>146</v>
       </c>
       <c r="F37" s="17"/>
       <c r="G37" s="17"/>
       <c r="H37" s="19"/>
       <c r="I37" s="17"/>
       <c r="J37" s="17" t="s">
-        <v>173</v>
+        <v>147</v>
       </c>
       <c r="K37" s="17"/>
       <c r="L37" s="17"/>
@@ -6818,14 +6622,14 @@
       </c>
       <c r="C38" s="15"/>
       <c r="D38" s="17" t="s">
-        <v>174</v>
+        <v>148</v>
       </c>
       <c r="E38" s="17"/>
       <c r="F38" s="17"/>
       <c r="G38" s="17"/>
       <c r="H38" s="19"/>
       <c r="I38" s="17" t="s">
-        <v>175</v>
+        <v>149</v>
       </c>
       <c r="J38" s="17"/>
       <c r="K38" s="17"/>
@@ -6848,7 +6652,7 @@
     </row>
     <row r="40" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="12" t="s">
-        <v>176</v>
+        <v>150</v>
       </c>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
@@ -6858,7 +6662,7 @@
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
       <c r="J40" s="6"/>
-      <c r="K40" s="37"/>
+      <c r="K40" s="34"/>
       <c r="L40" s="6"/>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6899,95 +6703,82 @@
         <v>15</v>
       </c>
       <c r="C42" s="15"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17" t="s">
-        <v>177</v>
-      </c>
+      <c r="D42" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="E42" s="17"/>
       <c r="F42" s="17"/>
-      <c r="G42" s="17"/>
       <c r="H42" s="19" t="s">
         <v>17</v>
       </c>
       <c r="I42" s="17"/>
       <c r="J42" s="17" t="s">
-        <v>178</v>
+        <v>152</v>
       </c>
       <c r="K42" s="17"/>
       <c r="L42" s="17"/>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="15" t="s">
         <v>19</v>
       </c>
       <c r="C43" s="15"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17" t="s">
-        <v>179</v>
-      </c>
+      <c r="D43" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="E43" s="17"/>
       <c r="F43" s="17"/>
-      <c r="G43" s="17"/>
       <c r="H43" s="19"/>
       <c r="I43" s="17"/>
-      <c r="J43" s="17" t="s">
-        <v>180</v>
-      </c>
+      <c r="J43" s="17"/>
       <c r="K43" s="17"/>
       <c r="L43" s="17"/>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="15" t="s">
         <v>20</v>
       </c>
       <c r="C44" s="15"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="17" t="s">
-        <v>181</v>
-      </c>
+      <c r="D44" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="E44" s="17"/>
       <c r="F44" s="17"/>
-      <c r="G44" s="17"/>
       <c r="H44" s="19"/>
       <c r="I44" s="17"/>
-      <c r="J44" s="17" t="s">
-        <v>182</v>
-      </c>
+      <c r="J44" s="17"/>
       <c r="K44" s="17"/>
       <c r="L44" s="17"/>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="15" t="s">
         <v>21</v>
       </c>
       <c r="C45" s="15"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="17" t="s">
-        <v>178</v>
-      </c>
+      <c r="D45" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="E45" s="17"/>
       <c r="F45" s="17"/>
-      <c r="G45" s="17"/>
       <c r="H45" s="19"/>
       <c r="I45" s="17"/>
-      <c r="J45" s="17" t="s">
-        <v>183</v>
-      </c>
+      <c r="J45" s="17"/>
       <c r="K45" s="17"/>
       <c r="L45" s="17"/>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="15" t="s">
         <v>22</v>
       </c>
       <c r="C46" s="15"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="17" t="s">
-        <v>184</v>
-      </c>
+      <c r="D46" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="E46" s="17"/>
       <c r="F46" s="17"/>
-      <c r="G46" s="17"/>
       <c r="H46" s="19"/>
       <c r="I46" s="17"/>
-      <c r="J46" s="17" t="s">
-        <v>185</v>
-      </c>
+      <c r="J46" s="17"/>
       <c r="K46" s="17"/>
       <c r="L46" s="17"/>
     </row>
@@ -7006,9 +6797,9 @@
       <c r="K47" s="17"/>
       <c r="L47" s="17"/>
     </row>
-    <row r="48" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="12" t="s">
-        <v>186</v>
+        <v>156</v>
       </c>
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
@@ -7018,7 +6809,7 @@
       <c r="H48" s="6"/>
       <c r="I48" s="6"/>
       <c r="J48" s="6"/>
-      <c r="K48" s="37"/>
+      <c r="K48" s="34"/>
       <c r="L48" s="6"/>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7054,14 +6845,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="15" t="s">
         <v>15</v>
       </c>
       <c r="C50" s="15"/>
-      <c r="D50" s="17" t="s">
-        <v>187</v>
-      </c>
+      <c r="D50" s="17"/>
       <c r="E50" s="17"/>
       <c r="F50" s="17"/>
       <c r="G50" s="17"/>
@@ -7073,26 +6862,22 @@
       <c r="K50" s="18"/>
       <c r="L50" s="18"/>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="15" t="s">
         <v>19</v>
       </c>
       <c r="C51" s="15"/>
-      <c r="D51" s="17" t="s">
-        <v>188</v>
-      </c>
+      <c r="D51" s="17"/>
       <c r="E51" s="17"/>
       <c r="F51" s="17"/>
       <c r="G51" s="17"/>
       <c r="H51" s="19"/>
-      <c r="I51" s="17" t="s">
-        <v>189</v>
-      </c>
+      <c r="I51" s="17"/>
       <c r="J51" s="17"/>
       <c r="K51" s="18"/>
       <c r="L51" s="18"/>
     </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="15" t="s">
         <v>20</v>
       </c>
@@ -7107,7 +6892,7 @@
       <c r="K52" s="18"/>
       <c r="L52" s="18"/>
     </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="15" t="s">
         <v>21</v>
       </c>
@@ -7122,14 +6907,12 @@
       <c r="K53" s="18"/>
       <c r="L53" s="18"/>
     </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="15" t="s">
         <v>22</v>
       </c>
       <c r="C54" s="15"/>
-      <c r="D54" s="17" t="s">
-        <v>190</v>
-      </c>
+      <c r="D54" s="17"/>
       <c r="E54" s="17"/>
       <c r="F54" s="17"/>
       <c r="G54" s="17"/>
@@ -7139,16 +6922,14 @@
       <c r="K54" s="17"/>
       <c r="L54" s="17"/>
     </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="15" t="s">
         <v>23</v>
       </c>
       <c r="C55" s="15"/>
       <c r="D55" s="17"/>
       <c r="E55" s="17"/>
-      <c r="F55" s="17" t="s">
-        <v>191</v>
-      </c>
+      <c r="F55" s="17"/>
       <c r="G55" s="17"/>
       <c r="H55" s="19"/>
       <c r="I55" s="17"/>
@@ -7158,7 +6939,7 @@
     </row>
     <row r="57" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="12" t="s">
-        <v>192</v>
+        <v>157</v>
       </c>
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
@@ -7168,7 +6949,7 @@
       <c r="H57" s="6"/>
       <c r="I57" s="6"/>
       <c r="J57" s="6"/>
-      <c r="K57" s="37"/>
+      <c r="K57" s="34"/>
       <c r="L57" s="6"/>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7204,98 +6985,92 @@
         <v>14</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="15" t="s">
         <v>15</v>
       </c>
       <c r="C59" s="15"/>
-      <c r="E59" s="17" t="s">
-        <v>193</v>
-      </c>
+      <c r="D59" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="E59" s="17"/>
       <c r="F59" s="17"/>
-      <c r="G59" s="17"/>
       <c r="H59" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="I59" s="43"/>
-      <c r="J59" s="17" t="s">
-        <v>194</v>
-      </c>
+      <c r="I59" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="J59" s="17"/>
       <c r="K59" s="17"/>
-      <c r="L59" s="17"/>
-    </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="15" t="s">
         <v>19</v>
       </c>
       <c r="C60" s="15"/>
-      <c r="D60" s="17"/>
-      <c r="E60" s="17" t="s">
-        <v>195</v>
-      </c>
+      <c r="D60" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="E60" s="17"/>
       <c r="F60" s="17"/>
-      <c r="G60" s="17"/>
       <c r="H60" s="19"/>
-      <c r="I60" s="43"/>
+      <c r="I60" s="41"/>
       <c r="J60" s="17" t="s">
-        <v>196</v>
+        <v>161</v>
       </c>
       <c r="K60" s="17"/>
       <c r="L60" s="17"/>
     </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="15" t="s">
         <v>20</v>
       </c>
       <c r="C61" s="15"/>
-      <c r="D61" s="17"/>
-      <c r="E61" s="17" t="s">
-        <v>197</v>
-      </c>
+      <c r="D61" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="E61" s="17"/>
       <c r="F61" s="17"/>
-      <c r="G61" s="17"/>
       <c r="H61" s="19"/>
-      <c r="I61" s="43"/>
+      <c r="I61" s="41"/>
       <c r="J61" s="17" t="s">
-        <v>198</v>
+        <v>163</v>
       </c>
       <c r="K61" s="17"/>
       <c r="L61" s="17"/>
     </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="15" t="s">
         <v>21</v>
       </c>
       <c r="C62" s="15"/>
-      <c r="D62" s="17"/>
-      <c r="E62" s="17" t="s">
-        <v>199</v>
-      </c>
+      <c r="D62" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="E62" s="17"/>
       <c r="F62" s="17"/>
-      <c r="G62" s="17"/>
       <c r="H62" s="19"/>
-      <c r="I62" s="43"/>
-      <c r="J62" s="17" t="s">
-        <v>200</v>
-      </c>
+      <c r="I62" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="J62" s="17"/>
       <c r="K62" s="17"/>
-      <c r="L62" s="17"/>
-    </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="15" t="s">
         <v>22</v>
       </c>
       <c r="C63" s="15"/>
-      <c r="D63" s="17"/>
-      <c r="E63" s="17" t="s">
-        <v>201</v>
-      </c>
+      <c r="D63" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="E63" s="17"/>
       <c r="F63" s="17"/>
-      <c r="G63" s="17"/>
       <c r="H63" s="19"/>
-      <c r="I63" s="43"/>
+      <c r="I63" s="41"/>
       <c r="J63" s="17" t="s">
-        <v>202</v>
+        <v>167</v>
       </c>
       <c r="K63" s="17"/>
       <c r="L63" s="17"/>
@@ -7317,7 +7092,7 @@
     </row>
     <row r="66" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="12" t="s">
-        <v>203</v>
+        <v>168</v>
       </c>
       <c r="C66" s="6"/>
       <c r="D66" s="6"/>
@@ -7327,7 +7102,7 @@
       <c r="H66" s="6"/>
       <c r="I66" s="6"/>
       <c r="J66" s="6"/>
-      <c r="K66" s="37"/>
+      <c r="K66" s="34"/>
       <c r="L66" s="6"/>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7363,98 +7138,91 @@
         <v>14</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B68" s="15" t="s">
         <v>15</v>
       </c>
       <c r="C68" s="15"/>
-      <c r="E68" s="17" t="s">
-        <v>204</v>
-      </c>
+      <c r="D68" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="E68" s="17"/>
       <c r="F68" s="17"/>
-      <c r="G68" s="17"/>
       <c r="H68" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="I68" s="43"/>
-      <c r="J68" s="17" t="s">
-        <v>205</v>
-      </c>
+      <c r="I68" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="J68" s="17"/>
       <c r="K68" s="17"/>
-      <c r="L68" s="17"/>
-    </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B69" s="15" t="s">
         <v>19</v>
       </c>
       <c r="C69" s="15"/>
-      <c r="D69" s="17"/>
-      <c r="E69" s="17" t="s">
-        <v>206</v>
-      </c>
+      <c r="D69" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="E69" s="17"/>
       <c r="F69" s="17"/>
-      <c r="G69" s="17"/>
       <c r="H69" s="19"/>
-      <c r="I69" s="43"/>
-      <c r="J69" s="17" t="s">
-        <v>207</v>
-      </c>
+      <c r="I69" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="J69" s="17"/>
       <c r="K69" s="17"/>
-      <c r="L69" s="17"/>
-    </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="15" t="s">
         <v>20</v>
       </c>
       <c r="C70" s="15"/>
-      <c r="D70" s="17"/>
-      <c r="E70" s="17" t="s">
-        <v>208</v>
-      </c>
+      <c r="D70" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="E70" s="17"/>
       <c r="F70" s="17"/>
-      <c r="G70" s="17"/>
       <c r="H70" s="19"/>
-      <c r="I70" s="43"/>
+      <c r="I70" s="41"/>
       <c r="J70" s="17" t="s">
-        <v>209</v>
+        <v>174</v>
       </c>
       <c r="K70" s="17"/>
       <c r="L70" s="17"/>
     </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B71" s="15" t="s">
         <v>21</v>
       </c>
       <c r="C71" s="15"/>
-      <c r="D71" s="17"/>
-      <c r="E71" s="17" t="s">
-        <v>210</v>
-      </c>
+      <c r="D71" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="E71" s="17"/>
       <c r="F71" s="17"/>
-      <c r="G71" s="17"/>
       <c r="H71" s="19"/>
-      <c r="I71" s="43"/>
-      <c r="J71" s="17" t="s">
-        <v>211</v>
-      </c>
+      <c r="I71" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="J71" s="17"/>
       <c r="K71" s="17"/>
-      <c r="L71" s="17"/>
-    </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B72" s="15" t="s">
         <v>22</v>
       </c>
       <c r="C72" s="15"/>
-      <c r="D72" s="17"/>
-      <c r="E72" s="17" t="s">
-        <v>212</v>
-      </c>
+      <c r="D72" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="E72" s="17"/>
       <c r="F72" s="17"/>
-      <c r="G72" s="17"/>
       <c r="H72" s="19"/>
-      <c r="I72" s="43"/>
+      <c r="I72" s="41"/>
       <c r="J72" s="17" t="s">
-        <v>213</v>
+        <v>178</v>
       </c>
       <c r="K72" s="17"/>
       <c r="L72" s="17"/>
@@ -7476,7 +7244,7 @@
     </row>
     <row r="75" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B75" s="12" t="s">
-        <v>214</v>
+        <v>179</v>
       </c>
       <c r="C75" s="6"/>
       <c r="D75" s="6"/>
@@ -7486,7 +7254,7 @@
       <c r="H75" s="6"/>
       <c r="I75" s="6"/>
       <c r="J75" s="6"/>
-      <c r="K75" s="37"/>
+      <c r="K75" s="34"/>
       <c r="L75" s="6"/>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7527,18 +7295,14 @@
         <v>15</v>
       </c>
       <c r="C77" s="15"/>
-      <c r="E77" s="17" t="s">
-        <v>215</v>
-      </c>
+      <c r="E77" s="17"/>
       <c r="F77" s="17"/>
       <c r="G77" s="17"/>
       <c r="H77" s="19" t="s">
         <v>17</v>
       </c>
       <c r="I77" s="17"/>
-      <c r="J77" s="17" t="s">
-        <v>216</v>
-      </c>
+      <c r="J77" s="17"/>
       <c r="K77" s="17"/>
       <c r="L77" s="17"/>
     </row>
@@ -7548,73 +7312,60 @@
       </c>
       <c r="C78" s="15"/>
       <c r="D78" s="17"/>
-      <c r="E78" s="17" t="s">
-        <v>217</v>
-      </c>
+      <c r="E78" s="17"/>
       <c r="F78" s="17"/>
       <c r="G78" s="17"/>
       <c r="H78" s="19"/>
       <c r="I78" s="17"/>
-      <c r="J78" s="17" t="s">
-        <v>218</v>
-      </c>
+      <c r="J78" s="17"/>
       <c r="K78" s="17"/>
       <c r="L78" s="17"/>
     </row>
-    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B79" s="15" t="s">
         <v>20</v>
       </c>
       <c r="C79" s="15"/>
-      <c r="D79" s="17"/>
-      <c r="E79" s="17" t="s">
-        <v>219</v>
-      </c>
+      <c r="D79" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="E79" s="17"/>
       <c r="F79" s="17"/>
-      <c r="G79" s="17"/>
       <c r="H79" s="19"/>
       <c r="I79" s="17"/>
-      <c r="J79" s="17" t="s">
-        <v>220</v>
-      </c>
+      <c r="J79" s="17"/>
       <c r="K79" s="17"/>
       <c r="L79" s="17"/>
     </row>
-    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B80" s="15" t="s">
         <v>21</v>
       </c>
       <c r="C80" s="15"/>
-      <c r="D80" s="17"/>
-      <c r="E80" s="17" t="s">
-        <v>221</v>
-      </c>
+      <c r="D80" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="E80" s="17"/>
       <c r="F80" s="17"/>
-      <c r="G80" s="17"/>
       <c r="H80" s="19"/>
       <c r="I80" s="17"/>
-      <c r="J80" s="17" t="s">
-        <v>222</v>
-      </c>
+      <c r="J80" s="17"/>
       <c r="K80" s="17"/>
       <c r="L80" s="17"/>
     </row>
-    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B81" s="15" t="s">
         <v>22</v>
       </c>
       <c r="C81" s="15"/>
-      <c r="D81" s="17"/>
-      <c r="E81" s="17" t="s">
-        <v>223</v>
-      </c>
+      <c r="D81" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="E81" s="17"/>
       <c r="F81" s="17"/>
-      <c r="G81" s="17"/>
       <c r="H81" s="19"/>
       <c r="I81" s="17"/>
-      <c r="J81" s="17" t="s">
-        <v>224</v>
-      </c>
+      <c r="J81" s="17"/>
       <c r="K81" s="17"/>
       <c r="L81" s="17"/>
     </row>
@@ -7633,9 +7384,9 @@
       <c r="K82" s="17"/>
       <c r="L82" s="17"/>
     </row>
-    <row r="84" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="12" t="s">
-        <v>225</v>
+        <v>183</v>
       </c>
       <c r="C84" s="6"/>
       <c r="D84" s="6"/>
@@ -7645,7 +7396,7 @@
       <c r="H84" s="6"/>
       <c r="I84" s="6"/>
       <c r="J84" s="6"/>
-      <c r="K84" s="37"/>
+      <c r="K84" s="34"/>
       <c r="L84" s="6"/>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7694,28 +7445,28 @@
         <v>17</v>
       </c>
       <c r="I86" s="17" t="s">
-        <v>226</v>
+        <v>184</v>
       </c>
       <c r="J86" s="17"/>
       <c r="K86" s="17"/>
       <c r="L86" s="17"/>
     </row>
-    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B87" s="15" t="s">
         <v>19</v>
       </c>
       <c r="C87" s="15"/>
       <c r="D87" s="17"/>
-      <c r="E87" s="17" t="s">
-        <v>227</v>
-      </c>
-      <c r="F87" s="17"/>
+      <c r="E87" s="17"/>
+      <c r="F87" s="17" t="s">
+        <v>185</v>
+      </c>
       <c r="G87" s="17"/>
       <c r="H87" s="19"/>
-      <c r="I87" s="17" t="s">
-        <v>228</v>
-      </c>
-      <c r="J87" s="17"/>
+      <c r="I87" s="17"/>
+      <c r="J87" s="17" t="s">
+        <v>186</v>
+      </c>
       <c r="K87" s="17"/>
       <c r="L87" s="17"/>
     </row>
@@ -7730,7 +7481,7 @@
       <c r="G88" s="17"/>
       <c r="H88" s="19"/>
       <c r="I88" s="17" t="s">
-        <v>229</v>
+        <v>187</v>
       </c>
       <c r="J88" s="17"/>
       <c r="K88" s="17"/>
@@ -7743,14 +7494,14 @@
       <c r="C89" s="15"/>
       <c r="D89" s="17"/>
       <c r="E89" s="17" t="s">
-        <v>230</v>
+        <v>188</v>
       </c>
       <c r="F89" s="17"/>
       <c r="G89" s="17"/>
       <c r="H89" s="19"/>
       <c r="I89" s="17"/>
       <c r="J89" s="17" t="s">
-        <v>231</v>
+        <v>189</v>
       </c>
       <c r="K89" s="17"/>
       <c r="L89" s="17"/>
@@ -7762,14 +7513,14 @@
       <c r="C90" s="15"/>
       <c r="D90" s="17"/>
       <c r="E90" s="17" t="s">
-        <v>232</v>
+        <v>190</v>
       </c>
       <c r="F90" s="17"/>
       <c r="G90" s="17"/>
       <c r="H90" s="19"/>
       <c r="I90" s="17"/>
       <c r="J90" s="17" t="s">
-        <v>233</v>
+        <v>191</v>
       </c>
       <c r="K90" s="17"/>
       <c r="L90" s="17"/>
@@ -7815,11 +7566,11 @@
     <mergeCell ref="I13:J13"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
-    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="D16:F16"/>
     <mergeCell ref="H16:H21"/>
-    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="I16:K16"/>
     <mergeCell ref="B17:C17"/>
-    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="D17:F17"/>
     <mergeCell ref="J17:L17"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="E18:G18"/>
@@ -7853,11 +7604,11 @@
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="E34:G34"/>
     <mergeCell ref="H34:H39"/>
-    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="K34:L34"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="J35:K35"/>
     <mergeCell ref="B36:C36"/>
-    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="D36:E36"/>
     <mergeCell ref="I36:J36"/>
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="E37:F37"/>
@@ -7868,20 +7619,20 @@
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="B42:C42"/>
-    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="D42:F42"/>
     <mergeCell ref="H42:H47"/>
     <mergeCell ref="J42:L42"/>
     <mergeCell ref="B43:C43"/>
-    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="D43:F43"/>
     <mergeCell ref="J43:L43"/>
     <mergeCell ref="B44:C44"/>
-    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="D44:F44"/>
     <mergeCell ref="J44:L44"/>
     <mergeCell ref="B45:C45"/>
-    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="D45:F45"/>
     <mergeCell ref="J45:L45"/>
     <mergeCell ref="B46:C46"/>
-    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="D46:F46"/>
     <mergeCell ref="J46:L46"/>
     <mergeCell ref="B47:C47"/>
     <mergeCell ref="B49:C49"/>
@@ -7899,38 +7650,38 @@
     <mergeCell ref="F55:G55"/>
     <mergeCell ref="B58:C58"/>
     <mergeCell ref="B59:C59"/>
-    <mergeCell ref="E59:G59"/>
+    <mergeCell ref="D59:F59"/>
     <mergeCell ref="H59:H64"/>
-    <mergeCell ref="J59:L59"/>
+    <mergeCell ref="I59:K59"/>
     <mergeCell ref="B60:C60"/>
-    <mergeCell ref="E60:G60"/>
+    <mergeCell ref="D60:F60"/>
     <mergeCell ref="J60:L60"/>
     <mergeCell ref="B61:C61"/>
-    <mergeCell ref="E61:G61"/>
+    <mergeCell ref="D61:F61"/>
     <mergeCell ref="J61:L61"/>
     <mergeCell ref="B62:C62"/>
-    <mergeCell ref="E62:G62"/>
-    <mergeCell ref="J62:L62"/>
+    <mergeCell ref="D62:F62"/>
+    <mergeCell ref="I62:K62"/>
     <mergeCell ref="B63:C63"/>
-    <mergeCell ref="E63:G63"/>
+    <mergeCell ref="D63:F63"/>
     <mergeCell ref="J63:L63"/>
     <mergeCell ref="B64:C64"/>
     <mergeCell ref="B67:C67"/>
     <mergeCell ref="B68:C68"/>
-    <mergeCell ref="E68:G68"/>
+    <mergeCell ref="D68:F68"/>
     <mergeCell ref="H68:H73"/>
-    <mergeCell ref="J68:L68"/>
+    <mergeCell ref="I68:K68"/>
     <mergeCell ref="B69:C69"/>
-    <mergeCell ref="E69:G69"/>
-    <mergeCell ref="J69:L69"/>
+    <mergeCell ref="D69:F69"/>
+    <mergeCell ref="I69:K69"/>
     <mergeCell ref="B70:C70"/>
-    <mergeCell ref="E70:G70"/>
+    <mergeCell ref="D70:F70"/>
     <mergeCell ref="J70:L70"/>
     <mergeCell ref="B71:C71"/>
-    <mergeCell ref="E71:G71"/>
-    <mergeCell ref="J71:L71"/>
+    <mergeCell ref="D71:F71"/>
+    <mergeCell ref="I71:K71"/>
     <mergeCell ref="B72:C72"/>
-    <mergeCell ref="E72:G72"/>
+    <mergeCell ref="D72:F72"/>
     <mergeCell ref="J72:L72"/>
     <mergeCell ref="B73:C73"/>
     <mergeCell ref="B76:C76"/>
@@ -7942,13 +7693,13 @@
     <mergeCell ref="E78:G78"/>
     <mergeCell ref="J78:L78"/>
     <mergeCell ref="B79:C79"/>
-    <mergeCell ref="E79:G79"/>
+    <mergeCell ref="D79:F79"/>
     <mergeCell ref="J79:L79"/>
     <mergeCell ref="B80:C80"/>
-    <mergeCell ref="E80:G80"/>
+    <mergeCell ref="D80:F80"/>
     <mergeCell ref="J80:L80"/>
     <mergeCell ref="B81:C81"/>
-    <mergeCell ref="E81:G81"/>
+    <mergeCell ref="D81:F81"/>
     <mergeCell ref="J81:L81"/>
     <mergeCell ref="B82:C82"/>
     <mergeCell ref="B85:C85"/>
@@ -7956,8 +7707,8 @@
     <mergeCell ref="H86:H91"/>
     <mergeCell ref="I86:J86"/>
     <mergeCell ref="B87:C87"/>
-    <mergeCell ref="E87:F87"/>
-    <mergeCell ref="I87:J87"/>
+    <mergeCell ref="F87:G87"/>
+    <mergeCell ref="J87:K87"/>
     <mergeCell ref="B88:C88"/>
     <mergeCell ref="I88:J88"/>
     <mergeCell ref="B89:C89"/>

--- a/Faculty Time Table-CSE,IT.xlsx
+++ b/Faculty Time Table-CSE,IT.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="192">
   <si>
     <t xml:space="preserve">Aurora's Technological &amp; Research Institute</t>
   </si>
@@ -75,138 +75,138 @@
     <t xml:space="preserve">Monday</t>
   </si>
   <si>
+    <t xml:space="preserve">LUNCH</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuesday</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wednesday</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thursday</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Friday</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saturday</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms. Durga Pavani </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms. K.Kavitha </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms. A.Anitha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPS LAB-1A (B1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPS LAB-1A (B2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITWS LAB -2B(B2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. ARSofi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPS-CSM-1A  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPS-1B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPS LAB CSM-1A (B2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPS-CSM-1A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPS LAB CSM-1A (B1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. B.T.R. Naresh Reddy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OOPC-2B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C++ LAB -CSE -2A (B2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OOPC-2A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C++ LAB -CSE -2B (B2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C++ LAB -CSE -2A (B1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PP-CSM-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C++ LAB -CSE -2B (B1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Ch. Krishna Rao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPS-1D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPS-1C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECSE-1E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPS LAB-1D (B2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPS LAB-1C (B2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPS LAB-1D (B1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPS LAB-1C (B1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms. Gowthami</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECSE-1C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITWS LAB-2C(B2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPS LAB - 1B (B1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECSE-1A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITWS LAB -2C(B1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPS LAB - 1B (B2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms. Keerthi</t>
+  </si>
+  <si>
     <t xml:space="preserve">PPS-1A</t>
   </si>
   <si>
-    <t xml:space="preserve">LUNCH</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tuesday</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wednesday</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thursday</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Friday</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saturday</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ms. Durga Pavani </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ms. K.Kavitha </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ms. A.Anitha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PPS LAB-1A (B1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PPS LAB-1A (B2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ITWS LAB -2B(B2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mr. ARSofi </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PPS-CSM-1A  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PPS-1B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PPS LAB CSM-1A (B2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PPS-CSM-1A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PPS LAB CSM-1A (B1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dr. B.T.R. Naresh Reddy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OOPC-2B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C++ LAB -CSE -2A (B2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OOPC-2A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C++ LAB -CSE -2B (B2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C++ LAB -CSE -2A (B1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PP-CSM-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C++ LAB -CSE -2B (B1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mr. Ch. Krishna Rao</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PPS-1D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PPS-1C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ECSE-1E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PPS LAB-1D (B2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PPS LAB-1C (B2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PPS LAB-1D (B1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PPS LAB-1C (B1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ms. Gowthami</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ECSE-1C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ITWS LAB-2C(B2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PPS LAB - 1B (B1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ECSE-1A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ITWS LAB -2C(B1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PPS LAB - 1B (B2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ms. Keerthi</t>
-  </si>
-  <si>
     <t xml:space="preserve">PPS-1E</t>
   </si>
   <si>
@@ -429,97 +429,97 @@
     <t xml:space="preserve">A001 (DS LAB)</t>
   </si>
   <si>
+    <t xml:space="preserve">DS LAB- IT-2(B1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DS LAB- IT-2-(B2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A110A (ITWS LAB)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITWS LAB – CSE-2D(B2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITWS LAB – CSE-2B(B1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITWS LAB - IT-2(B2) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A110B </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A214A/1 (PPS,DS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPS LAB-CSE-1E(B2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPS LAB-CSE-1B(B1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPS LAB-CSE-1D(B2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPS LAB-CSE-1A(B1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPS LAB-CSE-1A(B2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPS LAB-CSE-1D(B1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPS LAB-CSE-1B(B2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPS LAB-CSE-1E(B1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A201B ( ITWS, PYTHON )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PYTHON LAB - CSM-2(B2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITWS LAB - CSE-2C(B1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PYTHON LAB – CSM-2(B1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITWS LAB - CSE-2D(B1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITWS LAB – CSE-2B(B2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A214D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A203 ( DS )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DS LAB- CSM-2-(B1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DS LAB- CSE-2B-(B2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DS LAB- CSM-2-(B2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DS LAB- CSE-2A-(B1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DS LAB- CSE-2D-(B2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DS LAB- CSE-2C-(B1)</t>
+  </si>
+  <si>
     <t xml:space="preserve">DS LAB- CSE-2D-(B1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A110A (ITWS LAB)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ITWS LAB – CSE-2D(B2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ITWS LAB – CSE-2B(B1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ITWS LAB - IT-2(B2) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A110B </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A214A/1 (PPS,DS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DS LAB- IT-2(B1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PPS LAB-CSE-1E(B2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PPS LAB-CSE-1B(B1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PPS LAB-CSE-1D(B2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PPS LAB-CSE-1A(B1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PPS LAB-CSE-1A(B2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PPS LAB-CSE-1D(B1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PPS LAB-CSE-1B(B2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PPS LAB-CSE-1E(B1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A201B ( ITWS, PYTHON )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PYTHON LAB - CSM-2(B2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ITWS LAB - CSE-2C(B1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PYTHON LAB – CSM-2(B1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ITWS LAB - CSE-2D(B1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ITWS LAB – CSE-2B(B2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A214D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A203 ( DS )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DS LAB- CSM-2-(B1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DS LAB- CSE-2B-(B2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DS LAB- CSM-2-(B2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DS LAB- CSE-2A-(B1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DS LAB- CSE-2D-(B2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DS LAB- CSE-2C-(B1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DS LAB- IT-2-(B2)</t>
   </si>
   <si>
     <t xml:space="preserve">DS LAB- CSE-2B-(B1)</t>
@@ -734,7 +734,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -762,7 +762,13 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD4EA6B"/>
-        <bgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FFBBE33D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBBE33D"/>
+        <bgColor rgb="FFD4EA6B"/>
       </patternFill>
     </fill>
   </fills>
@@ -821,7 +827,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -890,12 +896,16 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -962,7 +972,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -972,10 +982,6 @@
     </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="255" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -988,6 +994,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1043,7 +1053,7 @@
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFBBE33D"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
@@ -1069,8 +1079,8 @@
   </sheetPr>
   <dimension ref="A1:U1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I228" activeCellId="0" sqref="I228"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A60" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B83" activeCellId="0" sqref="B83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1202,105 +1212,101 @@
       <c r="A9" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="17" t="s">
-        <v>16</v>
-      </c>
+      <c r="B9" s="17"/>
       <c r="C9" s="17"/>
       <c r="D9" s="18"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="19" t="s">
+      <c r="E9" s="19"/>
+      <c r="F9" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="J9" s="17"/>
+      <c r="J9" s="19"/>
       <c r="K9" s="9"/>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="17"/>
+        <v>18</v>
+      </c>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="19"/>
       <c r="H10" s="18"/>
       <c r="I10" s="18"/>
-      <c r="J10" s="17"/>
+      <c r="J10" s="19"/>
       <c r="K10" s="9"/>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>16</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="B11" s="17"/>
       <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17" t="s">
-        <v>18</v>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19" t="s">
+        <v>17</v>
       </c>
       <c r="K11" s="9"/>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
+        <v>20</v>
+      </c>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
       <c r="K12" s="9"/>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="17"/>
+        <v>21</v>
+      </c>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="19"/>
       <c r="K13" s="9"/>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
+        <v>22</v>
+      </c>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
       <c r="K14" s="9"/>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" s="13"/>
       <c r="C16" s="13"/>
@@ -1350,101 +1356,101 @@
       <c r="A18" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
       <c r="D18" s="18"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="19" t="s">
+      <c r="E18" s="19"/>
+      <c r="F18" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="J18" s="17"/>
+      <c r="J18" s="19"/>
       <c r="K18" s="10"/>
     </row>
     <row r="19" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="17"/>
+        <v>18</v>
+      </c>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="19"/>
       <c r="H19" s="18"/>
       <c r="I19" s="18"/>
-      <c r="J19" s="17"/>
+      <c r="J19" s="19"/>
       <c r="K19" s="10"/>
     </row>
     <row r="20" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19" t="s">
+        <v>17</v>
       </c>
       <c r="K20" s="10"/>
     </row>
     <row r="21" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
+        <v>20</v>
+      </c>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
       <c r="K21" s="10"/>
     </row>
     <row r="22" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="17"/>
+        <v>21</v>
+      </c>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="19"/>
       <c r="K22" s="10"/>
     </row>
     <row r="23" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
+        <v>22</v>
+      </c>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
       <c r="K23" s="10"/>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" s="13"/>
       <c r="C25" s="13"/>
@@ -1494,96 +1500,96 @@
       <c r="A27" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
+      <c r="B27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
       <c r="K27" s="10"/>
     </row>
     <row r="28" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="17"/>
+        <v>18</v>
+      </c>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
       <c r="K28" s="10"/>
     </row>
     <row r="29" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="17"/>
+        <v>19</v>
+      </c>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
       <c r="K29" s="10"/>
     </row>
     <row r="30" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="17"/>
+        <v>20</v>
+      </c>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
       <c r="K30" s="10"/>
     </row>
     <row r="31" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="17"/>
+        <v>21</v>
+      </c>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="19"/>
       <c r="K31" s="10"/>
     </row>
     <row r="32" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="17"/>
+        <v>22</v>
+      </c>
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="19"/>
       <c r="K32" s="10"/>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B34" s="13"/>
       <c r="C34" s="13"/>
@@ -1651,19 +1657,19 @@
       <c r="A36" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="19" t="s">
+      <c r="B36" s="19"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G36" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="G36" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="H36" s="22"/>
-      <c r="I36" s="17"/>
-      <c r="J36" s="17"/>
+      <c r="H36" s="23"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="19"/>
       <c r="L36" s="0"/>
       <c r="M36" s="0"/>
       <c r="N36" s="0"/>
@@ -1677,18 +1683,18 @@
     </row>
     <row r="37" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B37" s="17"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="19"/>
+        <v>18</v>
+      </c>
+      <c r="B37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="20"/>
       <c r="G37" s="18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H37" s="18"/>
       <c r="I37" s="18"/>
-      <c r="J37" s="17"/>
+      <c r="J37" s="19"/>
       <c r="L37" s="0"/>
       <c r="M37" s="0"/>
       <c r="N37" s="0"/>
@@ -1702,19 +1708,19 @@
     </row>
     <row r="38" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B38" s="18"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="H38" s="17"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H38" s="19"/>
       <c r="I38" s="18"/>
-      <c r="J38" s="17"/>
+      <c r="J38" s="19"/>
       <c r="L38" s="0"/>
       <c r="M38" s="0"/>
       <c r="N38" s="0"/>
@@ -1728,19 +1734,19 @@
     </row>
     <row r="39" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C39" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="D39" s="17"/>
-      <c r="F39" s="19"/>
-      <c r="H39" s="23"/>
-      <c r="I39" s="23"/>
-      <c r="J39" s="23"/>
+        <v>17</v>
+      </c>
+      <c r="C39" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D39" s="19"/>
+      <c r="F39" s="20"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="24"/>
+      <c r="J39" s="24"/>
       <c r="L39" s="0"/>
       <c r="M39" s="0"/>
       <c r="N39" s="0"/>
@@ -1754,17 +1760,17 @@
     </row>
     <row r="40" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B40" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="19"/>
-      <c r="G40" s="17"/>
-      <c r="J40" s="17"/>
+        <v>21</v>
+      </c>
+      <c r="B40" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="19"/>
+      <c r="J40" s="19"/>
       <c r="L40" s="0"/>
       <c r="M40" s="0"/>
       <c r="N40" s="0"/>
@@ -1778,17 +1784,17 @@
     </row>
     <row r="41" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B41" s="17"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="19"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="17"/>
-      <c r="I41" s="17"/>
-      <c r="J41" s="17"/>
+        <v>22</v>
+      </c>
+      <c r="B41" s="19"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="19"/>
+      <c r="H41" s="19"/>
+      <c r="I41" s="19"/>
+      <c r="J41" s="19"/>
       <c r="L41" s="0"/>
       <c r="M41" s="0"/>
       <c r="N41" s="0"/>
@@ -1802,7 +1808,7 @@
     </row>
     <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B43" s="13"/>
       <c r="C43" s="13"/>
@@ -1852,127 +1858,127 @@
       <c r="A45" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B45" s="17"/>
-      <c r="C45" s="17"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="17"/>
-      <c r="F45" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H45" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="I45" s="17"/>
-      <c r="J45" s="17"/>
+      <c r="B45" s="19"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="H45" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="I45" s="19"/>
+      <c r="J45" s="19"/>
       <c r="K45" s="10"/>
     </row>
     <row r="46" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B46" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B46" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C46" s="19"/>
+      <c r="D46" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C46" s="17"/>
-      <c r="D46" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E46" s="17"/>
-      <c r="F46" s="19"/>
-      <c r="G46" s="17"/>
-      <c r="H46" s="17"/>
-      <c r="I46" s="17"/>
-      <c r="J46" s="17"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="20"/>
+      <c r="G46" s="19"/>
+      <c r="H46" s="19"/>
+      <c r="I46" s="19"/>
+      <c r="J46" s="19"/>
       <c r="K46" s="10"/>
     </row>
     <row r="47" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B47" s="17"/>
-      <c r="C47" s="22"/>
-      <c r="D47" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="E47" s="24"/>
-      <c r="F47" s="19"/>
-      <c r="G47" s="17"/>
+        <v>19</v>
+      </c>
+      <c r="B47" s="19"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E47" s="25"/>
+      <c r="F47" s="20"/>
+      <c r="G47" s="19"/>
       <c r="H47" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="I47" s="17"/>
-      <c r="J47" s="17"/>
+        <v>17</v>
+      </c>
+      <c r="I47" s="19"/>
+      <c r="J47" s="19"/>
       <c r="K47" s="10"/>
     </row>
     <row r="48" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B48" s="17"/>
-      <c r="C48" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="D48" s="17"/>
-      <c r="E48" s="17"/>
-      <c r="F48" s="19"/>
-      <c r="G48" s="22"/>
-      <c r="H48" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="I48" s="17"/>
-      <c r="J48" s="22"/>
+        <v>20</v>
+      </c>
+      <c r="B48" s="19"/>
+      <c r="C48" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D48" s="19"/>
+      <c r="E48" s="19"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="23"/>
+      <c r="H48" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="I48" s="19"/>
+      <c r="J48" s="23"/>
       <c r="K48" s="10"/>
     </row>
     <row r="49" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B49" s="17"/>
-      <c r="C49" s="17"/>
-      <c r="D49" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="E49" s="17"/>
-      <c r="F49" s="19"/>
-      <c r="G49" s="17"/>
-      <c r="H49" s="17"/>
-      <c r="I49" s="21"/>
-      <c r="J49" s="17"/>
+        <v>21</v>
+      </c>
+      <c r="B49" s="19"/>
+      <c r="C49" s="19"/>
+      <c r="D49" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E49" s="19"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="19"/>
+      <c r="H49" s="19"/>
+      <c r="I49" s="22"/>
+      <c r="J49" s="19"/>
       <c r="K49" s="10"/>
     </row>
     <row r="50" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B50" s="17"/>
-      <c r="C50" s="17"/>
+        <v>22</v>
+      </c>
+      <c r="B50" s="19"/>
+      <c r="C50" s="19"/>
       <c r="D50" s="18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E50" s="18"/>
-      <c r="F50" s="19"/>
-      <c r="G50" s="17"/>
-      <c r="H50" s="17"/>
-      <c r="I50" s="17"/>
-      <c r="J50" s="17"/>
+      <c r="F50" s="20"/>
+      <c r="G50" s="19"/>
+      <c r="H50" s="19"/>
+      <c r="I50" s="19"/>
+      <c r="J50" s="19"/>
       <c r="K50" s="10"/>
     </row>
     <row r="51" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="25"/>
-      <c r="B51" s="26"/>
-      <c r="C51" s="26"/>
-      <c r="D51" s="26"/>
-      <c r="E51" s="26"/>
-      <c r="F51" s="27"/>
-      <c r="G51" s="26"/>
-      <c r="H51" s="26"/>
-      <c r="I51" s="26"/>
-      <c r="J51" s="26"/>
+      <c r="A51" s="26"/>
+      <c r="B51" s="27"/>
+      <c r="C51" s="27"/>
+      <c r="D51" s="27"/>
+      <c r="E51" s="27"/>
+      <c r="F51" s="28"/>
+      <c r="G51" s="27"/>
+      <c r="H51" s="27"/>
+      <c r="I51" s="27"/>
+      <c r="J51" s="27"/>
       <c r="K51" s="10"/>
     </row>
     <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B52" s="13"/>
       <c r="C52" s="13"/>
@@ -2044,19 +2050,19 @@
       </c>
       <c r="B54" s="18"/>
       <c r="C54" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D54" s="18"/>
+      <c r="E54" s="19"/>
+      <c r="F54" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G54" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="D54" s="18"/>
-      <c r="E54" s="17"/>
-      <c r="F54" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="G54" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="H54" s="17"/>
-      <c r="I54" s="17"/>
-      <c r="J54" s="17"/>
+      <c r="H54" s="19"/>
+      <c r="I54" s="19"/>
+      <c r="J54" s="19"/>
       <c r="K54" s="10"/>
       <c r="L54" s="0"/>
       <c r="M54" s="0"/>
@@ -2071,23 +2077,23 @@
     </row>
     <row r="55" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B55" s="18"/>
       <c r="C55" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D55" s="18"/>
-      <c r="E55" s="17" t="s">
+      <c r="E55" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F55" s="20"/>
+      <c r="G55" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="F55" s="19"/>
-      <c r="G55" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="H55" s="17"/>
-      <c r="I55" s="17"/>
-      <c r="J55" s="17"/>
+      <c r="H55" s="19"/>
+      <c r="I55" s="19"/>
+      <c r="J55" s="19"/>
       <c r="K55" s="10"/>
       <c r="L55" s="0"/>
       <c r="M55" s="0"/>
@@ -2102,23 +2108,23 @@
     </row>
     <row r="56" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B56" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B56" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C56" s="19"/>
+      <c r="D56" s="19"/>
+      <c r="E56" s="19"/>
+      <c r="F56" s="20"/>
+      <c r="G56" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="H56" s="19"/>
+      <c r="I56" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="C56" s="17"/>
-      <c r="D56" s="17"/>
-      <c r="E56" s="17"/>
-      <c r="F56" s="19"/>
-      <c r="G56" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="H56" s="17"/>
-      <c r="I56" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="J56" s="17"/>
+      <c r="J56" s="19"/>
       <c r="K56" s="10"/>
       <c r="L56" s="0"/>
       <c r="M56" s="0"/>
@@ -2133,23 +2139,23 @@
     </row>
     <row r="57" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B57" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="C57" s="17"/>
-      <c r="D57" s="17"/>
-      <c r="E57" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="F57" s="19"/>
-      <c r="G57" s="17"/>
-      <c r="H57" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="I57" s="17"/>
-      <c r="J57" s="17"/>
+        <v>20</v>
+      </c>
+      <c r="B57" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C57" s="19"/>
+      <c r="D57" s="19"/>
+      <c r="E57" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F57" s="20"/>
+      <c r="G57" s="19"/>
+      <c r="H57" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="I57" s="19"/>
+      <c r="J57" s="19"/>
       <c r="K57" s="10"/>
       <c r="L57" s="0"/>
       <c r="M57" s="0"/>
@@ -2164,23 +2170,23 @@
     </row>
     <row r="58" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B58" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="C58" s="17"/>
-      <c r="D58" s="17"/>
-      <c r="E58" s="17"/>
-      <c r="F58" s="19"/>
-      <c r="G58" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="H58" s="17"/>
-      <c r="I58" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B58" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="J58" s="17"/>
+      <c r="C58" s="19"/>
+      <c r="D58" s="19"/>
+      <c r="E58" s="19"/>
+      <c r="F58" s="20"/>
+      <c r="G58" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="H58" s="19"/>
+      <c r="I58" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="J58" s="19"/>
       <c r="K58" s="10"/>
       <c r="L58" s="0"/>
       <c r="M58" s="0"/>
@@ -2195,19 +2201,19 @@
     </row>
     <row r="59" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B59" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="C59" s="17"/>
-      <c r="D59" s="17"/>
-      <c r="E59" s="17"/>
-      <c r="F59" s="19"/>
-      <c r="G59" s="17"/>
-      <c r="H59" s="17"/>
-      <c r="I59" s="17"/>
-      <c r="J59" s="17"/>
+        <v>22</v>
+      </c>
+      <c r="B59" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C59" s="19"/>
+      <c r="D59" s="19"/>
+      <c r="E59" s="19"/>
+      <c r="F59" s="20"/>
+      <c r="G59" s="19"/>
+      <c r="H59" s="19"/>
+      <c r="I59" s="19"/>
+      <c r="J59" s="19"/>
       <c r="K59" s="10"/>
       <c r="L59" s="0"/>
       <c r="M59" s="0"/>
@@ -2221,21 +2227,21 @@
       <c r="U59" s="0"/>
     </row>
     <row r="60" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="25"/>
-      <c r="B60" s="26"/>
-      <c r="C60" s="26"/>
-      <c r="D60" s="26"/>
-      <c r="E60" s="26"/>
-      <c r="F60" s="28"/>
-      <c r="G60" s="26"/>
-      <c r="H60" s="26"/>
-      <c r="I60" s="26"/>
-      <c r="J60" s="26"/>
+      <c r="A60" s="26"/>
+      <c r="B60" s="27"/>
+      <c r="C60" s="27"/>
+      <c r="D60" s="27"/>
+      <c r="E60" s="27"/>
+      <c r="F60" s="29"/>
+      <c r="G60" s="27"/>
+      <c r="H60" s="27"/>
+      <c r="I60" s="27"/>
+      <c r="J60" s="27"/>
       <c r="K60" s="10"/>
     </row>
     <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B61" s="13"/>
       <c r="C61" s="13"/>
@@ -2305,23 +2311,23 @@
       <c r="A63" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B63" s="17" t="s">
+      <c r="B63" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C63" s="18"/>
+      <c r="D63" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="C63" s="18"/>
-      <c r="D63" s="17" t="s">
+      <c r="E63" s="19"/>
+      <c r="F63" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G63" s="19"/>
+      <c r="H63" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="E63" s="17"/>
-      <c r="F63" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="G63" s="17"/>
-      <c r="H63" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="I63" s="22"/>
-      <c r="J63" s="17"/>
+      <c r="I63" s="23"/>
+      <c r="J63" s="19"/>
       <c r="K63" s="10"/>
       <c r="L63" s="0"/>
       <c r="M63" s="0"/>
@@ -2336,17 +2342,19 @@
     </row>
     <row r="64" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B64" s="17"/>
-      <c r="C64" s="17"/>
-      <c r="D64" s="17"/>
-      <c r="F64" s="19"/>
-      <c r="G64" s="17"/>
-      <c r="H64" s="17"/>
-      <c r="I64" s="22"/>
-      <c r="J64" s="17" t="s">
-        <v>46</v>
+        <v>18</v>
+      </c>
+      <c r="B64" s="19"/>
+      <c r="C64" s="19"/>
+      <c r="D64" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" s="20"/>
+      <c r="G64" s="19"/>
+      <c r="H64" s="19"/>
+      <c r="I64" s="23"/>
+      <c r="J64" s="19" t="s">
+        <v>45</v>
       </c>
       <c r="K64" s="10"/>
       <c r="L64" s="0"/>
@@ -2362,23 +2370,21 @@
     </row>
     <row r="65" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B65" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B65" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C65" s="19"/>
+      <c r="D65" s="19"/>
+      <c r="E65" s="18"/>
+      <c r="F65" s="20"/>
+      <c r="G65" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="C65" s="17"/>
-      <c r="D65" s="17"/>
-      <c r="E65" s="18"/>
-      <c r="F65" s="19"/>
-      <c r="G65" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="H65" s="17"/>
+      <c r="H65" s="19"/>
       <c r="I65" s="18"/>
-      <c r="J65" s="17" t="s">
-        <v>45</v>
-      </c>
+      <c r="J65" s="17"/>
       <c r="K65" s="10"/>
       <c r="L65" s="0"/>
       <c r="M65" s="0"/>
@@ -2393,19 +2399,19 @@
     </row>
     <row r="66" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B66" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="D66" s="17"/>
-      <c r="E66" s="17"/>
-      <c r="F66" s="19"/>
-      <c r="G66" s="21"/>
-      <c r="H66" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="I66" s="17"/>
+        <v>20</v>
+      </c>
+      <c r="B66" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D66" s="19"/>
+      <c r="E66" s="19"/>
+      <c r="F66" s="20"/>
+      <c r="G66" s="22"/>
+      <c r="H66" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="I66" s="19"/>
       <c r="J66" s="18"/>
       <c r="K66" s="10"/>
       <c r="L66" s="0"/>
@@ -2421,22 +2427,22 @@
     </row>
     <row r="67" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B67" s="17"/>
-      <c r="C67" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="D67" s="17"/>
-      <c r="E67" s="17"/>
-      <c r="F67" s="19"/>
-      <c r="G67" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B67" s="19"/>
+      <c r="C67" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D67" s="19"/>
+      <c r="E67" s="19"/>
+      <c r="F67" s="20"/>
+      <c r="G67" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="H67" s="19"/>
+      <c r="I67" s="22"/>
+      <c r="J67" s="19" t="s">
         <v>45</v>
-      </c>
-      <c r="H67" s="17"/>
-      <c r="I67" s="21"/>
-      <c r="J67" s="17" t="s">
-        <v>46</v>
       </c>
       <c r="K67" s="10"/>
       <c r="L67" s="0"/>
@@ -2452,17 +2458,17 @@
     </row>
     <row r="68" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B68" s="17"/>
-      <c r="C68" s="17"/>
-      <c r="D68" s="17"/>
-      <c r="E68" s="17"/>
-      <c r="F68" s="19"/>
-      <c r="G68" s="17"/>
-      <c r="H68" s="17"/>
-      <c r="I68" s="17"/>
-      <c r="J68" s="17"/>
+        <v>22</v>
+      </c>
+      <c r="B68" s="19"/>
+      <c r="C68" s="19"/>
+      <c r="D68" s="19"/>
+      <c r="E68" s="19"/>
+      <c r="F68" s="20"/>
+      <c r="G68" s="19"/>
+      <c r="H68" s="19"/>
+      <c r="I68" s="19"/>
+      <c r="J68" s="19"/>
       <c r="K68" s="10"/>
       <c r="L68" s="0"/>
       <c r="M68" s="0"/>
@@ -2476,31 +2482,31 @@
       <c r="U68" s="0"/>
     </row>
     <row r="69" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A69" s="25"/>
-      <c r="B69" s="26"/>
-      <c r="C69" s="26"/>
-      <c r="D69" s="26"/>
-      <c r="E69" s="26"/>
-      <c r="F69" s="28"/>
-      <c r="G69" s="26"/>
-      <c r="H69" s="26"/>
-      <c r="I69" s="26"/>
-      <c r="J69" s="26"/>
+      <c r="A69" s="26"/>
+      <c r="B69" s="27"/>
+      <c r="C69" s="27"/>
+      <c r="D69" s="27"/>
+      <c r="E69" s="27"/>
+      <c r="F69" s="29"/>
+      <c r="G69" s="27"/>
+      <c r="H69" s="27"/>
+      <c r="I69" s="27"/>
+      <c r="J69" s="27"/>
       <c r="K69" s="10"/>
-      <c r="L69" s="25"/>
-      <c r="M69" s="26"/>
-      <c r="N69" s="26"/>
-      <c r="O69" s="26"/>
-      <c r="P69" s="26"/>
-      <c r="Q69" s="28"/>
-      <c r="R69" s="26"/>
-      <c r="S69" s="26"/>
-      <c r="T69" s="26"/>
-      <c r="U69" s="26"/>
+      <c r="L69" s="26"/>
+      <c r="M69" s="27"/>
+      <c r="N69" s="27"/>
+      <c r="O69" s="27"/>
+      <c r="P69" s="27"/>
+      <c r="Q69" s="29"/>
+      <c r="R69" s="27"/>
+      <c r="S69" s="27"/>
+      <c r="T69" s="27"/>
+      <c r="U69" s="27"/>
     </row>
     <row r="70" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B70" s="13"/>
       <c r="C70" s="13"/>
@@ -2570,20 +2576,20 @@
       <c r="A72" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B72" s="17"/>
-      <c r="C72" s="17" t="s">
+      <c r="B72" s="19"/>
+      <c r="C72" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="E72" s="18"/>
+      <c r="F72" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G72" s="19"/>
+      <c r="H72" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="E72" s="18"/>
-      <c r="F72" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="G72" s="17"/>
-      <c r="H72" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="I72" s="17"/>
-      <c r="J72" s="17"/>
+      <c r="I72" s="19"/>
+      <c r="J72" s="19"/>
       <c r="K72" s="10"/>
       <c r="L72" s="0"/>
       <c r="M72" s="0"/>
@@ -2598,20 +2604,20 @@
     </row>
     <row r="73" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B73" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="C73" s="22"/>
-      <c r="D73" s="17"/>
-      <c r="E73" s="17"/>
-      <c r="F73" s="19"/>
-      <c r="H73" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="I73" s="17"/>
-      <c r="J73" s="17"/>
+        <v>18</v>
+      </c>
+      <c r="B73" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C73" s="23"/>
+      <c r="D73" s="19"/>
+      <c r="E73" s="19"/>
+      <c r="F73" s="20"/>
+      <c r="H73" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="I73" s="19"/>
+      <c r="J73" s="19"/>
       <c r="K73" s="10"/>
       <c r="L73" s="0"/>
       <c r="M73" s="0"/>
@@ -2626,17 +2632,17 @@
     </row>
     <row r="74" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C74" s="22"/>
-      <c r="E74" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="F74" s="19"/>
-      <c r="G74" s="21"/>
-      <c r="H74" s="17"/>
-      <c r="I74" s="17"/>
-      <c r="J74" s="17"/>
+        <v>19</v>
+      </c>
+      <c r="C74" s="23"/>
+      <c r="E74" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="F74" s="20"/>
+      <c r="G74" s="22"/>
+      <c r="H74" s="19"/>
+      <c r="I74" s="19"/>
+      <c r="J74" s="19"/>
       <c r="K74" s="10"/>
       <c r="L74" s="0"/>
       <c r="M74" s="0"/>
@@ -2651,19 +2657,19 @@
     </row>
     <row r="75" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B75" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="C75" s="17"/>
-      <c r="D75" s="17"/>
-      <c r="E75" s="17"/>
-      <c r="F75" s="19"/>
-      <c r="G75" s="17"/>
-      <c r="H75" s="17"/>
-      <c r="I75" s="17"/>
-      <c r="J75" s="17"/>
+        <v>20</v>
+      </c>
+      <c r="B75" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C75" s="19"/>
+      <c r="D75" s="19"/>
+      <c r="E75" s="19"/>
+      <c r="F75" s="20"/>
+      <c r="G75" s="19"/>
+      <c r="H75" s="19"/>
+      <c r="I75" s="19"/>
+      <c r="J75" s="19"/>
       <c r="K75" s="10"/>
       <c r="L75" s="0"/>
       <c r="M75" s="0"/>
@@ -2678,19 +2684,19 @@
     </row>
     <row r="76" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B76" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="C76" s="17"/>
+        <v>21</v>
+      </c>
+      <c r="B76" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C76" s="19"/>
       <c r="D76" s="18"/>
-      <c r="E76" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="F76" s="19"/>
-      <c r="H76" s="17"/>
-      <c r="I76" s="17"/>
+      <c r="E76" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="F76" s="20"/>
+      <c r="H76" s="19"/>
+      <c r="I76" s="19"/>
       <c r="J76" s="18"/>
       <c r="K76" s="10"/>
       <c r="L76" s="0"/>
@@ -2706,17 +2712,17 @@
     </row>
     <row r="77" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B77" s="17"/>
-      <c r="C77" s="17"/>
-      <c r="D77" s="17"/>
-      <c r="E77" s="17"/>
-      <c r="F77" s="19"/>
-      <c r="G77" s="17"/>
-      <c r="H77" s="17"/>
-      <c r="I77" s="17"/>
-      <c r="J77" s="17"/>
+        <v>22</v>
+      </c>
+      <c r="B77" s="19"/>
+      <c r="C77" s="19"/>
+      <c r="D77" s="19"/>
+      <c r="E77" s="19"/>
+      <c r="F77" s="20"/>
+      <c r="G77" s="19"/>
+      <c r="H77" s="19"/>
+      <c r="I77" s="19"/>
+      <c r="J77" s="19"/>
       <c r="K77" s="10"/>
       <c r="L77" s="0"/>
       <c r="M77" s="0"/>
@@ -2730,21 +2736,21 @@
       <c r="U77" s="0"/>
     </row>
     <row r="78" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A78" s="25"/>
-      <c r="B78" s="26"/>
-      <c r="C78" s="26"/>
-      <c r="D78" s="26"/>
-      <c r="E78" s="26"/>
-      <c r="F78" s="28"/>
-      <c r="G78" s="26"/>
-      <c r="H78" s="26"/>
-      <c r="I78" s="26"/>
-      <c r="J78" s="26"/>
+      <c r="A78" s="26"/>
+      <c r="B78" s="27"/>
+      <c r="C78" s="27"/>
+      <c r="D78" s="27"/>
+      <c r="E78" s="27"/>
+      <c r="F78" s="29"/>
+      <c r="G78" s="27"/>
+      <c r="H78" s="27"/>
+      <c r="I78" s="27"/>
+      <c r="J78" s="27"/>
       <c r="K78" s="10"/>
     </row>
     <row r="79" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B79" s="13"/>
       <c r="C79" s="13"/>
@@ -2794,122 +2800,126 @@
       <c r="A81" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B81" s="22"/>
+      <c r="B81" s="17" t="s">
+        <v>59</v>
+      </c>
       <c r="C81" s="17"/>
-      <c r="D81" s="17"/>
-      <c r="E81" s="17"/>
-      <c r="F81" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="G81" s="17" t="s">
+      <c r="D81" s="19"/>
+      <c r="E81" s="19"/>
+      <c r="F81" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G81" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="H81" s="17"/>
-      <c r="I81" s="17" t="s">
+      <c r="H81" s="19"/>
+      <c r="I81" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="J81" s="17"/>
+      <c r="J81" s="19"/>
       <c r="K81" s="10"/>
     </row>
     <row r="82" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B82" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B82" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C82" s="17"/>
-      <c r="D82" s="17"/>
-      <c r="F82" s="19"/>
-      <c r="G82" s="22"/>
-      <c r="H82" s="17" t="s">
+      <c r="C82" s="19"/>
+      <c r="D82" s="19"/>
+      <c r="F82" s="20"/>
+      <c r="G82" s="23"/>
+      <c r="H82" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="I82" s="17"/>
-      <c r="J82" s="17"/>
+      <c r="I82" s="19"/>
+      <c r="J82" s="19"/>
       <c r="K82" s="10"/>
     </row>
     <row r="83" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B83" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C83" s="17"/>
-      <c r="E83" s="17"/>
-      <c r="F83" s="19"/>
-      <c r="G83" s="17" t="s">
+      <c r="E83" s="19"/>
+      <c r="F83" s="20"/>
+      <c r="G83" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="H83" s="17"/>
-      <c r="I83" s="17"/>
-      <c r="J83" s="17"/>
+      <c r="H83" s="19"/>
+      <c r="I83" s="19"/>
+      <c r="J83" s="19"/>
       <c r="K83" s="10"/>
     </row>
     <row r="84" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B84" s="22"/>
-      <c r="C84" s="17"/>
-      <c r="D84" s="20"/>
-      <c r="E84" s="22"/>
-      <c r="F84" s="19"/>
-      <c r="G84" s="17"/>
+        <v>20</v>
+      </c>
+      <c r="B84" s="23"/>
+      <c r="C84" s="19"/>
+      <c r="D84" s="21"/>
+      <c r="E84" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="F84" s="20"/>
+      <c r="G84" s="19"/>
       <c r="H84" s="18"/>
-      <c r="I84" s="17" t="s">
+      <c r="I84" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="J84" s="17"/>
+      <c r="J84" s="19"/>
       <c r="K84" s="10"/>
     </row>
     <row r="85" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B85" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B85" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="C85" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D85" s="17"/>
-      <c r="E85" s="17"/>
-      <c r="F85" s="19"/>
-      <c r="G85" s="17" t="s">
+      <c r="C85" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D85" s="19"/>
+      <c r="E85" s="19"/>
+      <c r="F85" s="20"/>
+      <c r="G85" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="H85" s="17"/>
+      <c r="H85" s="19"/>
       <c r="J85" s="18"/>
       <c r="K85" s="10"/>
     </row>
     <row r="86" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B86" s="17"/>
-      <c r="C86" s="17"/>
-      <c r="D86" s="17"/>
-      <c r="E86" s="17"/>
-      <c r="F86" s="19"/>
-      <c r="G86" s="17"/>
-      <c r="H86" s="17"/>
-      <c r="I86" s="17"/>
-      <c r="J86" s="17"/>
+        <v>22</v>
+      </c>
+      <c r="B86" s="19"/>
+      <c r="C86" s="19"/>
+      <c r="D86" s="19"/>
+      <c r="E86" s="19"/>
+      <c r="F86" s="20"/>
+      <c r="G86" s="19"/>
+      <c r="H86" s="19"/>
+      <c r="I86" s="19"/>
+      <c r="J86" s="19"/>
       <c r="K86" s="10"/>
     </row>
     <row r="87" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A87" s="25"/>
-      <c r="B87" s="26"/>
-      <c r="C87" s="26"/>
-      <c r="D87" s="26"/>
-      <c r="E87" s="26"/>
-      <c r="F87" s="28"/>
-      <c r="G87" s="26"/>
-      <c r="H87" s="26"/>
-      <c r="I87" s="26"/>
-      <c r="J87" s="26"/>
+      <c r="A87" s="26"/>
+      <c r="B87" s="27"/>
+      <c r="C87" s="27"/>
+      <c r="D87" s="27"/>
+      <c r="E87" s="27"/>
+      <c r="F87" s="29"/>
+      <c r="G87" s="27"/>
+      <c r="H87" s="27"/>
+      <c r="I87" s="27"/>
+      <c r="J87" s="27"/>
       <c r="K87" s="10"/>
     </row>
     <row r="88" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2984,21 +2994,21 @@
       <c r="A90" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B90" s="17" t="s">
+      <c r="B90" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="C90" s="17"/>
-      <c r="D90" s="17"/>
-      <c r="E90" s="17"/>
-      <c r="F90" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="G90" s="17" t="s">
+      <c r="C90" s="19"/>
+      <c r="D90" s="19"/>
+      <c r="E90" s="19"/>
+      <c r="F90" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G90" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="H90" s="17"/>
-      <c r="I90" s="17"/>
-      <c r="J90" s="17"/>
+      <c r="H90" s="19"/>
+      <c r="I90" s="19"/>
+      <c r="J90" s="19"/>
       <c r="K90" s="10"/>
       <c r="L90" s="0"/>
       <c r="M90" s="0"/>
@@ -3013,23 +3023,23 @@
     </row>
     <row r="91" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B91" s="17"/>
-      <c r="C91" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B91" s="19"/>
+      <c r="C91" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="D91" s="17"/>
-      <c r="E91" s="17"/>
-      <c r="F91" s="19"/>
-      <c r="G91" s="17" t="s">
+      <c r="D91" s="19"/>
+      <c r="E91" s="19"/>
+      <c r="F91" s="20"/>
+      <c r="G91" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="H91" s="17"/>
-      <c r="I91" s="17" t="s">
+      <c r="H91" s="19"/>
+      <c r="I91" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="J91" s="17"/>
+      <c r="J91" s="19"/>
       <c r="K91" s="10"/>
       <c r="L91" s="0"/>
       <c r="M91" s="0"/>
@@ -3044,21 +3054,21 @@
     </row>
     <row r="92" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B92" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B92" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="C92" s="17"/>
-      <c r="D92" s="17"/>
-      <c r="E92" s="17"/>
-      <c r="F92" s="19"/>
-      <c r="G92" s="17"/>
-      <c r="H92" s="17" t="s">
+      <c r="C92" s="19"/>
+      <c r="D92" s="19"/>
+      <c r="E92" s="19"/>
+      <c r="F92" s="20"/>
+      <c r="G92" s="19"/>
+      <c r="H92" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="I92" s="17"/>
-      <c r="J92" s="17"/>
+      <c r="I92" s="19"/>
+      <c r="J92" s="19"/>
       <c r="K92" s="10"/>
       <c r="L92" s="0"/>
       <c r="M92" s="0"/>
@@ -3073,21 +3083,21 @@
     </row>
     <row r="93" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B93" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B93" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="C93" s="17"/>
-      <c r="D93" s="17"/>
-      <c r="E93" s="17"/>
-      <c r="F93" s="19"/>
-      <c r="G93" s="17" t="s">
+      <c r="C93" s="19"/>
+      <c r="D93" s="19"/>
+      <c r="E93" s="19"/>
+      <c r="F93" s="20"/>
+      <c r="G93" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="H93" s="17"/>
-      <c r="I93" s="17"/>
-      <c r="J93" s="17"/>
+      <c r="H93" s="19"/>
+      <c r="I93" s="19"/>
+      <c r="J93" s="19"/>
       <c r="K93" s="10"/>
       <c r="L93" s="0"/>
       <c r="M93" s="0"/>
@@ -3102,23 +3112,23 @@
     </row>
     <row r="94" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B94" s="17"/>
-      <c r="C94" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B94" s="19"/>
+      <c r="C94" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="D94" s="17"/>
-      <c r="E94" s="17" t="s">
+      <c r="D94" s="19"/>
+      <c r="E94" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="F94" s="19"/>
-      <c r="G94" s="17"/>
-      <c r="H94" s="17" t="s">
+      <c r="F94" s="20"/>
+      <c r="G94" s="19"/>
+      <c r="H94" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="I94" s="17"/>
-      <c r="J94" s="17"/>
+      <c r="I94" s="19"/>
+      <c r="J94" s="19"/>
       <c r="K94" s="10"/>
       <c r="L94" s="0"/>
       <c r="M94" s="0"/>
@@ -3133,19 +3143,19 @@
     </row>
     <row r="95" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B95" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B95" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="C95" s="17"/>
-      <c r="D95" s="17"/>
-      <c r="E95" s="17"/>
-      <c r="F95" s="19"/>
-      <c r="G95" s="17"/>
-      <c r="H95" s="17"/>
-      <c r="I95" s="17"/>
-      <c r="J95" s="17"/>
+      <c r="C95" s="19"/>
+      <c r="D95" s="19"/>
+      <c r="E95" s="19"/>
+      <c r="F95" s="20"/>
+      <c r="G95" s="19"/>
+      <c r="H95" s="19"/>
+      <c r="I95" s="19"/>
+      <c r="J95" s="19"/>
       <c r="K95" s="10"/>
       <c r="L95" s="0"/>
       <c r="M95" s="0"/>
@@ -3159,27 +3169,27 @@
       <c r="U95" s="0"/>
     </row>
     <row r="96" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A96" s="25"/>
-      <c r="B96" s="26"/>
-      <c r="C96" s="26"/>
-      <c r="D96" s="26"/>
-      <c r="E96" s="26"/>
-      <c r="F96" s="28"/>
-      <c r="G96" s="26"/>
-      <c r="H96" s="26"/>
-      <c r="I96" s="26"/>
-      <c r="J96" s="26"/>
+      <c r="A96" s="26"/>
+      <c r="B96" s="27"/>
+      <c r="C96" s="27"/>
+      <c r="D96" s="27"/>
+      <c r="E96" s="27"/>
+      <c r="F96" s="29"/>
+      <c r="G96" s="27"/>
+      <c r="H96" s="27"/>
+      <c r="I96" s="27"/>
+      <c r="J96" s="27"/>
       <c r="K96" s="10"/>
-      <c r="L96" s="25"/>
-      <c r="M96" s="26"/>
-      <c r="N96" s="26"/>
-      <c r="O96" s="26"/>
-      <c r="P96" s="26"/>
-      <c r="Q96" s="28"/>
-      <c r="R96" s="26"/>
-      <c r="S96" s="26"/>
-      <c r="T96" s="26"/>
-      <c r="U96" s="26"/>
+      <c r="L96" s="26"/>
+      <c r="M96" s="27"/>
+      <c r="N96" s="27"/>
+      <c r="O96" s="27"/>
+      <c r="P96" s="27"/>
+      <c r="Q96" s="29"/>
+      <c r="R96" s="27"/>
+      <c r="S96" s="27"/>
+      <c r="T96" s="27"/>
+      <c r="U96" s="27"/>
     </row>
     <row r="97" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="12" t="s">
@@ -3252,17 +3262,17 @@
       <c r="A99" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B99" s="17"/>
-      <c r="C99" s="17"/>
-      <c r="D99" s="17"/>
-      <c r="E99" s="17"/>
-      <c r="F99" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="G99" s="21"/>
-      <c r="H99" s="17"/>
-      <c r="I99" s="17"/>
-      <c r="J99" s="17"/>
+      <c r="B99" s="19"/>
+      <c r="C99" s="19"/>
+      <c r="D99" s="19"/>
+      <c r="E99" s="19"/>
+      <c r="F99" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G99" s="22"/>
+      <c r="H99" s="19"/>
+      <c r="I99" s="19"/>
+      <c r="J99" s="19"/>
       <c r="L99" s="0"/>
       <c r="M99" s="0"/>
       <c r="N99" s="0"/>
@@ -3276,17 +3286,17 @@
     </row>
     <row r="100" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B100" s="17"/>
-      <c r="C100" s="29"/>
-      <c r="D100" s="22"/>
-      <c r="E100" s="21"/>
-      <c r="F100" s="19"/>
-      <c r="G100" s="17"/>
-      <c r="H100" s="17"/>
-      <c r="I100" s="17"/>
-      <c r="J100" s="17"/>
+        <v>18</v>
+      </c>
+      <c r="B100" s="19"/>
+      <c r="C100" s="30"/>
+      <c r="D100" s="23"/>
+      <c r="E100" s="22"/>
+      <c r="F100" s="20"/>
+      <c r="G100" s="19"/>
+      <c r="H100" s="19"/>
+      <c r="I100" s="19"/>
+      <c r="J100" s="19"/>
       <c r="L100" s="0"/>
       <c r="M100" s="0"/>
       <c r="N100" s="0"/>
@@ -3300,17 +3310,17 @@
     </row>
     <row r="101" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B101" s="21"/>
-      <c r="C101" s="22"/>
-      <c r="D101" s="30"/>
-      <c r="E101" s="17"/>
-      <c r="F101" s="19"/>
-      <c r="G101" s="17"/>
-      <c r="H101" s="17"/>
-      <c r="I101" s="17"/>
-      <c r="J101" s="17"/>
+        <v>19</v>
+      </c>
+      <c r="B101" s="22"/>
+      <c r="C101" s="23"/>
+      <c r="D101" s="31"/>
+      <c r="E101" s="19"/>
+      <c r="F101" s="20"/>
+      <c r="G101" s="19"/>
+      <c r="H101" s="19"/>
+      <c r="I101" s="19"/>
+      <c r="J101" s="19"/>
       <c r="L101" s="0"/>
       <c r="M101" s="0"/>
       <c r="N101" s="0"/>
@@ -3324,17 +3334,17 @@
     </row>
     <row r="102" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B102" s="17"/>
-      <c r="C102" s="17"/>
-      <c r="D102" s="17"/>
-      <c r="E102" s="17"/>
-      <c r="F102" s="19"/>
-      <c r="G102" s="17"/>
-      <c r="H102" s="17"/>
-      <c r="I102" s="17"/>
-      <c r="J102" s="17"/>
+        <v>20</v>
+      </c>
+      <c r="B102" s="19"/>
+      <c r="C102" s="19"/>
+      <c r="D102" s="19"/>
+      <c r="E102" s="19"/>
+      <c r="F102" s="20"/>
+      <c r="G102" s="19"/>
+      <c r="H102" s="19"/>
+      <c r="I102" s="19"/>
+      <c r="J102" s="19"/>
       <c r="L102" s="0"/>
       <c r="M102" s="0"/>
       <c r="N102" s="0"/>
@@ -3348,17 +3358,17 @@
     </row>
     <row r="103" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B103" s="17"/>
-      <c r="C103" s="17"/>
-      <c r="D103" s="17"/>
-      <c r="E103" s="17"/>
-      <c r="F103" s="19"/>
-      <c r="G103" s="17"/>
-      <c r="H103" s="17"/>
-      <c r="I103" s="17"/>
-      <c r="J103" s="17"/>
+        <v>21</v>
+      </c>
+      <c r="B103" s="19"/>
+      <c r="C103" s="19"/>
+      <c r="D103" s="19"/>
+      <c r="E103" s="19"/>
+      <c r="F103" s="20"/>
+      <c r="G103" s="19"/>
+      <c r="H103" s="19"/>
+      <c r="I103" s="19"/>
+      <c r="J103" s="19"/>
       <c r="L103" s="0"/>
       <c r="M103" s="0"/>
       <c r="N103" s="0"/>
@@ -3372,17 +3382,17 @@
     </row>
     <row r="104" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B104" s="17"/>
-      <c r="C104" s="17"/>
-      <c r="D104" s="17"/>
-      <c r="E104" s="17"/>
-      <c r="F104" s="19"/>
-      <c r="G104" s="17"/>
-      <c r="H104" s="17"/>
-      <c r="I104" s="17"/>
-      <c r="J104" s="17"/>
+        <v>22</v>
+      </c>
+      <c r="B104" s="19"/>
+      <c r="C104" s="19"/>
+      <c r="D104" s="19"/>
+      <c r="E104" s="19"/>
+      <c r="F104" s="20"/>
+      <c r="G104" s="19"/>
+      <c r="H104" s="19"/>
+      <c r="I104" s="19"/>
+      <c r="J104" s="19"/>
       <c r="L104" s="0"/>
       <c r="M104" s="0"/>
       <c r="N104" s="0"/>
@@ -3395,26 +3405,26 @@
       <c r="U104" s="0"/>
     </row>
     <row r="105" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A105" s="25"/>
-      <c r="B105" s="26"/>
-      <c r="C105" s="26"/>
-      <c r="D105" s="26"/>
-      <c r="E105" s="26"/>
-      <c r="F105" s="28"/>
-      <c r="G105" s="26"/>
-      <c r="H105" s="26"/>
-      <c r="I105" s="26"/>
-      <c r="J105" s="26"/>
-      <c r="L105" s="25"/>
-      <c r="M105" s="26"/>
-      <c r="N105" s="26"/>
-      <c r="O105" s="26"/>
-      <c r="P105" s="26"/>
-      <c r="Q105" s="28"/>
-      <c r="R105" s="26"/>
-      <c r="S105" s="26"/>
-      <c r="T105" s="26"/>
-      <c r="U105" s="26"/>
+      <c r="A105" s="26"/>
+      <c r="B105" s="27"/>
+      <c r="C105" s="27"/>
+      <c r="D105" s="27"/>
+      <c r="E105" s="27"/>
+      <c r="F105" s="29"/>
+      <c r="G105" s="27"/>
+      <c r="H105" s="27"/>
+      <c r="I105" s="27"/>
+      <c r="J105" s="27"/>
+      <c r="L105" s="26"/>
+      <c r="M105" s="27"/>
+      <c r="N105" s="27"/>
+      <c r="O105" s="27"/>
+      <c r="P105" s="27"/>
+      <c r="Q105" s="29"/>
+      <c r="R105" s="27"/>
+      <c r="S105" s="27"/>
+      <c r="T105" s="27"/>
+      <c r="U105" s="27"/>
     </row>
     <row r="106" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="12" t="s">
@@ -3486,19 +3496,19 @@
       <c r="A108" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B108" s="17" t="s">
+      <c r="B108" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="C108" s="17"/>
-      <c r="D108" s="17"/>
-      <c r="E108" s="17"/>
-      <c r="F108" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="G108" s="17"/>
-      <c r="H108" s="17"/>
-      <c r="I108" s="17"/>
-      <c r="J108" s="17"/>
+      <c r="C108" s="19"/>
+      <c r="D108" s="19"/>
+      <c r="E108" s="19"/>
+      <c r="F108" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G108" s="19"/>
+      <c r="H108" s="19"/>
+      <c r="I108" s="19"/>
+      <c r="J108" s="19"/>
       <c r="L108" s="0"/>
       <c r="M108" s="0"/>
       <c r="N108" s="0"/>
@@ -3512,19 +3522,19 @@
     </row>
     <row r="109" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B109" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B109" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="C109" s="17"/>
-      <c r="D109" s="17"/>
-      <c r="E109" s="17"/>
-      <c r="F109" s="19"/>
-      <c r="G109" s="17"/>
-      <c r="H109" s="17"/>
-      <c r="I109" s="17"/>
-      <c r="J109" s="17"/>
+      <c r="C109" s="19"/>
+      <c r="D109" s="19"/>
+      <c r="E109" s="19"/>
+      <c r="F109" s="20"/>
+      <c r="G109" s="19"/>
+      <c r="H109" s="19"/>
+      <c r="I109" s="19"/>
+      <c r="J109" s="19"/>
       <c r="L109" s="0"/>
       <c r="M109" s="0"/>
       <c r="N109" s="0"/>
@@ -3538,17 +3548,17 @@
     </row>
     <row r="110" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B110" s="17"/>
-      <c r="C110" s="17"/>
-      <c r="D110" s="17"/>
-      <c r="E110" s="17"/>
-      <c r="F110" s="19"/>
-      <c r="G110" s="17"/>
-      <c r="H110" s="17"/>
-      <c r="I110" s="17"/>
-      <c r="J110" s="22"/>
+        <v>19</v>
+      </c>
+      <c r="B110" s="19"/>
+      <c r="C110" s="19"/>
+      <c r="D110" s="19"/>
+      <c r="E110" s="19"/>
+      <c r="F110" s="20"/>
+      <c r="G110" s="19"/>
+      <c r="H110" s="19"/>
+      <c r="I110" s="19"/>
+      <c r="J110" s="23"/>
       <c r="L110" s="0"/>
       <c r="M110" s="0"/>
       <c r="N110" s="0"/>
@@ -3562,17 +3572,17 @@
     </row>
     <row r="111" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B111" s="17"/>
-      <c r="C111" s="17"/>
-      <c r="D111" s="17"/>
-      <c r="E111" s="17"/>
-      <c r="F111" s="19"/>
-      <c r="G111" s="17"/>
-      <c r="H111" s="17"/>
-      <c r="I111" s="17"/>
-      <c r="J111" s="17"/>
+        <v>20</v>
+      </c>
+      <c r="B111" s="19"/>
+      <c r="C111" s="19"/>
+      <c r="D111" s="19"/>
+      <c r="E111" s="19"/>
+      <c r="F111" s="20"/>
+      <c r="G111" s="19"/>
+      <c r="H111" s="19"/>
+      <c r="I111" s="19"/>
+      <c r="J111" s="19"/>
       <c r="L111" s="0"/>
       <c r="M111" s="0"/>
       <c r="N111" s="0"/>
@@ -3586,17 +3596,17 @@
     </row>
     <row r="112" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B112" s="17"/>
-      <c r="C112" s="17"/>
-      <c r="D112" s="17"/>
-      <c r="E112" s="17"/>
-      <c r="F112" s="19"/>
-      <c r="G112" s="22"/>
-      <c r="H112" s="17"/>
-      <c r="I112" s="17"/>
-      <c r="J112" s="17"/>
+        <v>21</v>
+      </c>
+      <c r="B112" s="19"/>
+      <c r="C112" s="19"/>
+      <c r="D112" s="19"/>
+      <c r="E112" s="19"/>
+      <c r="F112" s="20"/>
+      <c r="G112" s="23"/>
+      <c r="H112" s="19"/>
+      <c r="I112" s="19"/>
+      <c r="J112" s="19"/>
       <c r="L112" s="0"/>
       <c r="M112" s="0"/>
       <c r="N112" s="0"/>
@@ -3610,17 +3620,17 @@
     </row>
     <row r="113" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B113" s="17"/>
-      <c r="C113" s="17"/>
-      <c r="D113" s="17"/>
-      <c r="E113" s="17"/>
-      <c r="F113" s="19"/>
-      <c r="G113" s="17"/>
-      <c r="H113" s="17"/>
-      <c r="I113" s="17"/>
-      <c r="J113" s="17"/>
+        <v>22</v>
+      </c>
+      <c r="B113" s="19"/>
+      <c r="C113" s="19"/>
+      <c r="D113" s="19"/>
+      <c r="E113" s="19"/>
+      <c r="F113" s="20"/>
+      <c r="G113" s="19"/>
+      <c r="H113" s="19"/>
+      <c r="I113" s="19"/>
+      <c r="J113" s="19"/>
       <c r="L113" s="0"/>
       <c r="M113" s="0"/>
       <c r="N113" s="0"/>
@@ -3633,16 +3643,16 @@
       <c r="U113" s="0"/>
     </row>
     <row r="114" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A114" s="25"/>
-      <c r="B114" s="26"/>
-      <c r="C114" s="26"/>
-      <c r="D114" s="26"/>
-      <c r="E114" s="26"/>
-      <c r="F114" s="28"/>
-      <c r="G114" s="26"/>
-      <c r="H114" s="26"/>
-      <c r="I114" s="26"/>
-      <c r="J114" s="26"/>
+      <c r="A114" s="26"/>
+      <c r="B114" s="27"/>
+      <c r="C114" s="27"/>
+      <c r="D114" s="27"/>
+      <c r="E114" s="27"/>
+      <c r="F114" s="29"/>
+      <c r="G114" s="27"/>
+      <c r="H114" s="27"/>
+      <c r="I114" s="27"/>
+      <c r="J114" s="27"/>
     </row>
     <row r="115" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="12" t="s">
@@ -3694,126 +3704,126 @@
       <c r="A117" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B117" s="17" t="s">
+      <c r="B117" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="C117" s="17"/>
-      <c r="D117" s="17"/>
-      <c r="E117" s="17"/>
-      <c r="F117" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="G117" s="17"/>
-      <c r="H117" s="17" t="s">
+      <c r="C117" s="19"/>
+      <c r="D117" s="19"/>
+      <c r="E117" s="19"/>
+      <c r="F117" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G117" s="19"/>
+      <c r="H117" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="I117" s="17"/>
-      <c r="J117" s="17"/>
+      <c r="I117" s="19"/>
+      <c r="J117" s="19"/>
     </row>
     <row r="118" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B118" s="17"/>
-      <c r="C118" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B118" s="19"/>
+      <c r="C118" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="D118" s="17"/>
-      <c r="E118" s="17"/>
-      <c r="F118" s="19"/>
-      <c r="G118" s="17" t="s">
+      <c r="D118" s="19"/>
+      <c r="E118" s="19"/>
+      <c r="F118" s="20"/>
+      <c r="G118" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="H118" s="17"/>
-      <c r="I118" s="17" t="s">
+      <c r="H118" s="19"/>
+      <c r="I118" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="J118" s="17"/>
+      <c r="J118" s="19"/>
     </row>
     <row r="119" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B119" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B119" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="C119" s="17"/>
-      <c r="D119" s="17" t="s">
+      <c r="C119" s="19"/>
+      <c r="D119" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="E119" s="17"/>
-      <c r="F119" s="19"/>
-      <c r="G119" s="17"/>
-      <c r="H119" s="17" t="s">
+      <c r="E119" s="19"/>
+      <c r="F119" s="20"/>
+      <c r="G119" s="19"/>
+      <c r="H119" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="I119" s="17"/>
-      <c r="J119" s="17"/>
+      <c r="I119" s="19"/>
+      <c r="J119" s="19"/>
     </row>
     <row r="120" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B120" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B120" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="C120" s="17"/>
-      <c r="D120" s="17"/>
-      <c r="F120" s="19"/>
-      <c r="G120" s="17" t="s">
+      <c r="C120" s="19"/>
+      <c r="D120" s="19"/>
+      <c r="F120" s="20"/>
+      <c r="G120" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="H120" s="17"/>
-      <c r="I120" s="17"/>
-      <c r="J120" s="17"/>
+      <c r="H120" s="19"/>
+      <c r="I120" s="19"/>
+      <c r="J120" s="19"/>
     </row>
     <row r="121" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B121" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B121" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C121" s="17"/>
-      <c r="D121" s="17" t="s">
+      <c r="C121" s="19"/>
+      <c r="D121" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="E121" s="17"/>
-      <c r="F121" s="19"/>
-      <c r="G121" s="17"/>
-      <c r="H121" s="17" t="s">
+      <c r="E121" s="19"/>
+      <c r="F121" s="20"/>
+      <c r="G121" s="19"/>
+      <c r="H121" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="I121" s="17"/>
-      <c r="J121" s="17"/>
+      <c r="I121" s="19"/>
+      <c r="J121" s="19"/>
     </row>
     <row r="122" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B122" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B122" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="C122" s="17"/>
-      <c r="D122" s="17"/>
-      <c r="E122" s="17"/>
-      <c r="F122" s="19"/>
-      <c r="G122" s="17"/>
-      <c r="H122" s="17"/>
-      <c r="I122" s="17"/>
-      <c r="J122" s="17"/>
+      <c r="C122" s="19"/>
+      <c r="D122" s="19"/>
+      <c r="E122" s="19"/>
+      <c r="F122" s="20"/>
+      <c r="G122" s="19"/>
+      <c r="H122" s="19"/>
+      <c r="I122" s="19"/>
+      <c r="J122" s="19"/>
     </row>
     <row r="123" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A123" s="25"/>
-      <c r="B123" s="26"/>
-      <c r="C123" s="26"/>
-      <c r="D123" s="26"/>
-      <c r="E123" s="26"/>
-      <c r="F123" s="28"/>
-      <c r="G123" s="26"/>
-      <c r="H123" s="26"/>
-      <c r="I123" s="26"/>
-      <c r="J123" s="26"/>
+      <c r="A123" s="26"/>
+      <c r="B123" s="27"/>
+      <c r="C123" s="27"/>
+      <c r="D123" s="27"/>
+      <c r="E123" s="27"/>
+      <c r="F123" s="29"/>
+      <c r="G123" s="27"/>
+      <c r="H123" s="27"/>
+      <c r="I123" s="27"/>
+      <c r="J123" s="27"/>
     </row>
     <row r="124" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="12" t="s">
@@ -3865,119 +3875,119 @@
       <c r="A126" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B126" s="17" t="s">
+      <c r="B126" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="C126" s="17"/>
-      <c r="D126" s="17" t="s">
+      <c r="C126" s="19"/>
+      <c r="D126" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="E126" s="17"/>
-      <c r="F126" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="G126" s="17" t="s">
+      <c r="E126" s="19"/>
+      <c r="F126" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G126" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="H126" s="17"/>
-      <c r="I126" s="17"/>
-      <c r="J126" s="17"/>
+      <c r="H126" s="19"/>
+      <c r="I126" s="19"/>
+      <c r="J126" s="19"/>
     </row>
     <row r="127" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B127" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B127" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="C127" s="17"/>
-      <c r="D127" s="17"/>
-      <c r="E127" s="17"/>
-      <c r="F127" s="19"/>
-      <c r="G127" s="17"/>
-      <c r="H127" s="17" t="s">
+      <c r="C127" s="19"/>
+      <c r="D127" s="19"/>
+      <c r="E127" s="19"/>
+      <c r="F127" s="20"/>
+      <c r="G127" s="19"/>
+      <c r="H127" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="I127" s="17"/>
-      <c r="J127" s="17"/>
+      <c r="I127" s="19"/>
+      <c r="J127" s="19"/>
     </row>
     <row r="128" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B128" s="17"/>
-      <c r="C128" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B128" s="19"/>
+      <c r="C128" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="D128" s="17"/>
-      <c r="E128" s="17"/>
-      <c r="F128" s="19"/>
-      <c r="G128" s="17"/>
-      <c r="H128" s="17"/>
-      <c r="I128" s="17"/>
-      <c r="J128" s="17"/>
+      <c r="D128" s="19"/>
+      <c r="E128" s="19"/>
+      <c r="F128" s="20"/>
+      <c r="G128" s="19"/>
+      <c r="H128" s="19"/>
+      <c r="I128" s="19"/>
+      <c r="J128" s="19"/>
     </row>
     <row r="129" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A129" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B129" s="17"/>
-      <c r="C129" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B129" s="19"/>
+      <c r="C129" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="D129" s="17"/>
-      <c r="E129" s="17"/>
-      <c r="F129" s="19"/>
-      <c r="G129" s="17" t="s">
+      <c r="D129" s="19"/>
+      <c r="E129" s="19"/>
+      <c r="F129" s="20"/>
+      <c r="G129" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="H129" s="17"/>
-      <c r="I129" s="17"/>
-      <c r="J129" s="17"/>
+      <c r="H129" s="19"/>
+      <c r="I129" s="19"/>
+      <c r="J129" s="19"/>
     </row>
     <row r="130" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B130" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B130" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="C130" s="17"/>
-      <c r="D130" s="17"/>
-      <c r="E130" s="17"/>
-      <c r="F130" s="19"/>
-      <c r="G130" s="17"/>
-      <c r="H130" s="17"/>
-      <c r="I130" s="17"/>
-      <c r="J130" s="17"/>
+      <c r="C130" s="19"/>
+      <c r="D130" s="19"/>
+      <c r="E130" s="19"/>
+      <c r="F130" s="20"/>
+      <c r="G130" s="19"/>
+      <c r="H130" s="19"/>
+      <c r="I130" s="19"/>
+      <c r="J130" s="19"/>
     </row>
     <row r="131" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A131" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B131" s="17"/>
-      <c r="C131" s="17"/>
-      <c r="D131" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B131" s="19"/>
+      <c r="C131" s="19"/>
+      <c r="D131" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="E131" s="17"/>
-      <c r="F131" s="19"/>
-      <c r="G131" s="17"/>
-      <c r="H131" s="17"/>
-      <c r="I131" s="17"/>
-      <c r="J131" s="17"/>
+      <c r="E131" s="19"/>
+      <c r="F131" s="20"/>
+      <c r="G131" s="19"/>
+      <c r="H131" s="19"/>
+      <c r="I131" s="19"/>
+      <c r="J131" s="19"/>
     </row>
     <row r="132" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A132" s="25"/>
-      <c r="B132" s="26"/>
-      <c r="C132" s="26"/>
-      <c r="D132" s="26"/>
-      <c r="E132" s="26"/>
-      <c r="F132" s="28"/>
-      <c r="G132" s="26"/>
-      <c r="H132" s="26"/>
-      <c r="I132" s="26"/>
-      <c r="J132" s="26"/>
+      <c r="A132" s="26"/>
+      <c r="B132" s="27"/>
+      <c r="C132" s="27"/>
+      <c r="D132" s="27"/>
+      <c r="E132" s="27"/>
+      <c r="F132" s="29"/>
+      <c r="G132" s="27"/>
+      <c r="H132" s="27"/>
+      <c r="I132" s="27"/>
+      <c r="J132" s="27"/>
     </row>
     <row r="133" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A133" s="12" t="s">
@@ -4019,7 +4029,7 @@
       <c r="E134" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F134" s="31" t="s">
+      <c r="F134" s="32" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="16" t="s">
@@ -4049,16 +4059,16 @@
       <c r="A135" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B135" s="17"/>
-      <c r="D135" s="32" t="s">
+      <c r="B135" s="19"/>
+      <c r="D135" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="F135" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="G135" s="17"/>
-      <c r="H135" s="17"/>
-      <c r="J135" s="24"/>
+      <c r="F135" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G135" s="19"/>
+      <c r="H135" s="19"/>
+      <c r="J135" s="25"/>
       <c r="L135" s="0"/>
       <c r="M135" s="0"/>
       <c r="N135" s="0"/>
@@ -4072,19 +4082,19 @@
     </row>
     <row r="136" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A136" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B136" s="17"/>
-      <c r="C136" s="17"/>
-      <c r="D136" s="17"/>
-      <c r="E136" s="24"/>
-      <c r="F136" s="19"/>
-      <c r="G136" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B136" s="19"/>
+      <c r="C136" s="19"/>
+      <c r="D136" s="19"/>
+      <c r="E136" s="25"/>
+      <c r="F136" s="20"/>
+      <c r="G136" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="H136" s="17"/>
-      <c r="I136" s="17"/>
-      <c r="J136" s="17"/>
+      <c r="H136" s="19"/>
+      <c r="I136" s="19"/>
+      <c r="J136" s="19"/>
       <c r="L136" s="0"/>
       <c r="M136" s="0"/>
       <c r="N136" s="0"/>
@@ -4098,21 +4108,21 @@
     </row>
     <row r="137" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A137" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B137" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B137" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="C137" s="17"/>
-      <c r="D137" s="17"/>
-      <c r="E137" s="17"/>
-      <c r="F137" s="19"/>
-      <c r="G137" s="24" t="s">
+      <c r="C137" s="19"/>
+      <c r="D137" s="19"/>
+      <c r="E137" s="19"/>
+      <c r="F137" s="20"/>
+      <c r="G137" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="H137" s="22"/>
-      <c r="I137" s="17"/>
-      <c r="J137" s="17"/>
+      <c r="H137" s="23"/>
+      <c r="I137" s="19"/>
+      <c r="J137" s="19"/>
       <c r="L137" s="0"/>
       <c r="M137" s="0"/>
       <c r="N137" s="0"/>
@@ -4126,21 +4136,21 @@
     </row>
     <row r="138" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A138" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B138" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B138" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="C138" s="17"/>
-      <c r="D138" s="17"/>
-      <c r="E138" s="17"/>
-      <c r="F138" s="19"/>
-      <c r="G138" s="17"/>
-      <c r="H138" s="17" t="s">
+      <c r="C138" s="19"/>
+      <c r="D138" s="19"/>
+      <c r="E138" s="19"/>
+      <c r="F138" s="20"/>
+      <c r="G138" s="19"/>
+      <c r="H138" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="I138" s="24"/>
-      <c r="J138" s="24" t="s">
+      <c r="I138" s="25"/>
+      <c r="J138" s="25" t="s">
         <v>99</v>
       </c>
       <c r="L138" s="0"/>
@@ -4156,19 +4166,19 @@
     </row>
     <row r="139" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A139" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B139" s="17"/>
-      <c r="C139" s="17"/>
-      <c r="D139" s="24"/>
-      <c r="E139" s="17"/>
-      <c r="F139" s="19"/>
-      <c r="G139" s="17"/>
-      <c r="H139" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B139" s="19"/>
+      <c r="C139" s="19"/>
+      <c r="D139" s="25"/>
+      <c r="E139" s="19"/>
+      <c r="F139" s="20"/>
+      <c r="G139" s="19"/>
+      <c r="H139" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="I139" s="17"/>
-      <c r="J139" s="22"/>
+      <c r="I139" s="19"/>
+      <c r="J139" s="23"/>
       <c r="L139" s="0"/>
       <c r="M139" s="0"/>
       <c r="N139" s="0"/>
@@ -4182,17 +4192,17 @@
     </row>
     <row r="140" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A140" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B140" s="17"/>
-      <c r="C140" s="17"/>
-      <c r="D140" s="17"/>
-      <c r="E140" s="17"/>
-      <c r="F140" s="19"/>
-      <c r="G140" s="17"/>
-      <c r="H140" s="17"/>
-      <c r="I140" s="17"/>
-      <c r="J140" s="17"/>
+        <v>22</v>
+      </c>
+      <c r="B140" s="19"/>
+      <c r="C140" s="19"/>
+      <c r="D140" s="19"/>
+      <c r="E140" s="19"/>
+      <c r="F140" s="20"/>
+      <c r="G140" s="19"/>
+      <c r="H140" s="19"/>
+      <c r="I140" s="19"/>
+      <c r="J140" s="19"/>
       <c r="L140" s="0"/>
       <c r="M140" s="0"/>
       <c r="N140" s="0"/>
@@ -4215,16 +4225,16 @@
       <c r="H141" s="0"/>
       <c r="I141" s="0"/>
       <c r="J141" s="0"/>
-      <c r="L141" s="25"/>
-      <c r="M141" s="26"/>
-      <c r="N141" s="26"/>
-      <c r="O141" s="26"/>
-      <c r="P141" s="26"/>
-      <c r="Q141" s="28"/>
-      <c r="R141" s="26"/>
-      <c r="S141" s="26"/>
-      <c r="T141" s="26"/>
-      <c r="U141" s="26"/>
+      <c r="L141" s="26"/>
+      <c r="M141" s="27"/>
+      <c r="N141" s="27"/>
+      <c r="O141" s="27"/>
+      <c r="P141" s="27"/>
+      <c r="Q141" s="29"/>
+      <c r="R141" s="27"/>
+      <c r="S141" s="27"/>
+      <c r="T141" s="27"/>
+      <c r="U141" s="27"/>
     </row>
     <row r="142" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="12" t="s">
@@ -4296,19 +4306,19 @@
       <c r="A144" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B144" s="17"/>
-      <c r="C144" s="17"/>
-      <c r="D144" s="17"/>
-      <c r="E144" s="17"/>
-      <c r="F144" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="G144" s="17" t="s">
+      <c r="B144" s="19"/>
+      <c r="C144" s="19"/>
+      <c r="D144" s="19"/>
+      <c r="E144" s="19"/>
+      <c r="F144" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G144" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="H144" s="17"/>
-      <c r="I144" s="17"/>
-      <c r="J144" s="17"/>
+      <c r="H144" s="19"/>
+      <c r="I144" s="19"/>
+      <c r="J144" s="19"/>
       <c r="L144" s="0"/>
       <c r="M144" s="0"/>
       <c r="N144" s="0"/>
@@ -4322,17 +4332,17 @@
     </row>
     <row r="145" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A145" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B145" s="17"/>
-      <c r="C145" s="17"/>
-      <c r="D145" s="17"/>
-      <c r="E145" s="17"/>
-      <c r="F145" s="19"/>
-      <c r="G145" s="17"/>
-      <c r="H145" s="17"/>
-      <c r="I145" s="17"/>
-      <c r="J145" s="17"/>
+        <v>18</v>
+      </c>
+      <c r="B145" s="19"/>
+      <c r="C145" s="19"/>
+      <c r="D145" s="19"/>
+      <c r="E145" s="19"/>
+      <c r="F145" s="20"/>
+      <c r="G145" s="19"/>
+      <c r="H145" s="19"/>
+      <c r="I145" s="19"/>
+      <c r="J145" s="19"/>
       <c r="L145" s="0"/>
       <c r="M145" s="0"/>
       <c r="N145" s="0"/>
@@ -4346,17 +4356,17 @@
     </row>
     <row r="146" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A146" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B146" s="17"/>
-      <c r="C146" s="17"/>
-      <c r="D146" s="17"/>
-      <c r="E146" s="17"/>
-      <c r="F146" s="19"/>
-      <c r="G146" s="17"/>
-      <c r="H146" s="17"/>
-      <c r="I146" s="17"/>
-      <c r="J146" s="17"/>
+        <v>19</v>
+      </c>
+      <c r="B146" s="19"/>
+      <c r="C146" s="19"/>
+      <c r="D146" s="19"/>
+      <c r="E146" s="19"/>
+      <c r="F146" s="20"/>
+      <c r="G146" s="19"/>
+      <c r="H146" s="19"/>
+      <c r="I146" s="19"/>
+      <c r="J146" s="19"/>
       <c r="L146" s="0"/>
       <c r="M146" s="0"/>
       <c r="N146" s="0"/>
@@ -4370,17 +4380,17 @@
     </row>
     <row r="147" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A147" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B147" s="17"/>
-      <c r="C147" s="17"/>
-      <c r="D147" s="17"/>
-      <c r="E147" s="17"/>
-      <c r="F147" s="19"/>
-      <c r="G147" s="17"/>
-      <c r="H147" s="17"/>
-      <c r="I147" s="17"/>
-      <c r="J147" s="17"/>
+        <v>20</v>
+      </c>
+      <c r="B147" s="19"/>
+      <c r="C147" s="19"/>
+      <c r="D147" s="19"/>
+      <c r="E147" s="19"/>
+      <c r="F147" s="20"/>
+      <c r="G147" s="19"/>
+      <c r="H147" s="19"/>
+      <c r="I147" s="19"/>
+      <c r="J147" s="19"/>
       <c r="L147" s="0"/>
       <c r="M147" s="0"/>
       <c r="N147" s="0"/>
@@ -4394,17 +4404,17 @@
     </row>
     <row r="148" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A148" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B148" s="17"/>
-      <c r="C148" s="17"/>
-      <c r="D148" s="17"/>
-      <c r="E148" s="17"/>
-      <c r="F148" s="19"/>
-      <c r="G148" s="17"/>
-      <c r="H148" s="22"/>
-      <c r="I148" s="22"/>
-      <c r="J148" s="22"/>
+        <v>21</v>
+      </c>
+      <c r="B148" s="19"/>
+      <c r="C148" s="19"/>
+      <c r="D148" s="19"/>
+      <c r="E148" s="19"/>
+      <c r="F148" s="20"/>
+      <c r="G148" s="19"/>
+      <c r="H148" s="23"/>
+      <c r="I148" s="23"/>
+      <c r="J148" s="23"/>
       <c r="L148" s="0"/>
       <c r="M148" s="0"/>
       <c r="N148" s="0"/>
@@ -4418,17 +4428,17 @@
     </row>
     <row r="149" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A149" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B149" s="17"/>
-      <c r="C149" s="17"/>
-      <c r="D149" s="17"/>
-      <c r="E149" s="17"/>
-      <c r="F149" s="19"/>
-      <c r="G149" s="17"/>
-      <c r="H149" s="17"/>
-      <c r="I149" s="17"/>
-      <c r="J149" s="17"/>
+        <v>22</v>
+      </c>
+      <c r="B149" s="19"/>
+      <c r="C149" s="19"/>
+      <c r="D149" s="19"/>
+      <c r="E149" s="19"/>
+      <c r="F149" s="20"/>
+      <c r="G149" s="19"/>
+      <c r="H149" s="19"/>
+      <c r="I149" s="19"/>
+      <c r="J149" s="19"/>
       <c r="L149" s="0"/>
       <c r="M149" s="0"/>
       <c r="N149" s="0"/>
@@ -4441,16 +4451,16 @@
       <c r="U149" s="0"/>
     </row>
     <row r="150" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A150" s="25"/>
-      <c r="B150" s="26"/>
-      <c r="C150" s="26"/>
-      <c r="D150" s="26"/>
-      <c r="E150" s="26"/>
-      <c r="F150" s="28"/>
-      <c r="G150" s="26"/>
-      <c r="H150" s="26"/>
-      <c r="I150" s="26"/>
-      <c r="J150" s="26"/>
+      <c r="A150" s="26"/>
+      <c r="B150" s="27"/>
+      <c r="C150" s="27"/>
+      <c r="D150" s="27"/>
+      <c r="E150" s="27"/>
+      <c r="F150" s="29"/>
+      <c r="G150" s="27"/>
+      <c r="H150" s="27"/>
+      <c r="I150" s="27"/>
+      <c r="J150" s="27"/>
     </row>
     <row r="151" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A151" s="12" t="s">
@@ -4503,94 +4513,94 @@
       <c r="A153" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B153" s="17"/>
-      <c r="C153" s="17" t="s">
+      <c r="B153" s="19"/>
+      <c r="C153" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="D153" s="17"/>
-      <c r="E153" s="17"/>
-      <c r="F153" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="G153" s="17"/>
-      <c r="H153" s="17"/>
-      <c r="I153" s="17"/>
-      <c r="J153" s="17"/>
+      <c r="D153" s="19"/>
+      <c r="E153" s="19"/>
+      <c r="F153" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G153" s="19"/>
+      <c r="H153" s="19"/>
+      <c r="I153" s="19"/>
+      <c r="J153" s="19"/>
       <c r="L153" s="2"/>
     </row>
     <row r="154" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A154" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B154" s="17"/>
-      <c r="C154" s="17"/>
-      <c r="D154" s="21"/>
-      <c r="E154" s="17"/>
-      <c r="F154" s="19"/>
-      <c r="G154" s="17"/>
-      <c r="H154" s="17"/>
-      <c r="I154" s="21"/>
-      <c r="J154" s="17"/>
+        <v>18</v>
+      </c>
+      <c r="B154" s="19"/>
+      <c r="C154" s="19"/>
+      <c r="D154" s="22"/>
+      <c r="E154" s="19"/>
+      <c r="F154" s="20"/>
+      <c r="G154" s="19"/>
+      <c r="H154" s="19"/>
+      <c r="I154" s="22"/>
+      <c r="J154" s="19"/>
     </row>
     <row r="155" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A155" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B155" s="17"/>
-      <c r="C155" s="17"/>
-      <c r="D155" s="21"/>
-      <c r="E155" s="17"/>
-      <c r="F155" s="19"/>
-      <c r="G155" s="17"/>
-      <c r="H155" s="17"/>
-      <c r="I155" s="21"/>
-      <c r="J155" s="17"/>
+        <v>19</v>
+      </c>
+      <c r="B155" s="19"/>
+      <c r="C155" s="19"/>
+      <c r="D155" s="22"/>
+      <c r="E155" s="19"/>
+      <c r="F155" s="20"/>
+      <c r="G155" s="19"/>
+      <c r="H155" s="19"/>
+      <c r="I155" s="22"/>
+      <c r="J155" s="19"/>
     </row>
     <row r="156" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A156" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B156" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B156" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="C156" s="17"/>
-      <c r="D156" s="17"/>
-      <c r="E156" s="17"/>
-      <c r="F156" s="19"/>
-      <c r="G156" s="17"/>
-      <c r="H156" s="17"/>
-      <c r="I156" s="21"/>
-      <c r="J156" s="17"/>
+      <c r="C156" s="19"/>
+      <c r="D156" s="19"/>
+      <c r="E156" s="19"/>
+      <c r="F156" s="20"/>
+      <c r="G156" s="19"/>
+      <c r="H156" s="19"/>
+      <c r="I156" s="22"/>
+      <c r="J156" s="19"/>
       <c r="L156" s="1"/>
     </row>
     <row r="157" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A157" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B157" s="17"/>
-      <c r="C157" s="17"/>
-      <c r="D157" s="21"/>
-      <c r="E157" s="17"/>
-      <c r="F157" s="19"/>
-      <c r="G157" s="17"/>
-      <c r="H157" s="17"/>
-      <c r="I157" s="21"/>
-      <c r="J157" s="17"/>
+        <v>21</v>
+      </c>
+      <c r="B157" s="19"/>
+      <c r="C157" s="19"/>
+      <c r="D157" s="22"/>
+      <c r="E157" s="19"/>
+      <c r="F157" s="20"/>
+      <c r="G157" s="19"/>
+      <c r="H157" s="19"/>
+      <c r="I157" s="22"/>
+      <c r="J157" s="19"/>
       <c r="L157" s="1"/>
     </row>
     <row r="158" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A158" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B158" s="17"/>
-      <c r="C158" s="17"/>
-      <c r="D158" s="17"/>
-      <c r="E158" s="17"/>
-      <c r="F158" s="19"/>
-      <c r="G158" s="17"/>
-      <c r="H158" s="17"/>
-      <c r="I158" s="17"/>
-      <c r="J158" s="17"/>
+        <v>22</v>
+      </c>
+      <c r="B158" s="19"/>
+      <c r="C158" s="19"/>
+      <c r="D158" s="19"/>
+      <c r="E158" s="19"/>
+      <c r="F158" s="20"/>
+      <c r="G158" s="19"/>
+      <c r="H158" s="19"/>
+      <c r="I158" s="19"/>
+      <c r="J158" s="19"/>
     </row>
     <row r="159" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="160" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4644,92 +4654,92 @@
       <c r="A162" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B162" s="17"/>
-      <c r="C162" s="17"/>
-      <c r="D162" s="17"/>
-      <c r="E162" s="17"/>
-      <c r="F162" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="G162" s="17"/>
-      <c r="H162" s="17"/>
-      <c r="I162" s="17"/>
-      <c r="J162" s="17"/>
+      <c r="B162" s="19"/>
+      <c r="C162" s="19"/>
+      <c r="D162" s="19"/>
+      <c r="E162" s="19"/>
+      <c r="F162" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G162" s="19"/>
+      <c r="H162" s="19"/>
+      <c r="I162" s="19"/>
+      <c r="J162" s="19"/>
       <c r="L162" s="2"/>
     </row>
     <row r="163" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A163" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B163" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B163" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="C163" s="21"/>
-      <c r="D163" s="21"/>
-      <c r="E163" s="17"/>
-      <c r="F163" s="19"/>
-      <c r="G163" s="17"/>
-      <c r="H163" s="17"/>
-      <c r="I163" s="17"/>
-      <c r="J163" s="17"/>
+      <c r="C163" s="22"/>
+      <c r="D163" s="22"/>
+      <c r="E163" s="19"/>
+      <c r="F163" s="20"/>
+      <c r="G163" s="19"/>
+      <c r="H163" s="19"/>
+      <c r="I163" s="19"/>
+      <c r="J163" s="19"/>
     </row>
     <row r="164" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A164" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C164" s="21"/>
-      <c r="D164" s="17"/>
-      <c r="F164" s="19"/>
-      <c r="G164" s="17"/>
-      <c r="H164" s="17"/>
-      <c r="I164" s="17"/>
-      <c r="J164" s="17"/>
+        <v>19</v>
+      </c>
+      <c r="C164" s="22"/>
+      <c r="D164" s="19"/>
+      <c r="F164" s="20"/>
+      <c r="G164" s="19"/>
+      <c r="H164" s="19"/>
+      <c r="I164" s="19"/>
+      <c r="J164" s="19"/>
       <c r="L164" s="1"/>
     </row>
     <row r="165" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A165" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B165" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B165" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="C165" s="21"/>
-      <c r="D165" s="21"/>
-      <c r="E165" s="17"/>
-      <c r="F165" s="19"/>
-      <c r="G165" s="21"/>
-      <c r="H165" s="17"/>
-      <c r="I165" s="17"/>
-      <c r="J165" s="17"/>
+      <c r="C165" s="22"/>
+      <c r="D165" s="22"/>
+      <c r="E165" s="19"/>
+      <c r="F165" s="20"/>
+      <c r="G165" s="22"/>
+      <c r="H165" s="19"/>
+      <c r="I165" s="19"/>
+      <c r="J165" s="19"/>
       <c r="L165" s="1"/>
     </row>
     <row r="166" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A166" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B166" s="17"/>
-      <c r="C166" s="17"/>
-      <c r="D166" s="17"/>
-      <c r="E166" s="17"/>
-      <c r="F166" s="19"/>
-      <c r="G166" s="17"/>
-      <c r="H166" s="17"/>
-      <c r="I166" s="17"/>
-      <c r="J166" s="17"/>
+        <v>21</v>
+      </c>
+      <c r="B166" s="19"/>
+      <c r="C166" s="19"/>
+      <c r="D166" s="19"/>
+      <c r="E166" s="19"/>
+      <c r="F166" s="20"/>
+      <c r="G166" s="19"/>
+      <c r="H166" s="19"/>
+      <c r="I166" s="19"/>
+      <c r="J166" s="19"/>
     </row>
     <row r="167" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A167" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B167" s="17"/>
-      <c r="C167" s="17"/>
-      <c r="D167" s="17"/>
-      <c r="E167" s="17"/>
-      <c r="F167" s="19"/>
-      <c r="G167" s="17"/>
-      <c r="H167" s="17"/>
-      <c r="I167" s="17"/>
-      <c r="J167" s="17"/>
+        <v>22</v>
+      </c>
+      <c r="B167" s="19"/>
+      <c r="C167" s="19"/>
+      <c r="D167" s="19"/>
+      <c r="E167" s="19"/>
+      <c r="F167" s="20"/>
+      <c r="G167" s="19"/>
+      <c r="H167" s="19"/>
+      <c r="I167" s="19"/>
+      <c r="J167" s="19"/>
     </row>
     <row r="168" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="169" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4784,107 +4794,107 @@
       <c r="A171" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B171" s="17" t="s">
+      <c r="B171" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="C171" s="17"/>
-      <c r="D171" s="17"/>
-      <c r="E171" s="17"/>
-      <c r="F171" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="G171" s="17"/>
-      <c r="H171" s="17"/>
-      <c r="I171" s="17"/>
-      <c r="J171" s="17"/>
+      <c r="C171" s="19"/>
+      <c r="D171" s="19"/>
+      <c r="E171" s="19"/>
+      <c r="F171" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G171" s="19"/>
+      <c r="H171" s="19"/>
+      <c r="I171" s="19"/>
+      <c r="J171" s="19"/>
     </row>
     <row r="172" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A172" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B172" s="22"/>
-      <c r="C172" s="22"/>
-      <c r="D172" s="17"/>
-      <c r="E172" s="17"/>
-      <c r="F172" s="19"/>
-      <c r="G172" s="17"/>
-      <c r="H172" s="17"/>
-      <c r="I172" s="17"/>
-      <c r="J172" s="17"/>
+        <v>18</v>
+      </c>
+      <c r="B172" s="23"/>
+      <c r="C172" s="23"/>
+      <c r="D172" s="19"/>
+      <c r="E172" s="19"/>
+      <c r="F172" s="20"/>
+      <c r="G172" s="19"/>
+      <c r="H172" s="19"/>
+      <c r="I172" s="19"/>
+      <c r="J172" s="19"/>
     </row>
     <row r="173" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A173" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B173" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B173" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="C173" s="21"/>
-      <c r="D173" s="21"/>
-      <c r="E173" s="17"/>
-      <c r="F173" s="19"/>
-      <c r="G173" s="17"/>
-      <c r="H173" s="17"/>
-      <c r="I173" s="17" t="s">
+      <c r="C173" s="22"/>
+      <c r="D173" s="22"/>
+      <c r="E173" s="19"/>
+      <c r="F173" s="20"/>
+      <c r="G173" s="19"/>
+      <c r="H173" s="19"/>
+      <c r="I173" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="J173" s="17"/>
+      <c r="J173" s="19"/>
       <c r="L173" s="1"/>
     </row>
     <row r="174" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A174" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B174" s="21"/>
-      <c r="C174" s="21"/>
-      <c r="D174" s="21"/>
-      <c r="E174" s="17"/>
-      <c r="F174" s="19"/>
-      <c r="G174" s="17"/>
-      <c r="H174" s="17"/>
-      <c r="I174" s="17"/>
-      <c r="J174" s="17"/>
+        <v>20</v>
+      </c>
+      <c r="B174" s="22"/>
+      <c r="C174" s="22"/>
+      <c r="D174" s="22"/>
+      <c r="E174" s="19"/>
+      <c r="F174" s="20"/>
+      <c r="G174" s="19"/>
+      <c r="H174" s="19"/>
+      <c r="I174" s="19"/>
+      <c r="J174" s="19"/>
       <c r="L174" s="1"/>
     </row>
     <row r="175" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A175" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B175" s="17"/>
-      <c r="C175" s="20"/>
-      <c r="D175" s="17"/>
-      <c r="E175" s="17"/>
-      <c r="F175" s="19"/>
-      <c r="G175" s="17"/>
-      <c r="H175" s="17"/>
-      <c r="I175" s="17"/>
-      <c r="J175" s="17"/>
+        <v>21</v>
+      </c>
+      <c r="B175" s="19"/>
+      <c r="C175" s="21"/>
+      <c r="D175" s="19"/>
+      <c r="E175" s="19"/>
+      <c r="F175" s="20"/>
+      <c r="G175" s="19"/>
+      <c r="H175" s="19"/>
+      <c r="I175" s="19"/>
+      <c r="J175" s="19"/>
     </row>
     <row r="176" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A176" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B176" s="17"/>
-      <c r="C176" s="17"/>
-      <c r="D176" s="17"/>
-      <c r="E176" s="17"/>
-      <c r="F176" s="19"/>
-      <c r="G176" s="17"/>
-      <c r="H176" s="17"/>
-      <c r="I176" s="17"/>
-      <c r="J176" s="17"/>
+        <v>22</v>
+      </c>
+      <c r="B176" s="19"/>
+      <c r="C176" s="19"/>
+      <c r="D176" s="19"/>
+      <c r="E176" s="19"/>
+      <c r="F176" s="20"/>
+      <c r="G176" s="19"/>
+      <c r="H176" s="19"/>
+      <c r="I176" s="19"/>
+      <c r="J176" s="19"/>
     </row>
     <row r="177" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A177" s="25"/>
-      <c r="B177" s="26"/>
-      <c r="C177" s="26"/>
-      <c r="D177" s="26"/>
-      <c r="E177" s="26"/>
-      <c r="F177" s="28"/>
-      <c r="G177" s="26"/>
-      <c r="H177" s="26"/>
-      <c r="I177" s="26"/>
-      <c r="J177" s="26"/>
+      <c r="A177" s="26"/>
+      <c r="B177" s="27"/>
+      <c r="C177" s="27"/>
+      <c r="D177" s="27"/>
+      <c r="E177" s="27"/>
+      <c r="F177" s="29"/>
+      <c r="G177" s="27"/>
+      <c r="H177" s="27"/>
+      <c r="I177" s="27"/>
+      <c r="J177" s="27"/>
     </row>
     <row r="178" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A178" s="12" t="s">
@@ -4938,125 +4948,125 @@
       <c r="A180" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B180" s="17" t="s">
+      <c r="B180" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="C180" s="17"/>
-      <c r="D180" s="17"/>
-      <c r="E180" s="17"/>
-      <c r="F180" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="G180" s="17" t="s">
+      <c r="C180" s="19"/>
+      <c r="D180" s="19"/>
+      <c r="E180" s="19"/>
+      <c r="F180" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G180" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="H180" s="17"/>
-      <c r="J180" s="17" t="s">
+      <c r="H180" s="19"/>
+      <c r="J180" s="19" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="181" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A181" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B181" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B181" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="C181" s="17"/>
-      <c r="D181" s="17" t="s">
+      <c r="C181" s="19"/>
+      <c r="D181" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="E181" s="17"/>
-      <c r="F181" s="19"/>
+      <c r="E181" s="19"/>
+      <c r="F181" s="20"/>
       <c r="G181" s="18"/>
-      <c r="H181" s="33" t="s">
+      <c r="H181" s="34" t="s">
         <v>119</v>
       </c>
-      <c r="I181" s="33"/>
-      <c r="J181" s="22"/>
+      <c r="I181" s="34"/>
+      <c r="J181" s="23"/>
     </row>
     <row r="182" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A182" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B182" s="17"/>
-      <c r="C182" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B182" s="19"/>
+      <c r="C182" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="D182" s="17"/>
-      <c r="E182" s="22"/>
-      <c r="F182" s="19"/>
-      <c r="G182" s="24" t="s">
+      <c r="D182" s="19"/>
+      <c r="E182" s="23"/>
+      <c r="F182" s="20"/>
+      <c r="G182" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="I182" s="17"/>
-      <c r="J182" s="17"/>
+      <c r="I182" s="19"/>
+      <c r="J182" s="19"/>
     </row>
     <row r="183" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A183" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B183" s="17"/>
-      <c r="C183" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B183" s="19"/>
+      <c r="C183" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="D183" s="17"/>
-      <c r="E183" s="22"/>
-      <c r="F183" s="19"/>
-      <c r="G183" s="17" t="s">
+      <c r="D183" s="19"/>
+      <c r="E183" s="23"/>
+      <c r="F183" s="20"/>
+      <c r="G183" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="H183" s="22"/>
+      <c r="H183" s="23"/>
       <c r="I183" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="J183" s="17"/>
+      <c r="J183" s="19"/>
     </row>
     <row r="184" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A184" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B184" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B184" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="C184" s="17"/>
-      <c r="D184" s="17" t="s">
+      <c r="C184" s="19"/>
+      <c r="D184" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="E184" s="17"/>
-      <c r="F184" s="19"/>
-      <c r="G184" s="22"/>
-      <c r="H184" s="17" t="s">
+      <c r="E184" s="19"/>
+      <c r="F184" s="20"/>
+      <c r="G184" s="23"/>
+      <c r="H184" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="I184" s="17"/>
-      <c r="J184" s="22"/>
+      <c r="I184" s="19"/>
+      <c r="J184" s="23"/>
     </row>
     <row r="185" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A185" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B185" s="17"/>
-      <c r="C185" s="17"/>
-      <c r="D185" s="17"/>
-      <c r="E185" s="17"/>
-      <c r="F185" s="19"/>
-      <c r="G185" s="17"/>
-      <c r="H185" s="17"/>
-      <c r="I185" s="17"/>
-      <c r="J185" s="17"/>
+        <v>22</v>
+      </c>
+      <c r="B185" s="19"/>
+      <c r="C185" s="19"/>
+      <c r="D185" s="19"/>
+      <c r="E185" s="19"/>
+      <c r="F185" s="20"/>
+      <c r="G185" s="19"/>
+      <c r="H185" s="19"/>
+      <c r="I185" s="19"/>
+      <c r="J185" s="19"/>
     </row>
     <row r="186" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A186" s="25"/>
-      <c r="B186" s="26"/>
-      <c r="C186" s="26"/>
-      <c r="D186" s="26"/>
-      <c r="E186" s="26"/>
-      <c r="F186" s="28"/>
-      <c r="G186" s="26"/>
-      <c r="H186" s="26"/>
-      <c r="I186" s="26"/>
-      <c r="J186" s="26"/>
+      <c r="A186" s="26"/>
+      <c r="B186" s="27"/>
+      <c r="C186" s="27"/>
+      <c r="D186" s="27"/>
+      <c r="E186" s="27"/>
+      <c r="F186" s="29"/>
+      <c r="G186" s="27"/>
+      <c r="H186" s="27"/>
+      <c r="I186" s="27"/>
+      <c r="J186" s="27"/>
     </row>
     <row r="187" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A187" s="12" t="s">
@@ -5108,103 +5118,103 @@
       <c r="A189" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B189" s="17"/>
-      <c r="C189" s="17"/>
-      <c r="D189" s="17"/>
-      <c r="E189" s="17"/>
-      <c r="F189" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="G189" s="17"/>
+      <c r="B189" s="19"/>
+      <c r="C189" s="19"/>
+      <c r="D189" s="19"/>
+      <c r="E189" s="19"/>
+      <c r="F189" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G189" s="19"/>
       <c r="H189" s="18"/>
-      <c r="I189" s="17"/>
-      <c r="J189" s="17"/>
+      <c r="I189" s="19"/>
+      <c r="J189" s="19"/>
     </row>
     <row r="190" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A190" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B190" s="17"/>
-      <c r="C190" s="17"/>
-      <c r="D190" s="17"/>
-      <c r="E190" s="17"/>
-      <c r="F190" s="19"/>
-      <c r="G190" s="17"/>
-      <c r="H190" s="17"/>
-      <c r="I190" s="17"/>
-      <c r="J190" s="17"/>
+        <v>18</v>
+      </c>
+      <c r="B190" s="19"/>
+      <c r="C190" s="19"/>
+      <c r="D190" s="19"/>
+      <c r="E190" s="19"/>
+      <c r="F190" s="20"/>
+      <c r="G190" s="19"/>
+      <c r="H190" s="19"/>
+      <c r="I190" s="19"/>
+      <c r="J190" s="19"/>
     </row>
     <row r="191" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A191" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B191" s="17"/>
-      <c r="C191" s="17"/>
-      <c r="D191" s="17"/>
-      <c r="E191" s="17"/>
-      <c r="F191" s="19"/>
-      <c r="G191" s="17"/>
-      <c r="H191" s="17"/>
-      <c r="I191" s="17"/>
-      <c r="J191" s="17"/>
+        <v>19</v>
+      </c>
+      <c r="B191" s="19"/>
+      <c r="C191" s="19"/>
+      <c r="D191" s="19"/>
+      <c r="E191" s="19"/>
+      <c r="F191" s="20"/>
+      <c r="G191" s="19"/>
+      <c r="H191" s="19"/>
+      <c r="I191" s="19"/>
+      <c r="J191" s="19"/>
       <c r="L191" s="1"/>
     </row>
     <row r="192" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A192" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B192" s="17"/>
-      <c r="C192" s="17"/>
-      <c r="D192" s="17"/>
-      <c r="E192" s="17"/>
-      <c r="F192" s="19"/>
-      <c r="G192" s="17"/>
-      <c r="H192" s="17"/>
-      <c r="I192" s="17"/>
-      <c r="J192" s="17"/>
+        <v>20</v>
+      </c>
+      <c r="B192" s="19"/>
+      <c r="C192" s="19"/>
+      <c r="D192" s="19"/>
+      <c r="E192" s="19"/>
+      <c r="F192" s="20"/>
+      <c r="G192" s="19"/>
+      <c r="H192" s="19"/>
+      <c r="I192" s="19"/>
+      <c r="J192" s="19"/>
       <c r="L192" s="1"/>
     </row>
     <row r="193" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A193" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B193" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B193" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="C193" s="17"/>
-      <c r="D193" s="17"/>
-      <c r="E193" s="17"/>
-      <c r="F193" s="19"/>
-      <c r="G193" s="17"/>
-      <c r="H193" s="17"/>
-      <c r="I193" s="17"/>
-      <c r="J193" s="17"/>
+      <c r="C193" s="19"/>
+      <c r="D193" s="19"/>
+      <c r="E193" s="19"/>
+      <c r="F193" s="20"/>
+      <c r="G193" s="19"/>
+      <c r="H193" s="19"/>
+      <c r="I193" s="19"/>
+      <c r="J193" s="19"/>
     </row>
     <row r="194" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A194" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B194" s="17"/>
-      <c r="C194" s="17"/>
-      <c r="D194" s="17"/>
-      <c r="E194" s="17"/>
-      <c r="F194" s="19"/>
-      <c r="G194" s="17"/>
-      <c r="H194" s="17"/>
-      <c r="I194" s="17"/>
-      <c r="J194" s="17"/>
+        <v>22</v>
+      </c>
+      <c r="B194" s="19"/>
+      <c r="C194" s="19"/>
+      <c r="D194" s="19"/>
+      <c r="E194" s="19"/>
+      <c r="F194" s="20"/>
+      <c r="G194" s="19"/>
+      <c r="H194" s="19"/>
+      <c r="I194" s="19"/>
+      <c r="J194" s="19"/>
     </row>
     <row r="195" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A195" s="25"/>
-      <c r="B195" s="26"/>
-      <c r="C195" s="26"/>
-      <c r="D195" s="26"/>
-      <c r="E195" s="26"/>
-      <c r="F195" s="28"/>
-      <c r="G195" s="26"/>
-      <c r="H195" s="26"/>
-      <c r="I195" s="26"/>
-      <c r="J195" s="26"/>
+      <c r="A195" s="26"/>
+      <c r="B195" s="27"/>
+      <c r="C195" s="27"/>
+      <c r="D195" s="27"/>
+      <c r="E195" s="27"/>
+      <c r="F195" s="29"/>
+      <c r="G195" s="27"/>
+      <c r="H195" s="27"/>
+      <c r="I195" s="27"/>
+      <c r="J195" s="27"/>
     </row>
     <row r="196" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A196" s="12" t="s">
@@ -5258,111 +5268,111 @@
       <c r="A198" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B198" s="17"/>
-      <c r="C198" s="17"/>
-      <c r="D198" s="17"/>
-      <c r="E198" s="17"/>
-      <c r="F198" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="G198" s="17"/>
-      <c r="H198" s="17"/>
-      <c r="I198" s="17"/>
-      <c r="J198" s="17"/>
+      <c r="B198" s="19"/>
+      <c r="C198" s="19"/>
+      <c r="D198" s="19"/>
+      <c r="E198" s="19"/>
+      <c r="F198" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G198" s="19"/>
+      <c r="H198" s="19"/>
+      <c r="I198" s="19"/>
+      <c r="J198" s="19"/>
     </row>
     <row r="199" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A199" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B199" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B199" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="C199" s="17"/>
-      <c r="D199" s="17"/>
-      <c r="E199" s="17"/>
-      <c r="F199" s="19"/>
-      <c r="G199" s="17"/>
-      <c r="H199" s="17"/>
-      <c r="I199" s="17"/>
-      <c r="J199" s="17"/>
+      <c r="C199" s="19"/>
+      <c r="D199" s="19"/>
+      <c r="E199" s="19"/>
+      <c r="F199" s="20"/>
+      <c r="G199" s="19"/>
+      <c r="H199" s="19"/>
+      <c r="I199" s="19"/>
+      <c r="J199" s="19"/>
     </row>
     <row r="200" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A200" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B200" s="17"/>
-      <c r="C200" s="17"/>
-      <c r="D200" s="21"/>
+        <v>19</v>
+      </c>
+      <c r="B200" s="19"/>
+      <c r="C200" s="19"/>
+      <c r="D200" s="22"/>
       <c r="E200" s="18"/>
-      <c r="F200" s="19"/>
-      <c r="G200" s="17"/>
-      <c r="H200" s="17" t="s">
+      <c r="F200" s="20"/>
+      <c r="G200" s="19"/>
+      <c r="H200" s="19" t="s">
         <v>126</v>
       </c>
       <c r="I200" s="18"/>
-      <c r="J200" s="22"/>
+      <c r="J200" s="23"/>
       <c r="L200" s="1"/>
     </row>
     <row r="201" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A201" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B201" s="22"/>
-      <c r="C201" s="17"/>
-      <c r="D201" s="17"/>
-      <c r="E201" s="22"/>
-      <c r="F201" s="19"/>
-      <c r="G201" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B201" s="23"/>
+      <c r="C201" s="19"/>
+      <c r="D201" s="19"/>
+      <c r="E201" s="23"/>
+      <c r="F201" s="20"/>
+      <c r="G201" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="H201" s="17"/>
-      <c r="I201" s="17"/>
-      <c r="J201" s="17"/>
+      <c r="H201" s="19"/>
+      <c r="I201" s="19"/>
+      <c r="J201" s="19"/>
       <c r="L201" s="1"/>
     </row>
     <row r="202" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A202" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B202" s="17"/>
-      <c r="C202" s="17"/>
-      <c r="D202" s="17"/>
-      <c r="E202" s="17"/>
-      <c r="F202" s="19"/>
-      <c r="G202" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B202" s="19"/>
+      <c r="C202" s="19"/>
+      <c r="D202" s="19"/>
+      <c r="E202" s="19"/>
+      <c r="F202" s="20"/>
+      <c r="G202" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="H202" s="17"/>
-      <c r="I202" s="17"/>
-      <c r="J202" s="17"/>
+      <c r="H202" s="19"/>
+      <c r="I202" s="19"/>
+      <c r="J202" s="19"/>
     </row>
     <row r="203" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A203" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B203" s="17"/>
-      <c r="C203" s="17"/>
-      <c r="D203" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B203" s="19"/>
+      <c r="C203" s="19"/>
+      <c r="D203" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="E203" s="17"/>
-      <c r="F203" s="19"/>
-      <c r="G203" s="17"/>
-      <c r="H203" s="17"/>
-      <c r="I203" s="17"/>
-      <c r="J203" s="17"/>
+      <c r="E203" s="19"/>
+      <c r="F203" s="20"/>
+      <c r="G203" s="19"/>
+      <c r="H203" s="19"/>
+      <c r="I203" s="19"/>
+      <c r="J203" s="19"/>
     </row>
     <row r="204" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A204" s="25"/>
-      <c r="B204" s="26"/>
-      <c r="C204" s="26"/>
-      <c r="D204" s="26"/>
-      <c r="E204" s="26"/>
-      <c r="F204" s="28"/>
-      <c r="G204" s="26"/>
-      <c r="H204" s="26"/>
-      <c r="I204" s="26"/>
-      <c r="J204" s="26"/>
+      <c r="A204" s="26"/>
+      <c r="B204" s="27"/>
+      <c r="C204" s="27"/>
+      <c r="D204" s="27"/>
+      <c r="E204" s="27"/>
+      <c r="F204" s="29"/>
+      <c r="G204" s="27"/>
+      <c r="H204" s="27"/>
+      <c r="I204" s="27"/>
+      <c r="J204" s="27"/>
     </row>
     <row r="205" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A205" s="12" t="s">
@@ -5416,123 +5426,123 @@
       <c r="A207" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B207" s="17"/>
-      <c r="C207" s="17" t="s">
+      <c r="B207" s="19"/>
+      <c r="C207" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="D207" s="17"/>
-      <c r="E207" s="17" t="s">
+      <c r="D207" s="19"/>
+      <c r="E207" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="F207" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="G207" s="17"/>
-      <c r="H207" s="17" t="s">
+      <c r="F207" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G207" s="19"/>
+      <c r="H207" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="I207" s="17"/>
-      <c r="J207" s="17"/>
+      <c r="I207" s="19"/>
+      <c r="J207" s="19"/>
     </row>
     <row r="208" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A208" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B208" s="17"/>
-      <c r="C208" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B208" s="19"/>
+      <c r="C208" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="D208" s="17"/>
-      <c r="E208" s="17"/>
-      <c r="F208" s="19"/>
-      <c r="G208" s="17"/>
-      <c r="H208" s="17" t="s">
+      <c r="D208" s="19"/>
+      <c r="E208" s="19"/>
+      <c r="F208" s="20"/>
+      <c r="G208" s="19"/>
+      <c r="H208" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="I208" s="17"/>
-      <c r="J208" s="17"/>
+      <c r="I208" s="19"/>
+      <c r="J208" s="19"/>
     </row>
     <row r="209" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A209" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B209" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B209" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="C209" s="17"/>
-      <c r="D209" s="17"/>
-      <c r="E209" s="17"/>
-      <c r="F209" s="19"/>
-      <c r="G209" s="17"/>
-      <c r="H209" s="17"/>
-      <c r="I209" s="17" t="s">
+      <c r="C209" s="19"/>
+      <c r="D209" s="19"/>
+      <c r="E209" s="19"/>
+      <c r="F209" s="20"/>
+      <c r="G209" s="19"/>
+      <c r="H209" s="19"/>
+      <c r="I209" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="J209" s="17"/>
+      <c r="J209" s="19"/>
       <c r="L209" s="1"/>
     </row>
     <row r="210" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A210" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B210" s="17"/>
-      <c r="C210" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B210" s="19"/>
+      <c r="C210" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="D210" s="17"/>
-      <c r="E210" s="17"/>
-      <c r="F210" s="19"/>
-      <c r="G210" s="17" t="s">
+      <c r="D210" s="19"/>
+      <c r="E210" s="19"/>
+      <c r="F210" s="20"/>
+      <c r="G210" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="H210" s="17"/>
-      <c r="I210" s="17"/>
-      <c r="J210" s="17"/>
+      <c r="H210" s="19"/>
+      <c r="I210" s="19"/>
+      <c r="J210" s="19"/>
       <c r="L210" s="1"/>
     </row>
     <row r="211" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A211" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B211" s="17"/>
-      <c r="C211" s="17"/>
-      <c r="D211" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B211" s="19"/>
+      <c r="C211" s="19"/>
+      <c r="D211" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="E211" s="22"/>
-      <c r="F211" s="19"/>
-      <c r="G211" s="17"/>
-      <c r="H211" s="17" t="s">
+      <c r="E211" s="23"/>
+      <c r="F211" s="20"/>
+      <c r="G211" s="19"/>
+      <c r="H211" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="I211" s="17"/>
-      <c r="J211" s="17"/>
+      <c r="I211" s="19"/>
+      <c r="J211" s="19"/>
     </row>
     <row r="212" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A212" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B212" s="17"/>
-      <c r="C212" s="17"/>
-      <c r="D212" s="17"/>
-      <c r="E212" s="17"/>
-      <c r="F212" s="19"/>
-      <c r="G212" s="17"/>
-      <c r="H212" s="17"/>
-      <c r="I212" s="17"/>
-      <c r="J212" s="17"/>
+        <v>22</v>
+      </c>
+      <c r="B212" s="19"/>
+      <c r="C212" s="19"/>
+      <c r="D212" s="19"/>
+      <c r="E212" s="19"/>
+      <c r="F212" s="20"/>
+      <c r="G212" s="19"/>
+      <c r="H212" s="19"/>
+      <c r="I212" s="19"/>
+      <c r="J212" s="19"/>
     </row>
     <row r="213" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A213" s="25"/>
-      <c r="B213" s="26"/>
-      <c r="C213" s="26"/>
-      <c r="D213" s="26"/>
-      <c r="E213" s="26"/>
-      <c r="F213" s="28"/>
-      <c r="G213" s="26"/>
-      <c r="H213" s="26"/>
-      <c r="I213" s="26"/>
-      <c r="J213" s="26"/>
+      <c r="A213" s="26"/>
+      <c r="B213" s="27"/>
+      <c r="C213" s="27"/>
+      <c r="D213" s="27"/>
+      <c r="E213" s="27"/>
+      <c r="F213" s="29"/>
+      <c r="G213" s="27"/>
+      <c r="H213" s="27"/>
+      <c r="I213" s="27"/>
+      <c r="J213" s="27"/>
     </row>
     <row r="1048443" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048444" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -5710,7 +5720,6 @@
     <mergeCell ref="B59:C59"/>
     <mergeCell ref="D63:E63"/>
     <mergeCell ref="F63:F68"/>
-    <mergeCell ref="B64:D64"/>
     <mergeCell ref="G64:H64"/>
     <mergeCell ref="B65:C65"/>
     <mergeCell ref="G65:H65"/>
@@ -5725,11 +5734,12 @@
     <mergeCell ref="H75:J75"/>
     <mergeCell ref="B76:C76"/>
     <mergeCell ref="H76:I76"/>
-    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="B81:C81"/>
     <mergeCell ref="F81:F86"/>
     <mergeCell ref="I81:J81"/>
     <mergeCell ref="B82:D82"/>
     <mergeCell ref="H82:I82"/>
+    <mergeCell ref="B83:C83"/>
     <mergeCell ref="G83:H83"/>
     <mergeCell ref="D85:E85"/>
     <mergeCell ref="G85:H85"/>
@@ -5856,23 +5866,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:Z91"/>
+  <dimension ref="A1:Q91"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A60" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B75" activeCellId="0" sqref="B75"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A68" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I70" activeCellId="0" sqref="I70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="5" style="0" width="9.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="9.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="0" width="9.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1016" style="0" width="9.14"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="3" t="s">
+    <row r="1" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
@@ -5882,13 +5893,12 @@
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="5" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
+      <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
@@ -5898,10 +5908,9 @@
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -5912,13 +5921,12 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-    </row>
-    <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="7" t="s">
+    </row>
+    <row r="4" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="7" t="s">
         <v>132</v>
       </c>
+      <c r="B4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
@@ -5928,10 +5936,9 @@
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-    </row>
-    <row r="5" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="5" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
@@ -5942,13 +5949,12 @@
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-    </row>
-    <row r="6" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="12" t="s">
+    </row>
+    <row r="6" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="12" t="s">
         <v>133</v>
       </c>
+      <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -5956,227 +5962,187 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="6"/>
-    </row>
-    <row r="7" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="15" t="s">
+      <c r="J6" s="35"/>
+      <c r="K6" s="6"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D7" s="16" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I7" s="16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J7" s="16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K7" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="L7" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="O7" s="12"/>
-      <c r="P7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="14"/>
       <c r="Q7" s="13"/>
-      <c r="R7" s="13"/>
-      <c r="S7" s="13"/>
-      <c r="T7" s="13"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="6"/>
-      <c r="W7" s="13"/>
-      <c r="X7" s="13"/>
-      <c r="Y7" s="14"/>
-      <c r="Z7" s="13"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="15" t="s">
+      <c r="A8" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="19" t="s">
+      <c r="B8" s="15"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="37"/>
+      <c r="N8" s="37"/>
+      <c r="O8" s="37"/>
+      <c r="P8" s="37"/>
+      <c r="Q8" s="37"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="38"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="27"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="15"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="24"/>
-      <c r="O8" s="35"/>
-      <c r="P8" s="35"/>
-      <c r="Q8" s="36"/>
-      <c r="R8" s="36"/>
-      <c r="S8" s="36"/>
-      <c r="T8" s="36"/>
-      <c r="U8" s="36"/>
-      <c r="V8" s="36"/>
-      <c r="W8" s="36"/>
-      <c r="X8" s="36"/>
-      <c r="Y8" s="36"/>
-      <c r="Z8" s="36"/>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="24"/>
-      <c r="O9" s="35"/>
-      <c r="P9" s="35"/>
-      <c r="Q9" s="26"/>
-      <c r="R9" s="26"/>
-      <c r="S9" s="26"/>
-      <c r="T9" s="26"/>
-      <c r="U9" s="26"/>
-      <c r="V9" s="37"/>
-      <c r="W9" s="2"/>
-      <c r="X9" s="26"/>
-      <c r="Y9" s="26"/>
-      <c r="Z9" s="26"/>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="15" t="s">
+      <c r="L10" s="27"/>
+      <c r="M10" s="38"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="27"/>
+      <c r="P10" s="27"/>
+      <c r="Q10" s="27"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="O10" s="35"/>
-      <c r="P10" s="35"/>
-      <c r="Q10" s="26"/>
-      <c r="R10" s="26"/>
-      <c r="S10" s="26"/>
-      <c r="T10" s="26"/>
-      <c r="U10" s="26"/>
-      <c r="V10" s="37"/>
-      <c r="W10" s="26"/>
-      <c r="X10" s="26"/>
-      <c r="Y10" s="26"/>
-      <c r="Z10" s="26"/>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="15"/>
+      <c r="C11" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="38"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="40"/>
+      <c r="P11" s="27"/>
+      <c r="Q11" s="40"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="38" t="s">
-        <v>134</v>
-      </c>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="39"/>
-      <c r="O11" s="35"/>
-      <c r="P11" s="35"/>
-      <c r="Q11" s="26"/>
-      <c r="R11" s="26"/>
-      <c r="S11" s="26"/>
-      <c r="T11" s="26"/>
-      <c r="U11" s="26"/>
-      <c r="V11" s="37"/>
-      <c r="W11" s="26"/>
-      <c r="X11" s="40"/>
-      <c r="Y11" s="26"/>
-      <c r="Z11" s="40"/>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="15"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="38"/>
+      <c r="N12" s="27"/>
+      <c r="O12" s="27"/>
+      <c r="P12" s="27"/>
+      <c r="Q12" s="40"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="39"/>
-      <c r="O12" s="35"/>
-      <c r="P12" s="35"/>
-      <c r="Q12" s="26"/>
-      <c r="R12" s="26"/>
-      <c r="S12" s="40"/>
-      <c r="T12" s="26"/>
-      <c r="U12" s="26"/>
-      <c r="V12" s="37"/>
-      <c r="W12" s="26"/>
-      <c r="X12" s="26"/>
-      <c r="Y12" s="26"/>
-      <c r="Z12" s="40"/>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="20"/>
       <c r="H13" s="19"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="39"/>
-      <c r="O13" s="35"/>
-      <c r="P13" s="35"/>
-      <c r="Q13" s="26"/>
-      <c r="R13" s="26"/>
-      <c r="S13" s="26"/>
-      <c r="T13" s="26"/>
-      <c r="U13" s="26"/>
-      <c r="V13" s="37"/>
-      <c r="W13" s="2"/>
-      <c r="X13" s="26"/>
-      <c r="Y13" s="26"/>
-      <c r="Z13" s="26"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="38"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="27"/>
+      <c r="P13" s="27"/>
+      <c r="Q13" s="27"/>
     </row>
     <row r="14" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="12" t="s">
-        <v>135</v>
-      </c>
+      <c r="A14" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="B14" s="6"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
@@ -6184,154 +6150,150 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="6"/>
-      <c r="O14" s="35"/>
-      <c r="P14" s="35"/>
-      <c r="Q14" s="26"/>
-      <c r="R14" s="26"/>
-      <c r="S14" s="40"/>
-      <c r="T14" s="40"/>
-      <c r="U14" s="26"/>
-      <c r="V14" s="37"/>
-      <c r="W14" s="26"/>
-      <c r="X14" s="26"/>
-      <c r="Y14" s="26"/>
-      <c r="Z14" s="26"/>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="15" t="s">
+      <c r="J14" s="35"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="38"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="27"/>
+      <c r="P14" s="27"/>
+      <c r="Q14" s="27"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="15"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D15" s="16" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H15" s="16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I15" s="16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J15" s="16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K15" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="L15" s="16" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="15" t="s">
+      <c r="A16" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="39" t="s">
-        <v>136</v>
-      </c>
+      <c r="B16" s="15"/>
+      <c r="C16" s="39" t="s">
+        <v>137</v>
+      </c>
+      <c r="D16" s="39"/>
       <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="20" t="s">
+        <v>16</v>
+      </c>
       <c r="H16" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="I16" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
+        <v>138</v>
+      </c>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="41"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="15" t="s">
+      <c r="A17" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="15"/>
+      <c r="C17" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="15"/>
-      <c r="D17" s="39" t="s">
-        <v>138</v>
-      </c>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="15"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="15"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="15"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="15"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" s="15"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="39"/>
       <c r="D21" s="39"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="20"/>
       <c r="H21" s="19"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="17"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
     </row>
     <row r="22" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="12" t="s">
-        <v>139</v>
-      </c>
+      <c r="A22" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="B22" s="6"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
@@ -6339,165 +6301,165 @@
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="34"/>
-      <c r="L22" s="6"/>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="15" t="s">
+      <c r="J22" s="35"/>
+      <c r="K22" s="6"/>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="15"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D23" s="16" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F23" s="16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G23" s="16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H23" s="16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I23" s="16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J23" s="16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K23" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="L23" s="16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="15" t="s">
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="15"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="17"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="15" t="s">
+      <c r="A25" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="15"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="19"/>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="15"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
-      <c r="L25" s="17"/>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="15"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="19"/>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="15"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
-      <c r="L26" s="17"/>
-    </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="15"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="15"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="17"/>
-      <c r="L27" s="17"/>
-    </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="15"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="19"/>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C28" s="15"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="17"/>
-      <c r="L28" s="17"/>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C29" s="15"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="20"/>
       <c r="H29" s="19"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="17"/>
-      <c r="K29" s="17"/>
-      <c r="L29" s="17"/>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="26"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="26"/>
-      <c r="J30" s="26"/>
-      <c r="K30" s="26"/>
-      <c r="L30" s="26"/>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="26"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="26"/>
-      <c r="J31" s="26"/>
-      <c r="K31" s="26"/>
-      <c r="L31" s="26"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="19"/>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="27"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="27"/>
+      <c r="K30" s="27"/>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="27"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="27"/>
+      <c r="K31" s="27"/>
     </row>
     <row r="32" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="12" t="s">
-        <v>140</v>
-      </c>
+      <c r="A32" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="B32" s="6"/>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
@@ -6505,155 +6467,155 @@
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="34"/>
-      <c r="L32" s="6"/>
+      <c r="J32" s="35"/>
+      <c r="K32" s="6"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="15" t="s">
+      <c r="A33" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C33" s="15"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D33" s="16" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F33" s="16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G33" s="16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H33" s="16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I33" s="16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J33" s="16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K33" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="L33" s="16" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B34" s="15" t="s">
+      <c r="A34" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C34" s="15"/>
-      <c r="E34" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="I34" s="17"/>
-      <c r="J34" s="17"/>
-      <c r="K34" s="17" t="s">
+      <c r="B34" s="15"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="L34" s="17"/>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="15" t="s">
+      <c r="K34" s="19"/>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B35" s="15"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="J35" s="19"/>
+      <c r="K35" s="19"/>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C35" s="15"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="19"/>
-      <c r="I35" s="17"/>
-      <c r="J35" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="K35" s="17"/>
-      <c r="L35" s="17"/>
-    </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="15" t="s">
+      <c r="B36" s="15"/>
+      <c r="C36" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="D36" s="19"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="I36" s="19"/>
+      <c r="J36" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="K36" s="42"/>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C36" s="15"/>
-      <c r="D36" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="E36" s="17"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="19"/>
-      <c r="I36" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="J36" s="17"/>
-      <c r="K36" s="17"/>
-      <c r="L36" s="17"/>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="15" t="s">
+      <c r="B37" s="15"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="J37" s="19"/>
+      <c r="K37" s="19"/>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C37" s="15"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="19"/>
-      <c r="I37" s="17"/>
-      <c r="J37" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="K37" s="17"/>
-      <c r="L37" s="17"/>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="15" t="s">
+      <c r="B38" s="15"/>
+      <c r="C38" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="I38" s="19"/>
+      <c r="J38" s="19"/>
+      <c r="K38" s="19"/>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C38" s="15"/>
-      <c r="D38" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="19"/>
-      <c r="I38" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="J38" s="17"/>
-      <c r="K38" s="17"/>
-      <c r="L38" s="17"/>
-    </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C39" s="15"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="20"/>
       <c r="H39" s="19"/>
-      <c r="I39" s="17"/>
-      <c r="J39" s="17"/>
-      <c r="K39" s="17"/>
-      <c r="L39" s="17"/>
+      <c r="I39" s="19"/>
+      <c r="J39" s="19"/>
+      <c r="K39" s="19"/>
     </row>
     <row r="40" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="12" t="s">
+      <c r="A40" s="12" t="s">
         <v>150</v>
       </c>
+      <c r="B40" s="6"/>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
@@ -6661,146 +6623,146 @@
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
-      <c r="J40" s="6"/>
-      <c r="K40" s="34"/>
-      <c r="L40" s="6"/>
+      <c r="J40" s="35"/>
+      <c r="K40" s="6"/>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="15" t="s">
+      <c r="A41" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C41" s="15"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D41" s="16" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F41" s="16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G41" s="16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H41" s="16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I41" s="16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J41" s="16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K41" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="L41" s="16" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B42" s="15" t="s">
+      <c r="A42" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C42" s="15"/>
-      <c r="D42" s="17" t="s">
+      <c r="B42" s="15"/>
+      <c r="C42" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
-      <c r="H42" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="I42" s="17"/>
-      <c r="J42" s="17" t="s">
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="G42" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="H42" s="19"/>
+      <c r="I42" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="K42" s="17"/>
-      <c r="L42" s="17"/>
+      <c r="J42" s="19"/>
+      <c r="K42" s="19"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="15" t="s">
+      <c r="A43" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B43" s="15"/>
+      <c r="C43" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="D43" s="19"/>
+      <c r="E43" s="19"/>
+      <c r="G43" s="20"/>
+      <c r="H43" s="19"/>
+      <c r="I43" s="19"/>
+      <c r="J43" s="19"/>
+      <c r="K43" s="19"/>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C43" s="15"/>
-      <c r="D43" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="E43" s="17"/>
-      <c r="F43" s="17"/>
-      <c r="H43" s="19"/>
-      <c r="I43" s="17"/>
-      <c r="J43" s="17"/>
-      <c r="K43" s="17"/>
-      <c r="L43" s="17"/>
-    </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="15" t="s">
+      <c r="B44" s="15"/>
+      <c r="C44" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="D44" s="19"/>
+      <c r="E44" s="19"/>
+      <c r="G44" s="20"/>
+      <c r="H44" s="19"/>
+      <c r="I44" s="19"/>
+      <c r="J44" s="19"/>
+      <c r="K44" s="19"/>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C44" s="15"/>
-      <c r="D44" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="E44" s="17"/>
-      <c r="F44" s="17"/>
-      <c r="H44" s="19"/>
-      <c r="I44" s="17"/>
-      <c r="J44" s="17"/>
-      <c r="K44" s="17"/>
-      <c r="L44" s="17"/>
-    </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="15" t="s">
+      <c r="B45" s="15"/>
+      <c r="C45" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="D45" s="19"/>
+      <c r="E45" s="19"/>
+      <c r="G45" s="20"/>
+      <c r="H45" s="19"/>
+      <c r="I45" s="19"/>
+      <c r="J45" s="19"/>
+      <c r="K45" s="19"/>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C45" s="15"/>
-      <c r="D45" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="E45" s="17"/>
-      <c r="F45" s="17"/>
-      <c r="H45" s="19"/>
-      <c r="I45" s="17"/>
-      <c r="J45" s="17"/>
-      <c r="K45" s="17"/>
-      <c r="L45" s="17"/>
-    </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="15" t="s">
+      <c r="B46" s="15"/>
+      <c r="C46" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="D46" s="19"/>
+      <c r="E46" s="19"/>
+      <c r="G46" s="20"/>
+      <c r="H46" s="19"/>
+      <c r="I46" s="19"/>
+      <c r="J46" s="19"/>
+      <c r="K46" s="19"/>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C46" s="15"/>
-      <c r="D46" s="17" t="s">
-        <v>155</v>
-      </c>
-      <c r="E46" s="17"/>
-      <c r="F46" s="17"/>
-      <c r="H46" s="19"/>
-      <c r="I46" s="17"/>
-      <c r="J46" s="17"/>
-      <c r="K46" s="17"/>
-      <c r="L46" s="17"/>
-    </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C47" s="15"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="17"/>
-      <c r="F47" s="17"/>
-      <c r="G47" s="17"/>
+      <c r="B47" s="15"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="19"/>
+      <c r="G47" s="20"/>
       <c r="H47" s="19"/>
-      <c r="I47" s="17"/>
-      <c r="J47" s="17"/>
-      <c r="K47" s="17"/>
-      <c r="L47" s="17"/>
+      <c r="I47" s="19"/>
+      <c r="J47" s="19"/>
+      <c r="K47" s="19"/>
     </row>
     <row r="48" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="12" t="s">
+      <c r="A48" s="12" t="s">
         <v>156</v>
       </c>
+      <c r="B48" s="6"/>
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
@@ -6808,139 +6770,139 @@
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
       <c r="I48" s="6"/>
-      <c r="J48" s="6"/>
-      <c r="K48" s="34"/>
-      <c r="L48" s="6"/>
-    </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="15" t="s">
+      <c r="J48" s="35"/>
+      <c r="K48" s="6"/>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C49" s="15"/>
+      <c r="B49" s="15"/>
+      <c r="C49" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D49" s="16" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F49" s="16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G49" s="16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H49" s="16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I49" s="16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J49" s="16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K49" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="L49" s="16" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="15" t="s">
+      <c r="A50" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C50" s="15"/>
-      <c r="D50" s="17"/>
-      <c r="E50" s="17"/>
-      <c r="F50" s="17"/>
-      <c r="G50" s="17"/>
-      <c r="H50" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="I50" s="17"/>
-      <c r="J50" s="17"/>
+      <c r="B50" s="15"/>
+      <c r="C50" s="19"/>
+      <c r="D50" s="19"/>
+      <c r="E50" s="19"/>
+      <c r="F50" s="19"/>
+      <c r="G50" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="H50" s="19"/>
+      <c r="I50" s="19"/>
+      <c r="J50" s="18"/>
       <c r="K50" s="18"/>
-      <c r="L50" s="18"/>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="15" t="s">
+      <c r="A51" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B51" s="15"/>
+      <c r="C51" s="19"/>
+      <c r="D51" s="19"/>
+      <c r="E51" s="19"/>
+      <c r="F51" s="19"/>
+      <c r="G51" s="20"/>
+      <c r="H51" s="19"/>
+      <c r="I51" s="19"/>
+      <c r="J51" s="18"/>
+      <c r="K51" s="18"/>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C51" s="15"/>
-      <c r="D51" s="17"/>
-      <c r="E51" s="17"/>
-      <c r="F51" s="17"/>
-      <c r="G51" s="17"/>
-      <c r="H51" s="19"/>
-      <c r="I51" s="17"/>
-      <c r="J51" s="17"/>
-      <c r="K51" s="18"/>
-      <c r="L51" s="18"/>
-    </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C52" s="15"/>
-      <c r="D52" s="17"/>
-      <c r="E52" s="17"/>
-      <c r="F52" s="17"/>
-      <c r="G52" s="17"/>
+      <c r="B52" s="15"/>
+      <c r="C52" s="19"/>
+      <c r="D52" s="19"/>
+      <c r="E52" s="19"/>
+      <c r="F52" s="19"/>
+      <c r="G52" s="20"/>
       <c r="H52" s="19"/>
-      <c r="I52" s="17"/>
+      <c r="I52" s="18"/>
       <c r="J52" s="18"/>
       <c r="K52" s="18"/>
-      <c r="L52" s="18"/>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C53" s="15"/>
-      <c r="D53" s="17"/>
-      <c r="E53" s="17"/>
-      <c r="F53" s="17"/>
-      <c r="G53" s="17"/>
+      <c r="A53" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B53" s="15"/>
+      <c r="C53" s="19"/>
+      <c r="D53" s="19"/>
+      <c r="E53" s="19"/>
+      <c r="F53" s="19"/>
+      <c r="G53" s="20"/>
       <c r="H53" s="19"/>
-      <c r="I53" s="17"/>
+      <c r="I53" s="18"/>
       <c r="J53" s="18"/>
       <c r="K53" s="18"/>
-      <c r="L53" s="18"/>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="15" t="s">
+      <c r="A54" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B54" s="15"/>
+      <c r="C54" s="19"/>
+      <c r="D54" s="19"/>
+      <c r="E54" s="19"/>
+      <c r="F54" s="19"/>
+      <c r="G54" s="20"/>
+      <c r="H54" s="19"/>
+      <c r="I54" s="19"/>
+      <c r="J54" s="19"/>
+      <c r="K54" s="19"/>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C54" s="15"/>
-      <c r="D54" s="17"/>
-      <c r="E54" s="17"/>
-      <c r="F54" s="17"/>
-      <c r="G54" s="17"/>
-      <c r="H54" s="19"/>
-      <c r="I54" s="17"/>
-      <c r="J54" s="17"/>
-      <c r="K54" s="17"/>
-      <c r="L54" s="17"/>
-    </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B55" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C55" s="15"/>
-      <c r="D55" s="17"/>
-      <c r="E55" s="17"/>
-      <c r="F55" s="17"/>
-      <c r="G55" s="17"/>
+      <c r="B55" s="15"/>
+      <c r="C55" s="19"/>
+      <c r="D55" s="19"/>
+      <c r="E55" s="19"/>
+      <c r="F55" s="19"/>
+      <c r="G55" s="20"/>
       <c r="H55" s="19"/>
-      <c r="I55" s="17"/>
-      <c r="J55" s="17"/>
-      <c r="K55" s="17"/>
-      <c r="L55" s="17"/>
+      <c r="I55" s="19"/>
+      <c r="J55" s="19"/>
+      <c r="K55" s="19"/>
     </row>
     <row r="57" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B57" s="12" t="s">
+      <c r="A57" s="12" t="s">
         <v>157</v>
       </c>
+      <c r="B57" s="6"/>
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
       <c r="E57" s="6"/>
@@ -6948,152 +6910,154 @@
       <c r="G57" s="6"/>
       <c r="H57" s="6"/>
       <c r="I57" s="6"/>
-      <c r="J57" s="6"/>
-      <c r="K57" s="34"/>
-      <c r="L57" s="6"/>
-    </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B58" s="15" t="s">
+      <c r="J57" s="35"/>
+      <c r="K57" s="6"/>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C58" s="15"/>
+      <c r="B58" s="15"/>
+      <c r="C58" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D58" s="16" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F58" s="16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G58" s="16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H58" s="16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I58" s="16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J58" s="16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K58" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="L58" s="16" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B59" s="15" t="s">
+      <c r="A59" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C59" s="15"/>
-      <c r="D59" s="17" t="s">
+      <c r="B59" s="15"/>
+      <c r="C59" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="E59" s="17"/>
-      <c r="F59" s="17"/>
+      <c r="D59" s="19"/>
+      <c r="E59" s="19"/>
+      <c r="G59" s="20" t="s">
+        <v>16</v>
+      </c>
       <c r="H59" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="I59" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="J59" s="17"/>
-      <c r="K59" s="17"/>
+      <c r="I59" s="19"/>
+      <c r="J59" s="19"/>
+      <c r="K59" s="41"/>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B60" s="15" t="s">
+      <c r="A60" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B60" s="15"/>
+      <c r="C60" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="D60" s="19"/>
+      <c r="E60" s="19"/>
+      <c r="G60" s="20"/>
+      <c r="H60" s="41"/>
+      <c r="I60" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="J60" s="19"/>
+      <c r="K60" s="19"/>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C60" s="15"/>
-      <c r="D60" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="E60" s="17"/>
-      <c r="F60" s="17"/>
-      <c r="H60" s="19"/>
-      <c r="I60" s="41"/>
-      <c r="J60" s="17" t="s">
-        <v>161</v>
-      </c>
-      <c r="K60" s="17"/>
-      <c r="L60" s="17"/>
-    </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B61" s="15" t="s">
+      <c r="B61" s="15"/>
+      <c r="C61" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="D61" s="19"/>
+      <c r="E61" s="19"/>
+      <c r="G61" s="20"/>
+      <c r="H61" s="41"/>
+      <c r="I61" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="J61" s="19"/>
+      <c r="K61" s="19"/>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C61" s="15"/>
-      <c r="D61" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="E61" s="17"/>
-      <c r="F61" s="17"/>
-      <c r="H61" s="19"/>
-      <c r="I61" s="41"/>
-      <c r="J61" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="K61" s="17"/>
-      <c r="L61" s="17"/>
-    </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B62" s="15" t="s">
+      <c r="B62" s="15"/>
+      <c r="C62" s="36" t="s">
+        <v>164</v>
+      </c>
+      <c r="D62" s="36"/>
+      <c r="E62" s="36"/>
+      <c r="G62" s="20"/>
+      <c r="H62" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="I62" s="19"/>
+      <c r="J62" s="19"/>
+      <c r="K62" s="41"/>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C62" s="15"/>
-      <c r="D62" s="17" t="s">
-        <v>164</v>
-      </c>
-      <c r="E62" s="17"/>
-      <c r="F62" s="17"/>
-      <c r="H62" s="19"/>
-      <c r="I62" s="17" t="s">
-        <v>165</v>
-      </c>
-      <c r="J62" s="17"/>
-      <c r="K62" s="17"/>
-    </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B63" s="15" t="s">
+      <c r="B63" s="15"/>
+      <c r="C63" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="D63" s="19"/>
+      <c r="E63" s="19"/>
+      <c r="G63" s="20"/>
+      <c r="H63" s="41"/>
+      <c r="I63" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="J63" s="19"/>
+      <c r="K63" s="19"/>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C63" s="15"/>
-      <c r="D63" s="17" t="s">
-        <v>166</v>
-      </c>
-      <c r="E63" s="17"/>
-      <c r="F63" s="17"/>
-      <c r="H63" s="19"/>
-      <c r="I63" s="41"/>
-      <c r="J63" s="17" t="s">
-        <v>167</v>
-      </c>
-      <c r="K63" s="17"/>
-      <c r="L63" s="17"/>
-    </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B64" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C64" s="15"/>
-      <c r="D64" s="17"/>
-      <c r="E64" s="17"/>
-      <c r="F64" s="17"/>
-      <c r="G64" s="17"/>
+      <c r="B64" s="15"/>
+      <c r="C64" s="19"/>
+      <c r="D64" s="19"/>
+      <c r="E64" s="19"/>
+      <c r="F64" s="19"/>
+      <c r="G64" s="20"/>
       <c r="H64" s="19"/>
-      <c r="I64" s="17"/>
-      <c r="J64" s="17"/>
-      <c r="K64" s="17"/>
-      <c r="L64" s="17"/>
+      <c r="I64" s="19"/>
+      <c r="J64" s="19"/>
+      <c r="K64" s="19"/>
     </row>
     <row r="66" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B66" s="12" t="s">
+      <c r="A66" s="12" t="s">
         <v>168</v>
       </c>
+      <c r="B66" s="6"/>
       <c r="C66" s="6"/>
       <c r="D66" s="6"/>
       <c r="E66" s="6"/>
@@ -7101,151 +7065,159 @@
       <c r="G66" s="6"/>
       <c r="H66" s="6"/>
       <c r="I66" s="6"/>
-      <c r="J66" s="6"/>
-      <c r="K66" s="34"/>
-      <c r="L66" s="6"/>
-    </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B67" s="15" t="s">
+      <c r="J66" s="35"/>
+      <c r="K66" s="6"/>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C67" s="15"/>
+      <c r="B67" s="15"/>
+      <c r="C67" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D67" s="16" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F67" s="16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G67" s="16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H67" s="16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I67" s="16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J67" s="16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K67" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="L67" s="16" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B68" s="15" t="s">
+      <c r="A68" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C68" s="15"/>
-      <c r="D68" s="17" t="s">
+      <c r="B68" s="15"/>
+      <c r="C68" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="E68" s="17"/>
-      <c r="F68" s="17"/>
+      <c r="D68" s="19"/>
+      <c r="E68" s="19"/>
+      <c r="F68" s="41"/>
+      <c r="G68" s="20" t="s">
+        <v>16</v>
+      </c>
       <c r="H68" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="I68" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="J68" s="17"/>
-      <c r="K68" s="17"/>
+      <c r="I68" s="19"/>
+      <c r="J68" s="19"/>
+      <c r="K68" s="41"/>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B69" s="15" t="s">
+      <c r="A69" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B69" s="15"/>
+      <c r="C69" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="D69" s="19"/>
+      <c r="E69" s="19"/>
+      <c r="F69" s="41"/>
+      <c r="G69" s="20"/>
+      <c r="H69" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="I69" s="19"/>
+      <c r="J69" s="19"/>
+      <c r="K69" s="41"/>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C69" s="15"/>
-      <c r="D69" s="17" t="s">
-        <v>171</v>
-      </c>
-      <c r="E69" s="17"/>
-      <c r="F69" s="17"/>
-      <c r="H69" s="19"/>
-      <c r="I69" s="17" t="s">
-        <v>172</v>
-      </c>
-      <c r="J69" s="17"/>
-      <c r="K69" s="17"/>
-    </row>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B70" s="15" t="s">
+      <c r="B70" s="15"/>
+      <c r="C70" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="D70" s="19"/>
+      <c r="E70" s="19"/>
+      <c r="F70" s="41"/>
+      <c r="G70" s="20"/>
+      <c r="H70" s="41"/>
+      <c r="I70" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="J70" s="19"/>
+      <c r="K70" s="19"/>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C70" s="15"/>
-      <c r="D70" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="E70" s="17"/>
-      <c r="F70" s="17"/>
-      <c r="H70" s="19"/>
-      <c r="I70" s="41"/>
-      <c r="J70" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="K70" s="17"/>
-      <c r="L70" s="17"/>
-    </row>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B71" s="15" t="s">
+      <c r="B71" s="15"/>
+      <c r="C71" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="D71" s="19"/>
+      <c r="E71" s="19"/>
+      <c r="F71" s="41"/>
+      <c r="G71" s="20"/>
+      <c r="H71" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="I71" s="19"/>
+      <c r="J71" s="19"/>
+      <c r="K71" s="41"/>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C71" s="15"/>
-      <c r="D71" s="17" t="s">
-        <v>175</v>
-      </c>
-      <c r="E71" s="17"/>
-      <c r="F71" s="17"/>
-      <c r="H71" s="19"/>
-      <c r="I71" s="17" t="s">
-        <v>176</v>
-      </c>
-      <c r="J71" s="17"/>
-      <c r="K71" s="17"/>
-    </row>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B72" s="15" t="s">
+      <c r="B72" s="15"/>
+      <c r="C72" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="D72" s="19"/>
+      <c r="E72" s="19"/>
+      <c r="F72" s="41"/>
+      <c r="G72" s="20"/>
+      <c r="H72" s="41"/>
+      <c r="I72" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="J72" s="19"/>
+      <c r="K72" s="19"/>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C72" s="15"/>
-      <c r="D72" s="17" t="s">
-        <v>177</v>
-      </c>
-      <c r="E72" s="17"/>
-      <c r="F72" s="17"/>
-      <c r="H72" s="19"/>
-      <c r="I72" s="41"/>
-      <c r="J72" s="17" t="s">
-        <v>178</v>
-      </c>
-      <c r="K72" s="17"/>
-      <c r="L72" s="17"/>
-    </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B73" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C73" s="15"/>
-      <c r="D73" s="17"/>
-      <c r="E73" s="17"/>
-      <c r="F73" s="17"/>
-      <c r="G73" s="17"/>
+      <c r="B73" s="15"/>
+      <c r="C73" s="19"/>
+      <c r="D73" s="19"/>
+      <c r="E73" s="19"/>
+      <c r="F73" s="19"/>
+      <c r="G73" s="20"/>
       <c r="H73" s="19"/>
-      <c r="I73" s="17"/>
-      <c r="J73" s="17"/>
-      <c r="K73" s="17"/>
-      <c r="L73" s="17"/>
+      <c r="I73" s="19"/>
+      <c r="J73" s="19"/>
+      <c r="K73" s="19"/>
     </row>
     <row r="75" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B75" s="12" t="s">
+      <c r="A75" s="12" t="s">
         <v>179</v>
       </c>
+      <c r="B75" s="6"/>
       <c r="C75" s="6"/>
       <c r="D75" s="6"/>
       <c r="E75" s="6"/>
@@ -7253,141 +7225,144 @@
       <c r="G75" s="6"/>
       <c r="H75" s="6"/>
       <c r="I75" s="6"/>
-      <c r="J75" s="6"/>
-      <c r="K75" s="34"/>
-      <c r="L75" s="6"/>
-    </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B76" s="15" t="s">
+      <c r="J75" s="35"/>
+      <c r="K75" s="6"/>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C76" s="15"/>
+      <c r="B76" s="15"/>
+      <c r="C76" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D76" s="16" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F76" s="16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G76" s="16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H76" s="16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I76" s="16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J76" s="16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K76" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="L76" s="16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B77" s="15" t="s">
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C77" s="15"/>
-      <c r="E77" s="17"/>
-      <c r="F77" s="17"/>
-      <c r="G77" s="17"/>
-      <c r="H77" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="I77" s="17"/>
-      <c r="J77" s="17"/>
-      <c r="K77" s="17"/>
-      <c r="L77" s="17"/>
-    </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B78" s="15" t="s">
+      <c r="B77" s="15"/>
+      <c r="D77" s="19"/>
+      <c r="E77" s="19"/>
+      <c r="F77" s="19"/>
+      <c r="G77" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="H77" s="19"/>
+      <c r="I77" s="19"/>
+      <c r="J77" s="19"/>
+      <c r="K77" s="19"/>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B78" s="15"/>
+      <c r="C78" s="19"/>
+      <c r="D78" s="19"/>
+      <c r="E78" s="19"/>
+      <c r="F78" s="19"/>
+      <c r="G78" s="20"/>
+      <c r="H78" s="19"/>
+      <c r="I78" s="19"/>
+      <c r="J78" s="19"/>
+      <c r="K78" s="19"/>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C78" s="15"/>
-      <c r="D78" s="17"/>
-      <c r="E78" s="17"/>
-      <c r="F78" s="17"/>
-      <c r="G78" s="17"/>
-      <c r="H78" s="19"/>
-      <c r="I78" s="17"/>
-      <c r="J78" s="17"/>
-      <c r="K78" s="17"/>
-      <c r="L78" s="17"/>
-    </row>
-    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B79" s="15" t="s">
+      <c r="B79" s="15"/>
+      <c r="C79" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="D79" s="19"/>
+      <c r="E79" s="19"/>
+      <c r="F79" s="19"/>
+      <c r="G79" s="20"/>
+      <c r="H79" s="19"/>
+      <c r="I79" s="19"/>
+      <c r="J79" s="19"/>
+      <c r="K79" s="19"/>
+    </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C79" s="15"/>
-      <c r="D79" s="17" t="s">
-        <v>180</v>
-      </c>
-      <c r="E79" s="17"/>
-      <c r="F79" s="17"/>
-      <c r="H79" s="19"/>
-      <c r="I79" s="17"/>
-      <c r="J79" s="17"/>
-      <c r="K79" s="17"/>
-      <c r="L79" s="17"/>
-    </row>
-    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B80" s="15" t="s">
+      <c r="B80" s="15"/>
+      <c r="C80" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="D80" s="19"/>
+      <c r="E80" s="19"/>
+      <c r="F80" s="19"/>
+      <c r="G80" s="20"/>
+      <c r="H80" s="19"/>
+      <c r="I80" s="19"/>
+      <c r="J80" s="19"/>
+      <c r="K80" s="19"/>
+    </row>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C80" s="15"/>
-      <c r="D80" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="E80" s="17"/>
-      <c r="F80" s="17"/>
-      <c r="H80" s="19"/>
-      <c r="I80" s="17"/>
-      <c r="J80" s="17"/>
-      <c r="K80" s="17"/>
-      <c r="L80" s="17"/>
-    </row>
-    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B81" s="15" t="s">
+      <c r="B81" s="15"/>
+      <c r="C81" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="D81" s="19"/>
+      <c r="E81" s="19"/>
+      <c r="F81" s="19"/>
+      <c r="G81" s="20"/>
+      <c r="H81" s="19"/>
+      <c r="I81" s="19"/>
+      <c r="J81" s="19"/>
+      <c r="K81" s="19"/>
+    </row>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C81" s="15"/>
-      <c r="D81" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="E81" s="17"/>
-      <c r="F81" s="17"/>
-      <c r="H81" s="19"/>
-      <c r="I81" s="17"/>
-      <c r="J81" s="17"/>
-      <c r="K81" s="17"/>
-      <c r="L81" s="17"/>
-    </row>
-    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B82" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C82" s="15"/>
-      <c r="D82" s="17"/>
-      <c r="E82" s="17"/>
-      <c r="F82" s="17"/>
-      <c r="G82" s="17"/>
+      <c r="B82" s="15"/>
+      <c r="C82" s="19"/>
+      <c r="D82" s="19"/>
+      <c r="E82" s="19"/>
+      <c r="F82" s="19"/>
+      <c r="G82" s="20"/>
       <c r="H82" s="19"/>
-      <c r="I82" s="17"/>
-      <c r="J82" s="17"/>
-      <c r="K82" s="17"/>
-      <c r="L82" s="17"/>
+      <c r="I82" s="19"/>
+      <c r="J82" s="19"/>
+      <c r="K82" s="19"/>
     </row>
     <row r="84" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B84" s="12" t="s">
+      <c r="A84" s="12" t="s">
         <v>183</v>
       </c>
+      <c r="B84" s="6"/>
       <c r="C84" s="6"/>
       <c r="D84" s="6"/>
       <c r="E84" s="6"/>
@@ -7395,333 +7370,331 @@
       <c r="G84" s="6"/>
       <c r="H84" s="6"/>
       <c r="I84" s="6"/>
-      <c r="J84" s="6"/>
-      <c r="K84" s="34"/>
-      <c r="L84" s="6"/>
-    </row>
-    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B85" s="15" t="s">
+      <c r="J84" s="35"/>
+      <c r="K84" s="6"/>
+    </row>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C85" s="15"/>
+      <c r="B85" s="15"/>
+      <c r="C85" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D85" s="16" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F85" s="16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G85" s="16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H85" s="16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I85" s="16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J85" s="16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K85" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="L85" s="16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B86" s="15" t="s">
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C86" s="15"/>
-      <c r="D86" s="17"/>
-      <c r="E86" s="17"/>
-      <c r="F86" s="17"/>
-      <c r="G86" s="17"/>
+      <c r="B86" s="15"/>
+      <c r="C86" s="19"/>
+      <c r="D86" s="19"/>
+      <c r="E86" s="19"/>
+      <c r="F86" s="19"/>
+      <c r="G86" s="20" t="s">
+        <v>16</v>
+      </c>
       <c r="H86" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="I86" s="17" t="s">
         <v>184</v>
       </c>
-      <c r="J86" s="17"/>
-      <c r="K86" s="17"/>
-      <c r="L86" s="17"/>
+      <c r="I86" s="19"/>
+      <c r="J86" s="19"/>
+      <c r="K86" s="19"/>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B87" s="15" t="s">
+      <c r="A87" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B87" s="15"/>
+      <c r="C87" s="19"/>
+      <c r="D87" s="19"/>
+      <c r="E87" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="F87" s="19"/>
+      <c r="G87" s="20"/>
+      <c r="H87" s="19"/>
+      <c r="I87" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="J87" s="19"/>
+      <c r="K87" s="19"/>
+    </row>
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C87" s="15"/>
-      <c r="D87" s="17"/>
-      <c r="E87" s="17"/>
-      <c r="F87" s="17" t="s">
-        <v>185</v>
-      </c>
-      <c r="G87" s="17"/>
-      <c r="H87" s="19"/>
-      <c r="I87" s="17"/>
-      <c r="J87" s="17" t="s">
-        <v>186</v>
-      </c>
-      <c r="K87" s="17"/>
-      <c r="L87" s="17"/>
-    </row>
-    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B88" s="15" t="s">
+      <c r="B88" s="15"/>
+      <c r="C88" s="19"/>
+      <c r="D88" s="19"/>
+      <c r="E88" s="19"/>
+      <c r="F88" s="19"/>
+      <c r="G88" s="20"/>
+      <c r="H88" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="I88" s="19"/>
+      <c r="J88" s="19"/>
+      <c r="K88" s="19"/>
+    </row>
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C88" s="15"/>
-      <c r="D88" s="17"/>
-      <c r="E88" s="17"/>
-      <c r="F88" s="17"/>
-      <c r="G88" s="17"/>
-      <c r="H88" s="19"/>
-      <c r="I88" s="17" t="s">
-        <v>187</v>
-      </c>
-      <c r="J88" s="17"/>
-      <c r="K88" s="17"/>
-      <c r="L88" s="17"/>
-    </row>
-    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B89" s="15" t="s">
+      <c r="B89" s="15"/>
+      <c r="C89" s="19"/>
+      <c r="D89" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="E89" s="19"/>
+      <c r="F89" s="19"/>
+      <c r="G89" s="20"/>
+      <c r="H89" s="19"/>
+      <c r="I89" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="J89" s="19"/>
+      <c r="K89" s="19"/>
+    </row>
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C89" s="15"/>
-      <c r="D89" s="17"/>
-      <c r="E89" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="F89" s="17"/>
-      <c r="G89" s="17"/>
-      <c r="H89" s="19"/>
-      <c r="I89" s="17"/>
-      <c r="J89" s="17" t="s">
-        <v>189</v>
-      </c>
-      <c r="K89" s="17"/>
-      <c r="L89" s="17"/>
-    </row>
-    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B90" s="15" t="s">
+      <c r="B90" s="15"/>
+      <c r="C90" s="19"/>
+      <c r="D90" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="E90" s="19"/>
+      <c r="F90" s="19"/>
+      <c r="G90" s="20"/>
+      <c r="H90" s="19"/>
+      <c r="I90" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="J90" s="19"/>
+      <c r="K90" s="19"/>
+    </row>
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C90" s="15"/>
-      <c r="D90" s="17"/>
-      <c r="E90" s="17" t="s">
-        <v>190</v>
-      </c>
-      <c r="F90" s="17"/>
-      <c r="G90" s="17"/>
-      <c r="H90" s="19"/>
-      <c r="I90" s="17"/>
-      <c r="J90" s="17" t="s">
-        <v>191</v>
-      </c>
-      <c r="K90" s="17"/>
-      <c r="L90" s="17"/>
-    </row>
-    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B91" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C91" s="15"/>
-      <c r="D91" s="17"/>
-      <c r="E91" s="17"/>
-      <c r="F91" s="17"/>
-      <c r="G91" s="17"/>
+      <c r="B91" s="15"/>
+      <c r="C91" s="19"/>
+      <c r="D91" s="19"/>
+      <c r="E91" s="19"/>
+      <c r="F91" s="19"/>
+      <c r="G91" s="20"/>
       <c r="H91" s="19"/>
-      <c r="I91" s="17"/>
-      <c r="J91" s="17"/>
-      <c r="K91" s="17"/>
-      <c r="L91" s="17"/>
+      <c r="I91" s="19"/>
+      <c r="J91" s="19"/>
+      <c r="K91" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="176">
-    <mergeCell ref="B1:M1"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="B4:M4"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
+  <mergeCells count="175">
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
     <mergeCell ref="D8:F8"/>
-    <mergeCell ref="H8:H13"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="H16:H21"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="H24:H29"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="H34:H39"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="H42:H47"/>
-    <mergeCell ref="J42:L42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="J43:L43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="J44:L44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:F45"/>
-    <mergeCell ref="J45:L45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:F46"/>
-    <mergeCell ref="J46:L46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="H50:H55"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:F59"/>
-    <mergeCell ref="H59:H64"/>
-    <mergeCell ref="I59:K59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D60:F60"/>
-    <mergeCell ref="J60:L60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="D61:F61"/>
-    <mergeCell ref="J61:L61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="D62:F62"/>
-    <mergeCell ref="I62:K62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="D63:F63"/>
-    <mergeCell ref="J63:L63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="D68:F68"/>
-    <mergeCell ref="H68:H73"/>
-    <mergeCell ref="I68:K68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="D69:F69"/>
-    <mergeCell ref="I69:K69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="D70:F70"/>
-    <mergeCell ref="J70:L70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="D71:F71"/>
-    <mergeCell ref="I71:K71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="D72:F72"/>
-    <mergeCell ref="J72:L72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="E77:G77"/>
-    <mergeCell ref="H77:H82"/>
-    <mergeCell ref="J77:L77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="E78:G78"/>
-    <mergeCell ref="J78:L78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="D79:F79"/>
-    <mergeCell ref="J79:L79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="D80:F80"/>
-    <mergeCell ref="J80:L80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="D81:F81"/>
-    <mergeCell ref="J81:L81"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="H86:H91"/>
-    <mergeCell ref="I86:J86"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="F87:G87"/>
-    <mergeCell ref="J87:K87"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="I88:J88"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="E89:F89"/>
-    <mergeCell ref="J89:K89"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="E90:F90"/>
-    <mergeCell ref="J90:K90"/>
-    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="G8:G13"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:G21"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:G29"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="G34:G39"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="G42:G47"/>
+    <mergeCell ref="I42:K42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="I43:K43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="I44:K44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="I45:K45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="I46:K46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="G50:G55"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="G59:G64"/>
+    <mergeCell ref="H59:J59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:E60"/>
+    <mergeCell ref="I60:K60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:E61"/>
+    <mergeCell ref="I61:K61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="H62:J62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:E63"/>
+    <mergeCell ref="I63:K63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:E68"/>
+    <mergeCell ref="G68:G73"/>
+    <mergeCell ref="H68:J68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:E69"/>
+    <mergeCell ref="H69:J69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:E70"/>
+    <mergeCell ref="I70:K70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:E71"/>
+    <mergeCell ref="H71:J71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:E72"/>
+    <mergeCell ref="I72:K72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="G77:G82"/>
+    <mergeCell ref="I77:K77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="I78:K78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:E79"/>
+    <mergeCell ref="I79:K79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:E80"/>
+    <mergeCell ref="I80:K80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:E81"/>
+    <mergeCell ref="I81:K81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="G86:G91"/>
+    <mergeCell ref="H86:I86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="E87:F87"/>
+    <mergeCell ref="I87:J87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="H88:I88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="D89:E89"/>
+    <mergeCell ref="I89:J89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="I90:J90"/>
+    <mergeCell ref="A91:B91"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="8" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/Faculty Time Table-CSE,IT.xlsx
+++ b/Faculty Time Table-CSE,IT.xlsx
@@ -5,14 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Faculty TT" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Lab-TT" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">'Faculty TT'!$A$2:$J$213</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">'Faculty TT'!$A$2:$J$222</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="Print_Area_0" vbProcedure="false">#REF!</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="194">
   <si>
     <t xml:space="preserve">Aurora's Technological &amp; Research Institute</t>
   </si>
@@ -352,6 +352,12 @@
   </si>
   <si>
     <t xml:space="preserve">ITWS LAB -IT-2(B1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms. Sowmya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AI-ECE-3</t>
   </si>
   <si>
     <t xml:space="preserve">Ms. Srija</t>
@@ -734,7 +740,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -757,6 +763,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF81D41A"/>
+        <bgColor rgb="FFBBE33D"/>
       </patternFill>
     </fill>
     <fill>
@@ -827,7 +839,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -896,16 +908,12 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -948,6 +956,14 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -972,7 +988,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -996,7 +1012,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1053,8 +1069,8 @@
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF81D41A"/>
       <rgbColor rgb="FFBBE33D"/>
-      <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
@@ -1079,8 +1095,8 @@
   </sheetPr>
   <dimension ref="A1:U1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A60" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B83" activeCellId="0" sqref="B83"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A148" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D172" activeCellId="0" sqref="D172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1215,31 +1231,31 @@
       <c r="B9" s="17"/>
       <c r="C9" s="17"/>
       <c r="D9" s="18"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="20" t="s">
+      <c r="E9" s="17"/>
+      <c r="F9" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19" t="s">
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="J9" s="19"/>
+      <c r="J9" s="17"/>
       <c r="K9" s="9"/>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="19"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="17"/>
       <c r="H10" s="18"/>
       <c r="I10" s="18"/>
-      <c r="J10" s="19"/>
+      <c r="J10" s="17"/>
       <c r="K10" s="9"/>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1248,13 +1264,13 @@
       </c>
       <c r="B11" s="17"/>
       <c r="C11" s="17"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19" t="s">
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17" t="s">
         <v>17</v>
       </c>
       <c r="K11" s="9"/>
@@ -1263,45 +1279,45 @@
       <c r="A12" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
       <c r="K12" s="9"/>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="19"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="17"/>
       <c r="K13" s="9"/>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
       <c r="K14" s="9"/>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1356,49 +1372,49 @@
       <c r="A18" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
       <c r="D18" s="18"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="20" t="s">
+      <c r="E18" s="17"/>
+      <c r="F18" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19" t="s">
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="J18" s="19"/>
+      <c r="J18" s="17"/>
       <c r="K18" s="10"/>
     </row>
     <row r="19" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="19"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="17"/>
       <c r="H19" s="18"/>
       <c r="I19" s="18"/>
-      <c r="J19" s="19"/>
+      <c r="J19" s="17"/>
       <c r="K19" s="10"/>
     </row>
     <row r="20" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19" t="s">
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17" t="s">
         <v>17</v>
       </c>
       <c r="K20" s="10"/>
@@ -1407,45 +1423,45 @@
       <c r="A21" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
       <c r="K21" s="10"/>
     </row>
     <row r="22" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="19"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="17"/>
       <c r="K22" s="10"/>
     </row>
     <row r="23" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="19"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
       <c r="K23" s="10"/>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1500,91 +1516,91 @@
       <c r="A27" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="20" t="s">
+      <c r="B27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="G27" s="19"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="19"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
       <c r="K27" s="10"/>
     </row>
     <row r="28" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="19"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
       <c r="K28" s="10"/>
     </row>
     <row r="29" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="19"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
       <c r="K29" s="10"/>
     </row>
     <row r="30" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B30" s="19"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="19"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="17"/>
       <c r="K30" s="10"/>
     </row>
     <row r="31" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B31" s="19"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="19"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
       <c r="K31" s="10"/>
     </row>
     <row r="32" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B32" s="19"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="19"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
       <c r="K32" s="10"/>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1657,19 +1673,19 @@
       <c r="A36" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B36" s="19"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="20" t="s">
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="19" t="s">
         <v>16</v>
       </c>
       <c r="G36" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="H36" s="23"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="19"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="17"/>
       <c r="L36" s="0"/>
       <c r="M36" s="0"/>
       <c r="N36" s="0"/>
@@ -1685,16 +1701,16 @@
       <c r="A37" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B37" s="19"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="20"/>
+      <c r="B37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="19"/>
       <c r="G37" s="18" t="s">
         <v>17</v>
       </c>
       <c r="H37" s="18"/>
       <c r="I37" s="18"/>
-      <c r="J37" s="19"/>
+      <c r="J37" s="17"/>
       <c r="L37" s="0"/>
       <c r="M37" s="0"/>
       <c r="N37" s="0"/>
@@ -1711,16 +1727,16 @@
         <v>19</v>
       </c>
       <c r="B38" s="18"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="19" t="s">
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="H38" s="19"/>
+      <c r="H38" s="17"/>
       <c r="I38" s="18"/>
-      <c r="J38" s="19"/>
+      <c r="J38" s="17"/>
       <c r="L38" s="0"/>
       <c r="M38" s="0"/>
       <c r="N38" s="0"/>
@@ -1739,14 +1755,14 @@
       <c r="B39" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C39" s="19" t="s">
+      <c r="C39" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D39" s="19"/>
-      <c r="F39" s="20"/>
-      <c r="H39" s="24"/>
-      <c r="I39" s="24"/>
-      <c r="J39" s="24"/>
+      <c r="D39" s="17"/>
+      <c r="F39" s="19"/>
+      <c r="H39" s="23"/>
+      <c r="I39" s="23"/>
+      <c r="J39" s="23"/>
       <c r="L39" s="0"/>
       <c r="M39" s="0"/>
       <c r="N39" s="0"/>
@@ -1762,15 +1778,15 @@
       <c r="A40" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B40" s="19" t="s">
+      <c r="B40" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C40" s="19"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="19"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="19"/>
-      <c r="J40" s="19"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="17"/>
+      <c r="J40" s="17"/>
       <c r="L40" s="0"/>
       <c r="M40" s="0"/>
       <c r="N40" s="0"/>
@@ -1786,15 +1802,15 @@
       <c r="A41" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B41" s="19"/>
-      <c r="C41" s="19"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="20"/>
-      <c r="G41" s="19"/>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="19"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="17"/>
+      <c r="J41" s="17"/>
       <c r="L41" s="0"/>
       <c r="M41" s="0"/>
       <c r="N41" s="0"/>
@@ -1858,122 +1874,122 @@
       <c r="A45" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B45" s="19"/>
-      <c r="C45" s="19"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="19"/>
-      <c r="F45" s="20" t="s">
+      <c r="B45" s="17"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="H45" s="19" t="s">
+      <c r="H45" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="I45" s="19"/>
-      <c r="J45" s="19"/>
+      <c r="I45" s="17"/>
+      <c r="J45" s="17"/>
       <c r="K45" s="10"/>
     </row>
     <row r="46" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B46" s="19" t="s">
+      <c r="B46" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C46" s="19"/>
-      <c r="D46" s="19" t="s">
+      <c r="C46" s="17"/>
+      <c r="D46" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E46" s="19"/>
-      <c r="F46" s="20"/>
-      <c r="G46" s="19"/>
-      <c r="H46" s="19"/>
-      <c r="I46" s="19"/>
-      <c r="J46" s="19"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="19"/>
+      <c r="G46" s="17"/>
+      <c r="H46" s="17"/>
+      <c r="I46" s="17"/>
+      <c r="J46" s="17"/>
       <c r="K46" s="10"/>
     </row>
     <row r="47" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B47" s="19"/>
-      <c r="C47" s="23"/>
-      <c r="D47" s="25" t="s">
+      <c r="B47" s="17"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="E47" s="25"/>
-      <c r="F47" s="20"/>
-      <c r="G47" s="19"/>
+      <c r="E47" s="24"/>
+      <c r="F47" s="19"/>
+      <c r="G47" s="17"/>
       <c r="H47" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="I47" s="19"/>
-      <c r="J47" s="19"/>
+      <c r="I47" s="17"/>
+      <c r="J47" s="17"/>
       <c r="K47" s="10"/>
     </row>
     <row r="48" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B48" s="19"/>
-      <c r="C48" s="19" t="s">
+      <c r="B48" s="17"/>
+      <c r="C48" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="D48" s="19"/>
-      <c r="E48" s="19"/>
-      <c r="F48" s="20"/>
-      <c r="G48" s="23"/>
-      <c r="H48" s="19" t="s">
+      <c r="D48" s="17"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="19"/>
+      <c r="G48" s="22"/>
+      <c r="H48" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="I48" s="19"/>
-      <c r="J48" s="23"/>
+      <c r="I48" s="17"/>
+      <c r="J48" s="22"/>
       <c r="K48" s="10"/>
     </row>
     <row r="49" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B49" s="19"/>
-      <c r="C49" s="19"/>
-      <c r="D49" s="19" t="s">
+      <c r="B49" s="17"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="E49" s="19"/>
-      <c r="F49" s="20"/>
-      <c r="G49" s="19"/>
-      <c r="H49" s="19"/>
-      <c r="I49" s="22"/>
-      <c r="J49" s="19"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="19"/>
+      <c r="G49" s="17"/>
+      <c r="H49" s="17"/>
+      <c r="I49" s="21"/>
+      <c r="J49" s="17"/>
       <c r="K49" s="10"/>
     </row>
     <row r="50" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B50" s="19"/>
-      <c r="C50" s="19"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="17"/>
       <c r="D50" s="18" t="s">
         <v>17</v>
       </c>
       <c r="E50" s="18"/>
-      <c r="F50" s="20"/>
-      <c r="G50" s="19"/>
-      <c r="H50" s="19"/>
-      <c r="I50" s="19"/>
-      <c r="J50" s="19"/>
+      <c r="F50" s="19"/>
+      <c r="G50" s="17"/>
+      <c r="H50" s="17"/>
+      <c r="I50" s="17"/>
+      <c r="J50" s="17"/>
       <c r="K50" s="10"/>
     </row>
     <row r="51" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="26"/>
-      <c r="B51" s="27"/>
-      <c r="C51" s="27"/>
-      <c r="D51" s="27"/>
-      <c r="E51" s="27"/>
-      <c r="F51" s="28"/>
-      <c r="G51" s="27"/>
-      <c r="H51" s="27"/>
-      <c r="I51" s="27"/>
-      <c r="J51" s="27"/>
+      <c r="A51" s="25"/>
+      <c r="B51" s="26"/>
+      <c r="C51" s="26"/>
+      <c r="D51" s="26"/>
+      <c r="E51" s="26"/>
+      <c r="F51" s="27"/>
+      <c r="G51" s="26"/>
+      <c r="H51" s="26"/>
+      <c r="I51" s="26"/>
+      <c r="J51" s="26"/>
       <c r="K51" s="10"/>
     </row>
     <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2053,16 +2069,16 @@
         <v>36</v>
       </c>
       <c r="D54" s="18"/>
-      <c r="E54" s="19"/>
-      <c r="F54" s="20" t="s">
+      <c r="E54" s="17"/>
+      <c r="F54" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="G54" s="19" t="s">
+      <c r="G54" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="H54" s="19"/>
-      <c r="I54" s="19"/>
-      <c r="J54" s="19"/>
+      <c r="H54" s="17"/>
+      <c r="I54" s="17"/>
+      <c r="J54" s="17"/>
       <c r="K54" s="10"/>
       <c r="L54" s="0"/>
       <c r="M54" s="0"/>
@@ -2084,16 +2100,16 @@
         <v>36</v>
       </c>
       <c r="D55" s="18"/>
-      <c r="E55" s="19" t="s">
+      <c r="E55" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="F55" s="20"/>
-      <c r="G55" s="19" t="s">
+      <c r="F55" s="19"/>
+      <c r="G55" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="H55" s="19"/>
-      <c r="I55" s="19"/>
-      <c r="J55" s="19"/>
+      <c r="H55" s="17"/>
+      <c r="I55" s="17"/>
+      <c r="J55" s="17"/>
       <c r="K55" s="10"/>
       <c r="L55" s="0"/>
       <c r="M55" s="0"/>
@@ -2110,21 +2126,21 @@
       <c r="A56" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B56" s="19" t="s">
+      <c r="B56" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="C56" s="19"/>
-      <c r="D56" s="19"/>
-      <c r="E56" s="19"/>
-      <c r="F56" s="20"/>
-      <c r="G56" s="19" t="s">
+      <c r="C56" s="17"/>
+      <c r="D56" s="17"/>
+      <c r="E56" s="17"/>
+      <c r="F56" s="19"/>
+      <c r="G56" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="H56" s="19"/>
-      <c r="I56" s="19" t="s">
+      <c r="H56" s="17"/>
+      <c r="I56" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="J56" s="19"/>
+      <c r="J56" s="17"/>
       <c r="K56" s="10"/>
       <c r="L56" s="0"/>
       <c r="M56" s="0"/>
@@ -2141,21 +2157,21 @@
       <c r="A57" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B57" s="19" t="s">
+      <c r="B57" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C57" s="19"/>
-      <c r="D57" s="19"/>
-      <c r="E57" s="19" t="s">
+      <c r="C57" s="17"/>
+      <c r="D57" s="17"/>
+      <c r="E57" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="F57" s="20"/>
-      <c r="G57" s="19"/>
-      <c r="H57" s="19" t="s">
+      <c r="F57" s="19"/>
+      <c r="G57" s="17"/>
+      <c r="H57" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="I57" s="19"/>
-      <c r="J57" s="19"/>
+      <c r="I57" s="17"/>
+      <c r="J57" s="17"/>
       <c r="K57" s="10"/>
       <c r="L57" s="0"/>
       <c r="M57" s="0"/>
@@ -2172,21 +2188,21 @@
       <c r="A58" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B58" s="19" t="s">
+      <c r="B58" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="C58" s="19"/>
-      <c r="D58" s="19"/>
-      <c r="E58" s="19"/>
-      <c r="F58" s="20"/>
-      <c r="G58" s="19" t="s">
+      <c r="C58" s="17"/>
+      <c r="D58" s="17"/>
+      <c r="E58" s="17"/>
+      <c r="F58" s="19"/>
+      <c r="G58" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="H58" s="19"/>
-      <c r="I58" s="19" t="s">
+      <c r="H58" s="17"/>
+      <c r="I58" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="J58" s="19"/>
+      <c r="J58" s="17"/>
       <c r="K58" s="10"/>
       <c r="L58" s="0"/>
       <c r="M58" s="0"/>
@@ -2203,17 +2219,17 @@
       <c r="A59" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B59" s="19" t="s">
+      <c r="B59" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="C59" s="19"/>
-      <c r="D59" s="19"/>
-      <c r="E59" s="19"/>
-      <c r="F59" s="20"/>
-      <c r="G59" s="19"/>
-      <c r="H59" s="19"/>
-      <c r="I59" s="19"/>
-      <c r="J59" s="19"/>
+      <c r="C59" s="17"/>
+      <c r="D59" s="17"/>
+      <c r="E59" s="17"/>
+      <c r="F59" s="19"/>
+      <c r="G59" s="17"/>
+      <c r="H59" s="17"/>
+      <c r="I59" s="17"/>
+      <c r="J59" s="17"/>
       <c r="K59" s="10"/>
       <c r="L59" s="0"/>
       <c r="M59" s="0"/>
@@ -2227,16 +2243,16 @@
       <c r="U59" s="0"/>
     </row>
     <row r="60" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="26"/>
-      <c r="B60" s="27"/>
-      <c r="C60" s="27"/>
-      <c r="D60" s="27"/>
-      <c r="E60" s="27"/>
-      <c r="F60" s="29"/>
-      <c r="G60" s="27"/>
-      <c r="H60" s="27"/>
-      <c r="I60" s="27"/>
-      <c r="J60" s="27"/>
+      <c r="A60" s="25"/>
+      <c r="B60" s="26"/>
+      <c r="C60" s="26"/>
+      <c r="D60" s="26"/>
+      <c r="E60" s="26"/>
+      <c r="F60" s="28"/>
+      <c r="G60" s="26"/>
+      <c r="H60" s="26"/>
+      <c r="I60" s="26"/>
+      <c r="J60" s="26"/>
       <c r="K60" s="10"/>
     </row>
     <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2311,23 +2327,23 @@
       <c r="A63" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B63" s="19" t="s">
+      <c r="B63" s="17" t="s">
         <v>44</v>
       </c>
       <c r="C63" s="18"/>
-      <c r="D63" s="19" t="s">
+      <c r="D63" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="E63" s="19"/>
-      <c r="F63" s="20" t="s">
+      <c r="E63" s="17"/>
+      <c r="F63" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="G63" s="19"/>
-      <c r="H63" s="19" t="s">
+      <c r="G63" s="17"/>
+      <c r="H63" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="I63" s="23"/>
-      <c r="J63" s="19"/>
+      <c r="I63" s="22"/>
+      <c r="J63" s="17"/>
       <c r="K63" s="10"/>
       <c r="L63" s="0"/>
       <c r="M63" s="0"/>
@@ -2344,16 +2360,16 @@
       <c r="A64" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B64" s="19"/>
-      <c r="C64" s="19"/>
+      <c r="B64" s="17"/>
+      <c r="C64" s="17"/>
       <c r="D64" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="F64" s="20"/>
-      <c r="G64" s="19"/>
-      <c r="H64" s="19"/>
-      <c r="I64" s="23"/>
-      <c r="J64" s="19" t="s">
+      <c r="F64" s="19"/>
+      <c r="G64" s="17"/>
+      <c r="H64" s="17"/>
+      <c r="I64" s="22"/>
+      <c r="J64" s="17" t="s">
         <v>45</v>
       </c>
       <c r="K64" s="10"/>
@@ -2372,17 +2388,17 @@
       <c r="A65" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B65" s="19" t="s">
+      <c r="B65" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="C65" s="19"/>
-      <c r="D65" s="19"/>
+      <c r="C65" s="17"/>
+      <c r="D65" s="17"/>
       <c r="E65" s="18"/>
-      <c r="F65" s="20"/>
-      <c r="G65" s="19" t="s">
+      <c r="F65" s="19"/>
+      <c r="G65" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="H65" s="19"/>
+      <c r="H65" s="17"/>
       <c r="I65" s="18"/>
       <c r="J65" s="17"/>
       <c r="K65" s="10"/>
@@ -2401,17 +2417,17 @@
       <c r="A66" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B66" s="19" t="s">
+      <c r="B66" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="D66" s="19"/>
-      <c r="E66" s="19"/>
-      <c r="F66" s="20"/>
-      <c r="G66" s="22"/>
-      <c r="H66" s="19" t="s">
+      <c r="D66" s="17"/>
+      <c r="E66" s="17"/>
+      <c r="F66" s="19"/>
+      <c r="G66" s="21"/>
+      <c r="H66" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="I66" s="19"/>
+      <c r="I66" s="17"/>
       <c r="J66" s="18"/>
       <c r="K66" s="10"/>
       <c r="L66" s="0"/>
@@ -2429,19 +2445,19 @@
       <c r="A67" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B67" s="19"/>
-      <c r="C67" s="19" t="s">
+      <c r="B67" s="17"/>
+      <c r="C67" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="D67" s="19"/>
-      <c r="E67" s="19"/>
-      <c r="F67" s="20"/>
-      <c r="G67" s="19" t="s">
+      <c r="D67" s="17"/>
+      <c r="E67" s="17"/>
+      <c r="F67" s="19"/>
+      <c r="G67" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="H67" s="19"/>
-      <c r="I67" s="22"/>
-      <c r="J67" s="19" t="s">
+      <c r="H67" s="17"/>
+      <c r="I67" s="21"/>
+      <c r="J67" s="17" t="s">
         <v>45</v>
       </c>
       <c r="K67" s="10"/>
@@ -2460,15 +2476,15 @@
       <c r="A68" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B68" s="19"/>
-      <c r="C68" s="19"/>
-      <c r="D68" s="19"/>
-      <c r="E68" s="19"/>
-      <c r="F68" s="20"/>
-      <c r="G68" s="19"/>
-      <c r="H68" s="19"/>
-      <c r="I68" s="19"/>
-      <c r="J68" s="19"/>
+      <c r="B68" s="17"/>
+      <c r="C68" s="17"/>
+      <c r="D68" s="17"/>
+      <c r="E68" s="17"/>
+      <c r="F68" s="19"/>
+      <c r="G68" s="17"/>
+      <c r="H68" s="17"/>
+      <c r="I68" s="17"/>
+      <c r="J68" s="17"/>
       <c r="K68" s="10"/>
       <c r="L68" s="0"/>
       <c r="M68" s="0"/>
@@ -2482,27 +2498,27 @@
       <c r="U68" s="0"/>
     </row>
     <row r="69" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A69" s="26"/>
-      <c r="B69" s="27"/>
-      <c r="C69" s="27"/>
-      <c r="D69" s="27"/>
-      <c r="E69" s="27"/>
-      <c r="F69" s="29"/>
-      <c r="G69" s="27"/>
-      <c r="H69" s="27"/>
-      <c r="I69" s="27"/>
-      <c r="J69" s="27"/>
+      <c r="A69" s="25"/>
+      <c r="B69" s="26"/>
+      <c r="C69" s="26"/>
+      <c r="D69" s="26"/>
+      <c r="E69" s="26"/>
+      <c r="F69" s="28"/>
+      <c r="G69" s="26"/>
+      <c r="H69" s="26"/>
+      <c r="I69" s="26"/>
+      <c r="J69" s="26"/>
       <c r="K69" s="10"/>
-      <c r="L69" s="26"/>
-      <c r="M69" s="27"/>
-      <c r="N69" s="27"/>
-      <c r="O69" s="27"/>
-      <c r="P69" s="27"/>
-      <c r="Q69" s="29"/>
-      <c r="R69" s="27"/>
-      <c r="S69" s="27"/>
-      <c r="T69" s="27"/>
-      <c r="U69" s="27"/>
+      <c r="L69" s="25"/>
+      <c r="M69" s="26"/>
+      <c r="N69" s="26"/>
+      <c r="O69" s="26"/>
+      <c r="P69" s="26"/>
+      <c r="Q69" s="28"/>
+      <c r="R69" s="26"/>
+      <c r="S69" s="26"/>
+      <c r="T69" s="26"/>
+      <c r="U69" s="26"/>
     </row>
     <row r="70" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="12" t="s">
@@ -2576,20 +2592,20 @@
       <c r="A72" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B72" s="19"/>
-      <c r="C72" s="19" t="s">
+      <c r="B72" s="17"/>
+      <c r="C72" s="17" t="s">
         <v>52</v>
       </c>
       <c r="E72" s="18"/>
-      <c r="F72" s="20" t="s">
+      <c r="F72" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="G72" s="19"/>
-      <c r="H72" s="19" t="s">
+      <c r="G72" s="17"/>
+      <c r="H72" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="I72" s="19"/>
-      <c r="J72" s="19"/>
+      <c r="I72" s="17"/>
+      <c r="J72" s="17"/>
       <c r="K72" s="10"/>
       <c r="L72" s="0"/>
       <c r="M72" s="0"/>
@@ -2606,18 +2622,18 @@
       <c r="A73" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B73" s="19" t="s">
+      <c r="B73" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="C73" s="23"/>
-      <c r="D73" s="19"/>
-      <c r="E73" s="19"/>
-      <c r="F73" s="20"/>
-      <c r="H73" s="19" t="s">
+      <c r="C73" s="22"/>
+      <c r="D73" s="17"/>
+      <c r="E73" s="17"/>
+      <c r="F73" s="19"/>
+      <c r="H73" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="I73" s="19"/>
-      <c r="J73" s="19"/>
+      <c r="I73" s="17"/>
+      <c r="J73" s="17"/>
       <c r="K73" s="10"/>
       <c r="L73" s="0"/>
       <c r="M73" s="0"/>
@@ -2634,15 +2650,15 @@
       <c r="A74" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C74" s="23"/>
-      <c r="E74" s="19" t="s">
+      <c r="C74" s="22"/>
+      <c r="E74" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="F74" s="20"/>
-      <c r="G74" s="22"/>
-      <c r="H74" s="19"/>
-      <c r="I74" s="19"/>
-      <c r="J74" s="19"/>
+      <c r="F74" s="19"/>
+      <c r="G74" s="21"/>
+      <c r="H74" s="17"/>
+      <c r="I74" s="17"/>
+      <c r="J74" s="17"/>
       <c r="K74" s="10"/>
       <c r="L74" s="0"/>
       <c r="M74" s="0"/>
@@ -2659,17 +2675,17 @@
       <c r="A75" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B75" s="19" t="s">
+      <c r="B75" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="C75" s="19"/>
-      <c r="D75" s="19"/>
-      <c r="E75" s="19"/>
-      <c r="F75" s="20"/>
-      <c r="G75" s="19"/>
-      <c r="H75" s="19"/>
-      <c r="I75" s="19"/>
-      <c r="J75" s="19"/>
+      <c r="C75" s="17"/>
+      <c r="D75" s="17"/>
+      <c r="E75" s="17"/>
+      <c r="F75" s="19"/>
+      <c r="G75" s="17"/>
+      <c r="H75" s="17"/>
+      <c r="I75" s="17"/>
+      <c r="J75" s="17"/>
       <c r="K75" s="10"/>
       <c r="L75" s="0"/>
       <c r="M75" s="0"/>
@@ -2686,17 +2702,17 @@
       <c r="A76" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B76" s="19" t="s">
+      <c r="B76" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="C76" s="19"/>
+      <c r="C76" s="17"/>
       <c r="D76" s="18"/>
-      <c r="E76" s="19" t="s">
+      <c r="E76" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="F76" s="20"/>
-      <c r="H76" s="19"/>
-      <c r="I76" s="19"/>
+      <c r="F76" s="19"/>
+      <c r="H76" s="17"/>
+      <c r="I76" s="17"/>
       <c r="J76" s="18"/>
       <c r="K76" s="10"/>
       <c r="L76" s="0"/>
@@ -2714,15 +2730,15 @@
       <c r="A77" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B77" s="19"/>
-      <c r="C77" s="19"/>
-      <c r="D77" s="19"/>
-      <c r="E77" s="19"/>
-      <c r="F77" s="20"/>
-      <c r="G77" s="19"/>
-      <c r="H77" s="19"/>
-      <c r="I77" s="19"/>
-      <c r="J77" s="19"/>
+      <c r="B77" s="17"/>
+      <c r="C77" s="17"/>
+      <c r="D77" s="17"/>
+      <c r="E77" s="17"/>
+      <c r="F77" s="19"/>
+      <c r="G77" s="17"/>
+      <c r="H77" s="17"/>
+      <c r="I77" s="17"/>
+      <c r="J77" s="17"/>
       <c r="K77" s="10"/>
       <c r="L77" s="0"/>
       <c r="M77" s="0"/>
@@ -2736,16 +2752,16 @@
       <c r="U77" s="0"/>
     </row>
     <row r="78" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A78" s="26"/>
-      <c r="B78" s="27"/>
-      <c r="C78" s="27"/>
-      <c r="D78" s="27"/>
-      <c r="E78" s="27"/>
-      <c r="F78" s="29"/>
-      <c r="G78" s="27"/>
-      <c r="H78" s="27"/>
-      <c r="I78" s="27"/>
-      <c r="J78" s="27"/>
+      <c r="A78" s="25"/>
+      <c r="B78" s="26"/>
+      <c r="C78" s="26"/>
+      <c r="D78" s="26"/>
+      <c r="E78" s="26"/>
+      <c r="F78" s="28"/>
+      <c r="G78" s="26"/>
+      <c r="H78" s="26"/>
+      <c r="I78" s="26"/>
+      <c r="J78" s="26"/>
       <c r="K78" s="10"/>
     </row>
     <row r="79" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2804,37 +2820,37 @@
         <v>59</v>
       </c>
       <c r="C81" s="17"/>
-      <c r="D81" s="19"/>
-      <c r="E81" s="19"/>
-      <c r="F81" s="20" t="s">
+      <c r="D81" s="17"/>
+      <c r="E81" s="17"/>
+      <c r="F81" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="G81" s="19" t="s">
+      <c r="G81" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="H81" s="19"/>
-      <c r="I81" s="19" t="s">
+      <c r="H81" s="17"/>
+      <c r="I81" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="J81" s="19"/>
+      <c r="J81" s="17"/>
       <c r="K81" s="10"/>
     </row>
     <row r="82" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B82" s="19" t="s">
+      <c r="B82" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="C82" s="19"/>
-      <c r="D82" s="19"/>
-      <c r="F82" s="20"/>
-      <c r="G82" s="23"/>
-      <c r="H82" s="19" t="s">
+      <c r="C82" s="17"/>
+      <c r="D82" s="17"/>
+      <c r="F82" s="19"/>
+      <c r="G82" s="22"/>
+      <c r="H82" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="I82" s="19"/>
-      <c r="J82" s="19"/>
+      <c r="I82" s="17"/>
+      <c r="J82" s="17"/>
       <c r="K82" s="10"/>
     </row>
     <row r="83" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2845,52 +2861,52 @@
         <v>59</v>
       </c>
       <c r="C83" s="17"/>
-      <c r="E83" s="19"/>
-      <c r="F83" s="20"/>
-      <c r="G83" s="19" t="s">
+      <c r="E83" s="17"/>
+      <c r="F83" s="19"/>
+      <c r="G83" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="H83" s="19"/>
-      <c r="I83" s="19"/>
-      <c r="J83" s="19"/>
+      <c r="H83" s="17"/>
+      <c r="I83" s="17"/>
+      <c r="J83" s="17"/>
       <c r="K83" s="10"/>
     </row>
     <row r="84" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B84" s="23"/>
-      <c r="C84" s="19"/>
-      <c r="D84" s="21"/>
+      <c r="B84" s="22"/>
+      <c r="C84" s="17"/>
+      <c r="D84" s="20"/>
       <c r="E84" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="F84" s="20"/>
-      <c r="G84" s="19"/>
+      <c r="F84" s="19"/>
+      <c r="G84" s="17"/>
       <c r="H84" s="18"/>
-      <c r="I84" s="19" t="s">
+      <c r="I84" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="J84" s="19"/>
+      <c r="J84" s="17"/>
       <c r="K84" s="10"/>
     </row>
     <row r="85" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B85" s="19" t="s">
+      <c r="B85" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="C85" s="19" t="s">
+      <c r="C85" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D85" s="19"/>
-      <c r="E85" s="19"/>
-      <c r="F85" s="20"/>
-      <c r="G85" s="19" t="s">
+      <c r="D85" s="17"/>
+      <c r="E85" s="17"/>
+      <c r="F85" s="19"/>
+      <c r="G85" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="H85" s="19"/>
+      <c r="H85" s="17"/>
       <c r="J85" s="18"/>
       <c r="K85" s="10"/>
     </row>
@@ -2898,28 +2914,28 @@
       <c r="A86" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B86" s="19"/>
-      <c r="C86" s="19"/>
-      <c r="D86" s="19"/>
-      <c r="E86" s="19"/>
-      <c r="F86" s="20"/>
-      <c r="G86" s="19"/>
-      <c r="H86" s="19"/>
-      <c r="I86" s="19"/>
-      <c r="J86" s="19"/>
+      <c r="B86" s="17"/>
+      <c r="C86" s="17"/>
+      <c r="D86" s="17"/>
+      <c r="E86" s="17"/>
+      <c r="F86" s="19"/>
+      <c r="G86" s="17"/>
+      <c r="H86" s="17"/>
+      <c r="I86" s="17"/>
+      <c r="J86" s="17"/>
       <c r="K86" s="10"/>
     </row>
     <row r="87" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A87" s="26"/>
-      <c r="B87" s="27"/>
-      <c r="C87" s="27"/>
-      <c r="D87" s="27"/>
-      <c r="E87" s="27"/>
-      <c r="F87" s="29"/>
-      <c r="G87" s="27"/>
-      <c r="H87" s="27"/>
-      <c r="I87" s="27"/>
-      <c r="J87" s="27"/>
+      <c r="A87" s="25"/>
+      <c r="B87" s="26"/>
+      <c r="C87" s="26"/>
+      <c r="D87" s="26"/>
+      <c r="E87" s="26"/>
+      <c r="F87" s="28"/>
+      <c r="G87" s="26"/>
+      <c r="H87" s="26"/>
+      <c r="I87" s="26"/>
+      <c r="J87" s="26"/>
       <c r="K87" s="10"/>
     </row>
     <row r="88" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2994,21 +3010,21 @@
       <c r="A90" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B90" s="19" t="s">
+      <c r="B90" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="C90" s="19"/>
-      <c r="D90" s="19"/>
-      <c r="E90" s="19"/>
-      <c r="F90" s="20" t="s">
+      <c r="C90" s="17"/>
+      <c r="D90" s="17"/>
+      <c r="E90" s="17"/>
+      <c r="F90" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="G90" s="19" t="s">
+      <c r="G90" s="29"/>
+      <c r="H90" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="H90" s="19"/>
-      <c r="I90" s="19"/>
-      <c r="J90" s="19"/>
+      <c r="I90" s="30"/>
+      <c r="J90" s="17"/>
       <c r="K90" s="10"/>
       <c r="L90" s="0"/>
       <c r="M90" s="0"/>
@@ -3025,21 +3041,21 @@
       <c r="A91" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B91" s="19"/>
-      <c r="C91" s="19" t="s">
+      <c r="B91" s="17"/>
+      <c r="C91" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="D91" s="19"/>
-      <c r="E91" s="19"/>
-      <c r="F91" s="20"/>
-      <c r="G91" s="19" t="s">
+      <c r="D91" s="17"/>
+      <c r="E91" s="17"/>
+      <c r="F91" s="19"/>
+      <c r="G91" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="H91" s="19"/>
-      <c r="I91" s="19" t="s">
+      <c r="H91" s="17"/>
+      <c r="I91" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="J91" s="19"/>
+      <c r="J91" s="17"/>
       <c r="K91" s="10"/>
       <c r="L91" s="0"/>
       <c r="M91" s="0"/>
@@ -3056,19 +3072,19 @@
       <c r="A92" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B92" s="19" t="s">
+      <c r="B92" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="C92" s="19"/>
-      <c r="D92" s="19"/>
-      <c r="E92" s="19"/>
-      <c r="F92" s="20"/>
-      <c r="G92" s="19"/>
-      <c r="H92" s="19" t="s">
+      <c r="C92" s="17"/>
+      <c r="D92" s="17"/>
+      <c r="E92" s="17"/>
+      <c r="F92" s="19"/>
+      <c r="G92" s="17"/>
+      <c r="H92" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="I92" s="19"/>
-      <c r="J92" s="19"/>
+      <c r="I92" s="17"/>
+      <c r="J92" s="17"/>
       <c r="K92" s="10"/>
       <c r="L92" s="0"/>
       <c r="M92" s="0"/>
@@ -3085,19 +3101,19 @@
       <c r="A93" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B93" s="19" t="s">
+      <c r="B93" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="C93" s="19"/>
-      <c r="D93" s="19"/>
-      <c r="E93" s="19"/>
-      <c r="F93" s="20"/>
-      <c r="G93" s="19" t="s">
+      <c r="C93" s="17"/>
+      <c r="D93" s="17"/>
+      <c r="E93" s="17"/>
+      <c r="F93" s="19"/>
+      <c r="G93" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="H93" s="19"/>
-      <c r="I93" s="19"/>
-      <c r="J93" s="19"/>
+      <c r="H93" s="17"/>
+      <c r="I93" s="17"/>
+      <c r="J93" s="17"/>
       <c r="K93" s="10"/>
       <c r="L93" s="0"/>
       <c r="M93" s="0"/>
@@ -3114,21 +3130,21 @@
       <c r="A94" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B94" s="19"/>
-      <c r="C94" s="19" t="s">
+      <c r="B94" s="17"/>
+      <c r="C94" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="D94" s="19"/>
-      <c r="E94" s="19" t="s">
+      <c r="D94" s="17"/>
+      <c r="E94" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="F94" s="20"/>
-      <c r="G94" s="19"/>
-      <c r="H94" s="19" t="s">
+      <c r="F94" s="19"/>
+      <c r="G94" s="17"/>
+      <c r="H94" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="I94" s="19"/>
-      <c r="J94" s="19"/>
+      <c r="I94" s="17"/>
+      <c r="J94" s="17"/>
       <c r="K94" s="10"/>
       <c r="L94" s="0"/>
       <c r="M94" s="0"/>
@@ -3145,17 +3161,17 @@
       <c r="A95" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B95" s="19" t="s">
+      <c r="B95" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="C95" s="19"/>
-      <c r="D95" s="19"/>
-      <c r="E95" s="19"/>
-      <c r="F95" s="20"/>
-      <c r="G95" s="19"/>
-      <c r="H95" s="19"/>
-      <c r="I95" s="19"/>
-      <c r="J95" s="19"/>
+      <c r="C95" s="17"/>
+      <c r="D95" s="17"/>
+      <c r="E95" s="17"/>
+      <c r="F95" s="19"/>
+      <c r="G95" s="17"/>
+      <c r="H95" s="17"/>
+      <c r="I95" s="17"/>
+      <c r="J95" s="17"/>
       <c r="K95" s="10"/>
       <c r="L95" s="0"/>
       <c r="M95" s="0"/>
@@ -3169,27 +3185,27 @@
       <c r="U95" s="0"/>
     </row>
     <row r="96" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A96" s="26"/>
-      <c r="B96" s="27"/>
-      <c r="C96" s="27"/>
-      <c r="D96" s="27"/>
-      <c r="E96" s="27"/>
-      <c r="F96" s="29"/>
-      <c r="G96" s="27"/>
-      <c r="H96" s="27"/>
-      <c r="I96" s="27"/>
-      <c r="J96" s="27"/>
+      <c r="A96" s="25"/>
+      <c r="B96" s="26"/>
+      <c r="C96" s="26"/>
+      <c r="D96" s="26"/>
+      <c r="E96" s="26"/>
+      <c r="F96" s="28"/>
+      <c r="G96" s="26"/>
+      <c r="H96" s="26"/>
+      <c r="I96" s="26"/>
+      <c r="J96" s="26"/>
       <c r="K96" s="10"/>
-      <c r="L96" s="26"/>
-      <c r="M96" s="27"/>
-      <c r="N96" s="27"/>
-      <c r="O96" s="27"/>
-      <c r="P96" s="27"/>
-      <c r="Q96" s="29"/>
-      <c r="R96" s="27"/>
-      <c r="S96" s="27"/>
-      <c r="T96" s="27"/>
-      <c r="U96" s="27"/>
+      <c r="L96" s="25"/>
+      <c r="M96" s="26"/>
+      <c r="N96" s="26"/>
+      <c r="O96" s="26"/>
+      <c r="P96" s="26"/>
+      <c r="Q96" s="28"/>
+      <c r="R96" s="26"/>
+      <c r="S96" s="26"/>
+      <c r="T96" s="26"/>
+      <c r="U96" s="26"/>
     </row>
     <row r="97" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="12" t="s">
@@ -3262,17 +3278,17 @@
       <c r="A99" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B99" s="19"/>
-      <c r="C99" s="19"/>
-      <c r="D99" s="19"/>
-      <c r="E99" s="19"/>
-      <c r="F99" s="20" t="s">
+      <c r="B99" s="17"/>
+      <c r="C99" s="17"/>
+      <c r="D99" s="17"/>
+      <c r="E99" s="17"/>
+      <c r="F99" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="G99" s="22"/>
-      <c r="H99" s="19"/>
-      <c r="I99" s="19"/>
-      <c r="J99" s="19"/>
+      <c r="G99" s="21"/>
+      <c r="H99" s="17"/>
+      <c r="I99" s="17"/>
+      <c r="J99" s="17"/>
       <c r="L99" s="0"/>
       <c r="M99" s="0"/>
       <c r="N99" s="0"/>
@@ -3288,15 +3304,15 @@
       <c r="A100" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B100" s="19"/>
-      <c r="C100" s="30"/>
-      <c r="D100" s="23"/>
-      <c r="E100" s="22"/>
-      <c r="F100" s="20"/>
-      <c r="G100" s="19"/>
-      <c r="H100" s="19"/>
-      <c r="I100" s="19"/>
-      <c r="J100" s="19"/>
+      <c r="B100" s="17"/>
+      <c r="C100" s="31"/>
+      <c r="D100" s="22"/>
+      <c r="E100" s="21"/>
+      <c r="F100" s="19"/>
+      <c r="G100" s="17"/>
+      <c r="H100" s="17"/>
+      <c r="I100" s="17"/>
+      <c r="J100" s="17"/>
       <c r="L100" s="0"/>
       <c r="M100" s="0"/>
       <c r="N100" s="0"/>
@@ -3312,15 +3328,15 @@
       <c r="A101" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B101" s="22"/>
-      <c r="C101" s="23"/>
-      <c r="D101" s="31"/>
-      <c r="E101" s="19"/>
-      <c r="F101" s="20"/>
-      <c r="G101" s="19"/>
-      <c r="H101" s="19"/>
-      <c r="I101" s="19"/>
-      <c r="J101" s="19"/>
+      <c r="B101" s="21"/>
+      <c r="C101" s="22"/>
+      <c r="D101" s="32"/>
+      <c r="E101" s="17"/>
+      <c r="F101" s="19"/>
+      <c r="G101" s="17"/>
+      <c r="H101" s="17"/>
+      <c r="I101" s="17"/>
+      <c r="J101" s="17"/>
       <c r="L101" s="0"/>
       <c r="M101" s="0"/>
       <c r="N101" s="0"/>
@@ -3336,15 +3352,15 @@
       <c r="A102" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B102" s="19"/>
-      <c r="C102" s="19"/>
-      <c r="D102" s="19"/>
-      <c r="E102" s="19"/>
-      <c r="F102" s="20"/>
-      <c r="G102" s="19"/>
-      <c r="H102" s="19"/>
-      <c r="I102" s="19"/>
-      <c r="J102" s="19"/>
+      <c r="B102" s="17"/>
+      <c r="C102" s="17"/>
+      <c r="D102" s="17"/>
+      <c r="E102" s="17"/>
+      <c r="F102" s="19"/>
+      <c r="G102" s="17"/>
+      <c r="H102" s="17"/>
+      <c r="I102" s="17"/>
+      <c r="J102" s="17"/>
       <c r="L102" s="0"/>
       <c r="M102" s="0"/>
       <c r="N102" s="0"/>
@@ -3360,15 +3376,15 @@
       <c r="A103" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B103" s="19"/>
-      <c r="C103" s="19"/>
-      <c r="D103" s="19"/>
-      <c r="E103" s="19"/>
-      <c r="F103" s="20"/>
-      <c r="G103" s="19"/>
-      <c r="H103" s="19"/>
-      <c r="I103" s="19"/>
-      <c r="J103" s="19"/>
+      <c r="B103" s="17"/>
+      <c r="C103" s="17"/>
+      <c r="D103" s="17"/>
+      <c r="E103" s="17"/>
+      <c r="F103" s="19"/>
+      <c r="G103" s="17"/>
+      <c r="H103" s="17"/>
+      <c r="I103" s="17"/>
+      <c r="J103" s="17"/>
       <c r="L103" s="0"/>
       <c r="M103" s="0"/>
       <c r="N103" s="0"/>
@@ -3384,15 +3400,15 @@
       <c r="A104" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B104" s="19"/>
-      <c r="C104" s="19"/>
-      <c r="D104" s="19"/>
-      <c r="E104" s="19"/>
-      <c r="F104" s="20"/>
-      <c r="G104" s="19"/>
-      <c r="H104" s="19"/>
-      <c r="I104" s="19"/>
-      <c r="J104" s="19"/>
+      <c r="B104" s="17"/>
+      <c r="C104" s="17"/>
+      <c r="D104" s="17"/>
+      <c r="E104" s="17"/>
+      <c r="F104" s="19"/>
+      <c r="G104" s="17"/>
+      <c r="H104" s="17"/>
+      <c r="I104" s="17"/>
+      <c r="J104" s="17"/>
       <c r="L104" s="0"/>
       <c r="M104" s="0"/>
       <c r="N104" s="0"/>
@@ -3405,26 +3421,26 @@
       <c r="U104" s="0"/>
     </row>
     <row r="105" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A105" s="26"/>
-      <c r="B105" s="27"/>
-      <c r="C105" s="27"/>
-      <c r="D105" s="27"/>
-      <c r="E105" s="27"/>
-      <c r="F105" s="29"/>
-      <c r="G105" s="27"/>
-      <c r="H105" s="27"/>
-      <c r="I105" s="27"/>
-      <c r="J105" s="27"/>
-      <c r="L105" s="26"/>
-      <c r="M105" s="27"/>
-      <c r="N105" s="27"/>
-      <c r="O105" s="27"/>
-      <c r="P105" s="27"/>
-      <c r="Q105" s="29"/>
-      <c r="R105" s="27"/>
-      <c r="S105" s="27"/>
-      <c r="T105" s="27"/>
-      <c r="U105" s="27"/>
+      <c r="A105" s="25"/>
+      <c r="B105" s="26"/>
+      <c r="C105" s="26"/>
+      <c r="D105" s="26"/>
+      <c r="E105" s="26"/>
+      <c r="F105" s="28"/>
+      <c r="G105" s="26"/>
+      <c r="H105" s="26"/>
+      <c r="I105" s="26"/>
+      <c r="J105" s="26"/>
+      <c r="L105" s="25"/>
+      <c r="M105" s="26"/>
+      <c r="N105" s="26"/>
+      <c r="O105" s="26"/>
+      <c r="P105" s="26"/>
+      <c r="Q105" s="28"/>
+      <c r="R105" s="26"/>
+      <c r="S105" s="26"/>
+      <c r="T105" s="26"/>
+      <c r="U105" s="26"/>
     </row>
     <row r="106" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="12" t="s">
@@ -3496,19 +3512,19 @@
       <c r="A108" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B108" s="19" t="s">
+      <c r="B108" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="C108" s="19"/>
-      <c r="D108" s="19"/>
-      <c r="E108" s="19"/>
-      <c r="F108" s="20" t="s">
+      <c r="C108" s="17"/>
+      <c r="D108" s="17"/>
+      <c r="E108" s="17"/>
+      <c r="F108" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="G108" s="19"/>
-      <c r="H108" s="19"/>
-      <c r="I108" s="19"/>
-      <c r="J108" s="19"/>
+      <c r="G108" s="17"/>
+      <c r="H108" s="17"/>
+      <c r="I108" s="17"/>
+      <c r="J108" s="17"/>
       <c r="L108" s="0"/>
       <c r="M108" s="0"/>
       <c r="N108" s="0"/>
@@ -3524,17 +3540,17 @@
       <c r="A109" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B109" s="19" t="s">
+      <c r="B109" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="C109" s="19"/>
-      <c r="D109" s="19"/>
-      <c r="E109" s="19"/>
-      <c r="F109" s="20"/>
-      <c r="G109" s="19"/>
-      <c r="H109" s="19"/>
-      <c r="I109" s="19"/>
-      <c r="J109" s="19"/>
+      <c r="C109" s="17"/>
+      <c r="D109" s="17"/>
+      <c r="E109" s="17"/>
+      <c r="F109" s="19"/>
+      <c r="G109" s="17"/>
+      <c r="H109" s="17"/>
+      <c r="I109" s="17"/>
+      <c r="J109" s="17"/>
       <c r="L109" s="0"/>
       <c r="M109" s="0"/>
       <c r="N109" s="0"/>
@@ -3550,15 +3566,15 @@
       <c r="A110" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B110" s="19"/>
-      <c r="C110" s="19"/>
-      <c r="D110" s="19"/>
-      <c r="E110" s="19"/>
-      <c r="F110" s="20"/>
-      <c r="G110" s="19"/>
-      <c r="H110" s="19"/>
-      <c r="I110" s="19"/>
-      <c r="J110" s="23"/>
+      <c r="B110" s="17"/>
+      <c r="C110" s="17"/>
+      <c r="D110" s="17"/>
+      <c r="E110" s="17"/>
+      <c r="F110" s="19"/>
+      <c r="G110" s="17"/>
+      <c r="H110" s="17"/>
+      <c r="I110" s="17"/>
+      <c r="J110" s="22"/>
       <c r="L110" s="0"/>
       <c r="M110" s="0"/>
       <c r="N110" s="0"/>
@@ -3574,15 +3590,15 @@
       <c r="A111" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B111" s="19"/>
-      <c r="C111" s="19"/>
-      <c r="D111" s="19"/>
-      <c r="E111" s="19"/>
-      <c r="F111" s="20"/>
-      <c r="G111" s="19"/>
-      <c r="H111" s="19"/>
-      <c r="I111" s="19"/>
-      <c r="J111" s="19"/>
+      <c r="B111" s="17"/>
+      <c r="C111" s="17"/>
+      <c r="D111" s="17"/>
+      <c r="E111" s="17"/>
+      <c r="F111" s="19"/>
+      <c r="G111" s="17"/>
+      <c r="H111" s="17"/>
+      <c r="I111" s="17"/>
+      <c r="J111" s="17"/>
       <c r="L111" s="0"/>
       <c r="M111" s="0"/>
       <c r="N111" s="0"/>
@@ -3598,15 +3614,15 @@
       <c r="A112" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B112" s="19"/>
-      <c r="C112" s="19"/>
-      <c r="D112" s="19"/>
-      <c r="E112" s="19"/>
-      <c r="F112" s="20"/>
-      <c r="G112" s="23"/>
-      <c r="H112" s="19"/>
-      <c r="I112" s="19"/>
-      <c r="J112" s="19"/>
+      <c r="B112" s="17"/>
+      <c r="C112" s="17"/>
+      <c r="D112" s="17"/>
+      <c r="E112" s="17"/>
+      <c r="F112" s="19"/>
+      <c r="G112" s="22"/>
+      <c r="H112" s="17"/>
+      <c r="I112" s="17"/>
+      <c r="J112" s="17"/>
       <c r="L112" s="0"/>
       <c r="M112" s="0"/>
       <c r="N112" s="0"/>
@@ -3622,15 +3638,15 @@
       <c r="A113" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B113" s="19"/>
-      <c r="C113" s="19"/>
-      <c r="D113" s="19"/>
-      <c r="E113" s="19"/>
-      <c r="F113" s="20"/>
-      <c r="G113" s="19"/>
-      <c r="H113" s="19"/>
-      <c r="I113" s="19"/>
-      <c r="J113" s="19"/>
+      <c r="B113" s="17"/>
+      <c r="C113" s="17"/>
+      <c r="D113" s="17"/>
+      <c r="E113" s="17"/>
+      <c r="F113" s="19"/>
+      <c r="G113" s="17"/>
+      <c r="H113" s="17"/>
+      <c r="I113" s="17"/>
+      <c r="J113" s="17"/>
       <c r="L113" s="0"/>
       <c r="M113" s="0"/>
       <c r="N113" s="0"/>
@@ -3643,16 +3659,16 @@
       <c r="U113" s="0"/>
     </row>
     <row r="114" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A114" s="26"/>
-      <c r="B114" s="27"/>
-      <c r="C114" s="27"/>
-      <c r="D114" s="27"/>
-      <c r="E114" s="27"/>
-      <c r="F114" s="29"/>
-      <c r="G114" s="27"/>
-      <c r="H114" s="27"/>
-      <c r="I114" s="27"/>
-      <c r="J114" s="27"/>
+      <c r="A114" s="25"/>
+      <c r="B114" s="26"/>
+      <c r="C114" s="26"/>
+      <c r="D114" s="26"/>
+      <c r="E114" s="26"/>
+      <c r="F114" s="28"/>
+      <c r="G114" s="26"/>
+      <c r="H114" s="26"/>
+      <c r="I114" s="26"/>
+      <c r="J114" s="26"/>
     </row>
     <row r="115" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="12" t="s">
@@ -3704,126 +3720,126 @@
       <c r="A117" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B117" s="19" t="s">
+      <c r="B117" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="C117" s="19"/>
-      <c r="D117" s="19"/>
-      <c r="E117" s="19"/>
-      <c r="F117" s="20" t="s">
+      <c r="C117" s="17"/>
+      <c r="D117" s="17"/>
+      <c r="E117" s="17"/>
+      <c r="F117" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="G117" s="19"/>
-      <c r="H117" s="19" t="s">
+      <c r="G117" s="17"/>
+      <c r="H117" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="I117" s="19"/>
-      <c r="J117" s="19"/>
+      <c r="I117" s="17"/>
+      <c r="J117" s="17"/>
     </row>
     <row r="118" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B118" s="19"/>
-      <c r="C118" s="19" t="s">
+      <c r="B118" s="17"/>
+      <c r="C118" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="D118" s="19"/>
-      <c r="E118" s="19"/>
-      <c r="F118" s="20"/>
-      <c r="G118" s="19" t="s">
+      <c r="D118" s="17"/>
+      <c r="E118" s="17"/>
+      <c r="F118" s="19"/>
+      <c r="G118" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="H118" s="19"/>
-      <c r="I118" s="19" t="s">
+      <c r="H118" s="17"/>
+      <c r="I118" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="J118" s="19"/>
+      <c r="J118" s="17"/>
     </row>
     <row r="119" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B119" s="19" t="s">
+      <c r="B119" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="C119" s="19"/>
-      <c r="D119" s="19" t="s">
+      <c r="C119" s="17"/>
+      <c r="D119" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="E119" s="19"/>
-      <c r="F119" s="20"/>
-      <c r="G119" s="19"/>
-      <c r="H119" s="19" t="s">
+      <c r="E119" s="17"/>
+      <c r="F119" s="19"/>
+      <c r="G119" s="17"/>
+      <c r="H119" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="I119" s="19"/>
-      <c r="J119" s="19"/>
+      <c r="I119" s="17"/>
+      <c r="J119" s="17"/>
     </row>
     <row r="120" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B120" s="19" t="s">
+      <c r="B120" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="C120" s="19"/>
-      <c r="D120" s="19"/>
-      <c r="F120" s="20"/>
-      <c r="G120" s="19" t="s">
+      <c r="C120" s="17"/>
+      <c r="D120" s="17"/>
+      <c r="F120" s="19"/>
+      <c r="G120" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="H120" s="19"/>
-      <c r="I120" s="19"/>
-      <c r="J120" s="19"/>
+      <c r="H120" s="17"/>
+      <c r="I120" s="17"/>
+      <c r="J120" s="17"/>
     </row>
     <row r="121" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B121" s="19" t="s">
+      <c r="B121" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="C121" s="19"/>
-      <c r="D121" s="19" t="s">
+      <c r="C121" s="17"/>
+      <c r="D121" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="E121" s="19"/>
-      <c r="F121" s="20"/>
-      <c r="G121" s="19"/>
-      <c r="H121" s="19" t="s">
+      <c r="E121" s="17"/>
+      <c r="F121" s="19"/>
+      <c r="G121" s="17"/>
+      <c r="H121" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="I121" s="19"/>
-      <c r="J121" s="19"/>
+      <c r="I121" s="17"/>
+      <c r="J121" s="17"/>
     </row>
     <row r="122" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B122" s="19" t="s">
+      <c r="B122" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="C122" s="19"/>
-      <c r="D122" s="19"/>
-      <c r="E122" s="19"/>
-      <c r="F122" s="20"/>
-      <c r="G122" s="19"/>
-      <c r="H122" s="19"/>
-      <c r="I122" s="19"/>
-      <c r="J122" s="19"/>
+      <c r="C122" s="17"/>
+      <c r="D122" s="17"/>
+      <c r="E122" s="17"/>
+      <c r="F122" s="19"/>
+      <c r="G122" s="17"/>
+      <c r="H122" s="17"/>
+      <c r="I122" s="17"/>
+      <c r="J122" s="17"/>
     </row>
     <row r="123" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A123" s="26"/>
-      <c r="B123" s="27"/>
-      <c r="C123" s="27"/>
-      <c r="D123" s="27"/>
-      <c r="E123" s="27"/>
-      <c r="F123" s="29"/>
-      <c r="G123" s="27"/>
-      <c r="H123" s="27"/>
-      <c r="I123" s="27"/>
-      <c r="J123" s="27"/>
+      <c r="A123" s="25"/>
+      <c r="B123" s="26"/>
+      <c r="C123" s="26"/>
+      <c r="D123" s="26"/>
+      <c r="E123" s="26"/>
+      <c r="F123" s="28"/>
+      <c r="G123" s="26"/>
+      <c r="H123" s="26"/>
+      <c r="I123" s="26"/>
+      <c r="J123" s="26"/>
     </row>
     <row r="124" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="12" t="s">
@@ -3875,119 +3891,119 @@
       <c r="A126" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B126" s="19" t="s">
+      <c r="B126" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="C126" s="19"/>
-      <c r="D126" s="19" t="s">
+      <c r="C126" s="17"/>
+      <c r="D126" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="E126" s="19"/>
-      <c r="F126" s="20" t="s">
+      <c r="E126" s="17"/>
+      <c r="F126" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="G126" s="19" t="s">
+      <c r="G126" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="H126" s="19"/>
-      <c r="I126" s="19"/>
-      <c r="J126" s="19"/>
+      <c r="H126" s="17"/>
+      <c r="I126" s="17"/>
+      <c r="J126" s="17"/>
     </row>
     <row r="127" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B127" s="19" t="s">
+      <c r="B127" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="C127" s="19"/>
-      <c r="D127" s="19"/>
-      <c r="E127" s="19"/>
-      <c r="F127" s="20"/>
-      <c r="G127" s="19"/>
-      <c r="H127" s="19" t="s">
+      <c r="C127" s="17"/>
+      <c r="D127" s="17"/>
+      <c r="E127" s="17"/>
+      <c r="F127" s="19"/>
+      <c r="G127" s="17"/>
+      <c r="H127" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="I127" s="19"/>
-      <c r="J127" s="19"/>
+      <c r="I127" s="17"/>
+      <c r="J127" s="17"/>
     </row>
     <row r="128" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B128" s="19"/>
-      <c r="C128" s="19" t="s">
+      <c r="B128" s="17"/>
+      <c r="C128" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="D128" s="19"/>
-      <c r="E128" s="19"/>
-      <c r="F128" s="20"/>
-      <c r="G128" s="19"/>
-      <c r="H128" s="19"/>
-      <c r="I128" s="19"/>
-      <c r="J128" s="19"/>
+      <c r="D128" s="17"/>
+      <c r="E128" s="17"/>
+      <c r="F128" s="19"/>
+      <c r="G128" s="17"/>
+      <c r="H128" s="17"/>
+      <c r="I128" s="17"/>
+      <c r="J128" s="17"/>
     </row>
     <row r="129" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A129" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B129" s="19"/>
-      <c r="C129" s="19" t="s">
+      <c r="B129" s="17"/>
+      <c r="C129" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="D129" s="19"/>
-      <c r="E129" s="19"/>
-      <c r="F129" s="20"/>
-      <c r="G129" s="19" t="s">
+      <c r="D129" s="17"/>
+      <c r="E129" s="17"/>
+      <c r="F129" s="19"/>
+      <c r="G129" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="H129" s="19"/>
-      <c r="I129" s="19"/>
-      <c r="J129" s="19"/>
+      <c r="H129" s="17"/>
+      <c r="I129" s="17"/>
+      <c r="J129" s="17"/>
     </row>
     <row r="130" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B130" s="19" t="s">
+      <c r="B130" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="C130" s="19"/>
-      <c r="D130" s="19"/>
-      <c r="E130" s="19"/>
-      <c r="F130" s="20"/>
-      <c r="G130" s="19"/>
-      <c r="H130" s="19"/>
-      <c r="I130" s="19"/>
-      <c r="J130" s="19"/>
+      <c r="C130" s="17"/>
+      <c r="D130" s="17"/>
+      <c r="E130" s="17"/>
+      <c r="F130" s="19"/>
+      <c r="G130" s="17"/>
+      <c r="H130" s="17"/>
+      <c r="I130" s="17"/>
+      <c r="J130" s="17"/>
     </row>
     <row r="131" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A131" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B131" s="19"/>
-      <c r="C131" s="19"/>
-      <c r="D131" s="19" t="s">
+      <c r="B131" s="17"/>
+      <c r="C131" s="17"/>
+      <c r="D131" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="E131" s="19"/>
-      <c r="F131" s="20"/>
-      <c r="G131" s="19"/>
-      <c r="H131" s="19"/>
-      <c r="I131" s="19"/>
-      <c r="J131" s="19"/>
+      <c r="E131" s="17"/>
+      <c r="F131" s="19"/>
+      <c r="G131" s="17"/>
+      <c r="H131" s="17"/>
+      <c r="I131" s="17"/>
+      <c r="J131" s="17"/>
     </row>
     <row r="132" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A132" s="26"/>
-      <c r="B132" s="27"/>
-      <c r="C132" s="27"/>
-      <c r="D132" s="27"/>
-      <c r="E132" s="27"/>
-      <c r="F132" s="29"/>
-      <c r="G132" s="27"/>
-      <c r="H132" s="27"/>
-      <c r="I132" s="27"/>
-      <c r="J132" s="27"/>
+      <c r="A132" s="25"/>
+      <c r="B132" s="26"/>
+      <c r="C132" s="26"/>
+      <c r="D132" s="26"/>
+      <c r="E132" s="26"/>
+      <c r="F132" s="28"/>
+      <c r="G132" s="26"/>
+      <c r="H132" s="26"/>
+      <c r="I132" s="26"/>
+      <c r="J132" s="26"/>
     </row>
     <row r="133" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A133" s="12" t="s">
@@ -4029,7 +4045,7 @@
       <c r="E134" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F134" s="32" t="s">
+      <c r="F134" s="33" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="16" t="s">
@@ -4059,16 +4075,16 @@
       <c r="A135" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B135" s="19"/>
-      <c r="D135" s="33" t="s">
+      <c r="B135" s="17"/>
+      <c r="D135" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="F135" s="20" t="s">
+      <c r="F135" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="G135" s="19"/>
-      <c r="H135" s="19"/>
-      <c r="J135" s="25"/>
+      <c r="G135" s="17"/>
+      <c r="H135" s="17"/>
+      <c r="J135" s="24"/>
       <c r="L135" s="0"/>
       <c r="M135" s="0"/>
       <c r="N135" s="0"/>
@@ -4084,17 +4100,17 @@
       <c r="A136" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B136" s="19"/>
-      <c r="C136" s="19"/>
-      <c r="D136" s="19"/>
-      <c r="E136" s="25"/>
-      <c r="F136" s="20"/>
-      <c r="G136" s="19" t="s">
+      <c r="B136" s="17"/>
+      <c r="C136" s="17"/>
+      <c r="D136" s="17"/>
+      <c r="E136" s="24"/>
+      <c r="F136" s="19"/>
+      <c r="G136" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="H136" s="19"/>
-      <c r="I136" s="19"/>
-      <c r="J136" s="19"/>
+      <c r="H136" s="17"/>
+      <c r="I136" s="17"/>
+      <c r="J136" s="17"/>
       <c r="L136" s="0"/>
       <c r="M136" s="0"/>
       <c r="N136" s="0"/>
@@ -4110,19 +4126,19 @@
       <c r="A137" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B137" s="19" t="s">
+      <c r="B137" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="C137" s="19"/>
-      <c r="D137" s="19"/>
-      <c r="E137" s="19"/>
-      <c r="F137" s="20"/>
-      <c r="G137" s="25" t="s">
+      <c r="C137" s="17"/>
+      <c r="D137" s="17"/>
+      <c r="E137" s="17"/>
+      <c r="F137" s="19"/>
+      <c r="G137" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="H137" s="23"/>
-      <c r="I137" s="19"/>
-      <c r="J137" s="19"/>
+      <c r="H137" s="22"/>
+      <c r="I137" s="17"/>
+      <c r="J137" s="17"/>
       <c r="L137" s="0"/>
       <c r="M137" s="0"/>
       <c r="N137" s="0"/>
@@ -4138,19 +4154,19 @@
       <c r="A138" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B138" s="25" t="s">
+      <c r="B138" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="C138" s="19"/>
-      <c r="D138" s="19"/>
-      <c r="E138" s="19"/>
-      <c r="F138" s="20"/>
-      <c r="G138" s="19"/>
-      <c r="H138" s="19" t="s">
+      <c r="C138" s="17"/>
+      <c r="D138" s="17"/>
+      <c r="E138" s="17"/>
+      <c r="F138" s="19"/>
+      <c r="G138" s="17"/>
+      <c r="H138" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="I138" s="25"/>
-      <c r="J138" s="25" t="s">
+      <c r="I138" s="24"/>
+      <c r="J138" s="24" t="s">
         <v>99</v>
       </c>
       <c r="L138" s="0"/>
@@ -4168,17 +4184,17 @@
       <c r="A139" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B139" s="19"/>
-      <c r="C139" s="19"/>
-      <c r="D139" s="25"/>
-      <c r="E139" s="19"/>
-      <c r="F139" s="20"/>
-      <c r="G139" s="19"/>
-      <c r="H139" s="19" t="s">
+      <c r="B139" s="17"/>
+      <c r="C139" s="17"/>
+      <c r="D139" s="24"/>
+      <c r="E139" s="17"/>
+      <c r="F139" s="19"/>
+      <c r="G139" s="17"/>
+      <c r="H139" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="I139" s="19"/>
-      <c r="J139" s="23"/>
+      <c r="I139" s="17"/>
+      <c r="J139" s="22"/>
       <c r="L139" s="0"/>
       <c r="M139" s="0"/>
       <c r="N139" s="0"/>
@@ -4194,15 +4210,15 @@
       <c r="A140" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B140" s="19"/>
-      <c r="C140" s="19"/>
-      <c r="D140" s="19"/>
-      <c r="E140" s="19"/>
-      <c r="F140" s="20"/>
-      <c r="G140" s="19"/>
-      <c r="H140" s="19"/>
-      <c r="I140" s="19"/>
-      <c r="J140" s="19"/>
+      <c r="B140" s="17"/>
+      <c r="C140" s="17"/>
+      <c r="D140" s="17"/>
+      <c r="E140" s="17"/>
+      <c r="F140" s="19"/>
+      <c r="G140" s="17"/>
+      <c r="H140" s="17"/>
+      <c r="I140" s="17"/>
+      <c r="J140" s="17"/>
       <c r="L140" s="0"/>
       <c r="M140" s="0"/>
       <c r="N140" s="0"/>
@@ -4225,16 +4241,16 @@
       <c r="H141" s="0"/>
       <c r="I141" s="0"/>
       <c r="J141" s="0"/>
-      <c r="L141" s="26"/>
-      <c r="M141" s="27"/>
-      <c r="N141" s="27"/>
-      <c r="O141" s="27"/>
-      <c r="P141" s="27"/>
-      <c r="Q141" s="29"/>
-      <c r="R141" s="27"/>
-      <c r="S141" s="27"/>
-      <c r="T141" s="27"/>
-      <c r="U141" s="27"/>
+      <c r="L141" s="25"/>
+      <c r="M141" s="26"/>
+      <c r="N141" s="26"/>
+      <c r="O141" s="26"/>
+      <c r="P141" s="26"/>
+      <c r="Q141" s="28"/>
+      <c r="R141" s="26"/>
+      <c r="S141" s="26"/>
+      <c r="T141" s="26"/>
+      <c r="U141" s="26"/>
     </row>
     <row r="142" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="12" t="s">
@@ -4306,19 +4322,19 @@
       <c r="A144" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B144" s="19"/>
-      <c r="C144" s="19"/>
-      <c r="D144" s="19"/>
-      <c r="E144" s="19"/>
-      <c r="F144" s="20" t="s">
+      <c r="B144" s="17"/>
+      <c r="C144" s="17"/>
+      <c r="D144" s="17"/>
+      <c r="E144" s="17"/>
+      <c r="F144" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="G144" s="19" t="s">
+      <c r="G144" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="H144" s="19"/>
-      <c r="I144" s="19"/>
-      <c r="J144" s="19"/>
+      <c r="H144" s="17"/>
+      <c r="I144" s="17"/>
+      <c r="J144" s="17"/>
       <c r="L144" s="0"/>
       <c r="M144" s="0"/>
       <c r="N144" s="0"/>
@@ -4334,15 +4350,15 @@
       <c r="A145" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B145" s="19"/>
-      <c r="C145" s="19"/>
-      <c r="D145" s="19"/>
-      <c r="E145" s="19"/>
-      <c r="F145" s="20"/>
-      <c r="G145" s="19"/>
-      <c r="H145" s="19"/>
-      <c r="I145" s="19"/>
-      <c r="J145" s="19"/>
+      <c r="B145" s="17"/>
+      <c r="C145" s="17"/>
+      <c r="D145" s="17"/>
+      <c r="E145" s="17"/>
+      <c r="F145" s="19"/>
+      <c r="G145" s="17"/>
+      <c r="H145" s="17"/>
+      <c r="I145" s="17"/>
+      <c r="J145" s="17"/>
       <c r="L145" s="0"/>
       <c r="M145" s="0"/>
       <c r="N145" s="0"/>
@@ -4358,15 +4374,15 @@
       <c r="A146" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B146" s="19"/>
-      <c r="C146" s="19"/>
-      <c r="D146" s="19"/>
-      <c r="E146" s="19"/>
-      <c r="F146" s="20"/>
-      <c r="G146" s="19"/>
-      <c r="H146" s="19"/>
-      <c r="I146" s="19"/>
-      <c r="J146" s="19"/>
+      <c r="B146" s="17"/>
+      <c r="C146" s="17"/>
+      <c r="D146" s="17"/>
+      <c r="E146" s="17"/>
+      <c r="F146" s="19"/>
+      <c r="G146" s="17"/>
+      <c r="H146" s="17"/>
+      <c r="I146" s="17"/>
+      <c r="J146" s="17"/>
       <c r="L146" s="0"/>
       <c r="M146" s="0"/>
       <c r="N146" s="0"/>
@@ -4382,15 +4398,15 @@
       <c r="A147" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B147" s="19"/>
-      <c r="C147" s="19"/>
-      <c r="D147" s="19"/>
-      <c r="E147" s="19"/>
-      <c r="F147" s="20"/>
-      <c r="G147" s="19"/>
-      <c r="H147" s="19"/>
-      <c r="I147" s="19"/>
-      <c r="J147" s="19"/>
+      <c r="B147" s="17"/>
+      <c r="C147" s="17"/>
+      <c r="D147" s="17"/>
+      <c r="E147" s="17"/>
+      <c r="F147" s="19"/>
+      <c r="G147" s="17"/>
+      <c r="H147" s="17"/>
+      <c r="I147" s="17"/>
+      <c r="J147" s="17"/>
       <c r="L147" s="0"/>
       <c r="M147" s="0"/>
       <c r="N147" s="0"/>
@@ -4406,15 +4422,15 @@
       <c r="A148" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B148" s="19"/>
-      <c r="C148" s="19"/>
-      <c r="D148" s="19"/>
-      <c r="E148" s="19"/>
-      <c r="F148" s="20"/>
-      <c r="G148" s="19"/>
-      <c r="H148" s="23"/>
-      <c r="I148" s="23"/>
-      <c r="J148" s="23"/>
+      <c r="B148" s="17"/>
+      <c r="C148" s="17"/>
+      <c r="D148" s="17"/>
+      <c r="E148" s="17"/>
+      <c r="F148" s="19"/>
+      <c r="G148" s="17"/>
+      <c r="H148" s="22"/>
+      <c r="I148" s="22"/>
+      <c r="J148" s="22"/>
       <c r="L148" s="0"/>
       <c r="M148" s="0"/>
       <c r="N148" s="0"/>
@@ -4430,15 +4446,15 @@
       <c r="A149" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B149" s="19"/>
-      <c r="C149" s="19"/>
-      <c r="D149" s="19"/>
-      <c r="E149" s="19"/>
-      <c r="F149" s="20"/>
-      <c r="G149" s="19"/>
-      <c r="H149" s="19"/>
-      <c r="I149" s="19"/>
-      <c r="J149" s="19"/>
+      <c r="B149" s="17"/>
+      <c r="C149" s="17"/>
+      <c r="D149" s="17"/>
+      <c r="E149" s="17"/>
+      <c r="F149" s="19"/>
+      <c r="G149" s="17"/>
+      <c r="H149" s="17"/>
+      <c r="I149" s="17"/>
+      <c r="J149" s="17"/>
       <c r="L149" s="0"/>
       <c r="M149" s="0"/>
       <c r="N149" s="0"/>
@@ -4451,16 +4467,16 @@
       <c r="U149" s="0"/>
     </row>
     <row r="150" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A150" s="26"/>
-      <c r="B150" s="27"/>
-      <c r="C150" s="27"/>
-      <c r="D150" s="27"/>
-      <c r="E150" s="27"/>
-      <c r="F150" s="29"/>
-      <c r="G150" s="27"/>
-      <c r="H150" s="27"/>
-      <c r="I150" s="27"/>
-      <c r="J150" s="27"/>
+      <c r="A150" s="25"/>
+      <c r="B150" s="26"/>
+      <c r="C150" s="26"/>
+      <c r="D150" s="26"/>
+      <c r="E150" s="26"/>
+      <c r="F150" s="28"/>
+      <c r="G150" s="26"/>
+      <c r="H150" s="26"/>
+      <c r="I150" s="26"/>
+      <c r="J150" s="26"/>
     </row>
     <row r="151" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A151" s="12" t="s">
@@ -4513,94 +4529,94 @@
       <c r="A153" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B153" s="19"/>
-      <c r="C153" s="19" t="s">
+      <c r="B153" s="17"/>
+      <c r="C153" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="D153" s="19"/>
-      <c r="E153" s="19"/>
-      <c r="F153" s="20" t="s">
+      <c r="D153" s="17"/>
+      <c r="E153" s="17"/>
+      <c r="F153" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="G153" s="19"/>
-      <c r="H153" s="19"/>
-      <c r="I153" s="19"/>
-      <c r="J153" s="19"/>
+      <c r="G153" s="17"/>
+      <c r="H153" s="17"/>
+      <c r="I153" s="17"/>
+      <c r="J153" s="17"/>
       <c r="L153" s="2"/>
     </row>
     <row r="154" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A154" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B154" s="19"/>
-      <c r="C154" s="19"/>
-      <c r="D154" s="22"/>
-      <c r="E154" s="19"/>
-      <c r="F154" s="20"/>
-      <c r="G154" s="19"/>
-      <c r="H154" s="19"/>
-      <c r="I154" s="22"/>
-      <c r="J154" s="19"/>
+      <c r="B154" s="17"/>
+      <c r="C154" s="17"/>
+      <c r="D154" s="21"/>
+      <c r="E154" s="17"/>
+      <c r="F154" s="19"/>
+      <c r="G154" s="17"/>
+      <c r="H154" s="17"/>
+      <c r="I154" s="21"/>
+      <c r="J154" s="17"/>
     </row>
     <row r="155" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A155" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B155" s="19"/>
-      <c r="C155" s="19"/>
-      <c r="D155" s="22"/>
-      <c r="E155" s="19"/>
-      <c r="F155" s="20"/>
-      <c r="G155" s="19"/>
-      <c r="H155" s="19"/>
-      <c r="I155" s="22"/>
-      <c r="J155" s="19"/>
+      <c r="B155" s="17"/>
+      <c r="C155" s="17"/>
+      <c r="D155" s="21"/>
+      <c r="E155" s="17"/>
+      <c r="F155" s="19"/>
+      <c r="G155" s="17"/>
+      <c r="H155" s="17"/>
+      <c r="I155" s="21"/>
+      <c r="J155" s="17"/>
     </row>
     <row r="156" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A156" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B156" s="19" t="s">
+      <c r="B156" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="C156" s="19"/>
-      <c r="D156" s="19"/>
-      <c r="E156" s="19"/>
-      <c r="F156" s="20"/>
-      <c r="G156" s="19"/>
-      <c r="H156" s="19"/>
-      <c r="I156" s="22"/>
-      <c r="J156" s="19"/>
+      <c r="C156" s="17"/>
+      <c r="D156" s="17"/>
+      <c r="E156" s="17"/>
+      <c r="F156" s="19"/>
+      <c r="G156" s="17"/>
+      <c r="H156" s="17"/>
+      <c r="I156" s="21"/>
+      <c r="J156" s="17"/>
       <c r="L156" s="1"/>
     </row>
     <row r="157" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A157" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B157" s="19"/>
-      <c r="C157" s="19"/>
-      <c r="D157" s="22"/>
-      <c r="E157" s="19"/>
-      <c r="F157" s="20"/>
-      <c r="G157" s="19"/>
-      <c r="H157" s="19"/>
-      <c r="I157" s="22"/>
-      <c r="J157" s="19"/>
+      <c r="B157" s="17"/>
+      <c r="C157" s="17"/>
+      <c r="D157" s="21"/>
+      <c r="E157" s="17"/>
+      <c r="F157" s="19"/>
+      <c r="G157" s="17"/>
+      <c r="H157" s="17"/>
+      <c r="I157" s="21"/>
+      <c r="J157" s="17"/>
       <c r="L157" s="1"/>
     </row>
     <row r="158" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A158" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B158" s="19"/>
-      <c r="C158" s="19"/>
-      <c r="D158" s="19"/>
-      <c r="E158" s="19"/>
-      <c r="F158" s="20"/>
-      <c r="G158" s="19"/>
-      <c r="H158" s="19"/>
-      <c r="I158" s="19"/>
-      <c r="J158" s="19"/>
+      <c r="B158" s="17"/>
+      <c r="C158" s="17"/>
+      <c r="D158" s="17"/>
+      <c r="E158" s="17"/>
+      <c r="F158" s="19"/>
+      <c r="G158" s="17"/>
+      <c r="H158" s="17"/>
+      <c r="I158" s="17"/>
+      <c r="J158" s="17"/>
     </row>
     <row r="159" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="160" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4654,92 +4670,92 @@
       <c r="A162" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B162" s="19"/>
-      <c r="C162" s="19"/>
-      <c r="D162" s="19"/>
-      <c r="E162" s="19"/>
-      <c r="F162" s="20" t="s">
+      <c r="B162" s="17"/>
+      <c r="C162" s="17"/>
+      <c r="D162" s="17"/>
+      <c r="E162" s="17"/>
+      <c r="F162" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="G162" s="19"/>
-      <c r="H162" s="19"/>
-      <c r="I162" s="19"/>
-      <c r="J162" s="19"/>
+      <c r="G162" s="17"/>
+      <c r="H162" s="17"/>
+      <c r="I162" s="17"/>
+      <c r="J162" s="17"/>
       <c r="L162" s="2"/>
     </row>
     <row r="163" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A163" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B163" s="22" t="s">
+      <c r="B163" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="C163" s="22"/>
-      <c r="D163" s="22"/>
-      <c r="E163" s="19"/>
-      <c r="F163" s="20"/>
-      <c r="G163" s="19"/>
-      <c r="H163" s="19"/>
-      <c r="I163" s="19"/>
-      <c r="J163" s="19"/>
+      <c r="C163" s="21"/>
+      <c r="D163" s="21"/>
+      <c r="E163" s="17"/>
+      <c r="F163" s="19"/>
+      <c r="G163" s="17"/>
+      <c r="H163" s="17"/>
+      <c r="I163" s="17"/>
+      <c r="J163" s="17"/>
     </row>
     <row r="164" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A164" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C164" s="22"/>
-      <c r="D164" s="19"/>
-      <c r="F164" s="20"/>
-      <c r="G164" s="19"/>
-      <c r="H164" s="19"/>
-      <c r="I164" s="19"/>
-      <c r="J164" s="19"/>
+      <c r="C164" s="21"/>
+      <c r="D164" s="17"/>
+      <c r="F164" s="19"/>
+      <c r="G164" s="17"/>
+      <c r="H164" s="17"/>
+      <c r="I164" s="17"/>
+      <c r="J164" s="17"/>
       <c r="L164" s="1"/>
     </row>
     <row r="165" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A165" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B165" s="22" t="s">
+      <c r="B165" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="C165" s="22"/>
-      <c r="D165" s="22"/>
-      <c r="E165" s="19"/>
-      <c r="F165" s="20"/>
-      <c r="G165" s="22"/>
-      <c r="H165" s="19"/>
-      <c r="I165" s="19"/>
-      <c r="J165" s="19"/>
+      <c r="C165" s="21"/>
+      <c r="D165" s="21"/>
+      <c r="E165" s="17"/>
+      <c r="F165" s="19"/>
+      <c r="G165" s="21"/>
+      <c r="H165" s="17"/>
+      <c r="I165" s="17"/>
+      <c r="J165" s="17"/>
       <c r="L165" s="1"/>
     </row>
     <row r="166" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A166" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B166" s="19"/>
-      <c r="C166" s="19"/>
-      <c r="D166" s="19"/>
-      <c r="E166" s="19"/>
-      <c r="F166" s="20"/>
-      <c r="G166" s="19"/>
-      <c r="H166" s="19"/>
-      <c r="I166" s="19"/>
-      <c r="J166" s="19"/>
+      <c r="B166" s="17"/>
+      <c r="C166" s="17"/>
+      <c r="D166" s="17"/>
+      <c r="E166" s="17"/>
+      <c r="F166" s="19"/>
+      <c r="G166" s="17"/>
+      <c r="H166" s="17"/>
+      <c r="I166" s="17"/>
+      <c r="J166" s="17"/>
     </row>
     <row r="167" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A167" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B167" s="19"/>
-      <c r="C167" s="19"/>
-      <c r="D167" s="19"/>
-      <c r="E167" s="19"/>
-      <c r="F167" s="20"/>
-      <c r="G167" s="19"/>
-      <c r="H167" s="19"/>
-      <c r="I167" s="19"/>
-      <c r="J167" s="19"/>
+      <c r="B167" s="17"/>
+      <c r="C167" s="17"/>
+      <c r="D167" s="17"/>
+      <c r="E167" s="17"/>
+      <c r="F167" s="19"/>
+      <c r="G167" s="17"/>
+      <c r="H167" s="17"/>
+      <c r="I167" s="17"/>
+      <c r="J167" s="17"/>
     </row>
     <row r="168" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="169" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4755,7 +4771,16 @@
       <c r="H169" s="13"/>
       <c r="I169" s="14"/>
       <c r="J169" s="13"/>
-      <c r="L169" s="2"/>
+      <c r="L169" s="0"/>
+      <c r="M169" s="0"/>
+      <c r="N169" s="0"/>
+      <c r="O169" s="0"/>
+      <c r="P169" s="0"/>
+      <c r="Q169" s="0"/>
+      <c r="R169" s="0"/>
+      <c r="S169" s="0"/>
+      <c r="T169" s="0"/>
+      <c r="U169" s="0"/>
     </row>
     <row r="170" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A170" s="15" t="s">
@@ -4788,117 +4813,185 @@
       <c r="J170" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="L170" s="2"/>
+      <c r="L170" s="0"/>
+      <c r="M170" s="0"/>
+      <c r="N170" s="0"/>
+      <c r="O170" s="0"/>
+      <c r="P170" s="0"/>
+      <c r="Q170" s="0"/>
+      <c r="R170" s="0"/>
+      <c r="S170" s="0"/>
+      <c r="T170" s="0"/>
+      <c r="U170" s="0"/>
     </row>
     <row r="171" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A171" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B171" s="19" t="s">
+      <c r="B171" s="17"/>
+      <c r="C171" s="17"/>
+      <c r="D171" s="17"/>
+      <c r="E171" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="C171" s="19"/>
-      <c r="D171" s="19"/>
-      <c r="E171" s="19"/>
-      <c r="F171" s="20" t="s">
+      <c r="F171" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="G171" s="19"/>
-      <c r="H171" s="19"/>
-      <c r="I171" s="19"/>
-      <c r="J171" s="19"/>
+      <c r="G171" s="17"/>
+      <c r="H171" s="17"/>
+      <c r="I171" s="17"/>
+      <c r="J171" s="17"/>
+      <c r="L171" s="0"/>
+      <c r="M171" s="0"/>
+      <c r="N171" s="0"/>
+      <c r="O171" s="0"/>
+      <c r="P171" s="0"/>
+      <c r="Q171" s="0"/>
+      <c r="R171" s="0"/>
+      <c r="S171" s="0"/>
+      <c r="T171" s="0"/>
+      <c r="U171" s="0"/>
     </row>
     <row r="172" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A172" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B172" s="23"/>
-      <c r="C172" s="23"/>
-      <c r="D172" s="19"/>
-      <c r="E172" s="19"/>
-      <c r="F172" s="20"/>
-      <c r="G172" s="19"/>
-      <c r="H172" s="19"/>
-      <c r="I172" s="19"/>
-      <c r="J172" s="19"/>
+      <c r="B172" s="17"/>
+      <c r="C172" s="17"/>
+      <c r="D172" s="17"/>
+      <c r="E172" s="17"/>
+      <c r="F172" s="19"/>
+      <c r="G172" s="17"/>
+      <c r="H172" s="17"/>
+      <c r="I172" s="17"/>
+      <c r="J172" s="17"/>
+      <c r="L172" s="0"/>
+      <c r="M172" s="0"/>
+      <c r="N172" s="0"/>
+      <c r="O172" s="0"/>
+      <c r="P172" s="0"/>
+      <c r="Q172" s="0"/>
+      <c r="R172" s="0"/>
+      <c r="S172" s="0"/>
+      <c r="T172" s="0"/>
+      <c r="U172" s="0"/>
     </row>
     <row r="173" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A173" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B173" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="C173" s="22"/>
-      <c r="D173" s="22"/>
-      <c r="E173" s="19"/>
-      <c r="F173" s="20"/>
-      <c r="G173" s="19"/>
-      <c r="H173" s="19"/>
-      <c r="I173" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="J173" s="19"/>
-      <c r="L173" s="1"/>
+      <c r="B173" s="17"/>
+      <c r="C173" s="17"/>
+      <c r="D173" s="17"/>
+      <c r="E173" s="17"/>
+      <c r="F173" s="19"/>
+      <c r="G173" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="H173" s="17"/>
+      <c r="I173" s="17"/>
+      <c r="J173" s="17"/>
+      <c r="L173" s="0"/>
+      <c r="M173" s="0"/>
+      <c r="N173" s="0"/>
+      <c r="O173" s="0"/>
+      <c r="P173" s="0"/>
+      <c r="Q173" s="0"/>
+      <c r="R173" s="0"/>
+      <c r="S173" s="0"/>
+      <c r="T173" s="0"/>
+      <c r="U173" s="0"/>
     </row>
     <row r="174" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A174" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B174" s="22"/>
-      <c r="C174" s="22"/>
-      <c r="D174" s="22"/>
-      <c r="E174" s="19"/>
-      <c r="F174" s="20"/>
-      <c r="G174" s="19"/>
-      <c r="H174" s="19"/>
-      <c r="I174" s="19"/>
-      <c r="J174" s="19"/>
-      <c r="L174" s="1"/>
+      <c r="B174" s="17"/>
+      <c r="C174" s="17"/>
+      <c r="D174" s="17"/>
+      <c r="E174" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="F174" s="19"/>
+      <c r="G174" s="17"/>
+      <c r="H174" s="17"/>
+      <c r="I174" s="17"/>
+      <c r="J174" s="17"/>
+      <c r="L174" s="0"/>
+      <c r="M174" s="0"/>
+      <c r="N174" s="0"/>
+      <c r="O174" s="0"/>
+      <c r="P174" s="0"/>
+      <c r="Q174" s="0"/>
+      <c r="R174" s="0"/>
+      <c r="S174" s="0"/>
+      <c r="T174" s="0"/>
+      <c r="U174" s="0"/>
     </row>
     <row r="175" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A175" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B175" s="19"/>
-      <c r="C175" s="21"/>
-      <c r="D175" s="19"/>
-      <c r="E175" s="19"/>
-      <c r="F175" s="20"/>
-      <c r="G175" s="19"/>
-      <c r="H175" s="19"/>
-      <c r="I175" s="19"/>
-      <c r="J175" s="19"/>
+      <c r="B175" s="17"/>
+      <c r="C175" s="17"/>
+      <c r="D175" s="17"/>
+      <c r="E175" s="17"/>
+      <c r="F175" s="19"/>
+      <c r="G175" s="17"/>
+      <c r="H175" s="17"/>
+      <c r="I175" s="17"/>
+      <c r="J175" s="17"/>
+      <c r="L175" s="0"/>
+      <c r="M175" s="0"/>
+      <c r="N175" s="0"/>
+      <c r="O175" s="0"/>
+      <c r="P175" s="0"/>
+      <c r="Q175" s="0"/>
+      <c r="R175" s="0"/>
+      <c r="S175" s="0"/>
+      <c r="T175" s="0"/>
+      <c r="U175" s="0"/>
     </row>
     <row r="176" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A176" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B176" s="19"/>
-      <c r="C176" s="19"/>
-      <c r="D176" s="19"/>
-      <c r="E176" s="19"/>
-      <c r="F176" s="20"/>
-      <c r="G176" s="19"/>
-      <c r="H176" s="19"/>
-      <c r="I176" s="19"/>
-      <c r="J176" s="19"/>
-    </row>
-    <row r="177" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A177" s="26"/>
-      <c r="B177" s="27"/>
-      <c r="C177" s="27"/>
-      <c r="D177" s="27"/>
-      <c r="E177" s="27"/>
-      <c r="F177" s="29"/>
-      <c r="G177" s="27"/>
-      <c r="H177" s="27"/>
-      <c r="I177" s="27"/>
-      <c r="J177" s="27"/>
+      <c r="B176" s="17"/>
+      <c r="C176" s="17"/>
+      <c r="D176" s="17"/>
+      <c r="E176" s="17"/>
+      <c r="F176" s="19"/>
+      <c r="G176" s="17"/>
+      <c r="H176" s="17"/>
+      <c r="I176" s="17"/>
+      <c r="J176" s="17"/>
+      <c r="L176" s="0"/>
+      <c r="M176" s="0"/>
+      <c r="N176" s="0"/>
+      <c r="O176" s="0"/>
+      <c r="P176" s="0"/>
+      <c r="Q176" s="0"/>
+      <c r="R176" s="0"/>
+      <c r="S176" s="0"/>
+      <c r="T176" s="0"/>
+      <c r="U176" s="0"/>
+    </row>
+    <row r="177" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A177" s="0"/>
+      <c r="B177" s="13"/>
+      <c r="C177" s="13"/>
+      <c r="D177" s="13"/>
+      <c r="E177" s="13"/>
+      <c r="F177" s="6"/>
+      <c r="G177" s="13"/>
+      <c r="H177" s="13"/>
+      <c r="I177" s="14"/>
+      <c r="J177" s="13"/>
+      <c r="L177" s="2"/>
     </row>
     <row r="178" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A178" s="12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B178" s="13"/>
       <c r="C178" s="13"/>
@@ -4948,129 +5041,111 @@
       <c r="A180" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B180" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="C180" s="19"/>
-      <c r="D180" s="19"/>
-      <c r="E180" s="19"/>
-      <c r="F180" s="20" t="s">
+      <c r="B180" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="C180" s="17"/>
+      <c r="D180" s="17"/>
+      <c r="E180" s="17"/>
+      <c r="F180" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="G180" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="H180" s="19"/>
-      <c r="J180" s="19" t="s">
-        <v>116</v>
-      </c>
+      <c r="G180" s="17"/>
+      <c r="H180" s="17"/>
+      <c r="I180" s="17"/>
+      <c r="J180" s="17"/>
     </row>
     <row r="181" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A181" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B181" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="C181" s="19"/>
-      <c r="D181" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="E181" s="19"/>
-      <c r="F181" s="20"/>
-      <c r="G181" s="18"/>
-      <c r="H181" s="34" t="s">
-        <v>119</v>
-      </c>
-      <c r="I181" s="34"/>
-      <c r="J181" s="23"/>
+      <c r="B181" s="22"/>
+      <c r="C181" s="22"/>
+      <c r="D181" s="17"/>
+      <c r="E181" s="17"/>
+      <c r="F181" s="19"/>
+      <c r="G181" s="17"/>
+      <c r="H181" s="17"/>
+      <c r="I181" s="17"/>
+      <c r="J181" s="17"/>
     </row>
     <row r="182" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A182" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B182" s="19"/>
-      <c r="C182" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="D182" s="19"/>
-      <c r="E182" s="23"/>
-      <c r="F182" s="20"/>
-      <c r="G182" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="I182" s="19"/>
-      <c r="J182" s="19"/>
+      <c r="B182" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="C182" s="21"/>
+      <c r="D182" s="21"/>
+      <c r="E182" s="17"/>
+      <c r="F182" s="19"/>
+      <c r="G182" s="17"/>
+      <c r="H182" s="17"/>
+      <c r="I182" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="J182" s="17"/>
+      <c r="L182" s="1"/>
     </row>
     <row r="183" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A183" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B183" s="19"/>
-      <c r="C183" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="D183" s="19"/>
-      <c r="E183" s="23"/>
-      <c r="F183" s="20"/>
-      <c r="G183" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="H183" s="23"/>
-      <c r="I183" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="J183" s="19"/>
+      <c r="B183" s="21"/>
+      <c r="C183" s="21"/>
+      <c r="D183" s="21"/>
+      <c r="E183" s="17"/>
+      <c r="F183" s="19"/>
+      <c r="G183" s="17"/>
+      <c r="H183" s="17"/>
+      <c r="I183" s="17"/>
+      <c r="J183" s="17"/>
+      <c r="L183" s="1"/>
     </row>
     <row r="184" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A184" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B184" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="C184" s="19"/>
-      <c r="D184" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="E184" s="19"/>
-      <c r="F184" s="20"/>
-      <c r="G184" s="23"/>
-      <c r="H184" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="I184" s="19"/>
-      <c r="J184" s="23"/>
+      <c r="B184" s="17"/>
+      <c r="C184" s="20"/>
+      <c r="D184" s="17"/>
+      <c r="E184" s="17"/>
+      <c r="F184" s="19"/>
+      <c r="G184" s="17"/>
+      <c r="H184" s="17"/>
+      <c r="I184" s="17"/>
+      <c r="J184" s="17"/>
     </row>
     <row r="185" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A185" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B185" s="19"/>
-      <c r="C185" s="19"/>
-      <c r="D185" s="19"/>
-      <c r="E185" s="19"/>
-      <c r="F185" s="20"/>
-      <c r="G185" s="19"/>
-      <c r="H185" s="19"/>
-      <c r="I185" s="19"/>
-      <c r="J185" s="19"/>
+      <c r="B185" s="17"/>
+      <c r="C185" s="17"/>
+      <c r="D185" s="17"/>
+      <c r="E185" s="17"/>
+      <c r="F185" s="19"/>
+      <c r="G185" s="17"/>
+      <c r="H185" s="17"/>
+      <c r="I185" s="17"/>
+      <c r="J185" s="17"/>
     </row>
     <row r="186" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A186" s="26"/>
-      <c r="B186" s="27"/>
-      <c r="C186" s="27"/>
-      <c r="D186" s="27"/>
-      <c r="E186" s="27"/>
-      <c r="F186" s="29"/>
-      <c r="G186" s="27"/>
-      <c r="H186" s="27"/>
-      <c r="I186" s="27"/>
-      <c r="J186" s="27"/>
-    </row>
-    <row r="187" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A186" s="25"/>
+      <c r="B186" s="26"/>
+      <c r="C186" s="26"/>
+      <c r="D186" s="26"/>
+      <c r="E186" s="26"/>
+      <c r="F186" s="28"/>
+      <c r="G186" s="26"/>
+      <c r="H186" s="26"/>
+      <c r="I186" s="26"/>
+      <c r="J186" s="26"/>
+    </row>
+    <row r="187" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A187" s="12" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="B187" s="13"/>
       <c r="C187" s="13"/>
@@ -5081,8 +5156,9 @@
       <c r="H187" s="13"/>
       <c r="I187" s="14"/>
       <c r="J187" s="13"/>
-    </row>
-    <row r="188" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="L187" s="2"/>
+    </row>
+    <row r="188" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A188" s="15" t="s">
         <v>5</v>
       </c>
@@ -5113,110 +5189,133 @@
       <c r="J188" s="16" t="s">
         <v>14</v>
       </c>
+      <c r="L188" s="2"/>
     </row>
     <row r="189" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A189" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B189" s="19"/>
-      <c r="C189" s="19"/>
-      <c r="D189" s="19"/>
-      <c r="E189" s="19"/>
-      <c r="F189" s="20" t="s">
+      <c r="B189" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="C189" s="17"/>
+      <c r="D189" s="17"/>
+      <c r="E189" s="17"/>
+      <c r="F189" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="G189" s="19"/>
-      <c r="H189" s="18"/>
-      <c r="I189" s="19"/>
-      <c r="J189" s="19"/>
+      <c r="G189" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="H189" s="17"/>
+      <c r="J189" s="17" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="190" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A190" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B190" s="19"/>
-      <c r="C190" s="19"/>
-      <c r="D190" s="19"/>
-      <c r="E190" s="19"/>
-      <c r="F190" s="20"/>
-      <c r="G190" s="19"/>
-      <c r="H190" s="19"/>
-      <c r="I190" s="19"/>
-      <c r="J190" s="19"/>
+      <c r="B190" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="C190" s="17"/>
+      <c r="D190" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="E190" s="17"/>
+      <c r="F190" s="19"/>
+      <c r="G190" s="18"/>
+      <c r="H190" s="35" t="s">
+        <v>121</v>
+      </c>
+      <c r="I190" s="35"/>
+      <c r="J190" s="22"/>
     </row>
     <row r="191" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A191" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B191" s="19"/>
-      <c r="C191" s="19"/>
-      <c r="D191" s="19"/>
-      <c r="E191" s="19"/>
-      <c r="F191" s="20"/>
-      <c r="G191" s="19"/>
-      <c r="H191" s="19"/>
-      <c r="I191" s="19"/>
-      <c r="J191" s="19"/>
-      <c r="L191" s="1"/>
+      <c r="B191" s="17"/>
+      <c r="C191" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="D191" s="17"/>
+      <c r="E191" s="22"/>
+      <c r="F191" s="19"/>
+      <c r="G191" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="I191" s="17"/>
+      <c r="J191" s="17"/>
     </row>
     <row r="192" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A192" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B192" s="19"/>
-      <c r="C192" s="19"/>
-      <c r="D192" s="19"/>
-      <c r="E192" s="19"/>
-      <c r="F192" s="20"/>
-      <c r="G192" s="19"/>
-      <c r="H192" s="19"/>
-      <c r="I192" s="19"/>
-      <c r="J192" s="19"/>
-      <c r="L192" s="1"/>
+      <c r="B192" s="17"/>
+      <c r="C192" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="D192" s="17"/>
+      <c r="E192" s="22"/>
+      <c r="F192" s="19"/>
+      <c r="G192" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="H192" s="22"/>
+      <c r="I192" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="J192" s="17"/>
     </row>
     <row r="193" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A193" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B193" s="19" t="s">
+      <c r="B193" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="C193" s="17"/>
+      <c r="D193" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="E193" s="17"/>
+      <c r="F193" s="19"/>
+      <c r="G193" s="22"/>
+      <c r="H193" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="C193" s="19"/>
-      <c r="D193" s="19"/>
-      <c r="E193" s="19"/>
-      <c r="F193" s="20"/>
-      <c r="G193" s="19"/>
-      <c r="H193" s="19"/>
-      <c r="I193" s="19"/>
-      <c r="J193" s="19"/>
+      <c r="I193" s="17"/>
+      <c r="J193" s="22"/>
     </row>
     <row r="194" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A194" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B194" s="19"/>
-      <c r="C194" s="19"/>
-      <c r="D194" s="19"/>
-      <c r="E194" s="19"/>
-      <c r="F194" s="20"/>
-      <c r="G194" s="19"/>
-      <c r="H194" s="19"/>
-      <c r="I194" s="19"/>
-      <c r="J194" s="19"/>
+      <c r="B194" s="17"/>
+      <c r="C194" s="17"/>
+      <c r="D194" s="17"/>
+      <c r="E194" s="17"/>
+      <c r="F194" s="19"/>
+      <c r="G194" s="17"/>
+      <c r="H194" s="17"/>
+      <c r="I194" s="17"/>
+      <c r="J194" s="17"/>
     </row>
     <row r="195" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A195" s="26"/>
-      <c r="B195" s="27"/>
-      <c r="C195" s="27"/>
-      <c r="D195" s="27"/>
-      <c r="E195" s="27"/>
-      <c r="F195" s="29"/>
-      <c r="G195" s="27"/>
-      <c r="H195" s="27"/>
-      <c r="I195" s="27"/>
-      <c r="J195" s="27"/>
-    </row>
-    <row r="196" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A195" s="25"/>
+      <c r="B195" s="26"/>
+      <c r="C195" s="26"/>
+      <c r="D195" s="26"/>
+      <c r="E195" s="26"/>
+      <c r="F195" s="28"/>
+      <c r="G195" s="26"/>
+      <c r="H195" s="26"/>
+      <c r="I195" s="26"/>
+      <c r="J195" s="26"/>
+    </row>
+    <row r="196" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A196" s="12" t="s">
         <v>124</v>
       </c>
@@ -5229,9 +5328,8 @@
       <c r="H196" s="13"/>
       <c r="I196" s="14"/>
       <c r="J196" s="13"/>
-      <c r="L196" s="2"/>
-    </row>
-    <row r="197" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="197" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A197" s="15" t="s">
         <v>5</v>
       </c>
@@ -5262,121 +5360,112 @@
       <c r="J197" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="L197" s="2"/>
     </row>
     <row r="198" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A198" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B198" s="19"/>
-      <c r="C198" s="19"/>
-      <c r="D198" s="19"/>
-      <c r="E198" s="19"/>
-      <c r="F198" s="20" t="s">
+      <c r="B198" s="17"/>
+      <c r="C198" s="17"/>
+      <c r="D198" s="17"/>
+      <c r="E198" s="17"/>
+      <c r="F198" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="G198" s="19"/>
-      <c r="H198" s="19"/>
-      <c r="I198" s="19"/>
-      <c r="J198" s="19"/>
+      <c r="G198" s="17"/>
+      <c r="H198" s="18"/>
+      <c r="I198" s="17"/>
+      <c r="J198" s="17"/>
     </row>
     <row r="199" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A199" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B199" s="19" t="s">
-        <v>125</v>
-      </c>
-      <c r="C199" s="19"/>
-      <c r="D199" s="19"/>
-      <c r="E199" s="19"/>
-      <c r="F199" s="20"/>
-      <c r="G199" s="19"/>
-      <c r="H199" s="19"/>
-      <c r="I199" s="19"/>
-      <c r="J199" s="19"/>
+      <c r="B199" s="17"/>
+      <c r="C199" s="17"/>
+      <c r="D199" s="17"/>
+      <c r="E199" s="17"/>
+      <c r="F199" s="19"/>
+      <c r="G199" s="17"/>
+      <c r="H199" s="17"/>
+      <c r="I199" s="17"/>
+      <c r="J199" s="17"/>
     </row>
     <row r="200" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A200" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B200" s="19"/>
-      <c r="C200" s="19"/>
-      <c r="D200" s="22"/>
-      <c r="E200" s="18"/>
-      <c r="F200" s="20"/>
-      <c r="G200" s="19"/>
-      <c r="H200" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="I200" s="18"/>
-      <c r="J200" s="23"/>
+      <c r="B200" s="17"/>
+      <c r="C200" s="17"/>
+      <c r="D200" s="17"/>
+      <c r="E200" s="17"/>
+      <c r="F200" s="19"/>
+      <c r="G200" s="17"/>
+      <c r="H200" s="17"/>
+      <c r="I200" s="17"/>
+      <c r="J200" s="17"/>
       <c r="L200" s="1"/>
     </row>
     <row r="201" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A201" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B201" s="23"/>
-      <c r="C201" s="19"/>
-      <c r="D201" s="19"/>
-      <c r="E201" s="23"/>
-      <c r="F201" s="20"/>
-      <c r="G201" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="H201" s="19"/>
-      <c r="I201" s="19"/>
-      <c r="J201" s="19"/>
+      <c r="B201" s="17"/>
+      <c r="C201" s="17"/>
+      <c r="D201" s="17"/>
+      <c r="E201" s="17"/>
+      <c r="F201" s="19"/>
+      <c r="G201" s="17"/>
+      <c r="H201" s="17"/>
+      <c r="I201" s="17"/>
+      <c r="J201" s="17"/>
       <c r="L201" s="1"/>
     </row>
     <row r="202" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A202" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B202" s="19"/>
-      <c r="C202" s="19"/>
-      <c r="D202" s="19"/>
-      <c r="E202" s="19"/>
-      <c r="F202" s="20"/>
-      <c r="G202" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="H202" s="19"/>
-      <c r="I202" s="19"/>
-      <c r="J202" s="19"/>
+      <c r="B202" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="C202" s="17"/>
+      <c r="D202" s="17"/>
+      <c r="E202" s="17"/>
+      <c r="F202" s="19"/>
+      <c r="G202" s="17"/>
+      <c r="H202" s="17"/>
+      <c r="I202" s="17"/>
+      <c r="J202" s="17"/>
     </row>
     <row r="203" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A203" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B203" s="19"/>
-      <c r="C203" s="19"/>
-      <c r="D203" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="E203" s="19"/>
-      <c r="F203" s="20"/>
-      <c r="G203" s="19"/>
-      <c r="H203" s="19"/>
-      <c r="I203" s="19"/>
-      <c r="J203" s="19"/>
+      <c r="B203" s="17"/>
+      <c r="C203" s="17"/>
+      <c r="D203" s="17"/>
+      <c r="E203" s="17"/>
+      <c r="F203" s="19"/>
+      <c r="G203" s="17"/>
+      <c r="H203" s="17"/>
+      <c r="I203" s="17"/>
+      <c r="J203" s="17"/>
     </row>
     <row r="204" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A204" s="26"/>
-      <c r="B204" s="27"/>
-      <c r="C204" s="27"/>
-      <c r="D204" s="27"/>
-      <c r="E204" s="27"/>
-      <c r="F204" s="29"/>
-      <c r="G204" s="27"/>
-      <c r="H204" s="27"/>
-      <c r="I204" s="27"/>
-      <c r="J204" s="27"/>
+      <c r="A204" s="25"/>
+      <c r="B204" s="26"/>
+      <c r="C204" s="26"/>
+      <c r="D204" s="26"/>
+      <c r="E204" s="26"/>
+      <c r="F204" s="28"/>
+      <c r="G204" s="26"/>
+      <c r="H204" s="26"/>
+      <c r="I204" s="26"/>
+      <c r="J204" s="26"/>
     </row>
     <row r="205" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A205" s="12" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B205" s="13"/>
       <c r="C205" s="13"/>
@@ -5426,133 +5515,282 @@
       <c r="A207" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B207" s="19"/>
-      <c r="C207" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="D207" s="19"/>
-      <c r="E207" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="F207" s="20" t="s">
+      <c r="B207" s="17"/>
+      <c r="C207" s="17"/>
+      <c r="D207" s="17"/>
+      <c r="E207" s="17"/>
+      <c r="F207" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="G207" s="19"/>
-      <c r="H207" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="I207" s="19"/>
-      <c r="J207" s="19"/>
+      <c r="G207" s="17"/>
+      <c r="H207" s="17"/>
+      <c r="I207" s="17"/>
+      <c r="J207" s="17"/>
     </row>
     <row r="208" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A208" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B208" s="19"/>
-      <c r="C208" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="D208" s="19"/>
-      <c r="E208" s="19"/>
-      <c r="F208" s="20"/>
-      <c r="G208" s="19"/>
-      <c r="H208" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="I208" s="19"/>
-      <c r="J208" s="19"/>
+      <c r="B208" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="C208" s="17"/>
+      <c r="D208" s="17"/>
+      <c r="E208" s="17"/>
+      <c r="F208" s="19"/>
+      <c r="G208" s="17"/>
+      <c r="H208" s="17"/>
+      <c r="I208" s="17"/>
+      <c r="J208" s="17"/>
     </row>
     <row r="209" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A209" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B209" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="C209" s="19"/>
-      <c r="D209" s="19"/>
-      <c r="E209" s="19"/>
-      <c r="F209" s="20"/>
-      <c r="G209" s="19"/>
-      <c r="H209" s="19"/>
-      <c r="I209" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="J209" s="19"/>
+      <c r="B209" s="17"/>
+      <c r="C209" s="17"/>
+      <c r="D209" s="21"/>
+      <c r="E209" s="18"/>
+      <c r="F209" s="19"/>
+      <c r="G209" s="17"/>
+      <c r="H209" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="I209" s="18"/>
+      <c r="J209" s="22"/>
       <c r="L209" s="1"/>
     </row>
     <row r="210" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A210" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B210" s="19"/>
-      <c r="C210" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="D210" s="19"/>
-      <c r="E210" s="19"/>
-      <c r="F210" s="20"/>
-      <c r="G210" s="19" t="s">
+      <c r="B210" s="22"/>
+      <c r="C210" s="17"/>
+      <c r="D210" s="17"/>
+      <c r="E210" s="22"/>
+      <c r="F210" s="19"/>
+      <c r="G210" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="H210" s="19"/>
-      <c r="I210" s="19"/>
-      <c r="J210" s="19"/>
+      <c r="H210" s="17"/>
+      <c r="I210" s="17"/>
+      <c r="J210" s="17"/>
       <c r="L210" s="1"/>
     </row>
     <row r="211" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A211" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B211" s="19"/>
-      <c r="C211" s="19"/>
-      <c r="D211" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="E211" s="23"/>
-      <c r="F211" s="20"/>
-      <c r="G211" s="19"/>
-      <c r="H211" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="I211" s="19"/>
-      <c r="J211" s="19"/>
+      <c r="B211" s="17"/>
+      <c r="C211" s="17"/>
+      <c r="D211" s="17"/>
+      <c r="E211" s="17"/>
+      <c r="F211" s="19"/>
+      <c r="G211" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="H211" s="17"/>
+      <c r="I211" s="17"/>
+      <c r="J211" s="17"/>
     </row>
     <row r="212" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A212" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B212" s="19"/>
-      <c r="C212" s="19"/>
-      <c r="D212" s="19"/>
-      <c r="E212" s="19"/>
-      <c r="F212" s="20"/>
-      <c r="G212" s="19"/>
-      <c r="H212" s="19"/>
-      <c r="I212" s="19"/>
-      <c r="J212" s="19"/>
+      <c r="B212" s="17"/>
+      <c r="C212" s="17"/>
+      <c r="D212" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="E212" s="17"/>
+      <c r="F212" s="19"/>
+      <c r="G212" s="17"/>
+      <c r="H212" s="17"/>
+      <c r="I212" s="17"/>
+      <c r="J212" s="17"/>
     </row>
     <row r="213" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A213" s="26"/>
-      <c r="B213" s="27"/>
-      <c r="C213" s="27"/>
-      <c r="D213" s="27"/>
-      <c r="E213" s="27"/>
-      <c r="F213" s="29"/>
-      <c r="G213" s="27"/>
-      <c r="H213" s="27"/>
-      <c r="I213" s="27"/>
-      <c r="J213" s="27"/>
-    </row>
-    <row r="1048443" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048444" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048446" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048447" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048448" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048449" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048450" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048451" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="A213" s="25"/>
+      <c r="B213" s="26"/>
+      <c r="C213" s="26"/>
+      <c r="D213" s="26"/>
+      <c r="E213" s="26"/>
+      <c r="F213" s="28"/>
+      <c r="G213" s="26"/>
+      <c r="H213" s="26"/>
+      <c r="I213" s="26"/>
+      <c r="J213" s="26"/>
+    </row>
+    <row r="214" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A214" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="B214" s="13"/>
+      <c r="C214" s="13"/>
+      <c r="D214" s="13"/>
+      <c r="E214" s="13"/>
+      <c r="F214" s="6"/>
+      <c r="G214" s="13"/>
+      <c r="H214" s="13"/>
+      <c r="I214" s="14"/>
+      <c r="J214" s="13"/>
+      <c r="L214" s="2"/>
+    </row>
+    <row r="215" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A215" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B215" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C215" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D215" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E215" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F215" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G215" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H215" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I215" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="J215" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="L215" s="2"/>
+    </row>
+    <row r="216" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A216" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B216" s="17"/>
+      <c r="C216" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="D216" s="17"/>
+      <c r="E216" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="F216" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G216" s="17"/>
+      <c r="H216" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="I216" s="17"/>
+      <c r="J216" s="17"/>
+    </row>
+    <row r="217" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A217" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B217" s="17"/>
+      <c r="C217" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="D217" s="17"/>
+      <c r="E217" s="17"/>
+      <c r="F217" s="19"/>
+      <c r="G217" s="17"/>
+      <c r="H217" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="I217" s="17"/>
+      <c r="J217" s="17"/>
+    </row>
+    <row r="218" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A218" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B218" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="C218" s="17"/>
+      <c r="D218" s="17"/>
+      <c r="E218" s="17"/>
+      <c r="F218" s="19"/>
+      <c r="G218" s="17"/>
+      <c r="H218" s="17"/>
+      <c r="I218" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="J218" s="17"/>
+      <c r="L218" s="1"/>
+    </row>
+    <row r="219" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A219" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B219" s="17"/>
+      <c r="C219" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="D219" s="17"/>
+      <c r="E219" s="17"/>
+      <c r="F219" s="19"/>
+      <c r="G219" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="H219" s="17"/>
+      <c r="I219" s="17"/>
+      <c r="J219" s="17"/>
+      <c r="L219" s="1"/>
+    </row>
+    <row r="220" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A220" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B220" s="17"/>
+      <c r="C220" s="17"/>
+      <c r="D220" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="E220" s="22"/>
+      <c r="F220" s="19"/>
+      <c r="G220" s="17"/>
+      <c r="H220" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="I220" s="17"/>
+      <c r="J220" s="17"/>
+    </row>
+    <row r="221" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A221" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B221" s="17"/>
+      <c r="C221" s="17"/>
+      <c r="D221" s="17"/>
+      <c r="E221" s="17"/>
+      <c r="F221" s="19"/>
+      <c r="G221" s="17"/>
+      <c r="H221" s="17"/>
+      <c r="I221" s="17"/>
+      <c r="J221" s="17"/>
+    </row>
+    <row r="222" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A222" s="25"/>
+      <c r="B222" s="26"/>
+      <c r="C222" s="26"/>
+      <c r="D222" s="26"/>
+      <c r="E222" s="26"/>
+      <c r="F222" s="28"/>
+      <c r="G222" s="26"/>
+      <c r="H222" s="26"/>
+      <c r="I222" s="26"/>
+      <c r="J222" s="26"/>
+    </row>
     <row r="1048452" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048453" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -5679,7 +5917,7 @@
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="170">
+  <mergeCells count="171">
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A3:J3"/>
     <mergeCell ref="A5:J5"/>
@@ -5744,7 +5982,7 @@
     <mergeCell ref="D85:E85"/>
     <mergeCell ref="G85:H85"/>
     <mergeCell ref="F90:F95"/>
-    <mergeCell ref="G90:H90"/>
+    <mergeCell ref="H90:I90"/>
     <mergeCell ref="C91:D91"/>
     <mergeCell ref="B92:D92"/>
     <mergeCell ref="H92:J92"/>
@@ -5813,43 +6051,44 @@
     <mergeCell ref="I165:J165"/>
     <mergeCell ref="H166:I166"/>
     <mergeCell ref="B167:C167"/>
-    <mergeCell ref="B171:D171"/>
     <mergeCell ref="F171:F176"/>
-    <mergeCell ref="H172:I172"/>
-    <mergeCell ref="B173:D173"/>
-    <mergeCell ref="I173:J173"/>
-    <mergeCell ref="B174:D174"/>
-    <mergeCell ref="H174:J174"/>
-    <mergeCell ref="H175:J175"/>
     <mergeCell ref="B180:D180"/>
     <mergeCell ref="F180:F185"/>
-    <mergeCell ref="G180:H180"/>
     <mergeCell ref="H181:I181"/>
-    <mergeCell ref="C182:D182"/>
-    <mergeCell ref="C183:D183"/>
-    <mergeCell ref="H184:I184"/>
-    <mergeCell ref="C189:D189"/>
+    <mergeCell ref="B182:D182"/>
+    <mergeCell ref="I182:J182"/>
+    <mergeCell ref="B183:D183"/>
+    <mergeCell ref="H183:J183"/>
+    <mergeCell ref="H184:J184"/>
+    <mergeCell ref="B189:D189"/>
     <mergeCell ref="F189:F194"/>
-    <mergeCell ref="B190:D190"/>
-    <mergeCell ref="G190:H190"/>
+    <mergeCell ref="G189:H189"/>
+    <mergeCell ref="H190:I190"/>
     <mergeCell ref="C191:D191"/>
-    <mergeCell ref="G191:H191"/>
-    <mergeCell ref="G192:H192"/>
-    <mergeCell ref="B193:D193"/>
-    <mergeCell ref="G193:I193"/>
-    <mergeCell ref="B194:C194"/>
-    <mergeCell ref="D194:E194"/>
-    <mergeCell ref="G194:H194"/>
+    <mergeCell ref="C192:D192"/>
+    <mergeCell ref="H193:I193"/>
     <mergeCell ref="C198:D198"/>
     <mergeCell ref="F198:F203"/>
-    <mergeCell ref="G198:H198"/>
     <mergeCell ref="B199:D199"/>
-    <mergeCell ref="G201:I201"/>
-    <mergeCell ref="G202:H202"/>
+    <mergeCell ref="G199:H199"/>
+    <mergeCell ref="C200:D200"/>
+    <mergeCell ref="G200:H200"/>
+    <mergeCell ref="G201:H201"/>
+    <mergeCell ref="B202:D202"/>
+    <mergeCell ref="G202:I202"/>
+    <mergeCell ref="B203:C203"/>
     <mergeCell ref="D203:E203"/>
+    <mergeCell ref="G203:H203"/>
+    <mergeCell ref="C207:D207"/>
     <mergeCell ref="F207:F212"/>
-    <mergeCell ref="G210:H210"/>
-    <mergeCell ref="H211:I211"/>
+    <mergeCell ref="G207:H207"/>
+    <mergeCell ref="B208:D208"/>
+    <mergeCell ref="G210:I210"/>
+    <mergeCell ref="G211:H211"/>
+    <mergeCell ref="D212:E212"/>
+    <mergeCell ref="F216:F221"/>
+    <mergeCell ref="G219:H219"/>
+    <mergeCell ref="H220:I220"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.39375" right="0.39375" top="0.39375" bottom="0.39375" header="0.511811023622047" footer="0.511811023622047"/>
@@ -5868,7 +6107,7 @@
   </sheetPr>
   <dimension ref="A1:Q91"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A68" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I70" activeCellId="0" sqref="I70"/>
     </sheetView>
   </sheetViews>
@@ -5924,7 +6163,7 @@
     </row>
     <row r="4" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -5952,7 +6191,7 @@
     </row>
     <row r="6" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="12" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -5962,7 +6201,7 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
-      <c r="J6" s="35"/>
+      <c r="J6" s="36"/>
       <c r="K6" s="6"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6009,138 +6248,138 @@
         <v>15</v>
       </c>
       <c r="B8" s="15"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="36" t="s">
-        <v>134</v>
-      </c>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="20" t="s">
+      <c r="C8" s="17"/>
+      <c r="D8" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="37"/>
-      <c r="M8" s="37"/>
-      <c r="N8" s="37"/>
-      <c r="O8" s="37"/>
-      <c r="P8" s="37"/>
-      <c r="Q8" s="37"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="38"/>
+      <c r="O8" s="38"/>
+      <c r="P8" s="38"/>
+      <c r="Q8" s="38"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="15" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="15"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="38"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="39"/>
       <c r="N9" s="2"/>
-      <c r="O9" s="27"/>
-      <c r="P9" s="27"/>
-      <c r="Q9" s="27"/>
+      <c r="O9" s="26"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="26"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="15" t="s">
         <v>19</v>
       </c>
       <c r="B10" s="15"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="25" t="s">
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="L10" s="27"/>
-      <c r="M10" s="38"/>
-      <c r="N10" s="27"/>
-      <c r="O10" s="27"/>
-      <c r="P10" s="27"/>
-      <c r="Q10" s="27"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="39"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="26"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="15" t="s">
         <v>20</v>
       </c>
       <c r="B11" s="15"/>
-      <c r="C11" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="39"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="38"/>
-      <c r="N11" s="27"/>
-      <c r="O11" s="40"/>
-      <c r="P11" s="27"/>
-      <c r="Q11" s="40"/>
+      <c r="C11" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="40"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="39"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="41"/>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="41"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="15" t="s">
         <v>21</v>
       </c>
       <c r="B12" s="15"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="39"/>
-      <c r="L12" s="27"/>
-      <c r="M12" s="38"/>
-      <c r="N12" s="27"/>
-      <c r="O12" s="27"/>
-      <c r="P12" s="27"/>
-      <c r="Q12" s="40"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="40"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="39"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="26"/>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="41"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="15" t="s">
         <v>22</v>
       </c>
       <c r="B13" s="15"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="39"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="38"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="40"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="39"/>
       <c r="N13" s="2"/>
-      <c r="O13" s="27"/>
-      <c r="P13" s="27"/>
-      <c r="Q13" s="27"/>
+      <c r="O13" s="26"/>
+      <c r="P13" s="26"/>
+      <c r="Q13" s="26"/>
     </row>
     <row r="14" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="12" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -6150,14 +6389,14 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
-      <c r="J14" s="35"/>
+      <c r="J14" s="36"/>
       <c r="K14" s="6"/>
-      <c r="L14" s="27"/>
-      <c r="M14" s="38"/>
-      <c r="N14" s="27"/>
-      <c r="O14" s="27"/>
-      <c r="P14" s="27"/>
-      <c r="Q14" s="27"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="39"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="26"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="15" t="s">
@@ -6197,101 +6436,101 @@
         <v>15</v>
       </c>
       <c r="B16" s="15"/>
-      <c r="C16" s="39" t="s">
-        <v>137</v>
-      </c>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="20" t="s">
+      <c r="C16" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="H16" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="41"/>
+      <c r="H16" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="42"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="15" t="s">
         <v>18</v>
       </c>
       <c r="B17" s="15"/>
-      <c r="C17" s="39" t="s">
-        <v>139</v>
-      </c>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
+      <c r="C17" s="40" t="s">
+        <v>141</v>
+      </c>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="15" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="15"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="15" t="s">
         <v>20</v>
       </c>
       <c r="B19" s="15"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="15" t="s">
         <v>21</v>
       </c>
       <c r="B20" s="15"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="19"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="15" t="s">
         <v>22</v>
       </c>
       <c r="B21" s="15"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="19"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
     </row>
     <row r="22" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="12" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -6301,7 +6540,7 @@
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
-      <c r="J22" s="35"/>
+      <c r="J22" s="36"/>
       <c r="K22" s="6"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6342,122 +6581,122 @@
         <v>15</v>
       </c>
       <c r="B24" s="15"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="20" t="s">
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="19"/>
-      <c r="K24" s="19"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="15" t="s">
         <v>18</v>
       </c>
       <c r="B25" s="15"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="19"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="15" t="s">
         <v>19</v>
       </c>
       <c r="B26" s="15"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="19"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="15" t="s">
         <v>20</v>
       </c>
       <c r="B27" s="15"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="19"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="17"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="15" t="s">
         <v>21</v>
       </c>
       <c r="B28" s="15"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="19"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="15" t="s">
         <v>22</v>
       </c>
       <c r="B29" s="15"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="19"/>
-      <c r="K29" s="19"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="27"/>
-      <c r="B30" s="27"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="27"/>
-      <c r="J30" s="27"/>
-      <c r="K30" s="27"/>
+      <c r="A30" s="26"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="26"/>
+      <c r="K30" s="26"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="27"/>
-      <c r="B31" s="27"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="27"/>
-      <c r="K31" s="27"/>
+      <c r="A31" s="26"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="26"/>
+      <c r="J31" s="26"/>
+      <c r="K31" s="26"/>
     </row>
     <row r="32" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="12" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
@@ -6467,7 +6706,7 @@
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
-      <c r="J32" s="35"/>
+      <c r="J32" s="36"/>
       <c r="K32" s="6"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6508,112 +6747,112 @@
         <v>15</v>
       </c>
       <c r="B34" s="15"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="20" t="s">
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="K34" s="19"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="K34" s="17"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="15" t="s">
         <v>18</v>
       </c>
       <c r="B35" s="15"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="J35" s="19"/>
-      <c r="K35" s="19"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="J35" s="17"/>
+      <c r="K35" s="17"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="15" t="s">
         <v>19</v>
       </c>
       <c r="B36" s="15"/>
-      <c r="C36" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="D36" s="19"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="20"/>
-      <c r="H36" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="I36" s="19"/>
-      <c r="J36" s="42" t="s">
-        <v>112</v>
-      </c>
-      <c r="K36" s="42"/>
+      <c r="C36" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="D36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="I36" s="17"/>
+      <c r="J36" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="K36" s="43"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="15" t="s">
         <v>20</v>
       </c>
       <c r="B37" s="15"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="20"/>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="J37" s="19"/>
-      <c r="K37" s="19"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="J37" s="17"/>
+      <c r="K37" s="17"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="15" t="s">
         <v>21</v>
       </c>
       <c r="B38" s="15"/>
-      <c r="C38" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="20"/>
-      <c r="H38" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="I38" s="19"/>
-      <c r="J38" s="19"/>
-      <c r="K38" s="19"/>
+      <c r="C38" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="I38" s="17"/>
+      <c r="J38" s="17"/>
+      <c r="K38" s="17"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="15" t="s">
         <v>22</v>
       </c>
       <c r="B39" s="15"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="20"/>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="19"/>
-      <c r="K39" s="19"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="17"/>
+      <c r="J39" s="17"/>
+      <c r="K39" s="17"/>
     </row>
     <row r="40" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="12" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
@@ -6623,7 +6862,7 @@
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
-      <c r="J40" s="35"/>
+      <c r="J40" s="36"/>
       <c r="K40" s="6"/>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6664,103 +6903,103 @@
         <v>15</v>
       </c>
       <c r="B42" s="15"/>
-      <c r="C42" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
-      <c r="G42" s="20" t="s">
+      <c r="C42" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="G42" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="J42" s="19"/>
-      <c r="K42" s="19"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="J42" s="17"/>
+      <c r="K42" s="17"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="15" t="s">
         <v>18</v>
       </c>
       <c r="B43" s="15"/>
-      <c r="C43" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="D43" s="19"/>
-      <c r="E43" s="19"/>
-      <c r="G43" s="20"/>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="19"/>
-      <c r="K43" s="19"/>
+      <c r="C43" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+      <c r="G43" s="19"/>
+      <c r="H43" s="17"/>
+      <c r="I43" s="17"/>
+      <c r="J43" s="17"/>
+      <c r="K43" s="17"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="15" t="s">
         <v>19</v>
       </c>
       <c r="B44" s="15"/>
-      <c r="C44" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="D44" s="19"/>
-      <c r="E44" s="19"/>
-      <c r="G44" s="20"/>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
-      <c r="J44" s="19"/>
-      <c r="K44" s="19"/>
+      <c r="C44" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="G44" s="19"/>
+      <c r="H44" s="17"/>
+      <c r="I44" s="17"/>
+      <c r="J44" s="17"/>
+      <c r="K44" s="17"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="15" t="s">
         <v>20</v>
       </c>
       <c r="B45" s="15"/>
-      <c r="C45" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="D45" s="19"/>
-      <c r="E45" s="19"/>
-      <c r="G45" s="20"/>
-      <c r="H45" s="19"/>
-      <c r="I45" s="19"/>
-      <c r="J45" s="19"/>
-      <c r="K45" s="19"/>
+      <c r="C45" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="D45" s="17"/>
+      <c r="E45" s="17"/>
+      <c r="G45" s="19"/>
+      <c r="H45" s="17"/>
+      <c r="I45" s="17"/>
+      <c r="J45" s="17"/>
+      <c r="K45" s="17"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="15" t="s">
         <v>21</v>
       </c>
       <c r="B46" s="15"/>
-      <c r="C46" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="D46" s="19"/>
-      <c r="E46" s="19"/>
-      <c r="G46" s="20"/>
-      <c r="H46" s="19"/>
-      <c r="I46" s="19"/>
-      <c r="J46" s="19"/>
-      <c r="K46" s="19"/>
+      <c r="C46" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
+      <c r="G46" s="19"/>
+      <c r="H46" s="17"/>
+      <c r="I46" s="17"/>
+      <c r="J46" s="17"/>
+      <c r="K46" s="17"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="15" t="s">
         <v>22</v>
       </c>
       <c r="B47" s="15"/>
-      <c r="C47" s="19"/>
-      <c r="D47" s="19"/>
-      <c r="E47" s="19"/>
-      <c r="F47" s="19"/>
-      <c r="G47" s="20"/>
-      <c r="H47" s="19"/>
-      <c r="I47" s="19"/>
-      <c r="J47" s="19"/>
-      <c r="K47" s="19"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="19"/>
+      <c r="H47" s="17"/>
+      <c r="I47" s="17"/>
+      <c r="J47" s="17"/>
+      <c r="K47" s="17"/>
     </row>
     <row r="48" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="12" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
@@ -6770,7 +7009,7 @@
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
       <c r="I48" s="6"/>
-      <c r="J48" s="35"/>
+      <c r="J48" s="36"/>
       <c r="K48" s="6"/>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6811,15 +7050,15 @@
         <v>15</v>
       </c>
       <c r="B50" s="15"/>
-      <c r="C50" s="19"/>
-      <c r="D50" s="19"/>
-      <c r="E50" s="19"/>
-      <c r="F50" s="19"/>
-      <c r="G50" s="20" t="s">
+      <c r="C50" s="17"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="17"/>
+      <c r="G50" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="H50" s="19"/>
-      <c r="I50" s="19"/>
+      <c r="H50" s="17"/>
+      <c r="I50" s="17"/>
       <c r="J50" s="18"/>
       <c r="K50" s="18"/>
     </row>
@@ -6828,13 +7067,13 @@
         <v>18</v>
       </c>
       <c r="B51" s="15"/>
-      <c r="C51" s="19"/>
-      <c r="D51" s="19"/>
-      <c r="E51" s="19"/>
-      <c r="F51" s="19"/>
-      <c r="G51" s="20"/>
-      <c r="H51" s="19"/>
-      <c r="I51" s="19"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="17"/>
+      <c r="G51" s="19"/>
+      <c r="H51" s="17"/>
+      <c r="I51" s="17"/>
       <c r="J51" s="18"/>
       <c r="K51" s="18"/>
     </row>
@@ -6843,12 +7082,12 @@
         <v>19</v>
       </c>
       <c r="B52" s="15"/>
-      <c r="C52" s="19"/>
-      <c r="D52" s="19"/>
-      <c r="E52" s="19"/>
-      <c r="F52" s="19"/>
-      <c r="G52" s="20"/>
-      <c r="H52" s="19"/>
+      <c r="C52" s="17"/>
+      <c r="D52" s="17"/>
+      <c r="E52" s="17"/>
+      <c r="F52" s="17"/>
+      <c r="G52" s="19"/>
+      <c r="H52" s="17"/>
       <c r="I52" s="18"/>
       <c r="J52" s="18"/>
       <c r="K52" s="18"/>
@@ -6858,12 +7097,12 @@
         <v>20</v>
       </c>
       <c r="B53" s="15"/>
-      <c r="C53" s="19"/>
-      <c r="D53" s="19"/>
-      <c r="E53" s="19"/>
-      <c r="F53" s="19"/>
-      <c r="G53" s="20"/>
-      <c r="H53" s="19"/>
+      <c r="C53" s="17"/>
+      <c r="D53" s="17"/>
+      <c r="E53" s="17"/>
+      <c r="F53" s="17"/>
+      <c r="G53" s="19"/>
+      <c r="H53" s="17"/>
       <c r="I53" s="18"/>
       <c r="J53" s="18"/>
       <c r="K53" s="18"/>
@@ -6873,34 +7112,34 @@
         <v>21</v>
       </c>
       <c r="B54" s="15"/>
-      <c r="C54" s="19"/>
-      <c r="D54" s="19"/>
-      <c r="E54" s="19"/>
-      <c r="F54" s="19"/>
-      <c r="G54" s="20"/>
-      <c r="H54" s="19"/>
-      <c r="I54" s="19"/>
-      <c r="J54" s="19"/>
-      <c r="K54" s="19"/>
+      <c r="C54" s="17"/>
+      <c r="D54" s="17"/>
+      <c r="E54" s="17"/>
+      <c r="F54" s="17"/>
+      <c r="G54" s="19"/>
+      <c r="H54" s="17"/>
+      <c r="I54" s="17"/>
+      <c r="J54" s="17"/>
+      <c r="K54" s="17"/>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="15" t="s">
         <v>22</v>
       </c>
       <c r="B55" s="15"/>
-      <c r="C55" s="19"/>
-      <c r="D55" s="19"/>
-      <c r="E55" s="19"/>
-      <c r="F55" s="19"/>
-      <c r="G55" s="20"/>
-      <c r="H55" s="19"/>
-      <c r="I55" s="19"/>
-      <c r="J55" s="19"/>
-      <c r="K55" s="19"/>
+      <c r="C55" s="17"/>
+      <c r="D55" s="17"/>
+      <c r="E55" s="17"/>
+      <c r="F55" s="17"/>
+      <c r="G55" s="19"/>
+      <c r="H55" s="17"/>
+      <c r="I55" s="17"/>
+      <c r="J55" s="17"/>
+      <c r="K55" s="17"/>
     </row>
     <row r="57" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="12" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
@@ -6910,7 +7149,7 @@
       <c r="G57" s="6"/>
       <c r="H57" s="6"/>
       <c r="I57" s="6"/>
-      <c r="J57" s="35"/>
+      <c r="J57" s="36"/>
       <c r="K57" s="6"/>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6951,111 +7190,111 @@
         <v>15</v>
       </c>
       <c r="B59" s="15"/>
-      <c r="C59" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="D59" s="19"/>
-      <c r="E59" s="19"/>
-      <c r="G59" s="20" t="s">
+      <c r="C59" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="D59" s="17"/>
+      <c r="E59" s="17"/>
+      <c r="G59" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="H59" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="I59" s="19"/>
-      <c r="J59" s="19"/>
-      <c r="K59" s="41"/>
+      <c r="H59" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="I59" s="17"/>
+      <c r="J59" s="17"/>
+      <c r="K59" s="42"/>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="15" t="s">
         <v>18</v>
       </c>
       <c r="B60" s="15"/>
-      <c r="C60" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="D60" s="19"/>
-      <c r="E60" s="19"/>
-      <c r="G60" s="20"/>
-      <c r="H60" s="41"/>
-      <c r="I60" s="19" t="s">
-        <v>161</v>
-      </c>
-      <c r="J60" s="19"/>
-      <c r="K60" s="19"/>
+      <c r="C60" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="D60" s="17"/>
+      <c r="E60" s="17"/>
+      <c r="G60" s="19"/>
+      <c r="H60" s="42"/>
+      <c r="I60" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="J60" s="17"/>
+      <c r="K60" s="17"/>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="15" t="s">
         <v>19</v>
       </c>
       <c r="B61" s="15"/>
-      <c r="C61" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="D61" s="19"/>
-      <c r="E61" s="19"/>
-      <c r="G61" s="20"/>
-      <c r="H61" s="41"/>
-      <c r="I61" s="19" t="s">
-        <v>163</v>
-      </c>
-      <c r="J61" s="19"/>
-      <c r="K61" s="19"/>
+      <c r="C61" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="D61" s="17"/>
+      <c r="E61" s="17"/>
+      <c r="G61" s="19"/>
+      <c r="H61" s="42"/>
+      <c r="I61" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="J61" s="17"/>
+      <c r="K61" s="17"/>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="15" t="s">
         <v>20</v>
       </c>
       <c r="B62" s="15"/>
-      <c r="C62" s="36" t="s">
-        <v>164</v>
-      </c>
-      <c r="D62" s="36"/>
-      <c r="E62" s="36"/>
-      <c r="G62" s="20"/>
-      <c r="H62" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="I62" s="19"/>
-      <c r="J62" s="19"/>
-      <c r="K62" s="41"/>
+      <c r="C62" s="37" t="s">
+        <v>166</v>
+      </c>
+      <c r="D62" s="37"/>
+      <c r="E62" s="37"/>
+      <c r="G62" s="19"/>
+      <c r="H62" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="I62" s="17"/>
+      <c r="J62" s="17"/>
+      <c r="K62" s="42"/>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="15" t="s">
         <v>21</v>
       </c>
       <c r="B63" s="15"/>
-      <c r="C63" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="D63" s="19"/>
-      <c r="E63" s="19"/>
-      <c r="G63" s="20"/>
-      <c r="H63" s="41"/>
-      <c r="I63" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="J63" s="19"/>
-      <c r="K63" s="19"/>
+      <c r="C63" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="D63" s="17"/>
+      <c r="E63" s="17"/>
+      <c r="G63" s="19"/>
+      <c r="H63" s="42"/>
+      <c r="I63" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="J63" s="17"/>
+      <c r="K63" s="17"/>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="15" t="s">
         <v>22</v>
       </c>
       <c r="B64" s="15"/>
-      <c r="C64" s="19"/>
-      <c r="D64" s="19"/>
-      <c r="E64" s="19"/>
-      <c r="F64" s="19"/>
-      <c r="G64" s="20"/>
-      <c r="H64" s="19"/>
-      <c r="I64" s="19"/>
-      <c r="J64" s="19"/>
-      <c r="K64" s="19"/>
+      <c r="C64" s="17"/>
+      <c r="D64" s="17"/>
+      <c r="E64" s="17"/>
+      <c r="F64" s="17"/>
+      <c r="G64" s="19"/>
+      <c r="H64" s="17"/>
+      <c r="I64" s="17"/>
+      <c r="J64" s="17"/>
+      <c r="K64" s="17"/>
     </row>
     <row r="66" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="12" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B66" s="6"/>
       <c r="C66" s="6"/>
@@ -7065,7 +7304,7 @@
       <c r="G66" s="6"/>
       <c r="H66" s="6"/>
       <c r="I66" s="6"/>
-      <c r="J66" s="35"/>
+      <c r="J66" s="36"/>
       <c r="K66" s="6"/>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7106,116 +7345,116 @@
         <v>15</v>
       </c>
       <c r="B68" s="15"/>
-      <c r="C68" s="19" t="s">
-        <v>169</v>
-      </c>
-      <c r="D68" s="19"/>
-      <c r="E68" s="19"/>
-      <c r="F68" s="41"/>
-      <c r="G68" s="20" t="s">
+      <c r="C68" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="D68" s="17"/>
+      <c r="E68" s="17"/>
+      <c r="F68" s="42"/>
+      <c r="G68" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="H68" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="I68" s="19"/>
-      <c r="J68" s="19"/>
-      <c r="K68" s="41"/>
+      <c r="H68" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="I68" s="17"/>
+      <c r="J68" s="17"/>
+      <c r="K68" s="42"/>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="15" t="s">
         <v>18</v>
       </c>
       <c r="B69" s="15"/>
-      <c r="C69" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="D69" s="19"/>
-      <c r="E69" s="19"/>
-      <c r="F69" s="41"/>
-      <c r="G69" s="20"/>
-      <c r="H69" s="19" t="s">
-        <v>172</v>
-      </c>
-      <c r="I69" s="19"/>
-      <c r="J69" s="19"/>
-      <c r="K69" s="41"/>
+      <c r="C69" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="D69" s="17"/>
+      <c r="E69" s="17"/>
+      <c r="F69" s="42"/>
+      <c r="G69" s="19"/>
+      <c r="H69" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="I69" s="17"/>
+      <c r="J69" s="17"/>
+      <c r="K69" s="42"/>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="15" t="s">
         <v>19</v>
       </c>
       <c r="B70" s="15"/>
-      <c r="C70" s="19" t="s">
-        <v>173</v>
-      </c>
-      <c r="D70" s="19"/>
-      <c r="E70" s="19"/>
-      <c r="F70" s="41"/>
-      <c r="G70" s="20"/>
-      <c r="H70" s="41"/>
-      <c r="I70" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="J70" s="19"/>
-      <c r="K70" s="19"/>
+      <c r="C70" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="D70" s="17"/>
+      <c r="E70" s="17"/>
+      <c r="F70" s="42"/>
+      <c r="G70" s="19"/>
+      <c r="H70" s="42"/>
+      <c r="I70" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="J70" s="17"/>
+      <c r="K70" s="17"/>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="15" t="s">
         <v>20</v>
       </c>
       <c r="B71" s="15"/>
-      <c r="C71" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="D71" s="19"/>
-      <c r="E71" s="19"/>
-      <c r="F71" s="41"/>
-      <c r="G71" s="20"/>
-      <c r="H71" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="I71" s="19"/>
-      <c r="J71" s="19"/>
-      <c r="K71" s="41"/>
+      <c r="C71" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="D71" s="17"/>
+      <c r="E71" s="17"/>
+      <c r="F71" s="42"/>
+      <c r="G71" s="19"/>
+      <c r="H71" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="I71" s="17"/>
+      <c r="J71" s="17"/>
+      <c r="K71" s="42"/>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="15" t="s">
         <v>21</v>
       </c>
       <c r="B72" s="15"/>
-      <c r="C72" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="D72" s="19"/>
-      <c r="E72" s="19"/>
-      <c r="F72" s="41"/>
-      <c r="G72" s="20"/>
-      <c r="H72" s="41"/>
-      <c r="I72" s="19" t="s">
-        <v>178</v>
-      </c>
-      <c r="J72" s="19"/>
-      <c r="K72" s="19"/>
+      <c r="C72" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="D72" s="17"/>
+      <c r="E72" s="17"/>
+      <c r="F72" s="42"/>
+      <c r="G72" s="19"/>
+      <c r="H72" s="42"/>
+      <c r="I72" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="J72" s="17"/>
+      <c r="K72" s="17"/>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="15" t="s">
         <v>22</v>
       </c>
       <c r="B73" s="15"/>
-      <c r="C73" s="19"/>
-      <c r="D73" s="19"/>
-      <c r="E73" s="19"/>
-      <c r="F73" s="19"/>
-      <c r="G73" s="20"/>
-      <c r="H73" s="19"/>
-      <c r="I73" s="19"/>
-      <c r="J73" s="19"/>
-      <c r="K73" s="19"/>
+      <c r="C73" s="17"/>
+      <c r="D73" s="17"/>
+      <c r="E73" s="17"/>
+      <c r="F73" s="17"/>
+      <c r="G73" s="19"/>
+      <c r="H73" s="17"/>
+      <c r="I73" s="17"/>
+      <c r="J73" s="17"/>
+      <c r="K73" s="17"/>
     </row>
     <row r="75" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="12" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B75" s="6"/>
       <c r="C75" s="6"/>
@@ -7225,7 +7464,7 @@
       <c r="G75" s="6"/>
       <c r="H75" s="6"/>
       <c r="I75" s="6"/>
-      <c r="J75" s="35"/>
+      <c r="J75" s="36"/>
       <c r="K75" s="6"/>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7266,101 +7505,101 @@
         <v>15</v>
       </c>
       <c r="B77" s="15"/>
-      <c r="D77" s="19"/>
-      <c r="E77" s="19"/>
-      <c r="F77" s="19"/>
-      <c r="G77" s="20" t="s">
+      <c r="D77" s="17"/>
+      <c r="E77" s="17"/>
+      <c r="F77" s="17"/>
+      <c r="G77" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="H77" s="19"/>
-      <c r="I77" s="19"/>
-      <c r="J77" s="19"/>
-      <c r="K77" s="19"/>
+      <c r="H77" s="17"/>
+      <c r="I77" s="17"/>
+      <c r="J77" s="17"/>
+      <c r="K77" s="17"/>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="15" t="s">
         <v>18</v>
       </c>
       <c r="B78" s="15"/>
-      <c r="C78" s="19"/>
-      <c r="D78" s="19"/>
-      <c r="E78" s="19"/>
-      <c r="F78" s="19"/>
-      <c r="G78" s="20"/>
-      <c r="H78" s="19"/>
-      <c r="I78" s="19"/>
-      <c r="J78" s="19"/>
-      <c r="K78" s="19"/>
+      <c r="C78" s="17"/>
+      <c r="D78" s="17"/>
+      <c r="E78" s="17"/>
+      <c r="F78" s="17"/>
+      <c r="G78" s="19"/>
+      <c r="H78" s="17"/>
+      <c r="I78" s="17"/>
+      <c r="J78" s="17"/>
+      <c r="K78" s="17"/>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="15" t="s">
         <v>19</v>
       </c>
       <c r="B79" s="15"/>
-      <c r="C79" s="19" t="s">
-        <v>180</v>
-      </c>
-      <c r="D79" s="19"/>
-      <c r="E79" s="19"/>
-      <c r="F79" s="19"/>
-      <c r="G79" s="20"/>
-      <c r="H79" s="19"/>
-      <c r="I79" s="19"/>
-      <c r="J79" s="19"/>
-      <c r="K79" s="19"/>
+      <c r="C79" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="D79" s="17"/>
+      <c r="E79" s="17"/>
+      <c r="F79" s="17"/>
+      <c r="G79" s="19"/>
+      <c r="H79" s="17"/>
+      <c r="I79" s="17"/>
+      <c r="J79" s="17"/>
+      <c r="K79" s="17"/>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="15" t="s">
         <v>20</v>
       </c>
       <c r="B80" s="15"/>
-      <c r="C80" s="19" t="s">
-        <v>181</v>
-      </c>
-      <c r="D80" s="19"/>
-      <c r="E80" s="19"/>
-      <c r="F80" s="19"/>
-      <c r="G80" s="20"/>
-      <c r="H80" s="19"/>
-      <c r="I80" s="19"/>
-      <c r="J80" s="19"/>
-      <c r="K80" s="19"/>
+      <c r="C80" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="D80" s="17"/>
+      <c r="E80" s="17"/>
+      <c r="F80" s="17"/>
+      <c r="G80" s="19"/>
+      <c r="H80" s="17"/>
+      <c r="I80" s="17"/>
+      <c r="J80" s="17"/>
+      <c r="K80" s="17"/>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="15" t="s">
         <v>21</v>
       </c>
       <c r="B81" s="15"/>
-      <c r="C81" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="D81" s="19"/>
-      <c r="E81" s="19"/>
-      <c r="F81" s="19"/>
-      <c r="G81" s="20"/>
-      <c r="H81" s="19"/>
-      <c r="I81" s="19"/>
-      <c r="J81" s="19"/>
-      <c r="K81" s="19"/>
+      <c r="C81" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="D81" s="17"/>
+      <c r="E81" s="17"/>
+      <c r="F81" s="17"/>
+      <c r="G81" s="19"/>
+      <c r="H81" s="17"/>
+      <c r="I81" s="17"/>
+      <c r="J81" s="17"/>
+      <c r="K81" s="17"/>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="15" t="s">
         <v>22</v>
       </c>
       <c r="B82" s="15"/>
-      <c r="C82" s="19"/>
-      <c r="D82" s="19"/>
-      <c r="E82" s="19"/>
-      <c r="F82" s="19"/>
-      <c r="G82" s="20"/>
-      <c r="H82" s="19"/>
-      <c r="I82" s="19"/>
-      <c r="J82" s="19"/>
-      <c r="K82" s="19"/>
+      <c r="C82" s="17"/>
+      <c r="D82" s="17"/>
+      <c r="E82" s="17"/>
+      <c r="F82" s="17"/>
+      <c r="G82" s="19"/>
+      <c r="H82" s="17"/>
+      <c r="I82" s="17"/>
+      <c r="J82" s="17"/>
+      <c r="K82" s="17"/>
     </row>
     <row r="84" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="12" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B84" s="6"/>
       <c r="C84" s="6"/>
@@ -7370,7 +7609,7 @@
       <c r="G84" s="6"/>
       <c r="H84" s="6"/>
       <c r="I84" s="6"/>
-      <c r="J84" s="35"/>
+      <c r="J84" s="36"/>
       <c r="K84" s="6"/>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7411,108 +7650,108 @@
         <v>15</v>
       </c>
       <c r="B86" s="15"/>
-      <c r="C86" s="19"/>
-      <c r="D86" s="19"/>
-      <c r="E86" s="19"/>
-      <c r="F86" s="19"/>
-      <c r="G86" s="20" t="s">
+      <c r="C86" s="17"/>
+      <c r="D86" s="17"/>
+      <c r="E86" s="17"/>
+      <c r="F86" s="17"/>
+      <c r="G86" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="H86" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="I86" s="19"/>
-      <c r="J86" s="19"/>
-      <c r="K86" s="19"/>
+      <c r="H86" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="I86" s="17"/>
+      <c r="J86" s="17"/>
+      <c r="K86" s="17"/>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="15" t="s">
         <v>18</v>
       </c>
       <c r="B87" s="15"/>
-      <c r="C87" s="19"/>
-      <c r="D87" s="19"/>
-      <c r="E87" s="19" t="s">
-        <v>185</v>
-      </c>
-      <c r="F87" s="19"/>
-      <c r="G87" s="20"/>
-      <c r="H87" s="19"/>
-      <c r="I87" s="19" t="s">
-        <v>186</v>
-      </c>
-      <c r="J87" s="19"/>
-      <c r="K87" s="19"/>
+      <c r="C87" s="17"/>
+      <c r="D87" s="17"/>
+      <c r="E87" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="F87" s="17"/>
+      <c r="G87" s="19"/>
+      <c r="H87" s="17"/>
+      <c r="I87" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="J87" s="17"/>
+      <c r="K87" s="17"/>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="15" t="s">
         <v>19</v>
       </c>
       <c r="B88" s="15"/>
-      <c r="C88" s="19"/>
-      <c r="D88" s="19"/>
-      <c r="E88" s="19"/>
-      <c r="F88" s="19"/>
-      <c r="G88" s="20"/>
-      <c r="H88" s="19" t="s">
-        <v>187</v>
-      </c>
-      <c r="I88" s="19"/>
-      <c r="J88" s="19"/>
-      <c r="K88" s="19"/>
+      <c r="C88" s="17"/>
+      <c r="D88" s="17"/>
+      <c r="E88" s="17"/>
+      <c r="F88" s="17"/>
+      <c r="G88" s="19"/>
+      <c r="H88" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="I88" s="17"/>
+      <c r="J88" s="17"/>
+      <c r="K88" s="17"/>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="15" t="s">
         <v>20</v>
       </c>
       <c r="B89" s="15"/>
-      <c r="C89" s="19"/>
-      <c r="D89" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="E89" s="19"/>
-      <c r="F89" s="19"/>
-      <c r="G89" s="20"/>
-      <c r="H89" s="19"/>
-      <c r="I89" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="J89" s="19"/>
-      <c r="K89" s="19"/>
+      <c r="C89" s="17"/>
+      <c r="D89" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="E89" s="17"/>
+      <c r="F89" s="17"/>
+      <c r="G89" s="19"/>
+      <c r="H89" s="17"/>
+      <c r="I89" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="J89" s="17"/>
+      <c r="K89" s="17"/>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="15" t="s">
         <v>21</v>
       </c>
       <c r="B90" s="15"/>
-      <c r="C90" s="19"/>
-      <c r="D90" s="19" t="s">
-        <v>190</v>
-      </c>
-      <c r="E90" s="19"/>
-      <c r="F90" s="19"/>
-      <c r="G90" s="20"/>
-      <c r="H90" s="19"/>
-      <c r="I90" s="19" t="s">
-        <v>191</v>
-      </c>
-      <c r="J90" s="19"/>
-      <c r="K90" s="19"/>
+      <c r="C90" s="17"/>
+      <c r="D90" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="E90" s="17"/>
+      <c r="F90" s="17"/>
+      <c r="G90" s="19"/>
+      <c r="H90" s="17"/>
+      <c r="I90" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="J90" s="17"/>
+      <c r="K90" s="17"/>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="15" t="s">
         <v>22</v>
       </c>
       <c r="B91" s="15"/>
-      <c r="C91" s="19"/>
-      <c r="D91" s="19"/>
-      <c r="E91" s="19"/>
-      <c r="F91" s="19"/>
-      <c r="G91" s="20"/>
-      <c r="H91" s="19"/>
-      <c r="I91" s="19"/>
-      <c r="J91" s="19"/>
-      <c r="K91" s="19"/>
+      <c r="C91" s="17"/>
+      <c r="D91" s="17"/>
+      <c r="E91" s="17"/>
+      <c r="F91" s="17"/>
+      <c r="G91" s="19"/>
+      <c r="H91" s="17"/>
+      <c r="I91" s="17"/>
+      <c r="J91" s="17"/>
+      <c r="K91" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="175">

--- a/Faculty Time Table-CSE,IT.xlsx
+++ b/Faculty Time Table-CSE,IT.xlsx
@@ -111,96 +111,96 @@
     <t xml:space="preserve">PPS LAB-1A (B2)</t>
   </si>
   <si>
+    <t xml:space="preserve">Mr. ARSofi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPS-1B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPS-CSM-1A  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPS LAB CSM-1A (B2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPS LAB-CSE-1B (B1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPS-CSM-1A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPS LAB CSM-1A (B1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPS LAB - 1B (B2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. B.T.R. Naresh Reddy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OOPC-2B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C++ LAB -CSE -2A (B2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OOPC-2A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C++ LAB -CSE -2B (B2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C++ LAB -CSE -2A (B1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PP-CSM-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C++ LAB -CSE -2B (B1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Ch. Krishna Rao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPS-1D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPS-1C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECSE-1E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPS LAB-1D (B2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPS LAB-1C (B2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPS LAB-1D (B1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPS LAB-1C (B1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms. Gowthami</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECSE-1C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITWS LAB-2C(B2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECSE-1A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITWS LAB -2C(B1)</t>
+  </si>
+  <si>
     <t xml:space="preserve">ITWS LAB -2B(B2)</t>
   </si>
   <si>
-    <t xml:space="preserve">Mr. ARSofi </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PPS-CSM-1A  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PPS-1B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PPS LAB CSM-1A (B2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PPS-CSM-1A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PPS LAB CSM-1A (B1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dr. B.T.R. Naresh Reddy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OOPC-2B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C++ LAB -CSE -2A (B2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OOPC-2A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C++ LAB -CSE -2B (B2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C++ LAB -CSE -2A (B1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PP-CSM-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C++ LAB -CSE -2B (B1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mr. Ch. Krishna Rao</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PPS-1D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PPS-1C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ECSE-1E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PPS LAB-1D (B2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PPS LAB-1C (B2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PPS LAB-1D (B1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PPS LAB-1C (B1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ms. Gowthami</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ECSE-1C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ITWS LAB-2C(B2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PPS LAB - 1B (B1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ECSE-1A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ITWS LAB -2C(B1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PPS LAB - 1B (B2)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ms. Keerthi</t>
   </si>
   <si>
@@ -333,79 +333,79 @@
     <t xml:space="preserve">Ms. Sameena </t>
   </si>
   <si>
+    <t xml:space="preserve">Dr. Saravanan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DS LAB-IT-2 (B1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DS LAB-IT-2 (B2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms. Shilpa </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms. Sowmya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AI-ECE-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms. Srija</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITWS LAB-CSE-2D (B2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITWS LAB -IT-2(B2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITWS LAB-CSE-2D (B1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CPE LAB-ECE-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITWS LAB -IT-2(B1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms. Subhashini </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PP LAB-CSM-2(B2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPS LAB -CSC-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECSE-1D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPS CSM-1B/CS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPS-CSD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPS LAB -CSM-1B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPS LAB-CSD(B1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPS LAB-CSD(B2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms. TV Ramanamma </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITWS LAB-2A(B1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms. Vineela</t>
+  </si>
+  <si>
     <t xml:space="preserve">ITWS LAB 2B(B1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dr. Saravanan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DS LAB-IT-2 (B1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DS LAB-IT-2 (B2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ms. Shilpa </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ITWS LAB -IT-2(B2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ITWS LAB -IT-2(B1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ms. Sowmya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AI-ECE-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ms. Srija</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ITWS LAB-CSE-2D (B2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ITWS LAB-CSE-2D (B1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CPE LAB-ECE-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ms. Subhashini </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PP LAB-CSM-2(B2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PPS LAB -CSC-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ECSE-1D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PPS CSM-1B/CS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PPS-CSD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PPS LAB -CSM-1B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PPS LAB-CSD(B1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PPS LAB-CSD(B2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ms. TV Ramanamma </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ITWS LAB-2A(B1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ms. Vineela</t>
   </si>
   <si>
     <t xml:space="preserve">C++ LAB-IT-2 (B1)</t>
@@ -740,7 +740,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -768,19 +768,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF81D41A"/>
-        <bgColor rgb="FFBBE33D"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD4EA6B"/>
-        <bgColor rgb="FFBBE33D"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFBBE33D"/>
-        <bgColor rgb="FFD4EA6B"/>
+        <bgColor rgb="FF969696"/>
       </patternFill>
     </fill>
   </fills>
@@ -839,7 +827,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -932,6 +920,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -960,10 +952,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -980,6 +968,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -988,7 +980,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1008,12 +1000,16 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1062,7 +1058,7 @@
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFD4EA6B"/>
+      <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
@@ -1070,7 +1066,7 @@
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF81D41A"/>
-      <rgbColor rgb="FFBBE33D"/>
+      <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
@@ -1095,8 +1091,8 @@
   </sheetPr>
   <dimension ref="A1:U1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A148" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D172" activeCellId="0" sqref="D172"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A61" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A84" activeCellId="0" sqref="A84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1755,14 +1751,14 @@
       <c r="B39" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C39" s="17" t="s">
+      <c r="C39" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="D39" s="17"/>
+      <c r="D39" s="23"/>
       <c r="F39" s="19"/>
-      <c r="H39" s="23"/>
-      <c r="I39" s="23"/>
-      <c r="J39" s="23"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="24"/>
+      <c r="J39" s="24"/>
       <c r="L39" s="0"/>
       <c r="M39" s="0"/>
       <c r="N39" s="0"/>
@@ -1778,11 +1774,9 @@
       <c r="A40" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B40" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
       <c r="E40" s="17"/>
       <c r="F40" s="19"/>
       <c r="G40" s="17"/>
@@ -1824,7 +1818,7 @@
     </row>
     <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B43" s="13"/>
       <c r="C43" s="13"/>
@@ -1877,7 +1871,9 @@
       <c r="B45" s="17"/>
       <c r="C45" s="17"/>
       <c r="D45" s="17"/>
-      <c r="E45" s="17"/>
+      <c r="E45" s="23" t="s">
+        <v>29</v>
+      </c>
       <c r="F45" s="19" t="s">
         <v>16</v>
       </c>
@@ -1893,17 +1889,19 @@
         <v>18</v>
       </c>
       <c r="B46" s="17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C46" s="17"/>
       <c r="D46" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E46" s="17"/>
       <c r="F46" s="19"/>
       <c r="G46" s="17"/>
-      <c r="H46" s="17"/>
-      <c r="I46" s="17"/>
+      <c r="H46" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="I46" s="23"/>
       <c r="J46" s="17"/>
       <c r="K46" s="10"/>
     </row>
@@ -1913,10 +1911,10 @@
       </c>
       <c r="B47" s="17"/>
       <c r="C47" s="22"/>
-      <c r="D47" s="24" t="s">
+      <c r="D47" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="E47" s="24"/>
+      <c r="E47" s="25"/>
       <c r="F47" s="19"/>
       <c r="G47" s="17"/>
       <c r="H47" s="18" t="s">
@@ -1932,7 +1930,7 @@
       </c>
       <c r="B48" s="17"/>
       <c r="C48" s="17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D48" s="17"/>
       <c r="E48" s="17"/>
@@ -1949,11 +1947,11 @@
       <c r="A49" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B49" s="17"/>
-      <c r="C49" s="17"/>
-      <c r="D49" s="17" t="s">
-        <v>31</v>
-      </c>
+      <c r="B49" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C49" s="23"/>
+      <c r="D49" s="17"/>
       <c r="E49" s="17"/>
       <c r="F49" s="19"/>
       <c r="G49" s="17"/>
@@ -1980,21 +1978,21 @@
       <c r="K50" s="10"/>
     </row>
     <row r="51" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="25"/>
-      <c r="B51" s="26"/>
-      <c r="C51" s="26"/>
-      <c r="D51" s="26"/>
-      <c r="E51" s="26"/>
-      <c r="F51" s="27"/>
-      <c r="G51" s="26"/>
-      <c r="H51" s="26"/>
-      <c r="I51" s="26"/>
-      <c r="J51" s="26"/>
+      <c r="A51" s="26"/>
+      <c r="B51" s="27"/>
+      <c r="C51" s="27"/>
+      <c r="D51" s="27"/>
+      <c r="E51" s="27"/>
+      <c r="F51" s="28"/>
+      <c r="G51" s="27"/>
+      <c r="H51" s="27"/>
+      <c r="I51" s="27"/>
+      <c r="J51" s="27"/>
       <c r="K51" s="10"/>
     </row>
     <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B52" s="13"/>
       <c r="C52" s="13"/>
@@ -2066,7 +2064,7 @@
       </c>
       <c r="B54" s="18"/>
       <c r="C54" s="18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D54" s="18"/>
       <c r="E54" s="17"/>
@@ -2074,7 +2072,7 @@
         <v>16</v>
       </c>
       <c r="G54" s="17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H54" s="17"/>
       <c r="I54" s="17"/>
@@ -2097,15 +2095,15 @@
       </c>
       <c r="B55" s="18"/>
       <c r="C55" s="18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D55" s="18"/>
       <c r="E55" s="17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F55" s="19"/>
       <c r="G55" s="17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H55" s="17"/>
       <c r="I55" s="17"/>
@@ -2127,18 +2125,18 @@
         <v>19</v>
       </c>
       <c r="B56" s="17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C56" s="17"/>
       <c r="D56" s="17"/>
       <c r="E56" s="17"/>
       <c r="F56" s="19"/>
       <c r="G56" s="17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H56" s="17"/>
       <c r="I56" s="17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J56" s="17"/>
       <c r="K56" s="10"/>
@@ -2158,17 +2156,17 @@
         <v>20</v>
       </c>
       <c r="B57" s="17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C57" s="17"/>
       <c r="D57" s="17"/>
       <c r="E57" s="17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F57" s="19"/>
       <c r="G57" s="17"/>
       <c r="H57" s="17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I57" s="17"/>
       <c r="J57" s="17"/>
@@ -2189,18 +2187,18 @@
         <v>21</v>
       </c>
       <c r="B58" s="17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C58" s="17"/>
       <c r="D58" s="17"/>
       <c r="E58" s="17"/>
       <c r="F58" s="19"/>
       <c r="G58" s="17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H58" s="17"/>
       <c r="I58" s="17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J58" s="17"/>
       <c r="K58" s="10"/>
@@ -2220,7 +2218,7 @@
         <v>22</v>
       </c>
       <c r="B59" s="17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C59" s="17"/>
       <c r="D59" s="17"/>
@@ -2243,21 +2241,21 @@
       <c r="U59" s="0"/>
     </row>
     <row r="60" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="25"/>
-      <c r="B60" s="26"/>
-      <c r="C60" s="26"/>
-      <c r="D60" s="26"/>
-      <c r="E60" s="26"/>
-      <c r="F60" s="28"/>
-      <c r="G60" s="26"/>
-      <c r="H60" s="26"/>
-      <c r="I60" s="26"/>
-      <c r="J60" s="26"/>
+      <c r="A60" s="26"/>
+      <c r="B60" s="27"/>
+      <c r="C60" s="27"/>
+      <c r="D60" s="27"/>
+      <c r="E60" s="27"/>
+      <c r="F60" s="29"/>
+      <c r="G60" s="27"/>
+      <c r="H60" s="27"/>
+      <c r="I60" s="27"/>
+      <c r="J60" s="27"/>
       <c r="K60" s="10"/>
     </row>
     <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B61" s="13"/>
       <c r="C61" s="13"/>
@@ -2328,11 +2326,11 @@
         <v>15</v>
       </c>
       <c r="B63" s="17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C63" s="18"/>
       <c r="D63" s="17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E63" s="17"/>
       <c r="F63" s="19" t="s">
@@ -2340,7 +2338,7 @@
       </c>
       <c r="G63" s="17"/>
       <c r="H63" s="17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I63" s="22"/>
       <c r="J63" s="17"/>
@@ -2363,14 +2361,14 @@
       <c r="B64" s="17"/>
       <c r="C64" s="17"/>
       <c r="D64" s="17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" s="19"/>
       <c r="G64" s="17"/>
       <c r="H64" s="17"/>
       <c r="I64" s="22"/>
       <c r="J64" s="17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K64" s="10"/>
       <c r="L64" s="0"/>
@@ -2389,14 +2387,14 @@
         <v>19</v>
       </c>
       <c r="B65" s="17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C65" s="17"/>
       <c r="D65" s="17"/>
       <c r="E65" s="18"/>
       <c r="F65" s="19"/>
       <c r="G65" s="17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H65" s="17"/>
       <c r="I65" s="18"/>
@@ -2418,14 +2416,14 @@
         <v>20</v>
       </c>
       <c r="B66" s="17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D66" s="17"/>
       <c r="E66" s="17"/>
       <c r="F66" s="19"/>
       <c r="G66" s="21"/>
       <c r="H66" s="17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I66" s="17"/>
       <c r="J66" s="18"/>
@@ -2447,18 +2445,18 @@
       </c>
       <c r="B67" s="17"/>
       <c r="C67" s="17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D67" s="17"/>
       <c r="E67" s="17"/>
       <c r="F67" s="19"/>
       <c r="G67" s="17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H67" s="17"/>
       <c r="I67" s="21"/>
       <c r="J67" s="17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K67" s="10"/>
       <c r="L67" s="0"/>
@@ -2498,31 +2496,31 @@
       <c r="U68" s="0"/>
     </row>
     <row r="69" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A69" s="25"/>
-      <c r="B69" s="26"/>
-      <c r="C69" s="26"/>
-      <c r="D69" s="26"/>
-      <c r="E69" s="26"/>
-      <c r="F69" s="28"/>
-      <c r="G69" s="26"/>
-      <c r="H69" s="26"/>
-      <c r="I69" s="26"/>
-      <c r="J69" s="26"/>
+      <c r="A69" s="26"/>
+      <c r="B69" s="27"/>
+      <c r="C69" s="27"/>
+      <c r="D69" s="27"/>
+      <c r="E69" s="27"/>
+      <c r="F69" s="29"/>
+      <c r="G69" s="27"/>
+      <c r="H69" s="27"/>
+      <c r="I69" s="27"/>
+      <c r="J69" s="27"/>
       <c r="K69" s="10"/>
-      <c r="L69" s="25"/>
-      <c r="M69" s="26"/>
-      <c r="N69" s="26"/>
-      <c r="O69" s="26"/>
-      <c r="P69" s="26"/>
-      <c r="Q69" s="28"/>
-      <c r="R69" s="26"/>
-      <c r="S69" s="26"/>
-      <c r="T69" s="26"/>
-      <c r="U69" s="26"/>
+      <c r="L69" s="26"/>
+      <c r="M69" s="27"/>
+      <c r="N69" s="27"/>
+      <c r="O69" s="27"/>
+      <c r="P69" s="27"/>
+      <c r="Q69" s="29"/>
+      <c r="R69" s="27"/>
+      <c r="S69" s="27"/>
+      <c r="T69" s="27"/>
+      <c r="U69" s="27"/>
     </row>
     <row r="70" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B70" s="13"/>
       <c r="C70" s="13"/>
@@ -2594,7 +2592,7 @@
       </c>
       <c r="B72" s="17"/>
       <c r="C72" s="17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E72" s="18"/>
       <c r="F72" s="19" t="s">
@@ -2602,7 +2600,7 @@
       </c>
       <c r="G72" s="17"/>
       <c r="H72" s="17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I72" s="17"/>
       <c r="J72" s="17"/>
@@ -2623,16 +2621,14 @@
         <v>18</v>
       </c>
       <c r="B73" s="17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C73" s="22"/>
       <c r="D73" s="17"/>
       <c r="E73" s="17"/>
       <c r="F73" s="19"/>
-      <c r="H73" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="I73" s="17"/>
+      <c r="H73" s="23"/>
+      <c r="I73" s="23"/>
       <c r="J73" s="17"/>
       <c r="K73" s="10"/>
       <c r="L73" s="0"/>
@@ -2702,11 +2698,11 @@
       <c r="A76" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B76" s="17" t="s">
+      <c r="B76" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="C76" s="17"/>
-      <c r="D76" s="18"/>
+      <c r="C76" s="23"/>
+      <c r="D76" s="23"/>
       <c r="E76" s="17" t="s">
         <v>55</v>
       </c>
@@ -2752,16 +2748,16 @@
       <c r="U77" s="0"/>
     </row>
     <row r="78" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A78" s="25"/>
-      <c r="B78" s="26"/>
-      <c r="C78" s="26"/>
-      <c r="D78" s="26"/>
-      <c r="E78" s="26"/>
-      <c r="F78" s="28"/>
-      <c r="G78" s="26"/>
-      <c r="H78" s="26"/>
-      <c r="I78" s="26"/>
-      <c r="J78" s="26"/>
+      <c r="A78" s="26"/>
+      <c r="B78" s="27"/>
+      <c r="C78" s="27"/>
+      <c r="D78" s="27"/>
+      <c r="E78" s="27"/>
+      <c r="F78" s="29"/>
+      <c r="G78" s="27"/>
+      <c r="H78" s="27"/>
+      <c r="I78" s="27"/>
+      <c r="J78" s="27"/>
       <c r="K78" s="10"/>
     </row>
     <row r="79" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2926,16 +2922,16 @@
       <c r="K86" s="10"/>
     </row>
     <row r="87" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A87" s="25"/>
-      <c r="B87" s="26"/>
-      <c r="C87" s="26"/>
-      <c r="D87" s="26"/>
-      <c r="E87" s="26"/>
-      <c r="F87" s="28"/>
-      <c r="G87" s="26"/>
-      <c r="H87" s="26"/>
-      <c r="I87" s="26"/>
-      <c r="J87" s="26"/>
+      <c r="A87" s="26"/>
+      <c r="B87" s="27"/>
+      <c r="C87" s="27"/>
+      <c r="D87" s="27"/>
+      <c r="E87" s="27"/>
+      <c r="F87" s="29"/>
+      <c r="G87" s="27"/>
+      <c r="H87" s="27"/>
+      <c r="I87" s="27"/>
+      <c r="J87" s="27"/>
       <c r="K87" s="10"/>
     </row>
     <row r="88" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3019,11 +3015,11 @@
       <c r="F90" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="G90" s="29"/>
-      <c r="H90" s="30" t="s">
+      <c r="G90" s="30"/>
+      <c r="H90" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="I90" s="30"/>
+      <c r="I90" s="23"/>
       <c r="J90" s="17"/>
       <c r="K90" s="10"/>
       <c r="L90" s="0"/>
@@ -3185,27 +3181,27 @@
       <c r="U95" s="0"/>
     </row>
     <row r="96" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A96" s="25"/>
-      <c r="B96" s="26"/>
-      <c r="C96" s="26"/>
-      <c r="D96" s="26"/>
-      <c r="E96" s="26"/>
-      <c r="F96" s="28"/>
-      <c r="G96" s="26"/>
-      <c r="H96" s="26"/>
-      <c r="I96" s="26"/>
-      <c r="J96" s="26"/>
+      <c r="A96" s="26"/>
+      <c r="B96" s="27"/>
+      <c r="C96" s="27"/>
+      <c r="D96" s="27"/>
+      <c r="E96" s="27"/>
+      <c r="F96" s="29"/>
+      <c r="G96" s="27"/>
+      <c r="H96" s="27"/>
+      <c r="I96" s="27"/>
+      <c r="J96" s="27"/>
       <c r="K96" s="10"/>
-      <c r="L96" s="25"/>
-      <c r="M96" s="26"/>
-      <c r="N96" s="26"/>
-      <c r="O96" s="26"/>
-      <c r="P96" s="26"/>
-      <c r="Q96" s="28"/>
-      <c r="R96" s="26"/>
-      <c r="S96" s="26"/>
-      <c r="T96" s="26"/>
-      <c r="U96" s="26"/>
+      <c r="L96" s="26"/>
+      <c r="M96" s="27"/>
+      <c r="N96" s="27"/>
+      <c r="O96" s="27"/>
+      <c r="P96" s="27"/>
+      <c r="Q96" s="29"/>
+      <c r="R96" s="27"/>
+      <c r="S96" s="27"/>
+      <c r="T96" s="27"/>
+      <c r="U96" s="27"/>
     </row>
     <row r="97" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="12" t="s">
@@ -3421,26 +3417,26 @@
       <c r="U104" s="0"/>
     </row>
     <row r="105" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A105" s="25"/>
-      <c r="B105" s="26"/>
-      <c r="C105" s="26"/>
-      <c r="D105" s="26"/>
-      <c r="E105" s="26"/>
-      <c r="F105" s="28"/>
-      <c r="G105" s="26"/>
-      <c r="H105" s="26"/>
-      <c r="I105" s="26"/>
-      <c r="J105" s="26"/>
-      <c r="L105" s="25"/>
-      <c r="M105" s="26"/>
-      <c r="N105" s="26"/>
-      <c r="O105" s="26"/>
-      <c r="P105" s="26"/>
-      <c r="Q105" s="28"/>
-      <c r="R105" s="26"/>
-      <c r="S105" s="26"/>
-      <c r="T105" s="26"/>
-      <c r="U105" s="26"/>
+      <c r="A105" s="26"/>
+      <c r="B105" s="27"/>
+      <c r="C105" s="27"/>
+      <c r="D105" s="27"/>
+      <c r="E105" s="27"/>
+      <c r="F105" s="29"/>
+      <c r="G105" s="27"/>
+      <c r="H105" s="27"/>
+      <c r="I105" s="27"/>
+      <c r="J105" s="27"/>
+      <c r="L105" s="26"/>
+      <c r="M105" s="27"/>
+      <c r="N105" s="27"/>
+      <c r="O105" s="27"/>
+      <c r="P105" s="27"/>
+      <c r="Q105" s="29"/>
+      <c r="R105" s="27"/>
+      <c r="S105" s="27"/>
+      <c r="T105" s="27"/>
+      <c r="U105" s="27"/>
     </row>
     <row r="106" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="12" t="s">
@@ -3659,16 +3655,16 @@
       <c r="U113" s="0"/>
     </row>
     <row r="114" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A114" s="25"/>
-      <c r="B114" s="26"/>
-      <c r="C114" s="26"/>
-      <c r="D114" s="26"/>
-      <c r="E114" s="26"/>
-      <c r="F114" s="28"/>
-      <c r="G114" s="26"/>
-      <c r="H114" s="26"/>
-      <c r="I114" s="26"/>
-      <c r="J114" s="26"/>
+      <c r="A114" s="26"/>
+      <c r="B114" s="27"/>
+      <c r="C114" s="27"/>
+      <c r="D114" s="27"/>
+      <c r="E114" s="27"/>
+      <c r="F114" s="29"/>
+      <c r="G114" s="27"/>
+      <c r="H114" s="27"/>
+      <c r="I114" s="27"/>
+      <c r="J114" s="27"/>
     </row>
     <row r="115" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="12" t="s">
@@ -3830,16 +3826,16 @@
       <c r="J122" s="17"/>
     </row>
     <row r="123" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A123" s="25"/>
-      <c r="B123" s="26"/>
-      <c r="C123" s="26"/>
-      <c r="D123" s="26"/>
-      <c r="E123" s="26"/>
-      <c r="F123" s="28"/>
-      <c r="G123" s="26"/>
-      <c r="H123" s="26"/>
-      <c r="I123" s="26"/>
-      <c r="J123" s="26"/>
+      <c r="A123" s="26"/>
+      <c r="B123" s="27"/>
+      <c r="C123" s="27"/>
+      <c r="D123" s="27"/>
+      <c r="E123" s="27"/>
+      <c r="F123" s="29"/>
+      <c r="G123" s="27"/>
+      <c r="H123" s="27"/>
+      <c r="I123" s="27"/>
+      <c r="J123" s="27"/>
     </row>
     <row r="124" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="12" t="s">
@@ -3994,16 +3990,16 @@
       <c r="J131" s="17"/>
     </row>
     <row r="132" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A132" s="25"/>
-      <c r="B132" s="26"/>
-      <c r="C132" s="26"/>
-      <c r="D132" s="26"/>
-      <c r="E132" s="26"/>
-      <c r="F132" s="28"/>
-      <c r="G132" s="26"/>
-      <c r="H132" s="26"/>
-      <c r="I132" s="26"/>
-      <c r="J132" s="26"/>
+      <c r="A132" s="26"/>
+      <c r="B132" s="27"/>
+      <c r="C132" s="27"/>
+      <c r="D132" s="27"/>
+      <c r="E132" s="27"/>
+      <c r="F132" s="29"/>
+      <c r="G132" s="27"/>
+      <c r="H132" s="27"/>
+      <c r="I132" s="27"/>
+      <c r="J132" s="27"/>
     </row>
     <row r="133" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A133" s="12" t="s">
@@ -4084,7 +4080,7 @@
       </c>
       <c r="G135" s="17"/>
       <c r="H135" s="17"/>
-      <c r="J135" s="24"/>
+      <c r="J135" s="25"/>
       <c r="L135" s="0"/>
       <c r="M135" s="0"/>
       <c r="N135" s="0"/>
@@ -4103,7 +4099,7 @@
       <c r="B136" s="17"/>
       <c r="C136" s="17"/>
       <c r="D136" s="17"/>
-      <c r="E136" s="24"/>
+      <c r="E136" s="25"/>
       <c r="F136" s="19"/>
       <c r="G136" s="17" t="s">
         <v>95</v>
@@ -4133,7 +4129,7 @@
       <c r="D137" s="17"/>
       <c r="E137" s="17"/>
       <c r="F137" s="19"/>
-      <c r="G137" s="24" t="s">
+      <c r="G137" s="25" t="s">
         <v>97</v>
       </c>
       <c r="H137" s="22"/>
@@ -4154,7 +4150,7 @@
       <c r="A138" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B138" s="24" t="s">
+      <c r="B138" s="25" t="s">
         <v>98</v>
       </c>
       <c r="C138" s="17"/>
@@ -4165,8 +4161,8 @@
       <c r="H138" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="I138" s="24"/>
-      <c r="J138" s="24" t="s">
+      <c r="I138" s="25"/>
+      <c r="J138" s="25" t="s">
         <v>99</v>
       </c>
       <c r="L138" s="0"/>
@@ -4186,7 +4182,7 @@
       </c>
       <c r="B139" s="17"/>
       <c r="C139" s="17"/>
-      <c r="D139" s="24"/>
+      <c r="D139" s="25"/>
       <c r="E139" s="17"/>
       <c r="F139" s="19"/>
       <c r="G139" s="17"/>
@@ -4241,16 +4237,16 @@
       <c r="H141" s="0"/>
       <c r="I141" s="0"/>
       <c r="J141" s="0"/>
-      <c r="L141" s="25"/>
-      <c r="M141" s="26"/>
-      <c r="N141" s="26"/>
-      <c r="O141" s="26"/>
-      <c r="P141" s="26"/>
-      <c r="Q141" s="28"/>
-      <c r="R141" s="26"/>
-      <c r="S141" s="26"/>
-      <c r="T141" s="26"/>
-      <c r="U141" s="26"/>
+      <c r="L141" s="26"/>
+      <c r="M141" s="27"/>
+      <c r="N141" s="27"/>
+      <c r="O141" s="27"/>
+      <c r="P141" s="27"/>
+      <c r="Q141" s="29"/>
+      <c r="R141" s="27"/>
+      <c r="S141" s="27"/>
+      <c r="T141" s="27"/>
+      <c r="U141" s="27"/>
     </row>
     <row r="142" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="12" t="s">
@@ -4329,11 +4325,9 @@
       <c r="F144" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="G144" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="H144" s="17"/>
-      <c r="I144" s="17"/>
+      <c r="G144" s="23"/>
+      <c r="H144" s="23"/>
+      <c r="I144" s="23"/>
       <c r="J144" s="17"/>
       <c r="L144" s="0"/>
       <c r="M144" s="0"/>
@@ -4467,20 +4461,20 @@
       <c r="U149" s="0"/>
     </row>
     <row r="150" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A150" s="25"/>
-      <c r="B150" s="26"/>
-      <c r="C150" s="26"/>
-      <c r="D150" s="26"/>
-      <c r="E150" s="26"/>
-      <c r="F150" s="28"/>
-      <c r="G150" s="26"/>
-      <c r="H150" s="26"/>
-      <c r="I150" s="26"/>
-      <c r="J150" s="26"/>
+      <c r="A150" s="26"/>
+      <c r="B150" s="27"/>
+      <c r="C150" s="27"/>
+      <c r="D150" s="27"/>
+      <c r="E150" s="27"/>
+      <c r="F150" s="29"/>
+      <c r="G150" s="27"/>
+      <c r="H150" s="27"/>
+      <c r="I150" s="27"/>
+      <c r="J150" s="27"/>
     </row>
     <row r="151" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A151" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B151" s="13"/>
       <c r="C151" s="13"/>
@@ -4531,7 +4525,7 @@
       </c>
       <c r="B153" s="17"/>
       <c r="C153" s="17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D153" s="17"/>
       <c r="E153" s="17"/>
@@ -4577,7 +4571,7 @@
         <v>20</v>
       </c>
       <c r="B156" s="17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C156" s="17"/>
       <c r="D156" s="17"/>
@@ -4621,7 +4615,7 @@
     <row r="159" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="160" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A160" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B160" s="13"/>
       <c r="C160" s="13"/>
@@ -4687,11 +4681,9 @@
       <c r="A163" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B163" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="C163" s="21"/>
-      <c r="D163" s="21"/>
+      <c r="B163" s="35"/>
+      <c r="C163" s="35"/>
+      <c r="D163" s="35"/>
       <c r="E163" s="17"/>
       <c r="F163" s="19"/>
       <c r="G163" s="17"/>
@@ -4716,11 +4708,9 @@
       <c r="A165" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B165" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="C165" s="21"/>
-      <c r="D165" s="21"/>
+      <c r="B165" s="35"/>
+      <c r="C165" s="35"/>
+      <c r="D165" s="35"/>
       <c r="E165" s="17"/>
       <c r="F165" s="19"/>
       <c r="G165" s="21"/>
@@ -4760,7 +4750,7 @@
     <row r="168" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="169" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A169" s="12" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B169" s="13"/>
       <c r="C169" s="13"/>
@@ -4832,7 +4822,7 @@
       <c r="C171" s="17"/>
       <c r="D171" s="17"/>
       <c r="E171" s="17" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F171" s="19" t="s">
         <v>16</v>
@@ -4886,7 +4876,7 @@
       <c r="E173" s="17"/>
       <c r="F173" s="19"/>
       <c r="G173" s="17" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H173" s="17"/>
       <c r="I173" s="17"/>
@@ -4910,7 +4900,7 @@
       <c r="C174" s="17"/>
       <c r="D174" s="17"/>
       <c r="E174" s="17" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F174" s="19"/>
       <c r="G174" s="17"/>
@@ -4991,7 +4981,7 @@
     </row>
     <row r="178" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A178" s="12" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B178" s="13"/>
       <c r="C178" s="13"/>
@@ -5042,7 +5032,7 @@
         <v>15</v>
       </c>
       <c r="B180" s="17" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C180" s="17"/>
       <c r="D180" s="17"/>
@@ -5059,9 +5049,11 @@
       <c r="A181" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B181" s="22"/>
-      <c r="C181" s="22"/>
-      <c r="D181" s="17"/>
+      <c r="B181" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="C181" s="35"/>
+      <c r="D181" s="35"/>
       <c r="E181" s="17"/>
       <c r="F181" s="19"/>
       <c r="G181" s="17"/>
@@ -5074,7 +5066,7 @@
         <v>19</v>
       </c>
       <c r="B182" s="21" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C182" s="21"/>
       <c r="D182" s="21"/>
@@ -5083,7 +5075,7 @@
       <c r="G182" s="17"/>
       <c r="H182" s="17"/>
       <c r="I182" s="17" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J182" s="17"/>
       <c r="L182" s="1"/>
@@ -5092,9 +5084,11 @@
       <c r="A183" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B183" s="21"/>
-      <c r="C183" s="21"/>
-      <c r="D183" s="21"/>
+      <c r="B183" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="C183" s="35"/>
+      <c r="D183" s="35"/>
       <c r="E183" s="17"/>
       <c r="F183" s="19"/>
       <c r="G183" s="17"/>
@@ -5132,20 +5126,20 @@
       <c r="J185" s="17"/>
     </row>
     <row r="186" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A186" s="25"/>
-      <c r="B186" s="26"/>
-      <c r="C186" s="26"/>
-      <c r="D186" s="26"/>
-      <c r="E186" s="26"/>
-      <c r="F186" s="28"/>
-      <c r="G186" s="26"/>
-      <c r="H186" s="26"/>
-      <c r="I186" s="26"/>
-      <c r="J186" s="26"/>
+      <c r="A186" s="26"/>
+      <c r="B186" s="27"/>
+      <c r="C186" s="27"/>
+      <c r="D186" s="27"/>
+      <c r="E186" s="27"/>
+      <c r="F186" s="29"/>
+      <c r="G186" s="27"/>
+      <c r="H186" s="27"/>
+      <c r="I186" s="27"/>
+      <c r="J186" s="27"/>
     </row>
     <row r="187" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A187" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B187" s="13"/>
       <c r="C187" s="13"/>
@@ -5196,7 +5190,7 @@
         <v>15</v>
       </c>
       <c r="B189" s="17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C189" s="17"/>
       <c r="D189" s="17"/>
@@ -5205,11 +5199,11 @@
         <v>16</v>
       </c>
       <c r="G189" s="17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H189" s="17"/>
       <c r="J189" s="17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="190" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5217,19 +5211,19 @@
         <v>18</v>
       </c>
       <c r="B190" s="17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C190" s="17"/>
       <c r="D190" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E190" s="17"/>
       <c r="F190" s="19"/>
       <c r="G190" s="18"/>
-      <c r="H190" s="35" t="s">
-        <v>121</v>
-      </c>
-      <c r="I190" s="35"/>
+      <c r="H190" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="I190" s="36"/>
       <c r="J190" s="22"/>
     </row>
     <row r="191" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5238,13 +5232,13 @@
       </c>
       <c r="B191" s="17"/>
       <c r="C191" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D191" s="17"/>
       <c r="E191" s="22"/>
       <c r="F191" s="19"/>
-      <c r="G191" s="24" t="s">
-        <v>119</v>
+      <c r="G191" s="25" t="s">
+        <v>118</v>
       </c>
       <c r="I191" s="17"/>
       <c r="J191" s="17"/>
@@ -5255,17 +5249,17 @@
       </c>
       <c r="B192" s="17"/>
       <c r="C192" s="17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D192" s="17"/>
       <c r="E192" s="22"/>
       <c r="F192" s="19"/>
       <c r="G192" s="17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H192" s="22"/>
       <c r="I192" s="18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J192" s="17"/>
     </row>
@@ -5273,18 +5267,18 @@
       <c r="A193" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B193" s="24" t="s">
-        <v>119</v>
+      <c r="B193" s="25" t="s">
+        <v>118</v>
       </c>
       <c r="C193" s="17"/>
       <c r="D193" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E193" s="17"/>
       <c r="F193" s="19"/>
       <c r="G193" s="22"/>
       <c r="H193" s="17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I193" s="17"/>
       <c r="J193" s="22"/>
@@ -5304,20 +5298,20 @@
       <c r="J194" s="17"/>
     </row>
     <row r="195" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A195" s="25"/>
-      <c r="B195" s="26"/>
-      <c r="C195" s="26"/>
-      <c r="D195" s="26"/>
-      <c r="E195" s="26"/>
-      <c r="F195" s="28"/>
-      <c r="G195" s="26"/>
-      <c r="H195" s="26"/>
-      <c r="I195" s="26"/>
-      <c r="J195" s="26"/>
+      <c r="A195" s="26"/>
+      <c r="B195" s="27"/>
+      <c r="C195" s="27"/>
+      <c r="D195" s="27"/>
+      <c r="E195" s="27"/>
+      <c r="F195" s="29"/>
+      <c r="G195" s="27"/>
+      <c r="H195" s="27"/>
+      <c r="I195" s="27"/>
+      <c r="J195" s="27"/>
     </row>
     <row r="196" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A196" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B196" s="13"/>
       <c r="C196" s="13"/>
@@ -5426,7 +5420,7 @@
         <v>21</v>
       </c>
       <c r="B202" s="17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C202" s="17"/>
       <c r="D202" s="17"/>
@@ -5452,20 +5446,20 @@
       <c r="J203" s="17"/>
     </row>
     <row r="204" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A204" s="25"/>
-      <c r="B204" s="26"/>
-      <c r="C204" s="26"/>
-      <c r="D204" s="26"/>
-      <c r="E204" s="26"/>
-      <c r="F204" s="28"/>
-      <c r="G204" s="26"/>
-      <c r="H204" s="26"/>
-      <c r="I204" s="26"/>
-      <c r="J204" s="26"/>
+      <c r="A204" s="26"/>
+      <c r="B204" s="27"/>
+      <c r="C204" s="27"/>
+      <c r="D204" s="27"/>
+      <c r="E204" s="27"/>
+      <c r="F204" s="29"/>
+      <c r="G204" s="27"/>
+      <c r="H204" s="27"/>
+      <c r="I204" s="27"/>
+      <c r="J204" s="27"/>
     </row>
     <row r="205" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A205" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B205" s="13"/>
       <c r="C205" s="13"/>
@@ -5522,9 +5516,11 @@
       <c r="F207" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="G207" s="17"/>
-      <c r="H207" s="17"/>
-      <c r="I207" s="17"/>
+      <c r="G207" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="H207" s="23"/>
+      <c r="I207" s="23"/>
       <c r="J207" s="17"/>
     </row>
     <row r="208" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5610,16 +5606,16 @@
       <c r="J212" s="17"/>
     </row>
     <row r="213" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A213" s="25"/>
-      <c r="B213" s="26"/>
-      <c r="C213" s="26"/>
-      <c r="D213" s="26"/>
-      <c r="E213" s="26"/>
-      <c r="F213" s="28"/>
-      <c r="G213" s="26"/>
-      <c r="H213" s="26"/>
-      <c r="I213" s="26"/>
-      <c r="J213" s="26"/>
+      <c r="A213" s="26"/>
+      <c r="B213" s="27"/>
+      <c r="C213" s="27"/>
+      <c r="D213" s="27"/>
+      <c r="E213" s="27"/>
+      <c r="F213" s="29"/>
+      <c r="G213" s="27"/>
+      <c r="H213" s="27"/>
+      <c r="I213" s="27"/>
+      <c r="J213" s="27"/>
     </row>
     <row r="214" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A214" s="12" t="s">
@@ -5780,16 +5776,16 @@
       <c r="J221" s="17"/>
     </row>
     <row r="222" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A222" s="25"/>
-      <c r="B222" s="26"/>
-      <c r="C222" s="26"/>
-      <c r="D222" s="26"/>
-      <c r="E222" s="26"/>
-      <c r="F222" s="28"/>
-      <c r="G222" s="26"/>
-      <c r="H222" s="26"/>
-      <c r="I222" s="26"/>
-      <c r="J222" s="26"/>
+      <c r="A222" s="26"/>
+      <c r="B222" s="27"/>
+      <c r="C222" s="27"/>
+      <c r="D222" s="27"/>
+      <c r="E222" s="27"/>
+      <c r="F222" s="29"/>
+      <c r="G222" s="27"/>
+      <c r="H222" s="27"/>
+      <c r="I222" s="27"/>
+      <c r="J222" s="27"/>
     </row>
     <row r="1048452" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048453" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -5917,7 +5913,7 @@
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="171">
+  <mergeCells count="172">
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A3:J3"/>
     <mergeCell ref="A5:J5"/>
@@ -5940,15 +5936,15 @@
     <mergeCell ref="H39:J39"/>
     <mergeCell ref="B40:D40"/>
     <mergeCell ref="D41:E41"/>
-    <mergeCell ref="C45:E45"/>
     <mergeCell ref="F45:F50"/>
     <mergeCell ref="H45:I45"/>
     <mergeCell ref="D46:E46"/>
-    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="H46:I46"/>
     <mergeCell ref="D47:E47"/>
     <mergeCell ref="I47:J47"/>
     <mergeCell ref="C48:D48"/>
     <mergeCell ref="H48:I48"/>
+    <mergeCell ref="B49:C49"/>
     <mergeCell ref="F54:F59"/>
     <mergeCell ref="G54:I54"/>
     <mergeCell ref="G55:I55"/>
@@ -5970,7 +5966,7 @@
     <mergeCell ref="H74:J74"/>
     <mergeCell ref="B75:D75"/>
     <mergeCell ref="H75:J75"/>
-    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B76:D76"/>
     <mergeCell ref="H76:I76"/>
     <mergeCell ref="B81:C81"/>
     <mergeCell ref="F81:F86"/>
@@ -6054,6 +6050,7 @@
     <mergeCell ref="F171:F176"/>
     <mergeCell ref="B180:D180"/>
     <mergeCell ref="F180:F185"/>
+    <mergeCell ref="B181:D181"/>
     <mergeCell ref="H181:I181"/>
     <mergeCell ref="B182:D182"/>
     <mergeCell ref="I182:J182"/>
@@ -6081,7 +6078,7 @@
     <mergeCell ref="G203:H203"/>
     <mergeCell ref="C207:D207"/>
     <mergeCell ref="F207:F212"/>
-    <mergeCell ref="G207:H207"/>
+    <mergeCell ref="G207:I207"/>
     <mergeCell ref="B208:D208"/>
     <mergeCell ref="G210:I210"/>
     <mergeCell ref="G211:H211"/>
@@ -6107,8 +6104,8 @@
   </sheetPr>
   <dimension ref="A1:Q91"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I70" activeCellId="0" sqref="I70"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A42" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G66" activeCellId="0" sqref="G66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6201,7 +6198,7 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
-      <c r="J6" s="36"/>
+      <c r="J6" s="37"/>
       <c r="K6" s="6"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6249,24 +6246,24 @@
       </c>
       <c r="B8" s="15"/>
       <c r="C8" s="17"/>
-      <c r="D8" s="37" t="s">
+      <c r="D8" s="38" t="s">
         <v>136</v>
       </c>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
       <c r="G8" s="19" t="s">
         <v>16</v>
       </c>
       <c r="H8" s="17"/>
       <c r="I8" s="17"/>
       <c r="J8" s="17"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="38"/>
-      <c r="M8" s="38"/>
-      <c r="N8" s="38"/>
-      <c r="O8" s="38"/>
-      <c r="P8" s="38"/>
-      <c r="Q8" s="38"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="39"/>
+      <c r="N8" s="39"/>
+      <c r="O8" s="39"/>
+      <c r="P8" s="39"/>
+      <c r="Q8" s="39"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="15" t="s">
@@ -6281,13 +6278,13 @@
       <c r="H9" s="17"/>
       <c r="I9" s="17"/>
       <c r="J9" s="17"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="39"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="40"/>
       <c r="N9" s="2"/>
-      <c r="O9" s="26"/>
-      <c r="P9" s="26"/>
-      <c r="Q9" s="26"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="27"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="15" t="s">
@@ -6302,38 +6299,38 @@
       <c r="H10" s="17"/>
       <c r="I10" s="17"/>
       <c r="J10" s="17"/>
-      <c r="K10" s="24" t="s">
+      <c r="K10" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="L10" s="26"/>
-      <c r="M10" s="39"/>
-      <c r="N10" s="26"/>
-      <c r="O10" s="26"/>
-      <c r="P10" s="26"/>
-      <c r="Q10" s="26"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="27"/>
+      <c r="P10" s="27"/>
+      <c r="Q10" s="27"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="15" t="s">
         <v>20</v>
       </c>
       <c r="B11" s="15"/>
-      <c r="C11" s="37" t="s">
+      <c r="C11" s="38" t="s">
         <v>137</v>
       </c>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
       <c r="F11" s="17"/>
       <c r="G11" s="19"/>
       <c r="H11" s="17"/>
       <c r="I11" s="17"/>
       <c r="J11" s="17"/>
-      <c r="K11" s="40"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="39"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="41"/>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="41"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="42"/>
+      <c r="P11" s="27"/>
+      <c r="Q11" s="42"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="15" t="s">
@@ -6348,13 +6345,13 @@
       <c r="H12" s="17"/>
       <c r="I12" s="17"/>
       <c r="J12" s="17"/>
-      <c r="K12" s="40"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="39"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="26"/>
-      <c r="P12" s="26"/>
-      <c r="Q12" s="41"/>
+      <c r="K12" s="41"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="40"/>
+      <c r="N12" s="27"/>
+      <c r="O12" s="27"/>
+      <c r="P12" s="27"/>
+      <c r="Q12" s="42"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="15" t="s">
@@ -6369,13 +6366,13 @@
       <c r="H13" s="17"/>
       <c r="I13" s="17"/>
       <c r="J13" s="17"/>
-      <c r="K13" s="40"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="39"/>
+      <c r="K13" s="41"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="40"/>
       <c r="N13" s="2"/>
-      <c r="O13" s="26"/>
-      <c r="P13" s="26"/>
-      <c r="Q13" s="26"/>
+      <c r="O13" s="27"/>
+      <c r="P13" s="27"/>
+      <c r="Q13" s="27"/>
     </row>
     <row r="14" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="12" t="s">
@@ -6388,15 +6385,15 @@
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="36"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="37"/>
       <c r="K14" s="6"/>
-      <c r="L14" s="26"/>
-      <c r="M14" s="39"/>
-      <c r="N14" s="26"/>
-      <c r="O14" s="26"/>
-      <c r="P14" s="26"/>
-      <c r="Q14" s="26"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="27"/>
+      <c r="P14" s="27"/>
+      <c r="Q14" s="27"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="15" t="s">
@@ -6436,12 +6433,12 @@
         <v>15</v>
       </c>
       <c r="B16" s="15"/>
-      <c r="C16" s="40" t="s">
+      <c r="C16" s="41" t="s">
         <v>139</v>
       </c>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="42"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="44"/>
       <c r="G16" s="19" t="s">
         <v>16</v>
       </c>
@@ -6450,18 +6447,18 @@
       </c>
       <c r="I16" s="17"/>
       <c r="J16" s="17"/>
-      <c r="K16" s="42"/>
+      <c r="K16" s="44"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="15" t="s">
         <v>18</v>
       </c>
       <c r="B17" s="15"/>
-      <c r="C17" s="40" t="s">
+      <c r="C17" s="41" t="s">
         <v>141</v>
       </c>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
       <c r="G17" s="19"/>
       <c r="H17" s="17"/>
       <c r="I17" s="17"/>
@@ -6473,7 +6470,7 @@
         <v>19</v>
       </c>
       <c r="B18" s="15"/>
-      <c r="C18" s="40"/>
+      <c r="C18" s="41"/>
       <c r="D18" s="17"/>
       <c r="E18" s="17"/>
       <c r="F18" s="17"/>
@@ -6488,7 +6485,7 @@
         <v>20</v>
       </c>
       <c r="B19" s="15"/>
-      <c r="C19" s="40"/>
+      <c r="C19" s="41"/>
       <c r="D19" s="17"/>
       <c r="E19" s="17"/>
       <c r="F19" s="17"/>
@@ -6503,7 +6500,7 @@
         <v>21</v>
       </c>
       <c r="B20" s="15"/>
-      <c r="C20" s="40"/>
+      <c r="C20" s="41"/>
       <c r="D20" s="17"/>
       <c r="E20" s="17"/>
       <c r="F20" s="17"/>
@@ -6518,8 +6515,8 @@
         <v>22</v>
       </c>
       <c r="B21" s="15"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="40"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="41"/>
       <c r="E21" s="17"/>
       <c r="F21" s="17"/>
       <c r="G21" s="19"/>
@@ -6540,7 +6537,7 @@
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
-      <c r="J22" s="36"/>
+      <c r="J22" s="37"/>
       <c r="K22" s="6"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6669,30 +6666,30 @@
       <c r="K29" s="17"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="26"/>
-      <c r="B30" s="26"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="26"/>
-      <c r="I30" s="26"/>
-      <c r="J30" s="26"/>
-      <c r="K30" s="26"/>
+      <c r="A30" s="27"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="27"/>
+      <c r="K30" s="27"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="26"/>
-      <c r="B31" s="26"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="26"/>
-      <c r="I31" s="26"/>
-      <c r="J31" s="26"/>
-      <c r="K31" s="26"/>
+      <c r="A31" s="27"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="27"/>
+      <c r="K31" s="27"/>
     </row>
     <row r="32" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="12" t="s">
@@ -6706,7 +6703,7 @@
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
-      <c r="J32" s="36"/>
+      <c r="J32" s="45"/>
       <c r="K32" s="6"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6792,10 +6789,10 @@
         <v>147</v>
       </c>
       <c r="I36" s="17"/>
-      <c r="J36" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="K36" s="43"/>
+      <c r="J36" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="K36" s="38"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="15" t="s">
@@ -6862,7 +6859,7 @@
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
-      <c r="J40" s="36"/>
+      <c r="J40" s="37"/>
       <c r="K40" s="6"/>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7009,7 +7006,7 @@
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
       <c r="I48" s="6"/>
-      <c r="J48" s="36"/>
+      <c r="J48" s="37"/>
       <c r="K48" s="6"/>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7149,7 +7146,7 @@
       <c r="G57" s="6"/>
       <c r="H57" s="6"/>
       <c r="I57" s="6"/>
-      <c r="J57" s="36"/>
+      <c r="J57" s="37"/>
       <c r="K57" s="6"/>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7203,7 +7200,7 @@
       </c>
       <c r="I59" s="17"/>
       <c r="J59" s="17"/>
-      <c r="K59" s="42"/>
+      <c r="K59" s="44"/>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="15" t="s">
@@ -7216,7 +7213,7 @@
       <c r="D60" s="17"/>
       <c r="E60" s="17"/>
       <c r="G60" s="19"/>
-      <c r="H60" s="42"/>
+      <c r="H60" s="44"/>
       <c r="I60" s="17" t="s">
         <v>163</v>
       </c>
@@ -7234,7 +7231,7 @@
       <c r="D61" s="17"/>
       <c r="E61" s="17"/>
       <c r="G61" s="19"/>
-      <c r="H61" s="42"/>
+      <c r="H61" s="44"/>
       <c r="I61" s="17" t="s">
         <v>165</v>
       </c>
@@ -7246,18 +7243,18 @@
         <v>20</v>
       </c>
       <c r="B62" s="15"/>
-      <c r="C62" s="37" t="s">
+      <c r="C62" s="38" t="s">
         <v>166</v>
       </c>
-      <c r="D62" s="37"/>
-      <c r="E62" s="37"/>
+      <c r="D62" s="38"/>
+      <c r="E62" s="38"/>
       <c r="G62" s="19"/>
       <c r="H62" s="17" t="s">
         <v>167</v>
       </c>
       <c r="I62" s="17"/>
       <c r="J62" s="17"/>
-      <c r="K62" s="42"/>
+      <c r="K62" s="44"/>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="15" t="s">
@@ -7270,7 +7267,7 @@
       <c r="D63" s="17"/>
       <c r="E63" s="17"/>
       <c r="G63" s="19"/>
-      <c r="H63" s="42"/>
+      <c r="H63" s="44"/>
       <c r="I63" s="17" t="s">
         <v>169</v>
       </c>
@@ -7304,7 +7301,7 @@
       <c r="G66" s="6"/>
       <c r="H66" s="6"/>
       <c r="I66" s="6"/>
-      <c r="J66" s="36"/>
+      <c r="J66" s="37"/>
       <c r="K66" s="6"/>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7350,7 +7347,7 @@
       </c>
       <c r="D68" s="17"/>
       <c r="E68" s="17"/>
-      <c r="F68" s="42"/>
+      <c r="F68" s="44"/>
       <c r="G68" s="19" t="s">
         <v>16</v>
       </c>
@@ -7359,7 +7356,7 @@
       </c>
       <c r="I68" s="17"/>
       <c r="J68" s="17"/>
-      <c r="K68" s="42"/>
+      <c r="K68" s="44"/>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="15" t="s">
@@ -7371,14 +7368,14 @@
       </c>
       <c r="D69" s="17"/>
       <c r="E69" s="17"/>
-      <c r="F69" s="42"/>
+      <c r="F69" s="44"/>
       <c r="G69" s="19"/>
       <c r="H69" s="17" t="s">
         <v>174</v>
       </c>
       <c r="I69" s="17"/>
       <c r="J69" s="17"/>
-      <c r="K69" s="42"/>
+      <c r="K69" s="44"/>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="15" t="s">
@@ -7390,9 +7387,9 @@
       </c>
       <c r="D70" s="17"/>
       <c r="E70" s="17"/>
-      <c r="F70" s="42"/>
+      <c r="F70" s="44"/>
       <c r="G70" s="19"/>
-      <c r="H70" s="42"/>
+      <c r="H70" s="44"/>
       <c r="I70" s="17" t="s">
         <v>176</v>
       </c>
@@ -7409,14 +7406,14 @@
       </c>
       <c r="D71" s="17"/>
       <c r="E71" s="17"/>
-      <c r="F71" s="42"/>
+      <c r="F71" s="44"/>
       <c r="G71" s="19"/>
       <c r="H71" s="17" t="s">
         <v>178</v>
       </c>
       <c r="I71" s="17"/>
       <c r="J71" s="17"/>
-      <c r="K71" s="42"/>
+      <c r="K71" s="44"/>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="15" t="s">
@@ -7428,9 +7425,9 @@
       </c>
       <c r="D72" s="17"/>
       <c r="E72" s="17"/>
-      <c r="F72" s="42"/>
+      <c r="F72" s="44"/>
       <c r="G72" s="19"/>
-      <c r="H72" s="42"/>
+      <c r="H72" s="44"/>
       <c r="I72" s="17" t="s">
         <v>180</v>
       </c>
@@ -7464,7 +7461,7 @@
       <c r="G75" s="6"/>
       <c r="H75" s="6"/>
       <c r="I75" s="6"/>
-      <c r="J75" s="36"/>
+      <c r="J75" s="37"/>
       <c r="K75" s="6"/>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7609,7 +7606,7 @@
       <c r="G84" s="6"/>
       <c r="H84" s="6"/>
       <c r="I84" s="6"/>
-      <c r="J84" s="36"/>
+      <c r="J84" s="37"/>
       <c r="K84" s="6"/>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Faculty Time Table-CSE,IT.xlsx
+++ b/Faculty Time Table-CSE,IT.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Faculty TT" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="195">
   <si>
     <t xml:space="preserve">Aurora's Technological &amp; Research Institute</t>
   </si>
@@ -36,7 +36,7 @@
     <t xml:space="preserve">FACULTY TIME TABLE - 2022-2023 (I Semester)  </t>
   </si>
   <si>
-    <t xml:space="preserve">I-I and II-I</t>
+    <t xml:space="preserve">I-I, II-I &amp; IV-II</t>
   </si>
   <si>
     <t xml:space="preserve">Mr. J. Srikanth</t>
@@ -105,120 +105,123 @@
     <t xml:space="preserve">Ms. A.Anitha</t>
   </si>
   <si>
+    <t xml:space="preserve">Mr. ARSofi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPS-1B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPS-CSM-1A  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPS LAB CSM-1A (B2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPS LAB-CSE-1B (B1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPS-CSM-1A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPS LAB CSM-1A (B1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPS LAB - 1B (B2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. B.T.R. Naresh Reddy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OOPC-2A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OOPC-2B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C++ LAB -CSE -2A (B2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C++ LAB -CSE -2B (B2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C++ LAB -CSE -2A (B1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PP-CSM-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C++ LAB -CSE -2B (B1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Ch. Krishna Rao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPS-1D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPS-1C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECSE-1E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITWS LAB 2A(B1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPS LAB-1D (B2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPS LAB-1C (B2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPS LAB-1D (B1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPS LAB-1C (B1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms. Gowthami</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECSE-1C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITWS LAB-2C(B2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECSE-1A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITWS LAB -2C(B1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITWS LAB -2B(B2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms. Keerthi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPS-1A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPS-1E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPS LAB-1E (B2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PP LAB-CSM-2(B1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CPE-ECE-1</t>
+  </si>
+  <si>
     <t xml:space="preserve">PPS LAB-1A (B1)</t>
   </si>
   <si>
     <t xml:space="preserve">PPS LAB-1A (B2)</t>
   </si>
   <si>
-    <t xml:space="preserve">Mr. ARSofi </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PPS-1B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PPS-CSM-1A  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PPS LAB CSM-1A (B2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PPS LAB-CSE-1B (B1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PPS-CSM-1A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PPS LAB CSM-1A (B1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PPS LAB - 1B (B2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dr. B.T.R. Naresh Reddy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OOPC-2B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C++ LAB -CSE -2A (B2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OOPC-2A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C++ LAB -CSE -2B (B2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C++ LAB -CSE -2A (B1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PP-CSM-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C++ LAB -CSE -2B (B1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mr. Ch. Krishna Rao</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PPS-1D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PPS-1C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ECSE-1E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PPS LAB-1D (B2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PPS LAB-1C (B2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PPS LAB-1D (B1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PPS LAB-1C (B1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ms. Gowthami</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ECSE-1C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ITWS LAB-2C(B2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ECSE-1A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ITWS LAB -2C(B1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ITWS LAB -2B(B2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ms. Keerthi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PPS-1A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PPS-1E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PPS LAB-1E (B2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PP LAB-CSM-2(B1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> CPE-ECE-1</t>
-  </si>
-  <si>
     <t xml:space="preserve"> CPE- ECE-1</t>
   </si>
   <si>
@@ -288,24 +291,24 @@
     <t xml:space="preserve">Mr. Rohit</t>
   </si>
   <si>
+    <t xml:space="preserve">DS-CSE-2B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DS LAB-CSE-2B(B2)</t>
+  </si>
+  <si>
     <t xml:space="preserve">DS-CSE-2A</t>
   </si>
   <si>
-    <t xml:space="preserve">DS-CSE-2B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DS LAB-CSE-2B(B2)</t>
+    <t xml:space="preserve">DS LAB-CSE-2A(B2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DS LAB-CSE-2B(B1)</t>
   </si>
   <si>
     <t xml:space="preserve">DS LAB-CSE-2A(B1)</t>
   </si>
   <si>
-    <t xml:space="preserve">DS LAB-CSE-2B(B1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DS LAB-CSE-2A(B2)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ms. S. Anitha </t>
   </si>
   <si>
@@ -315,18 +318,18 @@
     <t xml:space="preserve">ECSE-1B</t>
   </si>
   <si>
+    <t xml:space="preserve">ECSE -DS-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECSE-DS-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECSE-CS/CSM-1B</t>
+  </si>
+  <si>
     <t xml:space="preserve">ITWS LAB 2A(B2)</t>
   </si>
   <si>
-    <t xml:space="preserve">ECSE -DS-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ECSE-DS-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ECSE-CS/CSM-1B</t>
-  </si>
-  <si>
     <t xml:space="preserve">ECSE-CSM-1A</t>
   </si>
   <si>
@@ -429,7 +432,7 @@
     <t xml:space="preserve">MSF-CSM-2</t>
   </si>
   <si>
-    <t xml:space="preserve">LAB TIME TABLE - 2022-2023 (I Semester)  </t>
+    <t xml:space="preserve">LAB TIME TABLE - 2022-2023 (I-I, II-I&amp; IV-I)  </t>
   </si>
   <si>
     <t xml:space="preserve">A001 (DS LAB)</t>
@@ -438,9 +441,15 @@
     <t xml:space="preserve">DS LAB- IT-2(B1)</t>
   </si>
   <si>
+    <t xml:space="preserve">DS LAB- CSE-2A-(B2)</t>
+  </si>
+  <si>
     <t xml:space="preserve">DS LAB- IT-2-(B2)</t>
   </si>
   <si>
+    <t xml:space="preserve">DS LAB- CSE-2A--(B1)</t>
+  </si>
+  <si>
     <t xml:space="preserve">A110A (ITWS LAB)</t>
   </si>
   <si>
@@ -516,9 +525,6 @@
     <t xml:space="preserve">DS LAB- CSM-2-(B2)</t>
   </si>
   <si>
-    <t xml:space="preserve">DS LAB- CSE-2A-(B1)</t>
-  </si>
-  <si>
     <t xml:space="preserve">DS LAB- CSE-2D-(B2)</t>
   </si>
   <si>
@@ -531,9 +537,6 @@
     <t xml:space="preserve">DS LAB- CSE-2B-(B1)</t>
   </si>
   <si>
-    <t xml:space="preserve">DS LAB- CSE-2A--(B2)</t>
-  </si>
-  <si>
     <t xml:space="preserve">DS LAB- CSE-2C-(B2)</t>
   </si>
   <si>
@@ -573,13 +576,13 @@
     <t xml:space="preserve">A201A ( ITWS )</t>
   </si>
   <si>
+    <t xml:space="preserve">ITWS-CSE-2A(B1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITWS- IT-2(B1)</t>
+  </si>
+  <si>
     <t xml:space="preserve">ITWS-CSE-2A(B2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ITWS- IT-2(B1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ITWS-CSE-2A(B1)</t>
   </si>
   <si>
     <t xml:space="preserve">A214A/2 (PPS)</t>
@@ -827,7 +830,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="44">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -944,6 +947,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -980,10 +987,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1000,16 +1003,8 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1091,8 +1086,8 @@
   </sheetPr>
   <dimension ref="A1:U1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A61" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A84" activeCellId="0" sqref="A84"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1727,10 +1722,8 @@
       <c r="D38" s="17"/>
       <c r="E38" s="17"/>
       <c r="F38" s="19"/>
-      <c r="G38" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="H38" s="17"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="23"/>
       <c r="I38" s="18"/>
       <c r="J38" s="17"/>
       <c r="L38" s="0"/>
@@ -1751,9 +1744,7 @@
       <c r="B39" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C39" s="23" t="s">
-        <v>27</v>
-      </c>
+      <c r="C39" s="23"/>
       <c r="D39" s="23"/>
       <c r="F39" s="19"/>
       <c r="H39" s="24"/>
@@ -1818,7 +1809,7 @@
     </row>
     <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B43" s="13"/>
       <c r="C43" s="13"/>
@@ -1872,13 +1863,13 @@
       <c r="C45" s="17"/>
       <c r="D45" s="17"/>
       <c r="E45" s="23" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F45" s="19" t="s">
         <v>16</v>
       </c>
       <c r="H45" s="17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I45" s="17"/>
       <c r="J45" s="17"/>
@@ -1889,17 +1880,17 @@
         <v>18</v>
       </c>
       <c r="B46" s="17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C46" s="17"/>
       <c r="D46" s="17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E46" s="17"/>
       <c r="F46" s="19"/>
       <c r="G46" s="17"/>
       <c r="H46" s="23" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I46" s="23"/>
       <c r="J46" s="17"/>
@@ -1912,7 +1903,7 @@
       <c r="B47" s="17"/>
       <c r="C47" s="22"/>
       <c r="D47" s="25" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E47" s="25"/>
       <c r="F47" s="19"/>
@@ -1930,14 +1921,14 @@
       </c>
       <c r="B48" s="17"/>
       <c r="C48" s="17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D48" s="17"/>
       <c r="E48" s="17"/>
       <c r="F48" s="19"/>
       <c r="G48" s="22"/>
       <c r="H48" s="17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I48" s="17"/>
       <c r="J48" s="22"/>
@@ -1948,7 +1939,7 @@
         <v>21</v>
       </c>
       <c r="B49" s="23" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C49" s="23"/>
       <c r="D49" s="17"/>
@@ -1992,7 +1983,7 @@
     </row>
     <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B52" s="13"/>
       <c r="C52" s="13"/>
@@ -2062,17 +2053,19 @@
       <c r="A54" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B54" s="18"/>
-      <c r="C54" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="D54" s="18"/>
+      <c r="B54" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C54" s="18"/>
+      <c r="D54" s="29" t="s">
+        <v>36</v>
+      </c>
       <c r="E54" s="17"/>
       <c r="F54" s="19" t="s">
         <v>16</v>
       </c>
       <c r="G54" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H54" s="17"/>
       <c r="I54" s="17"/>
@@ -2094,16 +2087,14 @@
         <v>18</v>
       </c>
       <c r="B55" s="18"/>
-      <c r="C55" s="18" t="s">
-        <v>37</v>
-      </c>
+      <c r="C55" s="18"/>
       <c r="D55" s="18"/>
-      <c r="E55" s="17" t="s">
-        <v>39</v>
+      <c r="E55" s="23" t="s">
+        <v>36</v>
       </c>
       <c r="F55" s="19"/>
       <c r="G55" s="17" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H55" s="17"/>
       <c r="I55" s="17"/>
@@ -2125,18 +2116,18 @@
         <v>19</v>
       </c>
       <c r="B56" s="17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C56" s="17"/>
       <c r="D56" s="17"/>
       <c r="E56" s="17"/>
       <c r="F56" s="19"/>
       <c r="G56" s="17" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H56" s="17"/>
       <c r="I56" s="17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J56" s="17"/>
       <c r="K56" s="10"/>
@@ -2156,17 +2147,17 @@
         <v>20</v>
       </c>
       <c r="B57" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C57" s="17"/>
       <c r="D57" s="17"/>
       <c r="E57" s="17" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F57" s="19"/>
       <c r="G57" s="17"/>
       <c r="H57" s="17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I57" s="17"/>
       <c r="J57" s="17"/>
@@ -2187,18 +2178,18 @@
         <v>21</v>
       </c>
       <c r="B58" s="17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C58" s="17"/>
       <c r="D58" s="17"/>
       <c r="E58" s="17"/>
       <c r="F58" s="19"/>
       <c r="G58" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H58" s="17"/>
       <c r="I58" s="17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J58" s="17"/>
       <c r="K58" s="10"/>
@@ -2213,12 +2204,12 @@
       <c r="T58" s="0"/>
       <c r="U58" s="0"/>
     </row>
-    <row r="59" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="59" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="15" t="s">
         <v>22</v>
       </c>
       <c r="B59" s="17" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C59" s="17"/>
       <c r="D59" s="17"/>
@@ -2240,22 +2231,22 @@
       <c r="T59" s="0"/>
       <c r="U59" s="0"/>
     </row>
-    <row r="60" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="60" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="26"/>
       <c r="B60" s="27"/>
       <c r="C60" s="27"/>
       <c r="D60" s="27"/>
       <c r="E60" s="27"/>
-      <c r="F60" s="29"/>
+      <c r="F60" s="30"/>
       <c r="G60" s="27"/>
       <c r="H60" s="27"/>
       <c r="I60" s="27"/>
       <c r="J60" s="27"/>
       <c r="K60" s="10"/>
     </row>
-    <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B61" s="13"/>
       <c r="C61" s="13"/>
@@ -2278,7 +2269,7 @@
       <c r="T61" s="0"/>
       <c r="U61" s="0"/>
     </row>
-    <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="15" t="s">
         <v>5</v>
       </c>
@@ -2321,16 +2312,16 @@
       <c r="T62" s="0"/>
       <c r="U62" s="0"/>
     </row>
-    <row r="63" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="63" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="15" t="s">
         <v>15</v>
       </c>
       <c r="B63" s="17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C63" s="18"/>
       <c r="D63" s="17" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E63" s="17"/>
       <c r="F63" s="19" t="s">
@@ -2338,7 +2329,7 @@
       </c>
       <c r="G63" s="17"/>
       <c r="H63" s="17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I63" s="22"/>
       <c r="J63" s="17"/>
@@ -2354,22 +2345,22 @@
       <c r="T63" s="0"/>
       <c r="U63" s="0"/>
     </row>
-    <row r="64" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="64" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="15" t="s">
         <v>18</v>
       </c>
       <c r="B64" s="17"/>
       <c r="C64" s="17"/>
       <c r="D64" s="17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F64" s="19"/>
       <c r="G64" s="17"/>
-      <c r="H64" s="17"/>
-      <c r="I64" s="22"/>
-      <c r="J64" s="17" t="s">
+      <c r="H64" s="23" t="s">
         <v>46</v>
       </c>
+      <c r="I64" s="23"/>
+      <c r="J64" s="23"/>
       <c r="K64" s="10"/>
       <c r="L64" s="0"/>
       <c r="M64" s="0"/>
@@ -2382,19 +2373,21 @@
       <c r="T64" s="0"/>
       <c r="U64" s="0"/>
     </row>
-    <row r="65" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="65" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="15" t="s">
         <v>19</v>
       </c>
       <c r="B65" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C65" s="17"/>
       <c r="D65" s="17"/>
-      <c r="E65" s="18"/>
+      <c r="E65" s="23" t="s">
+        <v>44</v>
+      </c>
       <c r="F65" s="19"/>
       <c r="G65" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H65" s="17"/>
       <c r="I65" s="18"/>
@@ -2411,19 +2404,19 @@
       <c r="T65" s="0"/>
       <c r="U65" s="0"/>
     </row>
-    <row r="66" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="66" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="15" t="s">
         <v>20</v>
       </c>
       <c r="B66" s="17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D66" s="17"/>
       <c r="E66" s="17"/>
       <c r="F66" s="19"/>
       <c r="G66" s="21"/>
       <c r="H66" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I66" s="17"/>
       <c r="J66" s="18"/>
@@ -2439,24 +2432,24 @@
       <c r="T66" s="0"/>
       <c r="U66" s="0"/>
     </row>
-    <row r="67" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="67" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="15" t="s">
         <v>21</v>
       </c>
       <c r="B67" s="17"/>
       <c r="C67" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D67" s="17"/>
       <c r="E67" s="17"/>
       <c r="F67" s="19"/>
       <c r="G67" s="17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H67" s="17"/>
       <c r="I67" s="21"/>
       <c r="J67" s="17" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K67" s="10"/>
       <c r="L67" s="0"/>
@@ -2470,7 +2463,7 @@
       <c r="T67" s="0"/>
       <c r="U67" s="0"/>
     </row>
-    <row r="68" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="68" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="15" t="s">
         <v>22</v>
       </c>
@@ -2495,13 +2488,13 @@
       <c r="T68" s="0"/>
       <c r="U68" s="0"/>
     </row>
-    <row r="69" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="69" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="26"/>
       <c r="B69" s="27"/>
       <c r="C69" s="27"/>
       <c r="D69" s="27"/>
       <c r="E69" s="27"/>
-      <c r="F69" s="29"/>
+      <c r="F69" s="30"/>
       <c r="G69" s="27"/>
       <c r="H69" s="27"/>
       <c r="I69" s="27"/>
@@ -2512,15 +2505,15 @@
       <c r="N69" s="27"/>
       <c r="O69" s="27"/>
       <c r="P69" s="27"/>
-      <c r="Q69" s="29"/>
+      <c r="Q69" s="30"/>
       <c r="R69" s="27"/>
       <c r="S69" s="27"/>
       <c r="T69" s="27"/>
       <c r="U69" s="27"/>
     </row>
-    <row r="70" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B70" s="13"/>
       <c r="C70" s="13"/>
@@ -2543,7 +2536,7 @@
       <c r="T70" s="0"/>
       <c r="U70" s="0"/>
     </row>
-    <row r="71" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="15" t="s">
         <v>5</v>
       </c>
@@ -2586,13 +2579,13 @@
       <c r="T71" s="0"/>
       <c r="U71" s="0"/>
     </row>
-    <row r="72" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="72" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="15" t="s">
         <v>15</v>
       </c>
       <c r="B72" s="17"/>
       <c r="C72" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E72" s="18"/>
       <c r="F72" s="19" t="s">
@@ -2600,7 +2593,7 @@
       </c>
       <c r="G72" s="17"/>
       <c r="H72" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I72" s="17"/>
       <c r="J72" s="17"/>
@@ -2616,12 +2609,12 @@
       <c r="T72" s="0"/>
       <c r="U72" s="0"/>
     </row>
-    <row r="73" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="73" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="15" t="s">
         <v>18</v>
       </c>
       <c r="B73" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C73" s="22"/>
       <c r="D73" s="17"/>
@@ -2642,13 +2635,13 @@
       <c r="T73" s="0"/>
       <c r="U73" s="0"/>
     </row>
-    <row r="74" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="74" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="15" t="s">
         <v>19</v>
       </c>
       <c r="C74" s="22"/>
       <c r="E74" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F74" s="19"/>
       <c r="G74" s="21"/>
@@ -2667,12 +2660,12 @@
       <c r="T74" s="0"/>
       <c r="U74" s="0"/>
     </row>
-    <row r="75" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="75" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="15" t="s">
         <v>20</v>
       </c>
       <c r="B75" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C75" s="17"/>
       <c r="D75" s="17"/>
@@ -2694,17 +2687,17 @@
       <c r="T75" s="0"/>
       <c r="U75" s="0"/>
     </row>
-    <row r="76" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="76" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="15" t="s">
         <v>21</v>
       </c>
       <c r="B76" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C76" s="23"/>
       <c r="D76" s="23"/>
       <c r="E76" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F76" s="19"/>
       <c r="H76" s="17"/>
@@ -2722,7 +2715,7 @@
       <c r="T76" s="0"/>
       <c r="U76" s="0"/>
     </row>
-    <row r="77" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="77" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="15" t="s">
         <v>22</v>
       </c>
@@ -2747,22 +2740,22 @@
       <c r="T77" s="0"/>
       <c r="U77" s="0"/>
     </row>
-    <row r="78" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="78" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="26"/>
       <c r="B78" s="27"/>
       <c r="C78" s="27"/>
       <c r="D78" s="27"/>
       <c r="E78" s="27"/>
-      <c r="F78" s="29"/>
+      <c r="F78" s="30"/>
       <c r="G78" s="27"/>
       <c r="H78" s="27"/>
       <c r="I78" s="27"/>
       <c r="J78" s="27"/>
       <c r="K78" s="10"/>
     </row>
-    <row r="79" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B79" s="13"/>
       <c r="C79" s="13"/>
@@ -2775,7 +2768,7 @@
       <c r="J79" s="13"/>
       <c r="K79" s="9"/>
     </row>
-    <row r="80" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="15" t="s">
         <v>5</v>
       </c>
@@ -2808,12 +2801,12 @@
       </c>
       <c r="K80" s="9"/>
     </row>
-    <row r="81" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="81" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="15" t="s">
         <v>15</v>
       </c>
       <c r="B81" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C81" s="17"/>
       <c r="D81" s="17"/>
@@ -2822,76 +2815,80 @@
         <v>16</v>
       </c>
       <c r="G81" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H81" s="17"/>
       <c r="I81" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J81" s="17"/>
       <c r="K81" s="10"/>
     </row>
-    <row r="82" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="82" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="15" t="s">
         <v>18</v>
       </c>
       <c r="B82" s="17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C82" s="17"/>
       <c r="D82" s="17"/>
       <c r="F82" s="19"/>
       <c r="G82" s="22"/>
       <c r="H82" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I82" s="17"/>
       <c r="J82" s="17"/>
       <c r="K82" s="10"/>
     </row>
-    <row r="83" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="83" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="15" t="s">
         <v>19</v>
       </c>
       <c r="B83" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C83" s="17"/>
-      <c r="E83" s="17"/>
+      <c r="E83" s="23" t="s">
+        <v>62</v>
+      </c>
       <c r="F83" s="19"/>
-      <c r="G83" s="17" t="s">
+      <c r="G83" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="H83" s="17"/>
+      <c r="H83" s="23"/>
       <c r="I83" s="17"/>
       <c r="J83" s="17"/>
       <c r="K83" s="10"/>
     </row>
-    <row r="84" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="84" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="15" t="s">
         <v>20</v>
       </c>
       <c r="B84" s="22"/>
-      <c r="C84" s="17"/>
-      <c r="D84" s="20"/>
+      <c r="C84" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="D84" s="23"/>
       <c r="E84" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F84" s="19"/>
       <c r="G84" s="17"/>
       <c r="H84" s="18"/>
       <c r="I84" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J84" s="17"/>
       <c r="K84" s="10"/>
     </row>
-    <row r="85" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="85" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="15" t="s">
         <v>21</v>
       </c>
       <c r="B85" s="17" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C85" s="17" t="s">
         <v>17</v>
@@ -2900,13 +2897,13 @@
       <c r="E85" s="17"/>
       <c r="F85" s="19"/>
       <c r="G85" s="17" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H85" s="17"/>
       <c r="J85" s="18"/>
       <c r="K85" s="10"/>
     </row>
-    <row r="86" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="86" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="15" t="s">
         <v>22</v>
       </c>
@@ -2921,22 +2918,22 @@
       <c r="J86" s="17"/>
       <c r="K86" s="10"/>
     </row>
-    <row r="87" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="87" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="26"/>
       <c r="B87" s="27"/>
       <c r="C87" s="27"/>
       <c r="D87" s="27"/>
       <c r="E87" s="27"/>
-      <c r="F87" s="29"/>
+      <c r="F87" s="30"/>
       <c r="G87" s="27"/>
       <c r="H87" s="27"/>
       <c r="I87" s="27"/>
       <c r="J87" s="27"/>
       <c r="K87" s="10"/>
     </row>
-    <row r="88" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B88" s="13"/>
       <c r="C88" s="13"/>
@@ -2959,7 +2956,7 @@
       <c r="T88" s="0"/>
       <c r="U88" s="0"/>
     </row>
-    <row r="89" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="15" t="s">
         <v>5</v>
       </c>
@@ -3002,12 +2999,12 @@
       <c r="T89" s="0"/>
       <c r="U89" s="0"/>
     </row>
-    <row r="90" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="90" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="15" t="s">
         <v>15</v>
       </c>
       <c r="B90" s="17" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C90" s="17"/>
       <c r="D90" s="17"/>
@@ -3015,9 +3012,9 @@
       <c r="F90" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="G90" s="30"/>
+      <c r="G90" s="31"/>
       <c r="H90" s="23" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I90" s="23"/>
       <c r="J90" s="17"/>
@@ -3033,23 +3030,23 @@
       <c r="T90" s="0"/>
       <c r="U90" s="0"/>
     </row>
-    <row r="91" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="91" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="15" t="s">
         <v>18</v>
       </c>
       <c r="B91" s="17"/>
       <c r="C91" s="17" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D91" s="17"/>
       <c r="E91" s="17"/>
       <c r="F91" s="19"/>
       <c r="G91" s="17" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H91" s="17"/>
       <c r="I91" s="17" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J91" s="17"/>
       <c r="K91" s="10"/>
@@ -3064,12 +3061,12 @@
       <c r="T91" s="0"/>
       <c r="U91" s="0"/>
     </row>
-    <row r="92" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="92" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="15" t="s">
         <v>19</v>
       </c>
       <c r="B92" s="17" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C92" s="17"/>
       <c r="D92" s="17"/>
@@ -3077,7 +3074,7 @@
       <c r="F92" s="19"/>
       <c r="G92" s="17"/>
       <c r="H92" s="17" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I92" s="17"/>
       <c r="J92" s="17"/>
@@ -3093,19 +3090,19 @@
       <c r="T92" s="0"/>
       <c r="U92" s="0"/>
     </row>
-    <row r="93" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="93" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="15" t="s">
         <v>20</v>
       </c>
       <c r="B93" s="17" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C93" s="17"/>
       <c r="D93" s="17"/>
       <c r="E93" s="17"/>
       <c r="F93" s="19"/>
       <c r="G93" s="17" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H93" s="17"/>
       <c r="I93" s="17"/>
@@ -3122,22 +3119,22 @@
       <c r="T93" s="0"/>
       <c r="U93" s="0"/>
     </row>
-    <row r="94" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="94" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="15" t="s">
         <v>21</v>
       </c>
       <c r="B94" s="17"/>
       <c r="C94" s="17" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D94" s="17"/>
       <c r="E94" s="17" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F94" s="19"/>
       <c r="G94" s="17"/>
       <c r="H94" s="17" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I94" s="17"/>
       <c r="J94" s="17"/>
@@ -3153,12 +3150,12 @@
       <c r="T94" s="0"/>
       <c r="U94" s="0"/>
     </row>
-    <row r="95" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="95" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="15" t="s">
         <v>22</v>
       </c>
       <c r="B95" s="17" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C95" s="17"/>
       <c r="D95" s="17"/>
@@ -3180,13 +3177,13 @@
       <c r="T95" s="0"/>
       <c r="U95" s="0"/>
     </row>
-    <row r="96" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="96" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="26"/>
       <c r="B96" s="27"/>
       <c r="C96" s="27"/>
       <c r="D96" s="27"/>
       <c r="E96" s="27"/>
-      <c r="F96" s="29"/>
+      <c r="F96" s="30"/>
       <c r="G96" s="27"/>
       <c r="H96" s="27"/>
       <c r="I96" s="27"/>
@@ -3197,15 +3194,15 @@
       <c r="N96" s="27"/>
       <c r="O96" s="27"/>
       <c r="P96" s="27"/>
-      <c r="Q96" s="29"/>
+      <c r="Q96" s="30"/>
       <c r="R96" s="27"/>
       <c r="S96" s="27"/>
       <c r="T96" s="27"/>
       <c r="U96" s="27"/>
     </row>
-    <row r="97" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B97" s="13"/>
       <c r="C97" s="13"/>
@@ -3228,7 +3225,7 @@
       <c r="T97" s="0"/>
       <c r="U97" s="0"/>
     </row>
-    <row r="98" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="15" t="s">
         <v>5</v>
       </c>
@@ -3270,7 +3267,7 @@
       <c r="T98" s="0"/>
       <c r="U98" s="0"/>
     </row>
-    <row r="99" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="99" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="15" t="s">
         <v>15</v>
       </c>
@@ -3296,12 +3293,12 @@
       <c r="T99" s="0"/>
       <c r="U99" s="0"/>
     </row>
-    <row r="100" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="100" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="15" t="s">
         <v>18</v>
       </c>
       <c r="B100" s="17"/>
-      <c r="C100" s="31"/>
+      <c r="C100" s="32"/>
       <c r="D100" s="22"/>
       <c r="E100" s="21"/>
       <c r="F100" s="19"/>
@@ -3320,13 +3317,13 @@
       <c r="T100" s="0"/>
       <c r="U100" s="0"/>
     </row>
-    <row r="101" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="101" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="15" t="s">
         <v>19</v>
       </c>
       <c r="B101" s="21"/>
       <c r="C101" s="22"/>
-      <c r="D101" s="32"/>
+      <c r="D101" s="33"/>
       <c r="E101" s="17"/>
       <c r="F101" s="19"/>
       <c r="G101" s="17"/>
@@ -3344,7 +3341,7 @@
       <c r="T101" s="0"/>
       <c r="U101" s="0"/>
     </row>
-    <row r="102" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="102" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="15" t="s">
         <v>20</v>
       </c>
@@ -3368,7 +3365,7 @@
       <c r="T102" s="0"/>
       <c r="U102" s="0"/>
     </row>
-    <row r="103" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="103" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="15" t="s">
         <v>21</v>
       </c>
@@ -3392,7 +3389,7 @@
       <c r="T103" s="0"/>
       <c r="U103" s="0"/>
     </row>
-    <row r="104" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="104" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="15" t="s">
         <v>22</v>
       </c>
@@ -3416,13 +3413,13 @@
       <c r="T104" s="0"/>
       <c r="U104" s="0"/>
     </row>
-    <row r="105" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="105" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="26"/>
       <c r="B105" s="27"/>
       <c r="C105" s="27"/>
       <c r="D105" s="27"/>
       <c r="E105" s="27"/>
-      <c r="F105" s="29"/>
+      <c r="F105" s="30"/>
       <c r="G105" s="27"/>
       <c r="H105" s="27"/>
       <c r="I105" s="27"/>
@@ -3432,15 +3429,15 @@
       <c r="N105" s="27"/>
       <c r="O105" s="27"/>
       <c r="P105" s="27"/>
-      <c r="Q105" s="29"/>
+      <c r="Q105" s="30"/>
       <c r="R105" s="27"/>
       <c r="S105" s="27"/>
       <c r="T105" s="27"/>
       <c r="U105" s="27"/>
     </row>
-    <row r="106" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B106" s="13"/>
       <c r="C106" s="13"/>
@@ -3462,7 +3459,7 @@
       <c r="T106" s="0"/>
       <c r="U106" s="0"/>
     </row>
-    <row r="107" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="15" t="s">
         <v>5</v>
       </c>
@@ -3504,12 +3501,12 @@
       <c r="T107" s="0"/>
       <c r="U107" s="0"/>
     </row>
-    <row r="108" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="108" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="15" t="s">
         <v>15</v>
       </c>
       <c r="B108" s="17" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C108" s="17"/>
       <c r="D108" s="17"/>
@@ -3532,12 +3529,12 @@
       <c r="T108" s="0"/>
       <c r="U108" s="0"/>
     </row>
-    <row r="109" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="109" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="15" t="s">
         <v>18</v>
       </c>
       <c r="B109" s="17" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C109" s="17"/>
       <c r="D109" s="17"/>
@@ -3558,7 +3555,7 @@
       <c r="T109" s="0"/>
       <c r="U109" s="0"/>
     </row>
-    <row r="110" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="110" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="15" t="s">
         <v>19</v>
       </c>
@@ -3582,7 +3579,7 @@
       <c r="T110" s="0"/>
       <c r="U110" s="0"/>
     </row>
-    <row r="111" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="111" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="15" t="s">
         <v>20</v>
       </c>
@@ -3606,7 +3603,7 @@
       <c r="T111" s="0"/>
       <c r="U111" s="0"/>
     </row>
-    <row r="112" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="112" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="15" t="s">
         <v>21</v>
       </c>
@@ -3630,7 +3627,7 @@
       <c r="T112" s="0"/>
       <c r="U112" s="0"/>
     </row>
-    <row r="113" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="113" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="15" t="s">
         <v>22</v>
       </c>
@@ -3654,21 +3651,21 @@
       <c r="T113" s="0"/>
       <c r="U113" s="0"/>
     </row>
-    <row r="114" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="114" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="26"/>
       <c r="B114" s="27"/>
       <c r="C114" s="27"/>
       <c r="D114" s="27"/>
       <c r="E114" s="27"/>
-      <c r="F114" s="29"/>
+      <c r="F114" s="30"/>
       <c r="G114" s="27"/>
       <c r="H114" s="27"/>
       <c r="I114" s="27"/>
       <c r="J114" s="27"/>
     </row>
-    <row r="115" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B115" s="13"/>
       <c r="C115" s="13"/>
@@ -3680,7 +3677,7 @@
       <c r="I115" s="14"/>
       <c r="J115" s="13"/>
     </row>
-    <row r="116" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="15" t="s">
         <v>5</v>
       </c>
@@ -3712,12 +3709,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="117" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="117" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="15" t="s">
         <v>15</v>
       </c>
       <c r="B117" s="17" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C117" s="17"/>
       <c r="D117" s="17"/>
@@ -3727,94 +3724,94 @@
       </c>
       <c r="G117" s="17"/>
       <c r="H117" s="17" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I117" s="17"/>
       <c r="J117" s="17"/>
     </row>
-    <row r="118" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="118" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="15" t="s">
         <v>18</v>
       </c>
       <c r="B118" s="17"/>
       <c r="C118" s="17" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D118" s="17"/>
       <c r="E118" s="17"/>
       <c r="F118" s="19"/>
       <c r="G118" s="17" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H118" s="17"/>
       <c r="I118" s="17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J118" s="17"/>
     </row>
-    <row r="119" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="119" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="15" t="s">
         <v>19</v>
       </c>
       <c r="B119" s="17" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C119" s="17"/>
       <c r="D119" s="17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E119" s="17"/>
       <c r="F119" s="19"/>
       <c r="G119" s="17"/>
       <c r="H119" s="17" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I119" s="17"/>
       <c r="J119" s="17"/>
     </row>
-    <row r="120" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="120" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="15" t="s">
         <v>20</v>
       </c>
       <c r="B120" s="17" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C120" s="17"/>
       <c r="D120" s="17"/>
       <c r="F120" s="19"/>
       <c r="G120" s="17" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H120" s="17"/>
       <c r="I120" s="17"/>
       <c r="J120" s="17"/>
     </row>
-    <row r="121" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="121" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="15" t="s">
         <v>21</v>
       </c>
       <c r="B121" s="17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C121" s="17"/>
       <c r="D121" s="17" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E121" s="17"/>
       <c r="F121" s="19"/>
       <c r="G121" s="17"/>
       <c r="H121" s="17" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I121" s="17"/>
       <c r="J121" s="17"/>
     </row>
-    <row r="122" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="122" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="15" t="s">
         <v>22</v>
       </c>
       <c r="B122" s="17" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C122" s="17"/>
       <c r="D122" s="17"/>
@@ -3825,21 +3822,21 @@
       <c r="I122" s="17"/>
       <c r="J122" s="17"/>
     </row>
-    <row r="123" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="123" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="26"/>
       <c r="B123" s="27"/>
       <c r="C123" s="27"/>
       <c r="D123" s="27"/>
       <c r="E123" s="27"/>
-      <c r="F123" s="29"/>
+      <c r="F123" s="30"/>
       <c r="G123" s="27"/>
       <c r="H123" s="27"/>
       <c r="I123" s="27"/>
       <c r="J123" s="27"/>
     </row>
-    <row r="124" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="12" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B124" s="13"/>
       <c r="C124" s="13"/>
@@ -3887,13 +3884,11 @@
       <c r="A126" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B126" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="C126" s="17"/>
-      <c r="D126" s="17" t="s">
+      <c r="B126" s="17"/>
+      <c r="C126" s="17" t="s">
         <v>88</v>
       </c>
+      <c r="D126" s="17"/>
       <c r="E126" s="17"/>
       <c r="F126" s="19" t="s">
         <v>16</v>
@@ -3909,17 +3904,17 @@
       <c r="A127" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B127" s="17" t="s">
+      <c r="B127" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="C127" s="17"/>
+      <c r="C127" s="23"/>
       <c r="D127" s="17"/>
       <c r="E127" s="17"/>
       <c r="F127" s="19"/>
-      <c r="G127" s="17"/>
-      <c r="H127" s="17" t="s">
+      <c r="G127" s="17" t="s">
         <v>90</v>
       </c>
+      <c r="H127" s="17"/>
       <c r="I127" s="17"/>
       <c r="J127" s="17"/>
     </row>
@@ -3927,11 +3922,11 @@
       <c r="A128" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B128" s="17"/>
-      <c r="C128" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="D128" s="17"/>
+      <c r="B128" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="C128" s="23"/>
+      <c r="D128" s="23"/>
       <c r="E128" s="17"/>
       <c r="F128" s="19"/>
       <c r="G128" s="17"/>
@@ -3945,13 +3940,13 @@
       </c>
       <c r="B129" s="17"/>
       <c r="C129" s="17" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D129" s="17"/>
       <c r="E129" s="17"/>
       <c r="F129" s="19"/>
       <c r="G129" s="17" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H129" s="17"/>
       <c r="I129" s="17"/>
@@ -3961,11 +3956,11 @@
       <c r="A130" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B130" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="C130" s="17"/>
-      <c r="D130" s="17"/>
+      <c r="B130" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="C130" s="23"/>
+      <c r="D130" s="23"/>
       <c r="E130" s="17"/>
       <c r="F130" s="19"/>
       <c r="G130" s="17"/>
@@ -3980,12 +3975,14 @@
       <c r="B131" s="17"/>
       <c r="C131" s="17"/>
       <c r="D131" s="17" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E131" s="17"/>
       <c r="F131" s="19"/>
-      <c r="G131" s="17"/>
-      <c r="H131" s="17"/>
+      <c r="G131" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="H131" s="23"/>
       <c r="I131" s="17"/>
       <c r="J131" s="17"/>
     </row>
@@ -3995,7 +3992,7 @@
       <c r="C132" s="27"/>
       <c r="D132" s="27"/>
       <c r="E132" s="27"/>
-      <c r="F132" s="29"/>
+      <c r="F132" s="30"/>
       <c r="G132" s="27"/>
       <c r="H132" s="27"/>
       <c r="I132" s="27"/>
@@ -4003,7 +4000,7 @@
     </row>
     <row r="133" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A133" s="12" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B133" s="13"/>
       <c r="C133" s="13"/>
@@ -4041,7 +4038,7 @@
       <c r="E134" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F134" s="33" t="s">
+      <c r="F134" s="34" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="16" t="s">
@@ -4072,8 +4069,8 @@
         <v>15</v>
       </c>
       <c r="B135" s="17"/>
-      <c r="D135" s="34" t="s">
-        <v>94</v>
+      <c r="D135" s="35" t="s">
+        <v>95</v>
       </c>
       <c r="F135" s="19" t="s">
         <v>16</v>
@@ -4102,7 +4099,7 @@
       <c r="E136" s="25"/>
       <c r="F136" s="19"/>
       <c r="G136" s="17" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H136" s="17"/>
       <c r="I136" s="17"/>
@@ -4122,11 +4119,9 @@
       <c r="A137" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B137" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="C137" s="17"/>
-      <c r="D137" s="17"/>
+      <c r="B137" s="23"/>
+      <c r="C137" s="23"/>
+      <c r="D137" s="23"/>
       <c r="E137" s="17"/>
       <c r="F137" s="19"/>
       <c r="G137" s="25" t="s">
@@ -4159,7 +4154,7 @@
       <c r="F138" s="19"/>
       <c r="G138" s="17"/>
       <c r="H138" s="17" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I138" s="25"/>
       <c r="J138" s="25" t="s">
@@ -4180,14 +4175,16 @@
       <c r="A139" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B139" s="17"/>
-      <c r="C139" s="17"/>
-      <c r="D139" s="25"/>
+      <c r="B139" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="C139" s="23"/>
+      <c r="D139" s="23"/>
       <c r="E139" s="17"/>
       <c r="F139" s="19"/>
       <c r="G139" s="17"/>
       <c r="H139" s="17" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I139" s="17"/>
       <c r="J139" s="22"/>
@@ -4242,7 +4239,7 @@
       <c r="N141" s="27"/>
       <c r="O141" s="27"/>
       <c r="P141" s="27"/>
-      <c r="Q141" s="29"/>
+      <c r="Q141" s="30"/>
       <c r="R141" s="27"/>
       <c r="S141" s="27"/>
       <c r="T141" s="27"/>
@@ -4250,7 +4247,7 @@
     </row>
     <row r="142" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="12" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B142" s="13"/>
       <c r="C142" s="13"/>
@@ -4466,7 +4463,7 @@
       <c r="C150" s="27"/>
       <c r="D150" s="27"/>
       <c r="E150" s="27"/>
-      <c r="F150" s="29"/>
+      <c r="F150" s="30"/>
       <c r="G150" s="27"/>
       <c r="H150" s="27"/>
       <c r="I150" s="27"/>
@@ -4474,7 +4471,7 @@
     </row>
     <row r="151" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A151" s="12" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B151" s="13"/>
       <c r="C151" s="13"/>
@@ -4525,7 +4522,7 @@
       </c>
       <c r="B153" s="17"/>
       <c r="C153" s="17" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D153" s="17"/>
       <c r="E153" s="17"/>
@@ -4571,7 +4568,7 @@
         <v>20</v>
       </c>
       <c r="B156" s="17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C156" s="17"/>
       <c r="D156" s="17"/>
@@ -4615,7 +4612,7 @@
     <row r="159" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="160" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A160" s="12" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B160" s="13"/>
       <c r="C160" s="13"/>
@@ -4681,9 +4678,9 @@
       <c r="A163" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B163" s="35"/>
-      <c r="C163" s="35"/>
-      <c r="D163" s="35"/>
+      <c r="B163" s="36"/>
+      <c r="C163" s="36"/>
+      <c r="D163" s="36"/>
       <c r="E163" s="17"/>
       <c r="F163" s="19"/>
       <c r="G163" s="17"/>
@@ -4708,9 +4705,9 @@
       <c r="A165" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B165" s="35"/>
-      <c r="C165" s="35"/>
-      <c r="D165" s="35"/>
+      <c r="B165" s="36"/>
+      <c r="C165" s="36"/>
+      <c r="D165" s="36"/>
       <c r="E165" s="17"/>
       <c r="F165" s="19"/>
       <c r="G165" s="21"/>
@@ -4750,7 +4747,7 @@
     <row r="168" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="169" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A169" s="12" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B169" s="13"/>
       <c r="C169" s="13"/>
@@ -4822,7 +4819,7 @@
       <c r="C171" s="17"/>
       <c r="D171" s="17"/>
       <c r="E171" s="17" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F171" s="19" t="s">
         <v>16</v>
@@ -4876,7 +4873,7 @@
       <c r="E173" s="17"/>
       <c r="F173" s="19"/>
       <c r="G173" s="17" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H173" s="17"/>
       <c r="I173" s="17"/>
@@ -4900,7 +4897,7 @@
       <c r="C174" s="17"/>
       <c r="D174" s="17"/>
       <c r="E174" s="17" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F174" s="19"/>
       <c r="G174" s="17"/>
@@ -4981,7 +4978,7 @@
     </row>
     <row r="178" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A178" s="12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B178" s="13"/>
       <c r="C178" s="13"/>
@@ -5032,7 +5029,7 @@
         <v>15</v>
       </c>
       <c r="B180" s="17" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C180" s="17"/>
       <c r="D180" s="17"/>
@@ -5049,11 +5046,11 @@
       <c r="A181" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B181" s="35" t="s">
-        <v>110</v>
-      </c>
-      <c r="C181" s="35"/>
-      <c r="D181" s="35"/>
+      <c r="B181" s="36" t="s">
+        <v>111</v>
+      </c>
+      <c r="C181" s="36"/>
+      <c r="D181" s="36"/>
       <c r="E181" s="17"/>
       <c r="F181" s="19"/>
       <c r="G181" s="17"/>
@@ -5066,7 +5063,7 @@
         <v>19</v>
       </c>
       <c r="B182" s="21" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C182" s="21"/>
       <c r="D182" s="21"/>
@@ -5075,7 +5072,7 @@
       <c r="G182" s="17"/>
       <c r="H182" s="17"/>
       <c r="I182" s="17" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J182" s="17"/>
       <c r="L182" s="1"/>
@@ -5084,11 +5081,11 @@
       <c r="A183" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B183" s="35" t="s">
-        <v>113</v>
-      </c>
-      <c r="C183" s="35"/>
-      <c r="D183" s="35"/>
+      <c r="B183" s="36" t="s">
+        <v>114</v>
+      </c>
+      <c r="C183" s="36"/>
+      <c r="D183" s="36"/>
       <c r="E183" s="17"/>
       <c r="F183" s="19"/>
       <c r="G183" s="17"/>
@@ -5131,7 +5128,7 @@
       <c r="C186" s="27"/>
       <c r="D186" s="27"/>
       <c r="E186" s="27"/>
-      <c r="F186" s="29"/>
+      <c r="F186" s="30"/>
       <c r="G186" s="27"/>
       <c r="H186" s="27"/>
       <c r="I186" s="27"/>
@@ -5139,7 +5136,7 @@
     </row>
     <row r="187" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A187" s="12" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B187" s="13"/>
       <c r="C187" s="13"/>
@@ -5190,7 +5187,7 @@
         <v>15</v>
       </c>
       <c r="B189" s="17" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C189" s="17"/>
       <c r="D189" s="17"/>
@@ -5199,11 +5196,11 @@
         <v>16</v>
       </c>
       <c r="G189" s="17" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H189" s="17"/>
       <c r="J189" s="17" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="190" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5211,19 +5208,19 @@
         <v>18</v>
       </c>
       <c r="B190" s="17" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C190" s="17"/>
       <c r="D190" s="17" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E190" s="17"/>
       <c r="F190" s="19"/>
       <c r="G190" s="18"/>
-      <c r="H190" s="36" t="s">
-        <v>120</v>
-      </c>
-      <c r="I190" s="36"/>
+      <c r="H190" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="I190" s="37"/>
       <c r="J190" s="22"/>
     </row>
     <row r="191" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5232,13 +5229,13 @@
       </c>
       <c r="B191" s="17"/>
       <c r="C191" s="17" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D191" s="17"/>
       <c r="E191" s="22"/>
       <c r="F191" s="19"/>
       <c r="G191" s="25" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I191" s="17"/>
       <c r="J191" s="17"/>
@@ -5249,17 +5246,17 @@
       </c>
       <c r="B192" s="17"/>
       <c r="C192" s="17" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D192" s="17"/>
       <c r="E192" s="22"/>
       <c r="F192" s="19"/>
       <c r="G192" s="17" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H192" s="22"/>
       <c r="I192" s="18" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J192" s="17"/>
     </row>
@@ -5268,17 +5265,17 @@
         <v>21</v>
       </c>
       <c r="B193" s="25" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C193" s="17"/>
       <c r="D193" s="17" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E193" s="17"/>
       <c r="F193" s="19"/>
       <c r="G193" s="22"/>
       <c r="H193" s="17" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I193" s="17"/>
       <c r="J193" s="22"/>
@@ -5303,7 +5300,7 @@
       <c r="C195" s="27"/>
       <c r="D195" s="27"/>
       <c r="E195" s="27"/>
-      <c r="F195" s="29"/>
+      <c r="F195" s="30"/>
       <c r="G195" s="27"/>
       <c r="H195" s="27"/>
       <c r="I195" s="27"/>
@@ -5311,7 +5308,7 @@
     </row>
     <row r="196" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A196" s="12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B196" s="13"/>
       <c r="C196" s="13"/>
@@ -5420,7 +5417,7 @@
         <v>21</v>
       </c>
       <c r="B202" s="17" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C202" s="17"/>
       <c r="D202" s="17"/>
@@ -5451,7 +5448,7 @@
       <c r="C204" s="27"/>
       <c r="D204" s="27"/>
       <c r="E204" s="27"/>
-      <c r="F204" s="29"/>
+      <c r="F204" s="30"/>
       <c r="G204" s="27"/>
       <c r="H204" s="27"/>
       <c r="I204" s="27"/>
@@ -5459,7 +5456,7 @@
     </row>
     <row r="205" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A205" s="12" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B205" s="13"/>
       <c r="C205" s="13"/>
@@ -5517,7 +5514,7 @@
         <v>16</v>
       </c>
       <c r="G207" s="23" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H207" s="23"/>
       <c r="I207" s="23"/>
@@ -5528,7 +5525,7 @@
         <v>18</v>
       </c>
       <c r="B208" s="17" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C208" s="17"/>
       <c r="D208" s="17"/>
@@ -5550,7 +5547,7 @@
       <c r="F209" s="19"/>
       <c r="G209" s="17"/>
       <c r="H209" s="17" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I209" s="18"/>
       <c r="J209" s="22"/>
@@ -5566,7 +5563,7 @@
       <c r="E210" s="22"/>
       <c r="F210" s="19"/>
       <c r="G210" s="17" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H210" s="17"/>
       <c r="I210" s="17"/>
@@ -5583,7 +5580,7 @@
       <c r="E211" s="17"/>
       <c r="F211" s="19"/>
       <c r="G211" s="17" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H211" s="17"/>
       <c r="I211" s="17"/>
@@ -5596,7 +5593,7 @@
       <c r="B212" s="17"/>
       <c r="C212" s="17"/>
       <c r="D212" s="17" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E212" s="17"/>
       <c r="F212" s="19"/>
@@ -5611,7 +5608,7 @@
       <c r="C213" s="27"/>
       <c r="D213" s="27"/>
       <c r="E213" s="27"/>
-      <c r="F213" s="29"/>
+      <c r="F213" s="30"/>
       <c r="G213" s="27"/>
       <c r="H213" s="27"/>
       <c r="I213" s="27"/>
@@ -5619,7 +5616,7 @@
     </row>
     <row r="214" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A214" s="12" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B214" s="13"/>
       <c r="C214" s="13"/>
@@ -5671,18 +5668,18 @@
       </c>
       <c r="B216" s="17"/>
       <c r="C216" s="17" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D216" s="17"/>
       <c r="E216" s="17" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F216" s="19" t="s">
         <v>16</v>
       </c>
       <c r="G216" s="17"/>
       <c r="H216" s="17" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I216" s="17"/>
       <c r="J216" s="17"/>
@@ -5693,14 +5690,14 @@
       </c>
       <c r="B217" s="17"/>
       <c r="C217" s="17" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D217" s="17"/>
       <c r="E217" s="17"/>
       <c r="F217" s="19"/>
       <c r="G217" s="17"/>
       <c r="H217" s="17" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I217" s="17"/>
       <c r="J217" s="17"/>
@@ -5710,7 +5707,7 @@
         <v>19</v>
       </c>
       <c r="B218" s="17" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C218" s="17"/>
       <c r="D218" s="17"/>
@@ -5719,7 +5716,7 @@
       <c r="G218" s="17"/>
       <c r="H218" s="17"/>
       <c r="I218" s="17" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="J218" s="17"/>
       <c r="L218" s="1"/>
@@ -5730,13 +5727,13 @@
       </c>
       <c r="B219" s="17"/>
       <c r="C219" s="17" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D219" s="17"/>
       <c r="E219" s="17"/>
       <c r="F219" s="19"/>
       <c r="G219" s="17" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H219" s="17"/>
       <c r="I219" s="17"/>
@@ -5750,13 +5747,13 @@
       <c r="B220" s="17"/>
       <c r="C220" s="17"/>
       <c r="D220" s="17" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E220" s="22"/>
       <c r="F220" s="19"/>
       <c r="G220" s="17"/>
       <c r="H220" s="17" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I220" s="17"/>
       <c r="J220" s="17"/>
@@ -5781,7 +5778,7 @@
       <c r="C222" s="27"/>
       <c r="D222" s="27"/>
       <c r="E222" s="27"/>
-      <c r="F222" s="29"/>
+      <c r="F222" s="30"/>
       <c r="G222" s="27"/>
       <c r="H222" s="27"/>
       <c r="I222" s="27"/>
@@ -5913,7 +5910,7 @@
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="172">
+  <mergeCells count="176">
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A3:J3"/>
     <mergeCell ref="A5:J5"/>
@@ -5954,7 +5951,7 @@
     <mergeCell ref="B59:C59"/>
     <mergeCell ref="D63:E63"/>
     <mergeCell ref="F63:F68"/>
-    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="H64:J64"/>
     <mergeCell ref="B65:C65"/>
     <mergeCell ref="G65:H65"/>
     <mergeCell ref="H66:I66"/>
@@ -5975,6 +5972,8 @@
     <mergeCell ref="H82:I82"/>
     <mergeCell ref="B83:C83"/>
     <mergeCell ref="G83:H83"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="I84:J84"/>
     <mergeCell ref="D85:E85"/>
     <mergeCell ref="G85:H85"/>
     <mergeCell ref="F90:F95"/>
@@ -6013,18 +6012,20 @@
     <mergeCell ref="B122:C122"/>
     <mergeCell ref="F126:F131"/>
     <mergeCell ref="G126:I126"/>
+    <mergeCell ref="B127:C127"/>
     <mergeCell ref="H127:J127"/>
-    <mergeCell ref="C128:D128"/>
+    <mergeCell ref="B128:D128"/>
     <mergeCell ref="C129:D129"/>
     <mergeCell ref="G129:I129"/>
     <mergeCell ref="B130:D130"/>
     <mergeCell ref="B131:C131"/>
     <mergeCell ref="D131:E131"/>
+    <mergeCell ref="G131:H131"/>
     <mergeCell ref="F135:F140"/>
     <mergeCell ref="G135:H135"/>
     <mergeCell ref="H136:J136"/>
     <mergeCell ref="B137:D137"/>
-    <mergeCell ref="B139:C139"/>
+    <mergeCell ref="B139:D139"/>
     <mergeCell ref="H139:I139"/>
     <mergeCell ref="B144:C144"/>
     <mergeCell ref="F144:F149"/>
@@ -6104,8 +6105,8 @@
   </sheetPr>
   <dimension ref="A1:Q91"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A42" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G66" activeCellId="0" sqref="G66"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J5" activeCellId="0" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6160,7 +6161,7 @@
     </row>
     <row r="4" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -6188,7 +6189,7 @@
     </row>
     <row r="6" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="12" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -6198,7 +6199,7 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
-      <c r="J6" s="37"/>
+      <c r="J6" s="38"/>
       <c r="K6" s="6"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6246,11 +6247,11 @@
       </c>
       <c r="B8" s="15"/>
       <c r="C8" s="17"/>
-      <c r="D8" s="38" t="s">
-        <v>136</v>
-      </c>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
+      <c r="D8" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
       <c r="G8" s="19" t="s">
         <v>16</v>
       </c>
@@ -6291,9 +6292,11 @@
         <v>19</v>
       </c>
       <c r="B10" s="15"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
+      <c r="C10" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
       <c r="F10" s="17"/>
       <c r="G10" s="19"/>
       <c r="H10" s="17"/>
@@ -6314,11 +6317,11 @@
         <v>20</v>
       </c>
       <c r="B11" s="15"/>
-      <c r="C11" s="38" t="s">
-        <v>137</v>
-      </c>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
+      <c r="C11" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
       <c r="F11" s="17"/>
       <c r="G11" s="19"/>
       <c r="H11" s="17"/>
@@ -6337,9 +6340,11 @@
         <v>21</v>
       </c>
       <c r="B12" s="15"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
+      <c r="C12" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
       <c r="F12" s="17"/>
       <c r="G12" s="19"/>
       <c r="H12" s="17"/>
@@ -6376,7 +6381,7 @@
     </row>
     <row r="14" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="12" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -6385,8 +6390,8 @@
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
-      <c r="I14" s="43"/>
-      <c r="J14" s="37"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="38"/>
       <c r="K14" s="6"/>
       <c r="L14" s="27"/>
       <c r="M14" s="40"/>
@@ -6434,20 +6439,20 @@
       </c>
       <c r="B16" s="15"/>
       <c r="C16" s="41" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D16" s="41"/>
       <c r="E16" s="41"/>
-      <c r="F16" s="44"/>
+      <c r="F16" s="43"/>
       <c r="G16" s="19" t="s">
         <v>16</v>
       </c>
       <c r="H16" s="17" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="I16" s="17"/>
       <c r="J16" s="17"/>
-      <c r="K16" s="44"/>
+      <c r="K16" s="43"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="15" t="s">
@@ -6455,7 +6460,7 @@
       </c>
       <c r="B17" s="15"/>
       <c r="C17" s="41" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D17" s="41"/>
       <c r="E17" s="41"/>
@@ -6527,7 +6532,7 @@
     </row>
     <row r="22" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="12" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -6537,7 +6542,7 @@
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
-      <c r="J22" s="37"/>
+      <c r="J22" s="38"/>
       <c r="K22" s="6"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6672,7 +6677,7 @@
       <c r="D30" s="27"/>
       <c r="E30" s="27"/>
       <c r="F30" s="27"/>
-      <c r="G30" s="29"/>
+      <c r="G30" s="30"/>
       <c r="H30" s="27"/>
       <c r="I30" s="27"/>
       <c r="J30" s="27"/>
@@ -6685,7 +6690,7 @@
       <c r="D31" s="27"/>
       <c r="E31" s="27"/>
       <c r="F31" s="27"/>
-      <c r="G31" s="29"/>
+      <c r="G31" s="30"/>
       <c r="H31" s="27"/>
       <c r="I31" s="27"/>
       <c r="J31" s="27"/>
@@ -6693,7 +6698,7 @@
     </row>
     <row r="32" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="12" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
@@ -6703,7 +6708,7 @@
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
-      <c r="J32" s="45"/>
+      <c r="J32" s="38"/>
       <c r="K32" s="6"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6753,7 +6758,7 @@
       <c r="H34" s="17"/>
       <c r="I34" s="17"/>
       <c r="J34" s="17" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="K34" s="17"/>
     </row>
@@ -6769,7 +6774,7 @@
       <c r="G35" s="19"/>
       <c r="H35" s="17"/>
       <c r="I35" s="17" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="J35" s="17"/>
       <c r="K35" s="17"/>
@@ -6780,19 +6785,19 @@
       </c>
       <c r="B36" s="15"/>
       <c r="C36" s="17" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D36" s="17"/>
       <c r="F36" s="17"/>
       <c r="G36" s="19"/>
       <c r="H36" s="17" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="I36" s="17"/>
-      <c r="J36" s="38" t="s">
-        <v>112</v>
-      </c>
-      <c r="K36" s="38"/>
+      <c r="J36" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="K36" s="17"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="15" t="s">
@@ -6801,14 +6806,14 @@
       <c r="B37" s="15"/>
       <c r="C37" s="17"/>
       <c r="D37" s="17" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="E37" s="17"/>
       <c r="F37" s="17"/>
       <c r="G37" s="19"/>
       <c r="H37" s="17"/>
       <c r="I37" s="17" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="J37" s="17"/>
       <c r="K37" s="17"/>
@@ -6819,14 +6824,14 @@
       </c>
       <c r="B38" s="15"/>
       <c r="C38" s="17" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D38" s="17"/>
       <c r="E38" s="17"/>
       <c r="F38" s="17"/>
       <c r="G38" s="19"/>
       <c r="H38" s="17" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="I38" s="17"/>
       <c r="J38" s="17"/>
@@ -6849,7 +6854,7 @@
     </row>
     <row r="40" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="12" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
@@ -6859,7 +6864,7 @@
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
-      <c r="J40" s="37"/>
+      <c r="J40" s="38"/>
       <c r="K40" s="6"/>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6901,7 +6906,7 @@
       </c>
       <c r="B42" s="15"/>
       <c r="C42" s="17" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D42" s="17"/>
       <c r="E42" s="17"/>
@@ -6910,7 +6915,7 @@
       </c>
       <c r="H42" s="17"/>
       <c r="I42" s="17" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="J42" s="17"/>
       <c r="K42" s="17"/>
@@ -6921,7 +6926,7 @@
       </c>
       <c r="B43" s="15"/>
       <c r="C43" s="17" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D43" s="17"/>
       <c r="E43" s="17"/>
@@ -6937,7 +6942,7 @@
       </c>
       <c r="B44" s="15"/>
       <c r="C44" s="17" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D44" s="17"/>
       <c r="E44" s="17"/>
@@ -6953,7 +6958,7 @@
       </c>
       <c r="B45" s="15"/>
       <c r="C45" s="17" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D45" s="17"/>
       <c r="E45" s="17"/>
@@ -6969,7 +6974,7 @@
       </c>
       <c r="B46" s="15"/>
       <c r="C46" s="17" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D46" s="17"/>
       <c r="E46" s="17"/>
@@ -6996,7 +7001,7 @@
     </row>
     <row r="48" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="12" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
@@ -7006,7 +7011,7 @@
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
       <c r="I48" s="6"/>
-      <c r="J48" s="37"/>
+      <c r="J48" s="38"/>
       <c r="K48" s="6"/>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7136,7 +7141,7 @@
     </row>
     <row r="57" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="12" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
@@ -7146,7 +7151,7 @@
       <c r="G57" s="6"/>
       <c r="H57" s="6"/>
       <c r="I57" s="6"/>
-      <c r="J57" s="37"/>
+      <c r="J57" s="38"/>
       <c r="K57" s="6"/>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7188,7 +7193,7 @@
       </c>
       <c r="B59" s="15"/>
       <c r="C59" s="17" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D59" s="17"/>
       <c r="E59" s="17"/>
@@ -7196,11 +7201,11 @@
         <v>16</v>
       </c>
       <c r="H59" s="17" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="I59" s="17"/>
       <c r="J59" s="17"/>
-      <c r="K59" s="44"/>
+      <c r="K59" s="43"/>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="15" t="s">
@@ -7208,17 +7213,15 @@
       </c>
       <c r="B60" s="15"/>
       <c r="C60" s="17" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D60" s="17"/>
       <c r="E60" s="17"/>
       <c r="G60" s="19"/>
-      <c r="H60" s="44"/>
-      <c r="I60" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="J60" s="17"/>
-      <c r="K60" s="17"/>
+      <c r="H60" s="43"/>
+      <c r="I60" s="23"/>
+      <c r="J60" s="23"/>
+      <c r="K60" s="23"/>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="15" t="s">
@@ -7226,14 +7229,14 @@
       </c>
       <c r="B61" s="15"/>
       <c r="C61" s="17" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D61" s="17"/>
       <c r="E61" s="17"/>
       <c r="G61" s="19"/>
-      <c r="H61" s="44"/>
+      <c r="H61" s="43"/>
       <c r="I61" s="17" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="J61" s="17"/>
       <c r="K61" s="17"/>
@@ -7243,33 +7246,31 @@
         <v>20</v>
       </c>
       <c r="B62" s="15"/>
-      <c r="C62" s="38" t="s">
-        <v>166</v>
-      </c>
-      <c r="D62" s="38"/>
-      <c r="E62" s="38"/>
+      <c r="C62" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="D62" s="17"/>
+      <c r="E62" s="17"/>
       <c r="G62" s="19"/>
       <c r="H62" s="17" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="I62" s="17"/>
       <c r="J62" s="17"/>
-      <c r="K62" s="44"/>
+      <c r="K62" s="43"/>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="15" t="s">
         <v>21</v>
       </c>
       <c r="B63" s="15"/>
-      <c r="C63" s="17" t="s">
-        <v>168</v>
-      </c>
-      <c r="D63" s="17"/>
-      <c r="E63" s="17"/>
+      <c r="C63" s="23"/>
+      <c r="D63" s="23"/>
+      <c r="E63" s="23"/>
       <c r="G63" s="19"/>
-      <c r="H63" s="44"/>
+      <c r="H63" s="43"/>
       <c r="I63" s="17" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="J63" s="17"/>
       <c r="K63" s="17"/>
@@ -7291,7 +7292,7 @@
     </row>
     <row r="66" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="12" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B66" s="6"/>
       <c r="C66" s="6"/>
@@ -7301,7 +7302,7 @@
       <c r="G66" s="6"/>
       <c r="H66" s="6"/>
       <c r="I66" s="6"/>
-      <c r="J66" s="37"/>
+      <c r="J66" s="38"/>
       <c r="K66" s="6"/>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7343,20 +7344,20 @@
       </c>
       <c r="B68" s="15"/>
       <c r="C68" s="17" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D68" s="17"/>
       <c r="E68" s="17"/>
-      <c r="F68" s="44"/>
+      <c r="F68" s="43"/>
       <c r="G68" s="19" t="s">
         <v>16</v>
       </c>
       <c r="H68" s="17" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="I68" s="17"/>
       <c r="J68" s="17"/>
-      <c r="K68" s="44"/>
+      <c r="K68" s="43"/>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="15" t="s">
@@ -7364,18 +7365,18 @@
       </c>
       <c r="B69" s="15"/>
       <c r="C69" s="17" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D69" s="17"/>
       <c r="E69" s="17"/>
-      <c r="F69" s="44"/>
+      <c r="F69" s="43"/>
       <c r="G69" s="19"/>
       <c r="H69" s="17" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="I69" s="17"/>
       <c r="J69" s="17"/>
-      <c r="K69" s="44"/>
+      <c r="K69" s="43"/>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="15" t="s">
@@ -7383,15 +7384,15 @@
       </c>
       <c r="B70" s="15"/>
       <c r="C70" s="17" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D70" s="17"/>
       <c r="E70" s="17"/>
-      <c r="F70" s="44"/>
+      <c r="F70" s="43"/>
       <c r="G70" s="19"/>
-      <c r="H70" s="44"/>
+      <c r="H70" s="43"/>
       <c r="I70" s="17" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="J70" s="17"/>
       <c r="K70" s="17"/>
@@ -7402,18 +7403,18 @@
       </c>
       <c r="B71" s="15"/>
       <c r="C71" s="17" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D71" s="17"/>
       <c r="E71" s="17"/>
-      <c r="F71" s="44"/>
+      <c r="F71" s="43"/>
       <c r="G71" s="19"/>
       <c r="H71" s="17" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="I71" s="17"/>
       <c r="J71" s="17"/>
-      <c r="K71" s="44"/>
+      <c r="K71" s="43"/>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="15" t="s">
@@ -7421,15 +7422,15 @@
       </c>
       <c r="B72" s="15"/>
       <c r="C72" s="17" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D72" s="17"/>
       <c r="E72" s="17"/>
-      <c r="F72" s="44"/>
+      <c r="F72" s="43"/>
       <c r="G72" s="19"/>
-      <c r="H72" s="44"/>
+      <c r="H72" s="43"/>
       <c r="I72" s="17" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="J72" s="17"/>
       <c r="K72" s="17"/>
@@ -7451,7 +7452,7 @@
     </row>
     <row r="75" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="12" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B75" s="6"/>
       <c r="C75" s="6"/>
@@ -7461,7 +7462,7 @@
       <c r="G75" s="6"/>
       <c r="H75" s="6"/>
       <c r="I75" s="6"/>
-      <c r="J75" s="37"/>
+      <c r="J75" s="38"/>
       <c r="K75" s="6"/>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7524,20 +7525,20 @@
       <c r="F78" s="17"/>
       <c r="G78" s="19"/>
       <c r="H78" s="17"/>
-      <c r="I78" s="17"/>
-      <c r="J78" s="17"/>
-      <c r="K78" s="17"/>
+      <c r="I78" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="J78" s="23"/>
+      <c r="K78" s="23"/>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="15" t="s">
         <v>19</v>
       </c>
       <c r="B79" s="15"/>
-      <c r="C79" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="D79" s="17"/>
-      <c r="E79" s="17"/>
+      <c r="C79" s="23"/>
+      <c r="D79" s="23"/>
+      <c r="E79" s="23"/>
       <c r="F79" s="17"/>
       <c r="G79" s="19"/>
       <c r="H79" s="17"/>
@@ -7551,7 +7552,7 @@
       </c>
       <c r="B80" s="15"/>
       <c r="C80" s="17" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D80" s="17"/>
       <c r="E80" s="17"/>
@@ -7567,11 +7568,11 @@
         <v>21</v>
       </c>
       <c r="B81" s="15"/>
-      <c r="C81" s="17" t="s">
-        <v>184</v>
-      </c>
-      <c r="D81" s="17"/>
-      <c r="E81" s="17"/>
+      <c r="C81" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="D81" s="23"/>
+      <c r="E81" s="23"/>
       <c r="F81" s="17"/>
       <c r="G81" s="19"/>
       <c r="H81" s="17"/>
@@ -7596,7 +7597,7 @@
     </row>
     <row r="84" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="12" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B84" s="6"/>
       <c r="C84" s="6"/>
@@ -7606,7 +7607,7 @@
       <c r="G84" s="6"/>
       <c r="H84" s="6"/>
       <c r="I84" s="6"/>
-      <c r="J84" s="37"/>
+      <c r="J84" s="38"/>
       <c r="K84" s="6"/>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7655,7 +7656,7 @@
         <v>16</v>
       </c>
       <c r="H86" s="17" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I86" s="17"/>
       <c r="J86" s="17"/>
@@ -7669,13 +7670,13 @@
       <c r="C87" s="17"/>
       <c r="D87" s="17"/>
       <c r="E87" s="17" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F87" s="17"/>
       <c r="G87" s="19"/>
       <c r="H87" s="17"/>
       <c r="I87" s="17" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="J87" s="17"/>
       <c r="K87" s="17"/>
@@ -7691,7 +7692,7 @@
       <c r="F88" s="17"/>
       <c r="G88" s="19"/>
       <c r="H88" s="17" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="I88" s="17"/>
       <c r="J88" s="17"/>
@@ -7704,14 +7705,14 @@
       <c r="B89" s="15"/>
       <c r="C89" s="17"/>
       <c r="D89" s="17" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E89" s="17"/>
       <c r="F89" s="17"/>
       <c r="G89" s="19"/>
       <c r="H89" s="17"/>
       <c r="I89" s="17" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="J89" s="17"/>
       <c r="K89" s="17"/>
@@ -7723,14 +7724,14 @@
       <c r="B90" s="15"/>
       <c r="C90" s="17"/>
       <c r="D90" s="17" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E90" s="17"/>
       <c r="F90" s="17"/>
       <c r="G90" s="19"/>
       <c r="H90" s="17"/>
       <c r="I90" s="17" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="J90" s="17"/>
       <c r="K90" s="17"/>

--- a/Faculty Time Table-CSE,IT.xlsx
+++ b/Faculty Time Table-CSE,IT.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Faculty TT" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="240">
   <si>
     <t xml:space="preserve">Aurora's Technological &amp; Research Institute</t>
   </si>
@@ -99,12 +99,36 @@
     <t xml:space="preserve">Ms. Durga Pavani </t>
   </si>
   <si>
+    <t xml:space="preserve">HCI-CSE-4C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HCI-CSE-4B</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ms. K.Kavitha </t>
   </si>
   <si>
+    <t xml:space="preserve">HCI-CSE-4D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HCI-IT-4</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ms. A.Anitha</t>
   </si>
   <si>
+    <t xml:space="preserve">MLLAB-CSE-3C(B1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MLLAB-CSE-3A(B1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MLLAB-CSE-3A(B2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MLLAB-CSE-3C(B2)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mr. ARSofi </t>
   </si>
   <si>
@@ -123,6 +147,9 @@
     <t xml:space="preserve">PPS-CSM-1A</t>
   </si>
   <si>
+    <t xml:space="preserve">MLLAB-CSE-3D</t>
+  </si>
+  <si>
     <t xml:space="preserve">PPS LAB CSM-1A (B1)</t>
   </si>
   <si>
@@ -189,12 +216,18 @@
     <t xml:space="preserve">ITWS LAB-2C(B2)</t>
   </si>
   <si>
+    <t xml:space="preserve">DEVOPS-CSM-3(B2)</t>
+  </si>
+  <si>
     <t xml:space="preserve">ECSE-1A</t>
   </si>
   <si>
     <t xml:space="preserve">ITWS LAB -2C(B1)</t>
   </si>
   <si>
+    <t xml:space="preserve">DEVOPS-CSM-3(B1)</t>
+  </si>
+  <si>
     <t xml:space="preserve">ITWS LAB -2B(B2)</t>
   </si>
   <si>
@@ -255,15 +288,36 @@
     <t xml:space="preserve">Mr. Mahesh </t>
   </si>
   <si>
+    <t xml:space="preserve">CD LAB-3C(B2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD LAB-3A(B2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD LAB-3A(B1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD LAB-3C(B1)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dr. Masood Ahmed</t>
   </si>
   <si>
     <t xml:space="preserve">DS LAB-CSM-2 (B1)</t>
   </si>
   <si>
+    <t xml:space="preserve">DS-CSE-4A</t>
+  </si>
+  <si>
     <t xml:space="preserve">DS LAB-CSM-2 (B2)</t>
   </si>
   <si>
+    <t xml:space="preserve">NLP LAB-CSM-3(B1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NLP LAB-CSM-3(B2)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ms. Rajini </t>
   </si>
   <si>
@@ -315,9 +369,15 @@
     <t xml:space="preserve">ECSE-CS/CSM-B</t>
   </si>
   <si>
+    <t xml:space="preserve">MLLAB-CSE-3B(B2)</t>
+  </si>
+  <si>
     <t xml:space="preserve">ECSE-1B</t>
   </si>
   <si>
+    <t xml:space="preserve">MLLAB-CSE-3B(B1)</t>
+  </si>
+  <si>
     <t xml:space="preserve">ECSE -DS-1</t>
   </si>
   <si>
@@ -336,18 +396,39 @@
     <t xml:space="preserve">Ms. Sameena </t>
   </si>
   <si>
+    <t xml:space="preserve">MAD LAB-CSE-3D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAD LAB-CSM-3(B2)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dr. Saravanan</t>
   </si>
   <si>
     <t xml:space="preserve">DS LAB-IT-2 (B1)</t>
   </si>
   <si>
+    <t xml:space="preserve">STM LAB-IT-3</t>
+  </si>
+  <si>
     <t xml:space="preserve">DS LAB-IT-2 (B2)</t>
   </si>
   <si>
     <t xml:space="preserve">Ms. Shilpa </t>
   </si>
   <si>
+    <t xml:space="preserve">CD LAB-CSE-3B(B1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD LAB-3D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PCC LAB-IT-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD LAB-CSE-3B(B2)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ms. Sowmya</t>
   </si>
   <si>
@@ -402,6 +483,18 @@
     <t xml:space="preserve">Ms. TV Ramanamma </t>
   </si>
   <si>
+    <t xml:space="preserve">MAD LAB-3C(B1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAD LAB-3C(B2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAD LAB-3A(B2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAD LAB-3A(B1)</t>
+  </si>
+  <si>
     <t xml:space="preserve">ITWS LAB-2A(B1)</t>
   </si>
   <si>
@@ -414,12 +507,18 @@
     <t xml:space="preserve">C++ LAB-IT-2 (B1)</t>
   </si>
   <si>
+    <t xml:space="preserve">MAD LAB-3B(B2)</t>
+  </si>
+  <si>
     <t xml:space="preserve">OOPC-IT-2</t>
   </si>
   <si>
     <t xml:space="preserve">C++ LAB - IT-2 (B2)</t>
   </si>
   <si>
+    <t xml:space="preserve">MAD LAB-3B(B1)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dr. Vinod Kumar</t>
   </si>
   <si>
@@ -462,9 +561,27 @@
     <t xml:space="preserve">ITWS LAB - IT-2(B2) </t>
   </si>
   <si>
+    <t xml:space="preserve">ITWS-CSE-2A(B1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITWS-CSE-2A(B2)</t>
+  </si>
+  <si>
     <t xml:space="preserve">A110B </t>
   </si>
   <si>
+    <t xml:space="preserve">MAD LAB-CSM-3(B1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAD LAB-CSE-3A(B2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAD LAB-CSE-3A(B1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAD A C </t>
+  </si>
+  <si>
     <t xml:space="preserve">A214A/1 (PPS,DS)</t>
   </si>
   <si>
@@ -504,15 +621,33 @@
     <t xml:space="preserve">PYTHON LAB – CSM-2(B1)</t>
   </si>
   <si>
+    <t xml:space="preserve">DEVOPS LAB-CSM-3(B2)</t>
+  </si>
+  <si>
     <t xml:space="preserve">ITWS LAB - CSE-2D(B1)</t>
   </si>
   <si>
+    <t xml:space="preserve">DEVOPS LAB-CSM-3(B1)</t>
+  </si>
+  <si>
     <t xml:space="preserve">ITWS LAB – CSE-2B(B2)</t>
   </si>
   <si>
     <t xml:space="preserve">A214D</t>
   </si>
   <si>
+    <t xml:space="preserve">CD LAB-CSE-3A(B2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD LAB-CSE-3A(B1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cd ia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD LAB-3B(B2)</t>
+  </si>
+  <si>
     <t xml:space="preserve">A203 ( DS )</t>
   </si>
   <si>
@@ -576,13 +711,13 @@
     <t xml:space="preserve">A201A ( ITWS )</t>
   </si>
   <si>
-    <t xml:space="preserve">ITWS-CSE-2A(B1)</t>
+    <t xml:space="preserve">ML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MLLAB-CSE-3B (B2)</t>
   </si>
   <si>
     <t xml:space="preserve">ITWS- IT-2(B1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ITWS-CSE-2A(B2)</t>
   </si>
   <si>
     <t xml:space="preserve">A214A/2 (PPS)</t>
@@ -619,7 +754,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -701,14 +836,6 @@
     </font>
     <font>
       <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
       <sz val="9"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -743,7 +870,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -764,6 +891,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFB4C7DC"/>
+        <bgColor rgb="FFB3CAC7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFCC"/>
       </patternFill>
@@ -772,6 +905,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF81D41A"/>
         <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFAA95"/>
+        <bgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB3CAC7"/>
+        <bgColor rgb="FFB4C7DC"/>
       </patternFill>
     </fill>
   </fills>
@@ -830,7 +975,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="48">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -919,23 +1064,23 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -955,7 +1100,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -967,11 +1116,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -979,7 +1128,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -995,7 +1144,7 @@
       <alignment horizontal="right" vertical="center" textRotation="255" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1005,6 +1154,18 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1032,16 +1193,16 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FFB3CAC7"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFDAE3F3"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFDAE3F3"/>
+      <rgbColor rgb="FFB4C7DC"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -1055,7 +1216,7 @@
       <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFFFAA95"/>
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
@@ -1086,8 +1247,8 @@
   </sheetPr>
   <dimension ref="A1:U1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A146" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B153" activeCellId="0" sqref="B153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1364,13 +1525,17 @@
         <v>15</v>
       </c>
       <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="18"/>
+      <c r="C18" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="22"/>
       <c r="E18" s="17"/>
       <c r="F18" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="G18" s="17"/>
+      <c r="G18" s="22" t="s">
+        <v>25</v>
+      </c>
       <c r="H18" s="17"/>
       <c r="I18" s="17" t="s">
         <v>17</v>
@@ -1383,11 +1548,15 @@
         <v>18</v>
       </c>
       <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
+      <c r="C19" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="22"/>
       <c r="E19" s="17"/>
       <c r="F19" s="19"/>
-      <c r="G19" s="17"/>
+      <c r="G19" s="22" t="s">
+        <v>24</v>
+      </c>
       <c r="H19" s="18"/>
       <c r="I19" s="18"/>
       <c r="J19" s="17"/>
@@ -1457,7 +1626,7 @@
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25" s="13"/>
       <c r="C25" s="13"/>
@@ -1508,14 +1677,19 @@
         <v>15</v>
       </c>
       <c r="B27" s="17"/>
-      <c r="D27" s="17"/>
+      <c r="C27" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" s="22"/>
       <c r="E27" s="17"/>
       <c r="F27" s="19" t="s">
         <v>16</v>
       </c>
       <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
+      <c r="H27" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="I27" s="22"/>
       <c r="J27" s="17"/>
       <c r="K27" s="10"/>
     </row>
@@ -1526,10 +1700,14 @@
       <c r="B28" s="17"/>
       <c r="C28" s="17"/>
       <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
+      <c r="E28" s="22" t="s">
+        <v>27</v>
+      </c>
       <c r="F28" s="19"/>
       <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
+      <c r="H28" s="22" t="s">
+        <v>28</v>
+      </c>
       <c r="I28" s="17"/>
       <c r="J28" s="17"/>
       <c r="K28" s="10"/>
@@ -1596,7 +1774,7 @@
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="12" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B34" s="13"/>
       <c r="C34" s="13"/>
@@ -1674,7 +1852,7 @@
       <c r="G36" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="H36" s="22"/>
+      <c r="H36" s="23"/>
       <c r="I36" s="17"/>
       <c r="J36" s="17"/>
       <c r="L36" s="0"/>
@@ -1692,15 +1870,20 @@
       <c r="A37" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B37" s="17"/>
+      <c r="B37" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C37" s="17"/>
       <c r="D37" s="17"/>
       <c r="E37" s="17"/>
       <c r="F37" s="19"/>
       <c r="G37" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="H37" s="18"/>
-      <c r="I37" s="18"/>
+      <c r="H37" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="I37" s="17"/>
       <c r="J37" s="17"/>
       <c r="L37" s="0"/>
       <c r="M37" s="0"/>
@@ -1722,8 +1905,8 @@
       <c r="D38" s="17"/>
       <c r="E38" s="17"/>
       <c r="F38" s="19"/>
-      <c r="G38" s="23"/>
-      <c r="H38" s="23"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="22"/>
       <c r="I38" s="18"/>
       <c r="J38" s="17"/>
       <c r="L38" s="0"/>
@@ -1744,12 +1927,14 @@
       <c r="B39" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C39" s="23"/>
-      <c r="D39" s="23"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
       <c r="F39" s="19"/>
-      <c r="H39" s="24"/>
-      <c r="I39" s="24"/>
-      <c r="J39" s="24"/>
+      <c r="H39" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="I39" s="17"/>
+      <c r="J39" s="17"/>
       <c r="L39" s="0"/>
       <c r="M39" s="0"/>
       <c r="N39" s="0"/>
@@ -1765,12 +1950,16 @@
       <c r="A40" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B40" s="23"/>
-      <c r="C40" s="23"/>
-      <c r="D40" s="23"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
       <c r="E40" s="17"/>
       <c r="F40" s="19"/>
       <c r="G40" s="17"/>
+      <c r="H40" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="I40" s="17"/>
       <c r="J40" s="17"/>
       <c r="L40" s="0"/>
       <c r="M40" s="0"/>
@@ -1809,7 +1998,7 @@
     </row>
     <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="12" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B43" s="13"/>
       <c r="C43" s="13"/>
@@ -1862,14 +2051,14 @@
       <c r="B45" s="17"/>
       <c r="C45" s="17"/>
       <c r="D45" s="17"/>
-      <c r="E45" s="23" t="s">
-        <v>27</v>
+      <c r="E45" s="22" t="s">
+        <v>35</v>
       </c>
       <c r="F45" s="19" t="s">
         <v>16</v>
       </c>
       <c r="H45" s="17" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="I45" s="17"/>
       <c r="J45" s="17"/>
@@ -1880,19 +2069,19 @@
         <v>18</v>
       </c>
       <c r="B46" s="17" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C46" s="17"/>
       <c r="D46" s="17" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="E46" s="17"/>
       <c r="F46" s="19"/>
       <c r="G46" s="17"/>
-      <c r="H46" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="I46" s="23"/>
+      <c r="H46" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="I46" s="22"/>
       <c r="J46" s="17"/>
       <c r="K46" s="10"/>
     </row>
@@ -1901,18 +2090,18 @@
         <v>19</v>
       </c>
       <c r="B47" s="17"/>
-      <c r="C47" s="22"/>
-      <c r="D47" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="E47" s="25"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="E47" s="24"/>
       <c r="F47" s="19"/>
       <c r="G47" s="17"/>
-      <c r="H47" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="I47" s="17"/>
-      <c r="J47" s="17"/>
+      <c r="H47" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="I47" s="25"/>
+      <c r="J47" s="25"/>
       <c r="K47" s="10"/>
     </row>
     <row r="48" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1921,27 +2110,27 @@
       </c>
       <c r="B48" s="17"/>
       <c r="C48" s="17" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D48" s="17"/>
       <c r="E48" s="17"/>
       <c r="F48" s="19"/>
-      <c r="G48" s="22"/>
+      <c r="G48" s="23"/>
       <c r="H48" s="17" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="I48" s="17"/>
-      <c r="J48" s="22"/>
+      <c r="J48" s="23"/>
       <c r="K48" s="10"/>
     </row>
     <row r="49" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B49" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="C49" s="23"/>
+      <c r="B49" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C49" s="22"/>
       <c r="D49" s="17"/>
       <c r="E49" s="17"/>
       <c r="F49" s="19"/>
@@ -1983,7 +2172,7 @@
     </row>
     <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="12" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="B52" s="13"/>
       <c r="C52" s="13"/>
@@ -2053,19 +2242,19 @@
       <c r="A54" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B54" s="23" t="s">
-        <v>35</v>
+      <c r="B54" s="22" t="s">
+        <v>44</v>
       </c>
       <c r="C54" s="18"/>
       <c r="D54" s="29" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="E54" s="17"/>
       <c r="F54" s="19" t="s">
         <v>16</v>
       </c>
       <c r="G54" s="17" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H54" s="17"/>
       <c r="I54" s="17"/>
@@ -2089,12 +2278,12 @@
       <c r="B55" s="18"/>
       <c r="C55" s="18"/>
       <c r="D55" s="18"/>
-      <c r="E55" s="23" t="s">
-        <v>36</v>
+      <c r="E55" s="22" t="s">
+        <v>45</v>
       </c>
       <c r="F55" s="19"/>
       <c r="G55" s="17" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H55" s="17"/>
       <c r="I55" s="17"/>
@@ -2116,18 +2305,18 @@
         <v>19</v>
       </c>
       <c r="B56" s="17" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="C56" s="17"/>
       <c r="D56" s="17"/>
       <c r="E56" s="17"/>
       <c r="F56" s="19"/>
       <c r="G56" s="17" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H56" s="17"/>
       <c r="I56" s="17" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="J56" s="17"/>
       <c r="K56" s="10"/>
@@ -2147,17 +2336,17 @@
         <v>20</v>
       </c>
       <c r="B57" s="17" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C57" s="17"/>
       <c r="D57" s="17"/>
       <c r="E57" s="17" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="F57" s="19"/>
       <c r="G57" s="17"/>
       <c r="H57" s="17" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I57" s="17"/>
       <c r="J57" s="17"/>
@@ -2178,18 +2367,18 @@
         <v>21</v>
       </c>
       <c r="B58" s="17" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="C58" s="17"/>
       <c r="D58" s="17"/>
       <c r="E58" s="17"/>
       <c r="F58" s="19"/>
       <c r="G58" s="17" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="H58" s="17"/>
       <c r="I58" s="17" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="J58" s="17"/>
       <c r="K58" s="10"/>
@@ -2209,7 +2398,7 @@
         <v>22</v>
       </c>
       <c r="B59" s="17" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C59" s="17"/>
       <c r="D59" s="17"/>
@@ -2246,7 +2435,7 @@
     </row>
     <row r="61" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="12" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="B61" s="13"/>
       <c r="C61" s="13"/>
@@ -2317,11 +2506,11 @@
         <v>15</v>
       </c>
       <c r="B63" s="17" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="C63" s="18"/>
       <c r="D63" s="17" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="E63" s="17"/>
       <c r="F63" s="19" t="s">
@@ -2329,9 +2518,9 @@
       </c>
       <c r="G63" s="17"/>
       <c r="H63" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="I63" s="22"/>
+        <v>54</v>
+      </c>
+      <c r="I63" s="23"/>
       <c r="J63" s="17"/>
       <c r="K63" s="10"/>
       <c r="L63" s="0"/>
@@ -2352,15 +2541,15 @@
       <c r="B64" s="17"/>
       <c r="C64" s="17"/>
       <c r="D64" s="17" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="F64" s="19"/>
       <c r="G64" s="17"/>
-      <c r="H64" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="I64" s="23"/>
-      <c r="J64" s="23"/>
+      <c r="H64" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="I64" s="22"/>
+      <c r="J64" s="22"/>
       <c r="K64" s="10"/>
       <c r="L64" s="0"/>
       <c r="M64" s="0"/>
@@ -2378,16 +2567,16 @@
         <v>19</v>
       </c>
       <c r="B65" s="17" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C65" s="17"/>
       <c r="D65" s="17"/>
-      <c r="E65" s="23" t="s">
-        <v>44</v>
+      <c r="E65" s="22" t="s">
+        <v>53</v>
       </c>
       <c r="F65" s="19"/>
       <c r="G65" s="17" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="H65" s="17"/>
       <c r="I65" s="18"/>
@@ -2409,14 +2598,14 @@
         <v>20</v>
       </c>
       <c r="B66" s="17" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="D66" s="17"/>
       <c r="E66" s="17"/>
       <c r="F66" s="19"/>
       <c r="G66" s="21"/>
       <c r="H66" s="17" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="I66" s="17"/>
       <c r="J66" s="18"/>
@@ -2438,18 +2627,18 @@
       </c>
       <c r="B67" s="17"/>
       <c r="C67" s="17" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="D67" s="17"/>
       <c r="E67" s="17"/>
       <c r="F67" s="19"/>
       <c r="G67" s="17" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="H67" s="17"/>
       <c r="I67" s="21"/>
       <c r="J67" s="17" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="K67" s="10"/>
       <c r="L67" s="0"/>
@@ -2513,7 +2702,7 @@
     </row>
     <row r="70" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="12" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="B70" s="13"/>
       <c r="C70" s="13"/>
@@ -2585,7 +2774,7 @@
       </c>
       <c r="B72" s="17"/>
       <c r="C72" s="17" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="E72" s="18"/>
       <c r="F72" s="19" t="s">
@@ -2593,7 +2782,7 @@
       </c>
       <c r="G72" s="17"/>
       <c r="H72" s="17" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="I72" s="17"/>
       <c r="J72" s="17"/>
@@ -2609,20 +2798,22 @@
       <c r="T72" s="0"/>
       <c r="U72" s="0"/>
     </row>
-    <row r="73" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="15" t="s">
         <v>18</v>
       </c>
       <c r="B73" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="C73" s="22"/>
+        <v>61</v>
+      </c>
+      <c r="C73" s="23"/>
       <c r="D73" s="17"/>
       <c r="E73" s="17"/>
       <c r="F73" s="19"/>
-      <c r="H73" s="23"/>
-      <c r="I73" s="23"/>
-      <c r="J73" s="17"/>
+      <c r="H73" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="I73" s="31"/>
+      <c r="J73" s="31"/>
       <c r="K73" s="10"/>
       <c r="L73" s="0"/>
       <c r="M73" s="0"/>
@@ -2639,9 +2830,9 @@
       <c r="A74" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C74" s="22"/>
+      <c r="C74" s="23"/>
       <c r="E74" s="17" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="F74" s="19"/>
       <c r="G74" s="21"/>
@@ -2660,21 +2851,23 @@
       <c r="T74" s="0"/>
       <c r="U74" s="0"/>
     </row>
-    <row r="75" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="15" t="s">
         <v>20</v>
       </c>
       <c r="B75" s="17" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C75" s="17"/>
       <c r="D75" s="17"/>
       <c r="E75" s="17"/>
       <c r="F75" s="19"/>
       <c r="G75" s="17"/>
-      <c r="H75" s="17"/>
-      <c r="I75" s="17"/>
-      <c r="J75" s="17"/>
+      <c r="H75" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="I75" s="31"/>
+      <c r="J75" s="31"/>
       <c r="K75" s="10"/>
       <c r="L75" s="0"/>
       <c r="M75" s="0"/>
@@ -2691,13 +2884,13 @@
       <c r="A76" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B76" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="C76" s="23"/>
-      <c r="D76" s="23"/>
+      <c r="B76" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C76" s="22"/>
+      <c r="D76" s="22"/>
       <c r="E76" s="17" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="F76" s="19"/>
       <c r="H76" s="17"/>
@@ -2755,7 +2948,7 @@
     </row>
     <row r="79" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="12" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="B79" s="13"/>
       <c r="C79" s="13"/>
@@ -2806,7 +2999,7 @@
         <v>15</v>
       </c>
       <c r="B81" s="17" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="C81" s="17"/>
       <c r="D81" s="17"/>
@@ -2815,11 +3008,11 @@
         <v>16</v>
       </c>
       <c r="G81" s="17" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="H81" s="17"/>
       <c r="I81" s="17" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="J81" s="17"/>
       <c r="K81" s="10"/>
@@ -2829,14 +3022,14 @@
         <v>18</v>
       </c>
       <c r="B82" s="17" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="C82" s="17"/>
       <c r="D82" s="17"/>
       <c r="F82" s="19"/>
-      <c r="G82" s="22"/>
+      <c r="G82" s="23"/>
       <c r="H82" s="17" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="I82" s="17"/>
       <c r="J82" s="17"/>
@@ -2847,17 +3040,17 @@
         <v>19</v>
       </c>
       <c r="B83" s="17" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="C83" s="17"/>
-      <c r="E83" s="23" t="s">
-        <v>62</v>
+      <c r="E83" s="22" t="s">
+        <v>73</v>
       </c>
       <c r="F83" s="19"/>
-      <c r="G83" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="H83" s="23"/>
+      <c r="G83" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="H83" s="22"/>
       <c r="I83" s="17"/>
       <c r="J83" s="17"/>
       <c r="K83" s="10"/>
@@ -2866,19 +3059,19 @@
       <c r="A84" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B84" s="22"/>
-      <c r="C84" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="D84" s="23"/>
+      <c r="B84" s="23"/>
+      <c r="C84" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="D84" s="22"/>
       <c r="E84" s="17" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="F84" s="19"/>
       <c r="G84" s="17"/>
       <c r="H84" s="18"/>
       <c r="I84" s="17" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="J84" s="17"/>
       <c r="K84" s="10"/>
@@ -2888,7 +3081,7 @@
         <v>21</v>
       </c>
       <c r="B85" s="17" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="C85" s="17" t="s">
         <v>17</v>
@@ -2897,7 +3090,7 @@
       <c r="E85" s="17"/>
       <c r="F85" s="19"/>
       <c r="G85" s="17" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="H85" s="17"/>
       <c r="J85" s="18"/>
@@ -2933,7 +3126,7 @@
     </row>
     <row r="88" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="12" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="B88" s="13"/>
       <c r="C88" s="13"/>
@@ -3004,7 +3197,7 @@
         <v>15</v>
       </c>
       <c r="B90" s="17" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="C90" s="17"/>
       <c r="D90" s="17"/>
@@ -3012,11 +3205,11 @@
       <c r="F90" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="G90" s="31"/>
-      <c r="H90" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="I90" s="23"/>
+      <c r="G90" s="32"/>
+      <c r="H90" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="I90" s="22"/>
       <c r="J90" s="17"/>
       <c r="K90" s="10"/>
       <c r="L90" s="0"/>
@@ -3036,17 +3229,17 @@
       </c>
       <c r="B91" s="17"/>
       <c r="C91" s="17" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="D91" s="17"/>
       <c r="E91" s="17"/>
       <c r="F91" s="19"/>
       <c r="G91" s="17" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="H91" s="17"/>
       <c r="I91" s="17" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="J91" s="17"/>
       <c r="K91" s="10"/>
@@ -3066,7 +3259,7 @@
         <v>19</v>
       </c>
       <c r="B92" s="17" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="C92" s="17"/>
       <c r="D92" s="17"/>
@@ -3074,7 +3267,7 @@
       <c r="F92" s="19"/>
       <c r="G92" s="17"/>
       <c r="H92" s="17" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="I92" s="17"/>
       <c r="J92" s="17"/>
@@ -3095,14 +3288,14 @@
         <v>20</v>
       </c>
       <c r="B93" s="17" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="C93" s="17"/>
       <c r="D93" s="17"/>
       <c r="E93" s="17"/>
       <c r="F93" s="19"/>
       <c r="G93" s="17" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="H93" s="17"/>
       <c r="I93" s="17"/>
@@ -3125,16 +3318,16 @@
       </c>
       <c r="B94" s="17"/>
       <c r="C94" s="17" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="D94" s="17"/>
       <c r="E94" s="17" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="F94" s="19"/>
       <c r="G94" s="17"/>
       <c r="H94" s="17" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="I94" s="17"/>
       <c r="J94" s="17"/>
@@ -3155,7 +3348,7 @@
         <v>22</v>
       </c>
       <c r="B95" s="17" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="C95" s="17"/>
       <c r="D95" s="17"/>
@@ -3202,7 +3395,7 @@
     </row>
     <row r="97" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="12" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="B97" s="13"/>
       <c r="C97" s="13"/>
@@ -3267,11 +3460,13 @@
       <c r="T98" s="0"/>
       <c r="U98" s="0"/>
     </row>
-    <row r="99" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B99" s="17"/>
+      <c r="B99" s="17" t="s">
+        <v>87</v>
+      </c>
       <c r="C99" s="17"/>
       <c r="D99" s="17"/>
       <c r="E99" s="17"/>
@@ -3293,17 +3488,19 @@
       <c r="T99" s="0"/>
       <c r="U99" s="0"/>
     </row>
-    <row r="100" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="15" t="s">
         <v>18</v>
       </c>
       <c r="B100" s="17"/>
-      <c r="C100" s="32"/>
-      <c r="D100" s="22"/>
+      <c r="C100" s="33"/>
+      <c r="D100" s="23"/>
       <c r="E100" s="21"/>
       <c r="F100" s="19"/>
       <c r="G100" s="17"/>
-      <c r="H100" s="17"/>
+      <c r="H100" s="17" t="s">
+        <v>88</v>
+      </c>
       <c r="I100" s="17"/>
       <c r="J100" s="17"/>
       <c r="L100" s="0"/>
@@ -3322,12 +3519,14 @@
         <v>19</v>
       </c>
       <c r="B101" s="21"/>
-      <c r="C101" s="22"/>
-      <c r="D101" s="33"/>
+      <c r="C101" s="23"/>
+      <c r="D101" s="34"/>
       <c r="E101" s="17"/>
       <c r="F101" s="19"/>
       <c r="G101" s="17"/>
-      <c r="H101" s="17"/>
+      <c r="H101" s="17" t="s">
+        <v>89</v>
+      </c>
       <c r="I101" s="17"/>
       <c r="J101" s="17"/>
       <c r="L101" s="0"/>
@@ -3375,7 +3574,9 @@
       <c r="E103" s="17"/>
       <c r="F103" s="19"/>
       <c r="G103" s="17"/>
-      <c r="H103" s="17"/>
+      <c r="H103" s="17" t="s">
+        <v>90</v>
+      </c>
       <c r="I103" s="17"/>
       <c r="J103" s="17"/>
       <c r="L103" s="0"/>
@@ -3437,7 +3638,7 @@
     </row>
     <row r="106" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="12" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="B106" s="13"/>
       <c r="C106" s="13"/>
@@ -3506,7 +3707,7 @@
         <v>15</v>
       </c>
       <c r="B108" s="17" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="C108" s="17"/>
       <c r="D108" s="17"/>
@@ -3514,8 +3715,10 @@
       <c r="F108" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="G108" s="17"/>
-      <c r="H108" s="17"/>
+      <c r="G108" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="H108" s="22"/>
       <c r="I108" s="17"/>
       <c r="J108" s="17"/>
       <c r="L108" s="0"/>
@@ -3534,14 +3737,16 @@
         <v>18</v>
       </c>
       <c r="B109" s="17" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="C109" s="17"/>
       <c r="D109" s="17"/>
       <c r="E109" s="17"/>
       <c r="F109" s="19"/>
       <c r="G109" s="17"/>
-      <c r="H109" s="17"/>
+      <c r="H109" s="22" t="s">
+        <v>93</v>
+      </c>
       <c r="I109" s="17"/>
       <c r="J109" s="17"/>
       <c r="L109" s="0"/>
@@ -3567,7 +3772,7 @@
       <c r="G110" s="17"/>
       <c r="H110" s="17"/>
       <c r="I110" s="17"/>
-      <c r="J110" s="22"/>
+      <c r="J110" s="23"/>
       <c r="L110" s="0"/>
       <c r="M110" s="0"/>
       <c r="N110" s="0"/>
@@ -3579,17 +3784,21 @@
       <c r="T110" s="0"/>
       <c r="U110" s="0"/>
     </row>
-    <row r="111" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B111" s="17"/>
+      <c r="B111" s="17" t="s">
+        <v>95</v>
+      </c>
       <c r="C111" s="17"/>
       <c r="D111" s="17"/>
       <c r="E111" s="17"/>
       <c r="F111" s="19"/>
       <c r="G111" s="17"/>
-      <c r="H111" s="17"/>
+      <c r="H111" s="17" t="s">
+        <v>96</v>
+      </c>
       <c r="I111" s="17"/>
       <c r="J111" s="17"/>
       <c r="L111" s="0"/>
@@ -3612,7 +3821,7 @@
       <c r="D112" s="17"/>
       <c r="E112" s="17"/>
       <c r="F112" s="19"/>
-      <c r="G112" s="22"/>
+      <c r="G112" s="23"/>
       <c r="H112" s="17"/>
       <c r="I112" s="17"/>
       <c r="J112" s="17"/>
@@ -3665,7 +3874,7 @@
     </row>
     <row r="115" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="12" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="B115" s="13"/>
       <c r="C115" s="13"/>
@@ -3714,7 +3923,7 @@
         <v>15</v>
       </c>
       <c r="B117" s="17" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="C117" s="17"/>
       <c r="D117" s="17"/>
@@ -3724,7 +3933,7 @@
       </c>
       <c r="G117" s="17"/>
       <c r="H117" s="17" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="I117" s="17"/>
       <c r="J117" s="17"/>
@@ -3735,17 +3944,17 @@
       </c>
       <c r="B118" s="17"/>
       <c r="C118" s="17" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="D118" s="17"/>
       <c r="E118" s="17"/>
       <c r="F118" s="19"/>
       <c r="G118" s="17" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="H118" s="17"/>
       <c r="I118" s="17" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="J118" s="17"/>
     </row>
@@ -3754,17 +3963,17 @@
         <v>19</v>
       </c>
       <c r="B119" s="17" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="C119" s="17"/>
       <c r="D119" s="17" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="E119" s="17"/>
       <c r="F119" s="19"/>
       <c r="G119" s="17"/>
       <c r="H119" s="17" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="I119" s="17"/>
       <c r="J119" s="17"/>
@@ -3774,13 +3983,13 @@
         <v>20</v>
       </c>
       <c r="B120" s="17" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="C120" s="17"/>
       <c r="D120" s="17"/>
       <c r="F120" s="19"/>
       <c r="G120" s="17" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="H120" s="17"/>
       <c r="I120" s="17"/>
@@ -3791,17 +4000,17 @@
         <v>21</v>
       </c>
       <c r="B121" s="17" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="C121" s="17"/>
       <c r="D121" s="17" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="E121" s="17"/>
       <c r="F121" s="19"/>
       <c r="G121" s="17"/>
       <c r="H121" s="17" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="I121" s="17"/>
       <c r="J121" s="17"/>
@@ -3811,7 +4020,7 @@
         <v>22</v>
       </c>
       <c r="B122" s="17" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="C122" s="17"/>
       <c r="D122" s="17"/>
@@ -3836,7 +4045,7 @@
     </row>
     <row r="124" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="12" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="B124" s="13"/>
       <c r="C124" s="13"/>
@@ -3886,7 +4095,7 @@
       </c>
       <c r="B126" s="17"/>
       <c r="C126" s="17" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="D126" s="17"/>
       <c r="E126" s="17"/>
@@ -3894,7 +4103,7 @@
         <v>16</v>
       </c>
       <c r="G126" s="17" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="H126" s="17"/>
       <c r="I126" s="17"/>
@@ -3904,15 +4113,15 @@
       <c r="A127" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B127" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="C127" s="23"/>
+      <c r="B127" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="C127" s="22"/>
       <c r="D127" s="17"/>
       <c r="E127" s="17"/>
       <c r="F127" s="19"/>
       <c r="G127" s="17" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="H127" s="17"/>
       <c r="I127" s="17"/>
@@ -3922,11 +4131,11 @@
       <c r="A128" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B128" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="C128" s="23"/>
-      <c r="D128" s="23"/>
+      <c r="B128" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="C128" s="22"/>
+      <c r="D128" s="22"/>
       <c r="E128" s="17"/>
       <c r="F128" s="19"/>
       <c r="G128" s="17"/>
@@ -3940,13 +4149,13 @@
       </c>
       <c r="B129" s="17"/>
       <c r="C129" s="17" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="D129" s="17"/>
       <c r="E129" s="17"/>
       <c r="F129" s="19"/>
       <c r="G129" s="17" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="H129" s="17"/>
       <c r="I129" s="17"/>
@@ -3956,11 +4165,11 @@
       <c r="A130" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B130" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="C130" s="23"/>
-      <c r="D130" s="23"/>
+      <c r="B130" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="C130" s="22"/>
+      <c r="D130" s="22"/>
       <c r="E130" s="17"/>
       <c r="F130" s="19"/>
       <c r="G130" s="17"/>
@@ -3975,14 +4184,14 @@
       <c r="B131" s="17"/>
       <c r="C131" s="17"/>
       <c r="D131" s="17" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="E131" s="17"/>
       <c r="F131" s="19"/>
-      <c r="G131" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="H131" s="23"/>
+      <c r="G131" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="H131" s="22"/>
       <c r="I131" s="17"/>
       <c r="J131" s="17"/>
     </row>
@@ -4000,7 +4209,7 @@
     </row>
     <row r="133" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A133" s="12" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="B133" s="13"/>
       <c r="C133" s="13"/>
@@ -4038,7 +4247,7 @@
       <c r="E134" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F134" s="34" t="s">
+      <c r="F134" s="35" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="16" t="s">
@@ -4069,15 +4278,18 @@
         <v>15</v>
       </c>
       <c r="B135" s="17"/>
-      <c r="D135" s="35" t="s">
-        <v>95</v>
+      <c r="D135" s="36" t="s">
+        <v>113</v>
       </c>
       <c r="F135" s="19" t="s">
         <v>16</v>
       </c>
       <c r="G135" s="17"/>
-      <c r="H135" s="17"/>
-      <c r="J135" s="25"/>
+      <c r="H135" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="I135" s="17"/>
+      <c r="J135" s="17"/>
       <c r="L135" s="0"/>
       <c r="M135" s="0"/>
       <c r="N135" s="0"/>
@@ -4096,10 +4308,10 @@
       <c r="B136" s="17"/>
       <c r="C136" s="17"/>
       <c r="D136" s="17"/>
-      <c r="E136" s="25"/>
+      <c r="E136" s="24"/>
       <c r="F136" s="19"/>
       <c r="G136" s="17" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="H136" s="17"/>
       <c r="I136" s="17"/>
@@ -4119,15 +4331,17 @@
       <c r="A137" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B137" s="23"/>
-      <c r="C137" s="23"/>
-      <c r="D137" s="23"/>
+      <c r="B137" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="C137" s="17"/>
+      <c r="D137" s="17"/>
       <c r="E137" s="17"/>
       <c r="F137" s="19"/>
-      <c r="G137" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="H137" s="22"/>
+      <c r="G137" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="H137" s="23"/>
       <c r="I137" s="17"/>
       <c r="J137" s="17"/>
       <c r="L137" s="0"/>
@@ -4145,8 +4359,8 @@
       <c r="A138" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B138" s="25" t="s">
-        <v>98</v>
+      <c r="B138" s="24" t="s">
+        <v>118</v>
       </c>
       <c r="C138" s="17"/>
       <c r="D138" s="17"/>
@@ -4154,11 +4368,11 @@
       <c r="F138" s="19"/>
       <c r="G138" s="17"/>
       <c r="H138" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="I138" s="25"/>
-      <c r="J138" s="25" t="s">
-        <v>99</v>
+        <v>115</v>
+      </c>
+      <c r="I138" s="24"/>
+      <c r="J138" s="24" t="s">
+        <v>119</v>
       </c>
       <c r="L138" s="0"/>
       <c r="M138" s="0"/>
@@ -4175,19 +4389,19 @@
       <c r="A139" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B139" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="C139" s="23"/>
-      <c r="D139" s="23"/>
+      <c r="B139" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="C139" s="22"/>
+      <c r="D139" s="22"/>
       <c r="E139" s="17"/>
       <c r="F139" s="19"/>
       <c r="G139" s="17"/>
       <c r="H139" s="17" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="I139" s="17"/>
-      <c r="J139" s="22"/>
+      <c r="J139" s="23"/>
       <c r="L139" s="0"/>
       <c r="M139" s="0"/>
       <c r="N139" s="0"/>
@@ -4247,7 +4461,7 @@
     </row>
     <row r="142" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="12" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="B142" s="13"/>
       <c r="C142" s="13"/>
@@ -4322,9 +4536,11 @@
       <c r="F144" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="G144" s="23"/>
-      <c r="H144" s="23"/>
-      <c r="I144" s="23"/>
+      <c r="G144" s="31"/>
+      <c r="H144" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="I144" s="17"/>
       <c r="J144" s="17"/>
       <c r="L144" s="0"/>
       <c r="M144" s="0"/>
@@ -4347,7 +4563,9 @@
       <c r="E145" s="17"/>
       <c r="F145" s="19"/>
       <c r="G145" s="17"/>
-      <c r="H145" s="17"/>
+      <c r="H145" s="17" t="s">
+        <v>124</v>
+      </c>
       <c r="I145" s="17"/>
       <c r="J145" s="17"/>
       <c r="L145" s="0"/>
@@ -4389,7 +4607,9 @@
       <c r="A147" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B147" s="17"/>
+      <c r="B147" s="17" t="s">
+        <v>124</v>
+      </c>
       <c r="C147" s="17"/>
       <c r="D147" s="17"/>
       <c r="E147" s="17"/>
@@ -4419,9 +4639,9 @@
       <c r="E148" s="17"/>
       <c r="F148" s="19"/>
       <c r="G148" s="17"/>
-      <c r="H148" s="22"/>
-      <c r="I148" s="22"/>
-      <c r="J148" s="22"/>
+      <c r="H148" s="23"/>
+      <c r="I148" s="23"/>
+      <c r="J148" s="23"/>
       <c r="L148" s="0"/>
       <c r="M148" s="0"/>
       <c r="N148" s="0"/>
@@ -4471,7 +4691,7 @@
     </row>
     <row r="151" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A151" s="12" t="s">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="B151" s="13"/>
       <c r="C151" s="13"/>
@@ -4522,7 +4742,7 @@
       </c>
       <c r="B153" s="17"/>
       <c r="C153" s="17" t="s">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="D153" s="17"/>
       <c r="E153" s="17"/>
@@ -4546,7 +4766,7 @@
       <c r="F154" s="19"/>
       <c r="G154" s="17"/>
       <c r="H154" s="17"/>
-      <c r="I154" s="21"/>
+      <c r="I154" s="17"/>
       <c r="J154" s="17"/>
     </row>
     <row r="155" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4559,8 +4779,10 @@
       <c r="E155" s="17"/>
       <c r="F155" s="19"/>
       <c r="G155" s="17"/>
-      <c r="H155" s="17"/>
-      <c r="I155" s="21"/>
+      <c r="H155" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="I155" s="17"/>
       <c r="J155" s="17"/>
     </row>
     <row r="156" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4568,7 +4790,7 @@
         <v>20</v>
       </c>
       <c r="B156" s="17" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="C156" s="17"/>
       <c r="D156" s="17"/>
@@ -4612,7 +4834,7 @@
     <row r="159" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="160" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A160" s="12" t="s">
-        <v>106</v>
+        <v>129</v>
       </c>
       <c r="B160" s="13"/>
       <c r="C160" s="13"/>
@@ -4669,7 +4891,9 @@
         <v>16</v>
       </c>
       <c r="G162" s="17"/>
-      <c r="H162" s="17"/>
+      <c r="H162" s="17" t="s">
+        <v>130</v>
+      </c>
       <c r="I162" s="17"/>
       <c r="J162" s="17"/>
       <c r="L162" s="2"/>
@@ -4678,9 +4902,11 @@
       <c r="A163" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B163" s="36"/>
-      <c r="C163" s="36"/>
-      <c r="D163" s="36"/>
+      <c r="B163" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="C163" s="17"/>
+      <c r="D163" s="17"/>
       <c r="E163" s="17"/>
       <c r="F163" s="19"/>
       <c r="G163" s="17"/>
@@ -4692,7 +4918,8 @@
       <c r="A164" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C164" s="21"/>
+      <c r="B164" s="17"/>
+      <c r="C164" s="17"/>
       <c r="D164" s="17"/>
       <c r="F164" s="19"/>
       <c r="G164" s="17"/>
@@ -4705,9 +4932,11 @@
       <c r="A165" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B165" s="36"/>
-      <c r="C165" s="36"/>
-      <c r="D165" s="36"/>
+      <c r="B165" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="C165" s="17"/>
+      <c r="D165" s="17"/>
       <c r="E165" s="17"/>
       <c r="F165" s="19"/>
       <c r="G165" s="21"/>
@@ -4720,7 +4949,9 @@
       <c r="A166" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B166" s="17"/>
+      <c r="B166" s="17" t="s">
+        <v>133</v>
+      </c>
       <c r="C166" s="17"/>
       <c r="D166" s="17"/>
       <c r="E166" s="17"/>
@@ -4747,7 +4978,7 @@
     <row r="168" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="169" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A169" s="12" t="s">
-        <v>107</v>
+        <v>134</v>
       </c>
       <c r="B169" s="13"/>
       <c r="C169" s="13"/>
@@ -4819,7 +5050,7 @@
       <c r="C171" s="17"/>
       <c r="D171" s="17"/>
       <c r="E171" s="17" t="s">
-        <v>108</v>
+        <v>135</v>
       </c>
       <c r="F171" s="19" t="s">
         <v>16</v>
@@ -4873,7 +5104,7 @@
       <c r="E173" s="17"/>
       <c r="F173" s="19"/>
       <c r="G173" s="17" t="s">
-        <v>108</v>
+        <v>135</v>
       </c>
       <c r="H173" s="17"/>
       <c r="I173" s="17"/>
@@ -4897,7 +5128,7 @@
       <c r="C174" s="17"/>
       <c r="D174" s="17"/>
       <c r="E174" s="17" t="s">
-        <v>108</v>
+        <v>135</v>
       </c>
       <c r="F174" s="19"/>
       <c r="G174" s="17"/>
@@ -4978,7 +5209,7 @@
     </row>
     <row r="178" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A178" s="12" t="s">
-        <v>109</v>
+        <v>136</v>
       </c>
       <c r="B178" s="13"/>
       <c r="C178" s="13"/>
@@ -5029,7 +5260,7 @@
         <v>15</v>
       </c>
       <c r="B180" s="17" t="s">
-        <v>110</v>
+        <v>137</v>
       </c>
       <c r="C180" s="17"/>
       <c r="D180" s="17"/>
@@ -5046,11 +5277,11 @@
       <c r="A181" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B181" s="36" t="s">
-        <v>111</v>
-      </c>
-      <c r="C181" s="36"/>
-      <c r="D181" s="36"/>
+      <c r="B181" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="C181" s="37"/>
+      <c r="D181" s="37"/>
       <c r="E181" s="17"/>
       <c r="F181" s="19"/>
       <c r="G181" s="17"/>
@@ -5063,7 +5294,7 @@
         <v>19</v>
       </c>
       <c r="B182" s="21" t="s">
-        <v>112</v>
+        <v>139</v>
       </c>
       <c r="C182" s="21"/>
       <c r="D182" s="21"/>
@@ -5072,7 +5303,7 @@
       <c r="G182" s="17"/>
       <c r="H182" s="17"/>
       <c r="I182" s="17" t="s">
-        <v>113</v>
+        <v>140</v>
       </c>
       <c r="J182" s="17"/>
       <c r="L182" s="1"/>
@@ -5081,11 +5312,11 @@
       <c r="A183" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B183" s="36" t="s">
-        <v>114</v>
-      </c>
-      <c r="C183" s="36"/>
-      <c r="D183" s="36"/>
+      <c r="B183" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="C183" s="37"/>
+      <c r="D183" s="37"/>
       <c r="E183" s="17"/>
       <c r="F183" s="19"/>
       <c r="G183" s="17"/>
@@ -5136,7 +5367,7 @@
     </row>
     <row r="187" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A187" s="12" t="s">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="B187" s="13"/>
       <c r="C187" s="13"/>
@@ -5187,7 +5418,7 @@
         <v>15</v>
       </c>
       <c r="B189" s="17" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="C189" s="17"/>
       <c r="D189" s="17"/>
@@ -5196,11 +5427,11 @@
         <v>16</v>
       </c>
       <c r="G189" s="17" t="s">
-        <v>117</v>
+        <v>144</v>
       </c>
       <c r="H189" s="17"/>
       <c r="J189" s="17" t="s">
-        <v>118</v>
+        <v>145</v>
       </c>
     </row>
     <row r="190" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5208,20 +5439,20 @@
         <v>18</v>
       </c>
       <c r="B190" s="17" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="C190" s="17"/>
       <c r="D190" s="17" t="s">
-        <v>120</v>
+        <v>147</v>
       </c>
       <c r="E190" s="17"/>
       <c r="F190" s="19"/>
       <c r="G190" s="18"/>
-      <c r="H190" s="37" t="s">
-        <v>121</v>
-      </c>
-      <c r="I190" s="37"/>
-      <c r="J190" s="22"/>
+      <c r="H190" s="38" t="s">
+        <v>148</v>
+      </c>
+      <c r="I190" s="38"/>
+      <c r="J190" s="23"/>
     </row>
     <row r="191" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A191" s="15" t="s">
@@ -5229,13 +5460,13 @@
       </c>
       <c r="B191" s="17"/>
       <c r="C191" s="17" t="s">
-        <v>120</v>
+        <v>147</v>
       </c>
       <c r="D191" s="17"/>
-      <c r="E191" s="22"/>
+      <c r="E191" s="23"/>
       <c r="F191" s="19"/>
-      <c r="G191" s="25" t="s">
-        <v>119</v>
+      <c r="G191" s="24" t="s">
+        <v>146</v>
       </c>
       <c r="I191" s="17"/>
       <c r="J191" s="17"/>
@@ -5246,17 +5477,17 @@
       </c>
       <c r="B192" s="17"/>
       <c r="C192" s="17" t="s">
-        <v>122</v>
+        <v>149</v>
       </c>
       <c r="D192" s="17"/>
-      <c r="E192" s="22"/>
+      <c r="E192" s="23"/>
       <c r="F192" s="19"/>
       <c r="G192" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="H192" s="22"/>
+        <v>145</v>
+      </c>
+      <c r="H192" s="23"/>
       <c r="I192" s="18" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="J192" s="17"/>
     </row>
@@ -5264,21 +5495,21 @@
       <c r="A193" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B193" s="25" t="s">
-        <v>119</v>
+      <c r="B193" s="24" t="s">
+        <v>146</v>
       </c>
       <c r="C193" s="17"/>
       <c r="D193" s="17" t="s">
-        <v>120</v>
+        <v>147</v>
       </c>
       <c r="E193" s="17"/>
       <c r="F193" s="19"/>
-      <c r="G193" s="22"/>
+      <c r="G193" s="23"/>
       <c r="H193" s="17" t="s">
-        <v>123</v>
+        <v>150</v>
       </c>
       <c r="I193" s="17"/>
-      <c r="J193" s="22"/>
+      <c r="J193" s="23"/>
     </row>
     <row r="194" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A194" s="15" t="s">
@@ -5308,7 +5539,7 @@
     </row>
     <row r="196" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A196" s="12" t="s">
-        <v>124</v>
+        <v>151</v>
       </c>
       <c r="B196" s="13"/>
       <c r="C196" s="13"/>
@@ -5356,7 +5587,9 @@
       <c r="A198" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B198" s="17"/>
+      <c r="B198" s="17" t="s">
+        <v>152</v>
+      </c>
       <c r="C198" s="17"/>
       <c r="D198" s="17"/>
       <c r="E198" s="17"/>
@@ -5372,7 +5605,9 @@
       <c r="A199" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B199" s="17"/>
+      <c r="B199" s="17" t="s">
+        <v>153</v>
+      </c>
       <c r="C199" s="17"/>
       <c r="D199" s="17"/>
       <c r="E199" s="17"/>
@@ -5392,7 +5627,9 @@
       <c r="E200" s="17"/>
       <c r="F200" s="19"/>
       <c r="G200" s="17"/>
-      <c r="H200" s="17"/>
+      <c r="H200" s="17" t="s">
+        <v>154</v>
+      </c>
       <c r="I200" s="17"/>
       <c r="J200" s="17"/>
       <c r="L200" s="1"/>
@@ -5407,7 +5644,9 @@
       <c r="E201" s="17"/>
       <c r="F201" s="19"/>
       <c r="G201" s="17"/>
-      <c r="H201" s="17"/>
+      <c r="H201" s="17" t="s">
+        <v>155</v>
+      </c>
       <c r="I201" s="17"/>
       <c r="J201" s="17"/>
       <c r="L201" s="1"/>
@@ -5417,7 +5656,7 @@
         <v>21</v>
       </c>
       <c r="B202" s="17" t="s">
-        <v>125</v>
+        <v>156</v>
       </c>
       <c r="C202" s="17"/>
       <c r="D202" s="17"/>
@@ -5456,7 +5695,7 @@
     </row>
     <row r="205" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A205" s="12" t="s">
-        <v>126</v>
+        <v>157</v>
       </c>
       <c r="B205" s="13"/>
       <c r="C205" s="13"/>
@@ -5513,11 +5752,11 @@
       <c r="F207" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="G207" s="23" t="s">
-        <v>127</v>
-      </c>
-      <c r="H207" s="23"/>
-      <c r="I207" s="23"/>
+      <c r="G207" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="H207" s="22"/>
+      <c r="I207" s="22"/>
       <c r="J207" s="17"/>
     </row>
     <row r="208" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5525,7 +5764,7 @@
         <v>18</v>
       </c>
       <c r="B208" s="17" t="s">
-        <v>128</v>
+        <v>159</v>
       </c>
       <c r="C208" s="17"/>
       <c r="D208" s="17"/>
@@ -5540,30 +5779,32 @@
       <c r="A209" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B209" s="17"/>
+      <c r="B209" s="17" t="s">
+        <v>160</v>
+      </c>
       <c r="C209" s="17"/>
-      <c r="D209" s="21"/>
+      <c r="D209" s="17"/>
       <c r="E209" s="18"/>
       <c r="F209" s="19"/>
       <c r="G209" s="17"/>
       <c r="H209" s="17" t="s">
-        <v>129</v>
+        <v>161</v>
       </c>
       <c r="I209" s="18"/>
-      <c r="J209" s="22"/>
+      <c r="J209" s="23"/>
       <c r="L209" s="1"/>
     </row>
     <row r="210" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A210" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B210" s="22"/>
+      <c r="B210" s="17"/>
       <c r="C210" s="17"/>
       <c r="D210" s="17"/>
-      <c r="E210" s="22"/>
+      <c r="E210" s="23"/>
       <c r="F210" s="19"/>
       <c r="G210" s="17" t="s">
-        <v>130</v>
+        <v>162</v>
       </c>
       <c r="H210" s="17"/>
       <c r="I210" s="17"/>
@@ -5574,13 +5815,15 @@
       <c r="A211" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B211" s="17"/>
+      <c r="B211" s="17" t="s">
+        <v>163</v>
+      </c>
       <c r="C211" s="17"/>
       <c r="D211" s="17"/>
       <c r="E211" s="17"/>
       <c r="F211" s="19"/>
       <c r="G211" s="17" t="s">
-        <v>129</v>
+        <v>161</v>
       </c>
       <c r="H211" s="17"/>
       <c r="I211" s="17"/>
@@ -5593,7 +5836,7 @@
       <c r="B212" s="17"/>
       <c r="C212" s="17"/>
       <c r="D212" s="17" t="s">
-        <v>129</v>
+        <v>161</v>
       </c>
       <c r="E212" s="17"/>
       <c r="F212" s="19"/>
@@ -5616,7 +5859,7 @@
     </row>
     <row r="214" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A214" s="12" t="s">
-        <v>131</v>
+        <v>164</v>
       </c>
       <c r="B214" s="13"/>
       <c r="C214" s="13"/>
@@ -5668,18 +5911,18 @@
       </c>
       <c r="B216" s="17"/>
       <c r="C216" s="17" t="s">
-        <v>132</v>
+        <v>165</v>
       </c>
       <c r="D216" s="17"/>
       <c r="E216" s="17" t="s">
-        <v>133</v>
+        <v>166</v>
       </c>
       <c r="F216" s="19" t="s">
         <v>16</v>
       </c>
       <c r="G216" s="17"/>
       <c r="H216" s="17" t="s">
-        <v>134</v>
+        <v>167</v>
       </c>
       <c r="I216" s="17"/>
       <c r="J216" s="17"/>
@@ -5690,14 +5933,14 @@
       </c>
       <c r="B217" s="17"/>
       <c r="C217" s="17" t="s">
-        <v>132</v>
+        <v>165</v>
       </c>
       <c r="D217" s="17"/>
       <c r="E217" s="17"/>
       <c r="F217" s="19"/>
       <c r="G217" s="17"/>
       <c r="H217" s="17" t="s">
-        <v>134</v>
+        <v>167</v>
       </c>
       <c r="I217" s="17"/>
       <c r="J217" s="17"/>
@@ -5707,7 +5950,7 @@
         <v>19</v>
       </c>
       <c r="B218" s="17" t="s">
-        <v>133</v>
+        <v>166</v>
       </c>
       <c r="C218" s="17"/>
       <c r="D218" s="17"/>
@@ -5716,7 +5959,7 @@
       <c r="G218" s="17"/>
       <c r="H218" s="17"/>
       <c r="I218" s="17" t="s">
-        <v>132</v>
+        <v>165</v>
       </c>
       <c r="J218" s="17"/>
       <c r="L218" s="1"/>
@@ -5727,13 +5970,13 @@
       </c>
       <c r="B219" s="17"/>
       <c r="C219" s="17" t="s">
-        <v>134</v>
+        <v>167</v>
       </c>
       <c r="D219" s="17"/>
       <c r="E219" s="17"/>
       <c r="F219" s="19"/>
       <c r="G219" s="17" t="s">
-        <v>132</v>
+        <v>165</v>
       </c>
       <c r="H219" s="17"/>
       <c r="I219" s="17"/>
@@ -5747,13 +5990,13 @@
       <c r="B220" s="17"/>
       <c r="C220" s="17"/>
       <c r="D220" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="E220" s="22"/>
+        <v>167</v>
+      </c>
+      <c r="E220" s="23"/>
       <c r="F220" s="19"/>
       <c r="G220" s="17"/>
       <c r="H220" s="17" t="s">
-        <v>133</v>
+        <v>166</v>
       </c>
       <c r="I220" s="17"/>
       <c r="J220" s="17"/>
@@ -5910,7 +6153,7 @@
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="176">
+  <mergeCells count="191">
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A3:J3"/>
     <mergeCell ref="A5:J5"/>
@@ -5918,27 +6161,31 @@
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="F9:F14"/>
     <mergeCell ref="B11:C11"/>
+    <mergeCell ref="C18:D18"/>
     <mergeCell ref="F18:F23"/>
+    <mergeCell ref="C19:D19"/>
     <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C27:D27"/>
     <mergeCell ref="F27:F32"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="H27:I27"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="F36:F41"/>
     <mergeCell ref="I36:J36"/>
-    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="H37:J37"/>
     <mergeCell ref="C38:D38"/>
     <mergeCell ref="G38:H38"/>
     <mergeCell ref="C39:D39"/>
     <mergeCell ref="H39:J39"/>
     <mergeCell ref="B40:D40"/>
+    <mergeCell ref="H40:J40"/>
     <mergeCell ref="D41:E41"/>
     <mergeCell ref="F45:F50"/>
     <mergeCell ref="H45:I45"/>
     <mergeCell ref="D46:E46"/>
     <mergeCell ref="H46:I46"/>
     <mergeCell ref="D47:E47"/>
-    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="H47:J47"/>
     <mergeCell ref="C48:D48"/>
     <mergeCell ref="H48:I48"/>
     <mergeCell ref="B49:C49"/>
@@ -5959,7 +6206,7 @@
     <mergeCell ref="G67:H67"/>
     <mergeCell ref="F72:F77"/>
     <mergeCell ref="H72:J72"/>
-    <mergeCell ref="H73:I73"/>
+    <mergeCell ref="H73:J73"/>
     <mergeCell ref="H74:J74"/>
     <mergeCell ref="B75:D75"/>
     <mergeCell ref="H75:J75"/>
@@ -5986,15 +6233,18 @@
     <mergeCell ref="H94:J94"/>
     <mergeCell ref="B95:C95"/>
     <mergeCell ref="D95:E95"/>
-    <mergeCell ref="C99:E99"/>
+    <mergeCell ref="B99:D99"/>
     <mergeCell ref="F99:F104"/>
     <mergeCell ref="H99:J99"/>
     <mergeCell ref="H100:J100"/>
+    <mergeCell ref="H101:J101"/>
     <mergeCell ref="C102:E102"/>
+    <mergeCell ref="H103:J103"/>
     <mergeCell ref="B104:C104"/>
     <mergeCell ref="D104:E104"/>
     <mergeCell ref="B108:D108"/>
     <mergeCell ref="F108:F113"/>
+    <mergeCell ref="G108:H108"/>
     <mergeCell ref="B109:D109"/>
     <mergeCell ref="C110:D110"/>
     <mergeCell ref="G110:I110"/>
@@ -6022,30 +6272,35 @@
     <mergeCell ref="D131:E131"/>
     <mergeCell ref="G131:H131"/>
     <mergeCell ref="F135:F140"/>
-    <mergeCell ref="G135:H135"/>
+    <mergeCell ref="H135:J135"/>
+    <mergeCell ref="B136:D136"/>
     <mergeCell ref="H136:J136"/>
     <mergeCell ref="B137:D137"/>
     <mergeCell ref="B139:D139"/>
     <mergeCell ref="H139:I139"/>
     <mergeCell ref="B144:C144"/>
     <mergeCell ref="F144:F149"/>
-    <mergeCell ref="G144:I144"/>
+    <mergeCell ref="H144:J144"/>
     <mergeCell ref="H145:J145"/>
     <mergeCell ref="C146:E146"/>
     <mergeCell ref="H146:J146"/>
-    <mergeCell ref="C147:E147"/>
+    <mergeCell ref="B147:D147"/>
     <mergeCell ref="H147:I147"/>
     <mergeCell ref="C148:E148"/>
     <mergeCell ref="C153:E153"/>
     <mergeCell ref="F153:F158"/>
+    <mergeCell ref="H154:J154"/>
+    <mergeCell ref="H155:J155"/>
     <mergeCell ref="B156:D156"/>
     <mergeCell ref="F162:F167"/>
-    <mergeCell ref="G162:I162"/>
+    <mergeCell ref="H162:J162"/>
     <mergeCell ref="B163:D163"/>
     <mergeCell ref="H163:I163"/>
+    <mergeCell ref="B164:D164"/>
     <mergeCell ref="G164:H164"/>
     <mergeCell ref="B165:D165"/>
     <mergeCell ref="I165:J165"/>
+    <mergeCell ref="B166:D166"/>
     <mergeCell ref="H166:I166"/>
     <mergeCell ref="B167:C167"/>
     <mergeCell ref="F171:F176"/>
@@ -6065,13 +6320,13 @@
     <mergeCell ref="C191:D191"/>
     <mergeCell ref="C192:D192"/>
     <mergeCell ref="H193:I193"/>
-    <mergeCell ref="C198:D198"/>
+    <mergeCell ref="B198:D198"/>
     <mergeCell ref="F198:F203"/>
     <mergeCell ref="B199:D199"/>
     <mergeCell ref="G199:H199"/>
     <mergeCell ref="C200:D200"/>
-    <mergeCell ref="G200:H200"/>
-    <mergeCell ref="G201:H201"/>
+    <mergeCell ref="H200:J200"/>
+    <mergeCell ref="H201:J201"/>
     <mergeCell ref="B202:D202"/>
     <mergeCell ref="G202:I202"/>
     <mergeCell ref="B203:C203"/>
@@ -6081,7 +6336,10 @@
     <mergeCell ref="F207:F212"/>
     <mergeCell ref="G207:I207"/>
     <mergeCell ref="B208:D208"/>
+    <mergeCell ref="B209:D209"/>
+    <mergeCell ref="B210:D210"/>
     <mergeCell ref="G210:I210"/>
+    <mergeCell ref="B211:D211"/>
     <mergeCell ref="G211:H211"/>
     <mergeCell ref="D212:E212"/>
     <mergeCell ref="F216:F221"/>
@@ -6105,8 +6363,8 @@
   </sheetPr>
   <dimension ref="A1:Q91"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J5" activeCellId="0" sqref="J5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I18" activeCellId="0" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6161,7 +6419,7 @@
     </row>
     <row r="4" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>135</v>
+        <v>168</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -6189,7 +6447,7 @@
     </row>
     <row r="6" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="12" t="s">
-        <v>136</v>
+        <v>169</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -6199,7 +6457,7 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
-      <c r="J6" s="38"/>
+      <c r="J6" s="39"/>
       <c r="K6" s="6"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6248,7 +6506,7 @@
       <c r="B8" s="15"/>
       <c r="C8" s="17"/>
       <c r="D8" s="17" t="s">
-        <v>137</v>
+        <v>170</v>
       </c>
       <c r="E8" s="17"/>
       <c r="F8" s="17"/>
@@ -6258,13 +6516,13 @@
       <c r="H8" s="17"/>
       <c r="I8" s="17"/>
       <c r="J8" s="17"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
-      <c r="N8" s="39"/>
-      <c r="O8" s="39"/>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="39"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="40"/>
+      <c r="N8" s="40"/>
+      <c r="O8" s="40"/>
+      <c r="P8" s="40"/>
+      <c r="Q8" s="40"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="15" t="s">
@@ -6279,9 +6537,9 @@
       <c r="H9" s="17"/>
       <c r="I9" s="17"/>
       <c r="J9" s="17"/>
-      <c r="K9" s="25"/>
+      <c r="K9" s="24"/>
       <c r="L9" s="27"/>
-      <c r="M9" s="40"/>
+      <c r="M9" s="41"/>
       <c r="N9" s="2"/>
       <c r="O9" s="27"/>
       <c r="P9" s="27"/>
@@ -6292,21 +6550,21 @@
         <v>19</v>
       </c>
       <c r="B10" s="15"/>
-      <c r="C10" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
+      <c r="C10" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
       <c r="F10" s="17"/>
       <c r="G10" s="19"/>
       <c r="H10" s="17"/>
       <c r="I10" s="17"/>
       <c r="J10" s="17"/>
-      <c r="K10" s="25" t="s">
+      <c r="K10" s="24" t="s">
         <v>17</v>
       </c>
       <c r="L10" s="27"/>
-      <c r="M10" s="40"/>
+      <c r="M10" s="41"/>
       <c r="N10" s="27"/>
       <c r="O10" s="27"/>
       <c r="P10" s="27"/>
@@ -6318,7 +6576,7 @@
       </c>
       <c r="B11" s="15"/>
       <c r="C11" s="17" t="s">
-        <v>139</v>
+        <v>172</v>
       </c>
       <c r="D11" s="17"/>
       <c r="E11" s="17"/>
@@ -6327,36 +6585,36 @@
       <c r="H11" s="17"/>
       <c r="I11" s="17"/>
       <c r="J11" s="17"/>
-      <c r="K11" s="41"/>
+      <c r="K11" s="42"/>
       <c r="L11" s="27"/>
-      <c r="M11" s="40"/>
+      <c r="M11" s="41"/>
       <c r="N11" s="27"/>
-      <c r="O11" s="42"/>
+      <c r="O11" s="43"/>
       <c r="P11" s="27"/>
-      <c r="Q11" s="42"/>
+      <c r="Q11" s="43"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="15" t="s">
         <v>21</v>
       </c>
       <c r="B12" s="15"/>
-      <c r="C12" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
+      <c r="C12" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
       <c r="F12" s="17"/>
       <c r="G12" s="19"/>
       <c r="H12" s="17"/>
       <c r="I12" s="17"/>
       <c r="J12" s="17"/>
-      <c r="K12" s="41"/>
+      <c r="K12" s="42"/>
       <c r="L12" s="27"/>
-      <c r="M12" s="40"/>
+      <c r="M12" s="41"/>
       <c r="N12" s="27"/>
       <c r="O12" s="27"/>
       <c r="P12" s="27"/>
-      <c r="Q12" s="42"/>
+      <c r="Q12" s="43"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="15" t="s">
@@ -6371,9 +6629,9 @@
       <c r="H13" s="17"/>
       <c r="I13" s="17"/>
       <c r="J13" s="17"/>
-      <c r="K13" s="41"/>
+      <c r="K13" s="42"/>
       <c r="L13" s="27"/>
-      <c r="M13" s="40"/>
+      <c r="M13" s="41"/>
       <c r="N13" s="2"/>
       <c r="O13" s="27"/>
       <c r="P13" s="27"/>
@@ -6381,7 +6639,7 @@
     </row>
     <row r="14" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="12" t="s">
-        <v>141</v>
+        <v>174</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -6391,10 +6649,10 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
-      <c r="J14" s="38"/>
+      <c r="J14" s="39"/>
       <c r="K14" s="6"/>
       <c r="L14" s="27"/>
-      <c r="M14" s="40"/>
+      <c r="M14" s="41"/>
       <c r="N14" s="27"/>
       <c r="O14" s="27"/>
       <c r="P14" s="27"/>
@@ -6438,50 +6696,54 @@
         <v>15</v>
       </c>
       <c r="B16" s="15"/>
-      <c r="C16" s="41" t="s">
-        <v>142</v>
-      </c>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="43"/>
+      <c r="C16" s="42" t="s">
+        <v>175</v>
+      </c>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="44"/>
       <c r="G16" s="19" t="s">
         <v>16</v>
       </c>
       <c r="H16" s="17" t="s">
-        <v>143</v>
+        <v>176</v>
       </c>
       <c r="I16" s="17"/>
       <c r="J16" s="17"/>
-      <c r="K16" s="43"/>
+      <c r="K16" s="44"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="15" t="s">
         <v>18</v>
       </c>
       <c r="B17" s="15"/>
-      <c r="C17" s="41" t="s">
-        <v>144</v>
-      </c>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
+      <c r="C17" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
       <c r="G17" s="19"/>
       <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
+      <c r="I17" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="15" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="15"/>
-      <c r="C18" s="41"/>
+      <c r="C18" s="42"/>
       <c r="D18" s="17"/>
       <c r="E18" s="17"/>
       <c r="F18" s="17"/>
       <c r="G18" s="19"/>
       <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
+      <c r="I18" s="17" t="s">
+        <v>127</v>
+      </c>
       <c r="J18" s="17"/>
       <c r="K18" s="17"/>
     </row>
@@ -6490,13 +6752,17 @@
         <v>20</v>
       </c>
       <c r="B19" s="15"/>
-      <c r="C19" s="41"/>
+      <c r="C19" s="17" t="s">
+        <v>95</v>
+      </c>
       <c r="D19" s="17"/>
       <c r="E19" s="17"/>
       <c r="F19" s="17"/>
       <c r="G19" s="19"/>
       <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
+      <c r="I19" s="17" t="s">
+        <v>96</v>
+      </c>
       <c r="J19" s="17"/>
       <c r="K19" s="17"/>
     </row>
@@ -6505,9 +6771,11 @@
         <v>21</v>
       </c>
       <c r="B20" s="15"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
+      <c r="C20" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
       <c r="F20" s="17"/>
       <c r="G20" s="19"/>
       <c r="H20" s="17"/>
@@ -6520,8 +6788,8 @@
         <v>22</v>
       </c>
       <c r="B21" s="15"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
       <c r="E21" s="17"/>
       <c r="F21" s="17"/>
       <c r="G21" s="19"/>
@@ -6532,7 +6800,7 @@
     </row>
     <row r="22" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="12" t="s">
-        <v>145</v>
+        <v>180</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -6542,7 +6810,7 @@
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
-      <c r="J22" s="38"/>
+      <c r="J22" s="39"/>
       <c r="K22" s="6"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6583,15 +6851,19 @@
         <v>15</v>
       </c>
       <c r="B24" s="15"/>
-      <c r="C24" s="17"/>
+      <c r="C24" s="17" t="s">
+        <v>152</v>
+      </c>
       <c r="D24" s="17"/>
       <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
+      <c r="F24" s="45"/>
       <c r="G24" s="19" t="s">
         <v>16</v>
       </c>
       <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
+      <c r="I24" s="17" t="s">
+        <v>123</v>
+      </c>
       <c r="J24" s="17"/>
       <c r="K24" s="17"/>
     </row>
@@ -6600,13 +6872,17 @@
         <v>18</v>
       </c>
       <c r="B25" s="15"/>
-      <c r="C25" s="17"/>
+      <c r="C25" s="17" t="s">
+        <v>153</v>
+      </c>
       <c r="D25" s="17"/>
       <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
+      <c r="F25" s="45"/>
       <c r="G25" s="19"/>
       <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
+      <c r="I25" s="17" t="s">
+        <v>181</v>
+      </c>
       <c r="J25" s="17"/>
       <c r="K25" s="17"/>
     </row>
@@ -6615,13 +6891,17 @@
         <v>19</v>
       </c>
       <c r="B26" s="15"/>
-      <c r="C26" s="17"/>
+      <c r="C26" s="17" t="s">
+        <v>160</v>
+      </c>
       <c r="D26" s="17"/>
       <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
+      <c r="F26" s="45"/>
       <c r="G26" s="19"/>
       <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
+      <c r="I26" s="17" t="s">
+        <v>182</v>
+      </c>
       <c r="J26" s="17"/>
       <c r="K26" s="17"/>
     </row>
@@ -6630,13 +6910,17 @@
         <v>20</v>
       </c>
       <c r="B27" s="15"/>
-      <c r="C27" s="17"/>
+      <c r="C27" s="17" t="s">
+        <v>124</v>
+      </c>
       <c r="D27" s="17"/>
       <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
+      <c r="F27" s="45"/>
       <c r="G27" s="19"/>
       <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
+      <c r="I27" s="17" t="s">
+        <v>183</v>
+      </c>
       <c r="J27" s="17"/>
       <c r="K27" s="17"/>
     </row>
@@ -6645,15 +6929,19 @@
         <v>21</v>
       </c>
       <c r="B28" s="15"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
+      <c r="C28" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="45"/>
       <c r="G28" s="19"/>
       <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="17"/>
+      <c r="I28" s="45" t="s">
+        <v>184</v>
+      </c>
+      <c r="J28" s="45"/>
+      <c r="K28" s="45"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="15" t="s">
@@ -6698,7 +6986,7 @@
     </row>
     <row r="32" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="12" t="s">
-        <v>146</v>
+        <v>185</v>
       </c>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
@@ -6708,7 +6996,7 @@
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
-      <c r="J32" s="38"/>
+      <c r="J32" s="39"/>
       <c r="K32" s="6"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6758,7 +7046,7 @@
       <c r="H34" s="17"/>
       <c r="I34" s="17"/>
       <c r="J34" s="17" t="s">
-        <v>147</v>
+        <v>186</v>
       </c>
       <c r="K34" s="17"/>
     </row>
@@ -6774,7 +7062,7 @@
       <c r="G35" s="19"/>
       <c r="H35" s="17"/>
       <c r="I35" s="17" t="s">
-        <v>148</v>
+        <v>187</v>
       </c>
       <c r="J35" s="17"/>
       <c r="K35" s="17"/>
@@ -6785,17 +7073,17 @@
       </c>
       <c r="B36" s="15"/>
       <c r="C36" s="17" t="s">
-        <v>149</v>
+        <v>188</v>
       </c>
       <c r="D36" s="17"/>
       <c r="F36" s="17"/>
       <c r="G36" s="19"/>
       <c r="H36" s="17" t="s">
-        <v>150</v>
+        <v>189</v>
       </c>
       <c r="I36" s="17"/>
       <c r="J36" s="17" t="s">
-        <v>113</v>
+        <v>140</v>
       </c>
       <c r="K36" s="17"/>
     </row>
@@ -6806,14 +7094,14 @@
       <c r="B37" s="15"/>
       <c r="C37" s="17"/>
       <c r="D37" s="17" t="s">
-        <v>151</v>
+        <v>190</v>
       </c>
       <c r="E37" s="17"/>
       <c r="F37" s="17"/>
       <c r="G37" s="19"/>
       <c r="H37" s="17"/>
       <c r="I37" s="17" t="s">
-        <v>152</v>
+        <v>191</v>
       </c>
       <c r="J37" s="17"/>
       <c r="K37" s="17"/>
@@ -6824,14 +7112,14 @@
       </c>
       <c r="B38" s="15"/>
       <c r="C38" s="17" t="s">
-        <v>153</v>
+        <v>192</v>
       </c>
       <c r="D38" s="17"/>
       <c r="E38" s="17"/>
       <c r="F38" s="17"/>
       <c r="G38" s="19"/>
       <c r="H38" s="17" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="I38" s="17"/>
       <c r="J38" s="17"/>
@@ -6854,7 +7142,7 @@
     </row>
     <row r="40" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="12" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
@@ -6864,7 +7152,7 @@
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
-      <c r="J40" s="38"/>
+      <c r="J40" s="39"/>
       <c r="K40" s="6"/>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6906,7 +7194,7 @@
       </c>
       <c r="B42" s="15"/>
       <c r="C42" s="17" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="D42" s="17"/>
       <c r="E42" s="17"/>
@@ -6915,7 +7203,7 @@
       </c>
       <c r="H42" s="17"/>
       <c r="I42" s="17" t="s">
-        <v>157</v>
+        <v>196</v>
       </c>
       <c r="J42" s="17"/>
       <c r="K42" s="17"/>
@@ -6926,13 +7214,15 @@
       </c>
       <c r="B43" s="15"/>
       <c r="C43" s="17" t="s">
-        <v>158</v>
+        <v>197</v>
       </c>
       <c r="D43" s="17"/>
       <c r="E43" s="17"/>
       <c r="G43" s="19"/>
       <c r="H43" s="17"/>
-      <c r="I43" s="17"/>
+      <c r="I43" s="17" t="s">
+        <v>198</v>
+      </c>
       <c r="J43" s="17"/>
       <c r="K43" s="17"/>
     </row>
@@ -6942,7 +7232,7 @@
       </c>
       <c r="B44" s="15"/>
       <c r="C44" s="17" t="s">
-        <v>159</v>
+        <v>199</v>
       </c>
       <c r="D44" s="17"/>
       <c r="E44" s="17"/>
@@ -6958,13 +7248,15 @@
       </c>
       <c r="B45" s="15"/>
       <c r="C45" s="17" t="s">
-        <v>157</v>
+        <v>196</v>
       </c>
       <c r="D45" s="17"/>
       <c r="E45" s="17"/>
       <c r="G45" s="19"/>
       <c r="H45" s="17"/>
-      <c r="I45" s="17"/>
+      <c r="I45" s="17" t="s">
+        <v>200</v>
+      </c>
       <c r="J45" s="17"/>
       <c r="K45" s="17"/>
     </row>
@@ -6974,7 +7266,7 @@
       </c>
       <c r="B46" s="15"/>
       <c r="C46" s="17" t="s">
-        <v>160</v>
+        <v>201</v>
       </c>
       <c r="D46" s="17"/>
       <c r="E46" s="17"/>
@@ -7001,7 +7293,7 @@
     </row>
     <row r="48" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="12" t="s">
-        <v>161</v>
+        <v>202</v>
       </c>
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
@@ -7011,7 +7303,7 @@
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
       <c r="I48" s="6"/>
-      <c r="J48" s="38"/>
+      <c r="J48" s="39"/>
       <c r="K48" s="6"/>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7052,7 +7344,9 @@
         <v>15</v>
       </c>
       <c r="B50" s="15"/>
-      <c r="C50" s="17"/>
+      <c r="C50" s="17" t="s">
+        <v>87</v>
+      </c>
       <c r="D50" s="17"/>
       <c r="E50" s="17"/>
       <c r="F50" s="17"/>
@@ -7060,24 +7354,30 @@
         <v>16</v>
       </c>
       <c r="H50" s="17"/>
-      <c r="I50" s="17"/>
-      <c r="J50" s="18"/>
-      <c r="K50" s="18"/>
+      <c r="I50" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="J50" s="17"/>
+      <c r="K50" s="17"/>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="15" t="s">
         <v>18</v>
       </c>
       <c r="B51" s="15"/>
-      <c r="C51" s="17"/>
+      <c r="C51" s="17" t="s">
+        <v>131</v>
+      </c>
       <c r="D51" s="17"/>
       <c r="E51" s="17"/>
       <c r="F51" s="17"/>
       <c r="G51" s="19"/>
       <c r="H51" s="17"/>
-      <c r="I51" s="17"/>
-      <c r="J51" s="18"/>
-      <c r="K51" s="18"/>
+      <c r="I51" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="J51" s="17"/>
+      <c r="K51" s="17"/>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="15" t="s">
@@ -7090,37 +7390,47 @@
       <c r="F52" s="17"/>
       <c r="G52" s="19"/>
       <c r="H52" s="17"/>
-      <c r="I52" s="18"/>
-      <c r="J52" s="18"/>
-      <c r="K52" s="18"/>
+      <c r="I52" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="J52" s="17"/>
+      <c r="K52" s="17"/>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="15" t="s">
         <v>20</v>
       </c>
       <c r="B53" s="15"/>
-      <c r="C53" s="17"/>
+      <c r="C53" s="17" t="s">
+        <v>132</v>
+      </c>
       <c r="D53" s="17"/>
       <c r="E53" s="17"/>
       <c r="F53" s="17"/>
       <c r="G53" s="19"/>
-      <c r="H53" s="17"/>
-      <c r="I53" s="18"/>
-      <c r="J53" s="18"/>
-      <c r="K53" s="18"/>
+      <c r="H53" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="I53" s="17"/>
+      <c r="J53" s="17"/>
+      <c r="K53" s="46"/>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="15" t="s">
         <v>21</v>
       </c>
       <c r="B54" s="15"/>
-      <c r="C54" s="17"/>
+      <c r="C54" s="17" t="s">
+        <v>206</v>
+      </c>
       <c r="D54" s="17"/>
       <c r="E54" s="17"/>
       <c r="F54" s="17"/>
       <c r="G54" s="19"/>
       <c r="H54" s="17"/>
-      <c r="I54" s="17"/>
+      <c r="I54" s="17" t="s">
+        <v>90</v>
+      </c>
       <c r="J54" s="17"/>
       <c r="K54" s="17"/>
     </row>
@@ -7141,7 +7451,7 @@
     </row>
     <row r="57" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="12" t="s">
-        <v>162</v>
+        <v>207</v>
       </c>
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
@@ -7151,7 +7461,7 @@
       <c r="G57" s="6"/>
       <c r="H57" s="6"/>
       <c r="I57" s="6"/>
-      <c r="J57" s="38"/>
+      <c r="J57" s="39"/>
       <c r="K57" s="6"/>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7193,7 +7503,7 @@
       </c>
       <c r="B59" s="15"/>
       <c r="C59" s="17" t="s">
-        <v>163</v>
+        <v>208</v>
       </c>
       <c r="D59" s="17"/>
       <c r="E59" s="17"/>
@@ -7201,11 +7511,11 @@
         <v>16</v>
       </c>
       <c r="H59" s="17" t="s">
-        <v>164</v>
+        <v>209</v>
       </c>
       <c r="I59" s="17"/>
       <c r="J59" s="17"/>
-      <c r="K59" s="43"/>
+      <c r="K59" s="44"/>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="15" t="s">
@@ -7213,15 +7523,15 @@
       </c>
       <c r="B60" s="15"/>
       <c r="C60" s="17" t="s">
-        <v>165</v>
+        <v>210</v>
       </c>
       <c r="D60" s="17"/>
       <c r="E60" s="17"/>
       <c r="G60" s="19"/>
-      <c r="H60" s="43"/>
-      <c r="I60" s="23"/>
-      <c r="J60" s="23"/>
-      <c r="K60" s="23"/>
+      <c r="H60" s="44"/>
+      <c r="I60" s="22"/>
+      <c r="J60" s="22"/>
+      <c r="K60" s="22"/>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="15" t="s">
@@ -7229,14 +7539,14 @@
       </c>
       <c r="B61" s="15"/>
       <c r="C61" s="17" t="s">
-        <v>166</v>
+        <v>211</v>
       </c>
       <c r="D61" s="17"/>
       <c r="E61" s="17"/>
       <c r="G61" s="19"/>
-      <c r="H61" s="43"/>
+      <c r="H61" s="44"/>
       <c r="I61" s="17" t="s">
-        <v>167</v>
+        <v>212</v>
       </c>
       <c r="J61" s="17"/>
       <c r="K61" s="17"/>
@@ -7247,30 +7557,30 @@
       </c>
       <c r="B62" s="15"/>
       <c r="C62" s="17" t="s">
-        <v>168</v>
+        <v>213</v>
       </c>
       <c r="D62" s="17"/>
       <c r="E62" s="17"/>
       <c r="G62" s="19"/>
       <c r="H62" s="17" t="s">
-        <v>169</v>
+        <v>214</v>
       </c>
       <c r="I62" s="17"/>
       <c r="J62" s="17"/>
-      <c r="K62" s="43"/>
+      <c r="K62" s="44"/>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="15" t="s">
         <v>21</v>
       </c>
       <c r="B63" s="15"/>
-      <c r="C63" s="23"/>
-      <c r="D63" s="23"/>
-      <c r="E63" s="23"/>
+      <c r="C63" s="22"/>
+      <c r="D63" s="22"/>
+      <c r="E63" s="22"/>
       <c r="G63" s="19"/>
-      <c r="H63" s="43"/>
+      <c r="H63" s="44"/>
       <c r="I63" s="17" t="s">
-        <v>170</v>
+        <v>215</v>
       </c>
       <c r="J63" s="17"/>
       <c r="K63" s="17"/>
@@ -7292,7 +7602,7 @@
     </row>
     <row r="66" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="12" t="s">
-        <v>171</v>
+        <v>216</v>
       </c>
       <c r="B66" s="6"/>
       <c r="C66" s="6"/>
@@ -7302,7 +7612,7 @@
       <c r="G66" s="6"/>
       <c r="H66" s="6"/>
       <c r="I66" s="6"/>
-      <c r="J66" s="38"/>
+      <c r="J66" s="39"/>
       <c r="K66" s="6"/>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7344,20 +7654,20 @@
       </c>
       <c r="B68" s="15"/>
       <c r="C68" s="17" t="s">
-        <v>172</v>
+        <v>217</v>
       </c>
       <c r="D68" s="17"/>
       <c r="E68" s="17"/>
-      <c r="F68" s="43"/>
+      <c r="F68" s="44"/>
       <c r="G68" s="19" t="s">
         <v>16</v>
       </c>
       <c r="H68" s="17" t="s">
-        <v>173</v>
+        <v>218</v>
       </c>
       <c r="I68" s="17"/>
       <c r="J68" s="17"/>
-      <c r="K68" s="43"/>
+      <c r="K68" s="44"/>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="15" t="s">
@@ -7365,18 +7675,18 @@
       </c>
       <c r="B69" s="15"/>
       <c r="C69" s="17" t="s">
-        <v>174</v>
+        <v>219</v>
       </c>
       <c r="D69" s="17"/>
       <c r="E69" s="17"/>
-      <c r="F69" s="43"/>
+      <c r="F69" s="44"/>
       <c r="G69" s="19"/>
       <c r="H69" s="17" t="s">
-        <v>175</v>
+        <v>220</v>
       </c>
       <c r="I69" s="17"/>
       <c r="J69" s="17"/>
-      <c r="K69" s="43"/>
+      <c r="K69" s="44"/>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="15" t="s">
@@ -7384,15 +7694,15 @@
       </c>
       <c r="B70" s="15"/>
       <c r="C70" s="17" t="s">
-        <v>176</v>
+        <v>221</v>
       </c>
       <c r="D70" s="17"/>
       <c r="E70" s="17"/>
-      <c r="F70" s="43"/>
+      <c r="F70" s="44"/>
       <c r="G70" s="19"/>
-      <c r="H70" s="43"/>
+      <c r="H70" s="44"/>
       <c r="I70" s="17" t="s">
-        <v>177</v>
+        <v>222</v>
       </c>
       <c r="J70" s="17"/>
       <c r="K70" s="17"/>
@@ -7403,18 +7713,18 @@
       </c>
       <c r="B71" s="15"/>
       <c r="C71" s="17" t="s">
-        <v>178</v>
+        <v>223</v>
       </c>
       <c r="D71" s="17"/>
       <c r="E71" s="17"/>
-      <c r="F71" s="43"/>
+      <c r="F71" s="44"/>
       <c r="G71" s="19"/>
       <c r="H71" s="17" t="s">
-        <v>179</v>
+        <v>224</v>
       </c>
       <c r="I71" s="17"/>
       <c r="J71" s="17"/>
-      <c r="K71" s="43"/>
+      <c r="K71" s="44"/>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="15" t="s">
@@ -7422,15 +7732,15 @@
       </c>
       <c r="B72" s="15"/>
       <c r="C72" s="17" t="s">
-        <v>180</v>
+        <v>225</v>
       </c>
       <c r="D72" s="17"/>
       <c r="E72" s="17"/>
-      <c r="F72" s="43"/>
+      <c r="F72" s="44"/>
       <c r="G72" s="19"/>
-      <c r="H72" s="43"/>
+      <c r="H72" s="44"/>
       <c r="I72" s="17" t="s">
-        <v>181</v>
+        <v>226</v>
       </c>
       <c r="J72" s="17"/>
       <c r="K72" s="17"/>
@@ -7452,7 +7762,7 @@
     </row>
     <row r="75" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="12" t="s">
-        <v>182</v>
+        <v>227</v>
       </c>
       <c r="B75" s="6"/>
       <c r="C75" s="6"/>
@@ -7462,7 +7772,7 @@
       <c r="G75" s="6"/>
       <c r="H75" s="6"/>
       <c r="I75" s="6"/>
-      <c r="J75" s="38"/>
+      <c r="J75" s="39"/>
       <c r="K75" s="6"/>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7505,12 +7815,16 @@
       <c r="B77" s="15"/>
       <c r="D77" s="17"/>
       <c r="E77" s="17"/>
-      <c r="F77" s="17"/>
+      <c r="F77" s="45" t="s">
+        <v>228</v>
+      </c>
       <c r="G77" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="H77" s="17"/>
-      <c r="I77" s="17"/>
+      <c r="H77" s="45"/>
+      <c r="I77" s="17" t="s">
+        <v>229</v>
+      </c>
       <c r="J77" s="17"/>
       <c r="K77" s="17"/>
     </row>
@@ -7519,32 +7833,38 @@
         <v>18</v>
       </c>
       <c r="B78" s="15"/>
-      <c r="C78" s="17"/>
+      <c r="C78" s="17" t="s">
+        <v>30</v>
+      </c>
       <c r="D78" s="17"/>
       <c r="E78" s="17"/>
-      <c r="F78" s="17"/>
+      <c r="F78" s="45"/>
       <c r="G78" s="19"/>
       <c r="H78" s="17"/>
-      <c r="I78" s="23" t="s">
-        <v>183</v>
-      </c>
-      <c r="J78" s="23"/>
-      <c r="K78" s="23"/>
+      <c r="I78" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="J78" s="17"/>
+      <c r="K78" s="17"/>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="15" t="s">
         <v>19</v>
       </c>
       <c r="B79" s="15"/>
-      <c r="C79" s="23"/>
-      <c r="D79" s="23"/>
-      <c r="E79" s="23"/>
-      <c r="F79" s="17"/>
+      <c r="C79" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="D79" s="17"/>
+      <c r="E79" s="17"/>
+      <c r="F79" s="45"/>
       <c r="G79" s="19"/>
-      <c r="H79" s="17"/>
-      <c r="I79" s="17"/>
-      <c r="J79" s="17"/>
-      <c r="K79" s="17"/>
+      <c r="H79" s="31"/>
+      <c r="I79" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="J79" s="47"/>
+      <c r="K79" s="47"/>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="15" t="s">
@@ -7552,14 +7872,18 @@
       </c>
       <c r="B80" s="15"/>
       <c r="C80" s="17" t="s">
-        <v>184</v>
+        <v>230</v>
       </c>
       <c r="D80" s="17"/>
       <c r="E80" s="17"/>
       <c r="F80" s="17"/>
       <c r="G80" s="19"/>
-      <c r="H80" s="17"/>
-      <c r="I80" s="17"/>
+      <c r="H80" s="45" t="s">
+        <v>228</v>
+      </c>
+      <c r="I80" s="17" t="s">
+        <v>32</v>
+      </c>
       <c r="J80" s="17"/>
       <c r="K80" s="17"/>
     </row>
@@ -7568,15 +7892,15 @@
         <v>21</v>
       </c>
       <c r="B81" s="15"/>
-      <c r="C81" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="D81" s="23"/>
-      <c r="E81" s="23"/>
+      <c r="C81" s="22"/>
+      <c r="D81" s="22"/>
+      <c r="E81" s="22"/>
       <c r="F81" s="17"/>
       <c r="G81" s="19"/>
-      <c r="H81" s="17"/>
-      <c r="I81" s="17"/>
+      <c r="H81" s="45"/>
+      <c r="I81" s="17" t="s">
+        <v>33</v>
+      </c>
       <c r="J81" s="17"/>
       <c r="K81" s="17"/>
     </row>
@@ -7597,7 +7921,7 @@
     </row>
     <row r="84" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="12" t="s">
-        <v>186</v>
+        <v>231</v>
       </c>
       <c r="B84" s="6"/>
       <c r="C84" s="6"/>
@@ -7607,7 +7931,7 @@
       <c r="G84" s="6"/>
       <c r="H84" s="6"/>
       <c r="I84" s="6"/>
-      <c r="J84" s="38"/>
+      <c r="J84" s="39"/>
       <c r="K84" s="6"/>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7656,7 +7980,7 @@
         <v>16</v>
       </c>
       <c r="H86" s="17" t="s">
-        <v>187</v>
+        <v>232</v>
       </c>
       <c r="I86" s="17"/>
       <c r="J86" s="17"/>
@@ -7670,13 +7994,13 @@
       <c r="C87" s="17"/>
       <c r="D87" s="17"/>
       <c r="E87" s="17" t="s">
-        <v>188</v>
+        <v>233</v>
       </c>
       <c r="F87" s="17"/>
       <c r="G87" s="19"/>
       <c r="H87" s="17"/>
       <c r="I87" s="17" t="s">
-        <v>189</v>
+        <v>234</v>
       </c>
       <c r="J87" s="17"/>
       <c r="K87" s="17"/>
@@ -7692,7 +8016,7 @@
       <c r="F88" s="17"/>
       <c r="G88" s="19"/>
       <c r="H88" s="17" t="s">
-        <v>190</v>
+        <v>235</v>
       </c>
       <c r="I88" s="17"/>
       <c r="J88" s="17"/>
@@ -7705,14 +8029,14 @@
       <c r="B89" s="15"/>
       <c r="C89" s="17"/>
       <c r="D89" s="17" t="s">
-        <v>191</v>
+        <v>236</v>
       </c>
       <c r="E89" s="17"/>
       <c r="F89" s="17"/>
       <c r="G89" s="19"/>
       <c r="H89" s="17"/>
       <c r="I89" s="17" t="s">
-        <v>192</v>
+        <v>237</v>
       </c>
       <c r="J89" s="17"/>
       <c r="K89" s="17"/>
@@ -7724,14 +8048,14 @@
       <c r="B90" s="15"/>
       <c r="C90" s="17"/>
       <c r="D90" s="17" t="s">
-        <v>193</v>
+        <v>238</v>
       </c>
       <c r="E90" s="17"/>
       <c r="F90" s="17"/>
       <c r="G90" s="19"/>
       <c r="H90" s="17"/>
       <c r="I90" s="17" t="s">
-        <v>194</v>
+        <v>239</v>
       </c>
       <c r="J90" s="17"/>
       <c r="K90" s="17"/>
@@ -7752,7 +8076,7 @@
       <c r="K91" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="175">
+  <mergeCells count="182">
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="A4:K4"/>
@@ -7787,28 +8111,28 @@
     <mergeCell ref="D18:F18"/>
     <mergeCell ref="I18:K18"/>
     <mergeCell ref="A19:B19"/>
-    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="C19:E19"/>
     <mergeCell ref="I19:K19"/>
     <mergeCell ref="A20:B20"/>
-    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="C20:E20"/>
     <mergeCell ref="I20:K20"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="A24:B24"/>
-    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="C24:E24"/>
     <mergeCell ref="G24:G29"/>
     <mergeCell ref="I24:K24"/>
     <mergeCell ref="A25:B25"/>
-    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="C25:E25"/>
     <mergeCell ref="I25:K25"/>
     <mergeCell ref="A26:B26"/>
-    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="C26:E26"/>
     <mergeCell ref="I26:K26"/>
     <mergeCell ref="A27:B27"/>
-    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="C27:E27"/>
     <mergeCell ref="I27:K27"/>
     <mergeCell ref="A28:B28"/>
-    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="C28:E28"/>
     <mergeCell ref="I28:K28"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="A33:B33"/>
@@ -7849,15 +8173,21 @@
     <mergeCell ref="A47:B47"/>
     <mergeCell ref="A49:B49"/>
     <mergeCell ref="A50:B50"/>
-    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C50:E50"/>
     <mergeCell ref="G50:G55"/>
+    <mergeCell ref="I50:K50"/>
     <mergeCell ref="A51:B51"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="I51:K51"/>
     <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="I52:K52"/>
     <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="H53:J53"/>
     <mergeCell ref="A54:B54"/>
-    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="I54:K54"/>
     <mergeCell ref="A55:B55"/>
     <mergeCell ref="E55:F55"/>
     <mergeCell ref="A58:B58"/>
@@ -7901,6 +8231,7 @@
     <mergeCell ref="G77:G82"/>
     <mergeCell ref="I77:K77"/>
     <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:E78"/>
     <mergeCell ref="I78:K78"/>
     <mergeCell ref="A79:B79"/>
     <mergeCell ref="C79:E79"/>
